--- a/GeoJSON-spor-forenklet-modellCircle.xlsx
+++ b/GeoJSON-spor-forenklet-modellCircle.xlsx
@@ -466,11 +466,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4282, "geometry": {"type": "LineString", "coordinates": [[8.634514523178431, 58.65544975224792], [8.638850666692907, 58.65372574235415], [8.653579962148692, 58.65495138313357], [8.672263606251123, 58.64752489265395], [8.67454164731962, 58.644094462683455], [8.680177678546597, 58.642218226180916], [8.681911813418113, 58.634524723824406], [8.701612012674973, 58.62154743312897], [8.706456975348257, 58.61616579718471], [8.706996665565885, 58.605548681537876], [8.714008021322682, 58.590004608955915], [8.709434575807457, 58.579857543412295], [8.697308631264402, 58.57124514979783], [8.690534566052987, 58.562203338378424], [8.678815945211491, 58.55535578119181], [8.673235139802578, 58.54900896781795], [8.672092711116834, 58.54290305078533], [8.650731221578472, 58.52677521171176], [8.642727384424585, 58.51787248256328], [8.643164086249428, 58.515658703312425], [8.650196581484705, 58.51378019346633], [8.65144112494248, 58.511466016202085], [8.642783909014064, 58.50105880592146], [8.6287652532131, 58.49060056306159], [8.61883690642233, 58.470650304857195], [8.627119515601253, 58.46761716906809], [8.638388489155211, 58.47022486321872], [8.646178658514508, 58.46833981703179], [8.653609545774506, 58.46422547545713], [8.663135004422339, 58.46857631465518], [8.67500347554075, 58.46925844257935], [8.679586677884428, 58.46764872784928], [8.681014131295557, 58.46289381802775], [8.684585817876073, 58.4615601004089], [8.692773746029848, 58.46365253228831], [8.69962597713866, 58.463635078622104], [8.706163476826918, 58.46594327298111], [8.722630674880458, 58.466179499299564], [8.730216025787191, 58.46387495972987], [8.763209036654546, 58.46732268561313], [8.773799150502114, 58.46261253327027]]}, "properties": {"OBJECTID": 4282, "Banekortnavn": "ADLB", "Banestatus": "I", "Banenavn": "Arendalsbanen", "GlobalID": "{F962A823-B43E-4A0B-90D1-7B49E9FE5313}", "Shape.STLength()": 35442.87107076139}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[8.634514523178431, 58.65544975224792], [8.638850666692907, 58.65372574235415], [8.653579962148692, 58.65495138313357], [8.672263606251123, 58.64752489265395], [8.67454164731962, 58.644094462683455], [8.680177678546597, 58.642218226180916], [8.681911813418113, 58.634524723824406], [8.701612012674973, 58.62154743312897], [8.706456975348257, 58.61616579718471], [8.706996665565885, 58.605548681537876], [8.714008021322682, 58.590004608955915], [8.709434575807457, 58.579857543412295], [8.697308631264402, 58.57124514979783], [8.690534566052987, 58.562203338378424], [8.678815945211491, 58.55535578119181], [8.673235139802578, 58.54900896781795], [8.672092711116834, 58.54290305078533], [8.650731221578472, 58.52677521171176], [8.642727384424585, 58.51787248256328], [8.643164086249428, 58.515658703312425], [8.650196581484705, 58.51378019346633], [8.65144112494248, 58.511466016202085], [8.642783909014064, 58.50105880592146], [8.6287652532131, 58.49060056306159], [8.61883690642233, 58.470650304857195], [8.627119515601253, 58.46761716906809], [8.638388489155211, 58.47022486321872], [8.646178658514508, 58.46833981703179], [8.653609545774506, 58.46422547545713], [8.663135004422339, 58.46857631465518], [8.67500347554075, 58.46925844257935], [8.679586677884428, 58.46764872784928], [8.681014131295557, 58.46289381802775], [8.684585817876073, 58.4615601004089], [8.692773746029848, 58.46365253228831], [8.69962597713866, 58.463635078622104], [8.706163476826918, 58.46594327298111], [8.722630674880458, 58.466179499299564], [8.730216025787191, 58.46387495972987], [8.763209036654546, 58.46732268561313], [8.773799150502114, 58.46261253327027]]}, "properties": {"Banenavn": "Arendalsbanen"}}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1927</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4285, "geometry": {"type": "LineString", "coordinates": [[10.760076314155867, 59.90099420904959], [10.771805890155083, 59.90573778450814], [10.80355934720143, 59.90587644342124], [10.821290724277524, 59.90889178535482], [10.828323401189532, 59.9140217470115], [10.834167548845855, 59.9267096984614], [10.842679264808309, 59.93654594367019], [10.866315336971356, 59.93956663021247], [10.883401415451436, 59.947694200356985]]}, "properties": {"OBJECTID": 4285, "Banekortnavn": "ALLB", "Banestatus": "I", "Banenavn": "Godssporet Alnabru-Loenga", "GlobalID": "{C2E589B6-8F7F-406F-B5A4-1A08BF3BC9AF}", "Shape.STLength()": 9683.647717193322}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.760076314155867, 59.90099420904959], [10.771805890155083, 59.90573778450814], [10.80355934720143, 59.90587644342124], [10.821290724277524, 59.90889178535482], [10.828323401189532, 59.9140217470115], [10.834167548845855, 59.9267096984614], [10.842679264808309, 59.93654594367019], [10.866315336971356, 59.93956663021247], [10.883401415451436, 59.947694200356985]]}, "properties": {"Banenavn": "Godssporet Alnabru-Loenga"}}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>662</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4286, "geometry": {"type": "LineString", "coordinates": [[10.781902383276922, 59.93810475064052], [10.783498568404383, 59.93291754668911], [10.789950820082042, 59.929477947808266], [10.82803714155115, 59.925223943639544], [10.833485465126117, 59.92623651080885], [10.84371794612205, 59.937426449704105], [10.861741530458218, 59.94103708995735]]}, "properties": {"OBJECTID": 4286, "Banekortnavn": "ALNB", "Banestatus": "I", "Banenavn": "Alnabanen", "GlobalID": "{AC8C1B83-66FE-4E69-9218-CC777E97C85A}", "Shape.STLength()": 6072.901468347865}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.781902383276922, 59.93810475064052], [10.783498568404383, 59.93291754668911], [10.789950820082042, 59.929477947808266], [10.82803714155115, 59.925223943639544], [10.833485465126117, 59.92623651080885], [10.84371794612205, 59.937426449704105], [10.861741530458218, 59.94103708995735]]}, "properties": {"Banenavn": "Alnabanen"}}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>567</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
@@ -520,11 +520,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4287, "geometry": {"type": "LineString", "coordinates": [[10.643241516104188, 59.91410866234088], [10.610653640144914, 59.91439640995054], [10.574526069656812, 59.90965067147012], [10.562045436507008, 59.90620655397186], [10.547656349017114, 59.89913201109425], [10.521776968169132, 59.891736397540576], [10.505080263786473, 59.89037211479077], [10.482514121467617, 59.88513466135308], [10.474737499308015, 59.88049169088787], [10.466801333953237, 59.87105416297162], [10.448825603061044, 59.858855009812395], [10.439815814298443, 59.8455893012461], [10.437623182487618, 59.83606999906344], [10.425403064328815, 59.82550658738363]]}, "properties": {"OBJECTID": 4287, "Banekortnavn": "ASRB", "Banestatus": "I", "Banenavn": "Askerbanen", "GlobalID": "{BBF3BE7B-5521-47F2-A413-D234AD527DCB}", "Shape.STLength()": 17336.788054340093}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.643241516104188, 59.91410866234088], [10.610653640144914, 59.91439640995054], [10.574526069656812, 59.90965067147012], [10.562045436507008, 59.90620655397186], [10.547656349017114, 59.89913201109425], [10.521776968169132, 59.891736397540576], [10.505080263786473, 59.89037211479077], [10.482514121467617, 59.88513466135308], [10.474737499308015, 59.88049169088787], [10.466801333953237, 59.87105416297162], [10.448825603061044, 59.858855009812395], [10.439815814298443, 59.8455893012461], [10.437623182487618, 59.83606999906344], [10.425403064328815, 59.82550658738363]]}, "properties": {"Banenavn": "Askerbanen"}}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>856</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6">
@@ -538,11 +538,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4288, "geometry": {"type": "LineString", "coordinates": [[9.323225628571533, 59.41697078259566], [9.324154800124983, 59.41355207589873], [9.330055326844636, 59.4116187761401], [9.331686308550946, 59.409352094981465], [9.320306774260414, 59.402804435730914], [9.320199974698195, 59.39490009307166], [9.33336464969287, 59.38269953171712], [9.344569408938307, 59.378875576152495], [9.351916742876474, 59.374120077409515], [9.351550554629434, 59.36973270574008], [9.356516372913651, 59.36377944384379], [9.354932806465298, 59.360414471817926], [9.346745444472806, 59.35790748258721], [9.34841019887389, 59.34640439399603], [9.344953036024675, 59.33738511336903], [9.35541244255995, 59.33186927208471], [9.34982193468704, 59.32149152581032], [9.35416398278833, 59.31398961314742], [9.359977792535753, 59.30999675960569], [9.3740698136817, 59.30734487730915], [9.381086315608652, 59.30943599664264], [9.399558609190867, 59.30889186683309], [9.426450447198366, 59.31269242402933], [9.440434043916875, 59.311297156766614], [9.45053232822942, 59.313549569552116], [9.455661222372564, 59.31005553459203], [9.46480408554051, 59.30982441853922], [9.469694695191317, 59.30667040152078], [9.476775689845958, 59.30540234030174], [9.48132459257088, 59.301390157448665], [9.493157929460892, 59.298259883834824], [9.504862659778253, 59.29314759098243], [9.50774395062672, 59.289829177486034], [9.522451441605593, 59.285065365786004], [9.540347857514343, 59.263451741861374], [9.549040783374354, 59.25678715002639], [9.571511017208339, 59.25380428447375], [9.576832732620902, 59.24973006078402], [9.594164745784406, 59.22793202342056], [9.609206818848378, 59.214062002950115], [9.629289862506006, 59.18414918592679], [9.639977579557202, 59.17471643859069], [9.651644129600237, 59.15716318768176], [9.6602513743732, 59.14927112819014], [9.659902757421888, 59.138270610688245], [9.687877307797471, 59.12165338471626], [9.692462030016015, 59.12164832332659], [9.704092525305668, 59.12618033110847]]}, "properties": {"OBJECTID": 4288, "Banekortnavn": "BRAB", "Banestatus": "I", "Banenavn": "Bratsbergbanen", "GlobalID": "{59F925C5-51DA-4BE9-B380-8852A7B7F41A}", "Shape.STLength()": 46995.63009682785}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.323225628571533, 59.41697078259566], [9.324154800124983, 59.41355207589873], [9.330055326844636, 59.4116187761401], [9.331686308550946, 59.409352094981465], [9.320306774260414, 59.402804435730914], [9.320199974698195, 59.39490009307166], [9.33336464969287, 59.38269953171712], [9.344569408938307, 59.378875576152495], [9.351916742876474, 59.374120077409515], [9.351550554629434, 59.36973270574008], [9.356516372913651, 59.36377944384379], [9.354932806465298, 59.360414471817926], [9.346745444472806, 59.35790748258721], [9.34841019887389, 59.34640439399603], [9.344953036024675, 59.33738511336903], [9.35541244255995, 59.33186927208471], [9.34982193468704, 59.32149152581032], [9.35416398278833, 59.31398961314742], [9.359977792535753, 59.30999675960569], [9.3740698136817, 59.30734487730915], [9.381086315608652, 59.30943599664264], [9.399558609190867, 59.30889186683309], [9.426450447198366, 59.31269242402933], [9.440434043916875, 59.311297156766614], [9.45053232822942, 59.313549569552116], [9.455661222372564, 59.31005553459203], [9.46480408554051, 59.30982441853922], [9.469694695191317, 59.30667040152078], [9.476775689845958, 59.30540234030174], [9.48132459257088, 59.301390157448665], [9.493157929460892, 59.298259883834824], [9.504862659778253, 59.29314759098243], [9.50774395062672, 59.289829177486034], [9.522451441605593, 59.285065365786004], [9.540347857514343, 59.263451741861374], [9.549040783374354, 59.25678715002639], [9.571511017208339, 59.25380428447375], [9.576832732620902, 59.24973006078402], [9.594164745784406, 59.22793202342056], [9.609206818848378, 59.214062002950115], [9.629289862506006, 59.18414918592679], [9.639977579557202, 59.17471643859069], [9.651644129600237, 59.15716318768176], [9.6602513743732, 59.14927112819014], [9.659902757421888, 59.138270610688245], [9.687877307797471, 59.12165338471626], [9.692462030016015, 59.12164832332659], [9.704092525305668, 59.12618033110847]]}, "properties": {"Banenavn": "Bratsbergbanen"}}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2204</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="7">
@@ -556,11 +556,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4289, "geometry": {"type": "LineString", "coordinates": [[9.694539325156692, 59.122710073011056], [9.701510781177626, 59.12415110293378], [9.705529589111844, 59.11841529575978], [9.696767488745504, 59.1090999501306], [9.696033550618282, 59.104627672429245], [9.685448543975099, 59.09835845969002], [9.692587599095374, 59.091155298826315], [9.6975883048928, 59.081717581342694], [9.68889780284121, 59.075389145160656], [9.688659093606812, 59.056788538921914]]}, "properties": {"OBJECTID": 4289, "Banekortnavn": "BREB", "Banestatus": "I", "Banenavn": "Brevikbanen", "GlobalID": "{0518F3F8-20AB-4F27-B9AE-D9A852B3D440}", "Shape.STLength()": 8609.747486811752}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.694539325156692, 59.122710073011056], [9.701510781177626, 59.12415110293378], [9.705529589111844, 59.11841529575978], [9.696767488745504, 59.1090999501306], [9.696033550618282, 59.104627672429245], [9.685448543975099, 59.09835845969002], [9.692587599095374, 59.091155298826315], [9.6975883048928, 59.081717581342694], [9.68889780284121, 59.075389145160656], [9.688659093606812, 59.056788538921914]]}, "properties": {"Banenavn": "Brevikbanen"}}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>683</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8">
@@ -574,11 +574,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4290, "geometry": {"type": "LineString", "coordinates": [[9.688491164380347, 59.07301910279277], [9.691224457375357, 59.0690151818645], [9.697597002449573, 59.06684128590445], [9.699536291296456, 59.063982917846225]]}, "properties": {"OBJECTID": 4290, "Banekortnavn": "BREB_TAK", "Banestatus": "I", "Banenavn": "Brevikbanen Sidespor Tangenkaia", "GlobalID": "{A5BD3DD0-E0CA-4284-849E-4BC4C94E53B7}", "Shape.STLength()": 1248.0637285735963}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.688491164380347, 59.07301910279277], [9.691224457375357, 59.0690151818645], [9.697597002449573, 59.06684128590445], [9.699536291296456, 59.063982917846225]]}, "properties": {"Banenavn": "Brevikbanen Sidespor Tangenkaia"}}</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>466</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4291, "geometry": {"type": "LineString", "coordinates": [[10.232776965895704, 60.166412905451686], [10.222104256776849, 60.16623427142596], [10.206923260221862, 60.17579884008858], [10.195760388998561, 60.178826775492915], [10.188634091245316, 60.18521295914394], [10.169927374195609, 60.190301895329455], [10.163713382344072, 60.19617431924336], [10.151095851909, 60.19884030638771], [10.141629863668499, 60.19744538909642], [10.114546135154125, 60.20569532109274], [10.101396442517656, 60.207190214021004], [10.084053240196136, 60.206233246402554], [10.045146027588434, 60.211403292978446], [10.02876800509364, 60.20820056707658], [9.982991499376828, 60.2084904983624], [9.977076125692006, 60.22145274657656], [9.971016270695337, 60.22750252582575], [9.932365315147596, 60.238332393222905], [9.90767714635332, 60.248116883331825], [9.891174401017373, 60.24885725155824], [9.877883237197322, 60.24737161661901], [9.870775643518199, 60.26053254213405], [9.84834919309842, 60.2616177615021], [9.82377564569617, 60.26903570575178], [9.802896438360666, 60.26889104119775], [9.794824625556526, 60.265733339641116], [9.78951670703714, 60.26557454846036], [9.742239954956997, 60.28889875486319], [9.69432037191307, 60.288882312902864], [9.685786835947397, 60.29462778765873], [9.685832774123439, 60.29997276875146], [9.678695474342321, 60.30922364943226], [9.678250073948522, 60.3188446617495], [9.674779384668055, 60.32497451178332], [9.670165808042844, 60.32798044089161], [9.656993974914812, 60.33054415740627], [9.650067471356616, 60.343247611400486], [9.643341987708961, 60.34644327833354], [9.64720377237762, 60.35069490709523], [9.647237794941006, 60.35571350445043], [9.638051708104252, 60.37082265306823], [9.6283740670607, 60.37415914835455], [9.621434169408353, 60.374777699328064], [9.613352071273322, 60.38113694644221], [9.601537516679283, 60.38436842929178], [9.592236146637813, 60.389059713916836], [9.576264324671934, 60.39310846248061], [9.568720252897052, 60.39719911122398], [9.545070665825154, 60.39989848185739], [9.533380198259492, 60.39431100247101], [9.518985766481425, 60.39421137597737], [9.508265366730276, 60.40078999237558], [9.507278550835704, 60.41137483602565], [9.49922209199661, 60.41953779270295], [9.485803238019168, 60.42758404837511], [9.476709180824441, 60.430193906118355], [9.465428066636777, 60.43936057382871], [9.452710606304835, 60.44266278100478], [9.446873489920566, 60.446492089862694], [9.435559813259877, 60.448571308996975], [9.424628949688124, 60.44696013332008], [9.41367548823918, 60.44231321697629], [9.40998424674838, 60.43806975642808], [9.39135217163488, 60.43040607961993], [9.366872799898315, 60.43049798263375], [9.353724820996298, 60.43321072528096], [9.338509551797534, 60.42831021691738], [9.332829396904353, 60.428489912755836], [9.326095332161112, 60.43503842044365], [9.325312458881685, 60.44365228959548], [9.313005638812895, 60.45062607647553], [9.286516971179267, 60.449785694980456], [9.26478785429093, 60.45944859453823], [9.25908915717308, 60.471154063663874], [9.254072914902503, 60.47460963399346], [9.24504595526209, 60.476705709183214], [9.236600092750008, 60.475069781724464], [9.23242962017422, 60.47592155571997], [9.229628182671773, 60.48326591156078], [9.222890329136494, 60.488953002241196], [9.211148164287254, 60.49077348127598], [9.194570933686393, 60.48974845287745], [9.181114147798937, 60.493225060915094], [9.176429937452212, 60.49608994592145], [9.174629469291991, 60.50848305046844], [9.169355394602892, 60.519339115619324], [9.170454208844653, 60.52497626026032], [9.155678992980928, 60.54891001202948], [9.101321001730115, 60.58457487564821], [9.088581820100325, 60.60005048947824], [9.075609537590031, 60.60621613898974], [9.070053863314623, 60.616871446607995], [9.061337651275807, 60.623217005572236], [9.06381765197797, 60.62903251077588], [9.06281214521587, 60.63723915753342], [9.045500026565238, 60.656837084135255], [9.033260592977904, 60.66589931339103], [9.013219531909613, 60.69163489054409], [9.00013058725207, 60.69743769059283], [8.986002341875178, 60.70018845326435], [8.968568602396488, 60.69873020429144], [8.95211398647427, 60.695500234689675], [8.941761946908263, 60.69600834922669], [8.906567889308311, 60.68769084457215], [8.889088690717545, 60.68164640717188], [8.873749184897589, 60.68089481094206], [8.866055810276874, 60.68212662198273], [8.829363672267851, 60.6790540029604], [8.78611913261578, 60.663332480769604], [8.757544976153495, 60.665620878611996], [8.746349489358666, 60.66061641088195], [8.705074343418245, 60.65888603942896], [8.69898972045611, 60.6565778832355], [8.69096856691815, 60.64888807266346], [8.676521724217677, 60.64602905666161], [8.652924321213225, 60.64434746230334], [8.623193353231962, 60.6494763085896], [8.602555181182407, 60.6461920100477], [8.579547653309039, 60.630527121145285], [8.541208564151422, 60.622267597689586], [8.530880004479473, 60.613609927694306], [8.517519239880158, 60.609383324230116], [8.481692745919933, 60.591743397735264], [8.453225128771912, 60.58134360873738], [8.437610159050475, 60.572680023885965], [8.424842473198687, 60.57028745845986], [8.406935536204553, 60.56943191490737], [8.382381165650113, 60.57262848134089], [8.371840434336221, 60.57540210425961], [8.326900954623712, 60.57893175111783], [8.31912234627282, 60.57589110475954], [8.310488635328381, 60.56651713734368], [8.300593173738122, 60.56249841913748], [8.294428422220426, 60.55682935931551], [8.284045333152685, 60.55658359780131], [8.272285090394346, 60.55307936049233], [8.242564500336984, 60.54848308449802], [8.22064533594003, 60.535952591412865], [8.212303766489802, 60.53635404139638], [8.202711873423869, 60.53348895114297], [8.186148072285976, 60.53144805012404], [8.154628717204517, 60.532496204461346], [8.141792626032162, 60.53089911909463], [8.13575127807801, 60.52547020285089], [8.115928640092356, 60.52064086096998], [8.100268254830295, 60.51389223139723], [8.093565743295743, 60.5032540093365], [8.072966474373953, 60.49722244307779], [8.06926782107721, 60.49236732656758], [8.058906569368439, 60.48832134903771], [8.04172541752023, 60.49849285261405], [8.031524744669959, 60.49809479464872], [8.024210655812242, 60.50068428776302], [7.978732997656363, 60.50381299851452], [7.959392326088007, 60.501947112072976], [7.943826489748303, 60.50413333815847], [7.924658180136063, 60.50906422165764], [7.91440888510944, 60.50672590040511], [7.9107311681840935, 60.50293904158596], [7.9063260897527226, 60.50201144916695], [7.888386050549128, 60.50584004274696], [7.876764341009162, 60.51059030348281], [7.863726174926913, 60.512037081651826], [7.857730019447657, 60.51438405560465], [7.843479688437968, 60.51090831846463], [7.835877021626496, 60.511121313402334], [7.828323347094521, 60.51503836217397], [7.818521846638426, 60.52815557213561], [7.811303037679464, 60.532360555192646], [7.806106892012735, 60.53271594571497], [7.799937557243797, 60.52954312587541], [7.788205800221737, 60.530894201901276], [7.767176644027638, 60.5380151522359], [7.76147303333862, 60.546971979102096], [7.750695863361846, 60.551451493917256], [7.7269229742330054, 60.549722520696044], [7.675649201811823, 60.55181442492008], [7.653146035962889, 60.55500293057237], [7.613229430089226, 60.55485245230165], [7.592408230203094, 60.55901168363848], [7.577398315505952, 60.56691048395103], [7.56648494785778, 60.579959068500315], [7.5457384678146715, 60.59175131522705], [7.529588501017162, 60.59624615110122], [7.514836983706885, 60.59692032156212], [7.500241063889802, 60.603111321080256], [7.479504526271753, 60.604879980644164], [7.43998335663749, 60.61470052015461], [7.315761648093159, 60.65325554066636], [7.300577145625322, 60.65304908322458], [7.293296976633789, 60.65505105966019], [7.28473535061105, 60.653405613878476], [7.278241922359234, 60.65690824654996], [7.25995115735513, 60.660593188236916], [7.256505052323324, 60.66274418298399], [7.255962549850588, 60.66695805177274], [7.239703646437306, 60.67164463518658], [7.233859261383365, 60.6800184813898], [7.210295525049558, 60.69361251715446], [7.210294598659865, 60.70025383512355], [7.215725090932158, 60.707727508021065], [7.213049443441094, 60.71720479601357], [7.200386237799452, 60.71885116753892], [7.196795197765272, 60.722624603594184], [7.180342315186933, 60.729978530077915], [7.1707789977486405, 60.729171615777084], [7.155391849092829, 60.73121360828331], [7.145065595550882, 60.73482912929844], [7.141311816901102, 60.7381569556493], [7.128376364433008, 60.739590701093036], [7.123251804720199, 60.73854269167216], [7.122862528163646, 60.73442512501289], [7.119694880180491, 60.73295594035976], [7.00338245176122, 60.724344670650325], [6.987905395766979, 60.71188664456058], [6.972902181188291, 60.707433891376155], [6.966006964170576, 60.70356437646325], [6.949403102412056, 60.69945993376915], [6.944974712619234, 60.69996850276094], [6.934177503714064, 60.706565858466625], [6.911821085228102, 60.706104271595954], [6.898309825823247, 60.709034739914415], [6.864868976952604, 60.695351506540575], [6.855362858805541, 60.69492643577214], [6.850143959826599, 60.697866888773675], [6.845733952099624, 60.698067470513266], [6.831928127030516, 60.6885389371119], [6.810384809851679, 60.68467473349397], [6.806993579082661, 60.680712990041336], [6.807458988813622, 60.67149319582898], [6.800787150306461, 60.66797428451253], [6.789022395124999, 60.6697861509529], [6.767837589059348, 60.66797039253914], [6.74853826967591, 60.67663024907005], [6.726214007819425, 60.67832354988258], [6.717890175512318, 60.67759452001264], [6.712510811991793, 60.673633075772536], [6.704213256724189, 60.67184670271108], [6.698096267569823, 60.675780839107496], [6.6744940785510005, 60.68385729397091], [6.667358582407977, 60.680726758137205], [6.654946567632183, 60.67825829506831], [6.641138789796509, 60.68044061976029], [6.621474651920347, 60.67910902107006], [6.607692767242098, 60.68052515207991], [6.575941670870398, 60.679456123033795], [6.558561957813456, 60.67465921121638], [6.5565653835266255, 60.668682685625605], [6.535857201873292, 60.66684053656363], [6.533340265762468, 60.66035538932734], [6.5362963431924115, 60.65667232222052], [6.535711748251248, 60.65207338091493], [6.530873460373179, 60.649132093718904], [6.5233471222847, 60.648968027715874], [6.505044488156311, 60.6447340501541], [6.4987060879039875, 60.644816289061346], [6.453393812006387, 60.63692105132187], [6.440867003373562, 60.63993492460041], [6.42597670890064, 60.630279774398005], [6.402544624076074, 60.62838234695444], [6.380245192671701, 60.62245276517723], [6.371181157528102, 60.622617506247956], [6.329137413386014, 60.628657511236675], [6.293542744486305, 60.62912799767997], [6.273208578319175, 60.63258681110816], [6.244733371215603, 60.630313356464505], [6.2317400087030235, 60.63343040877465], [6.20874858479484, 60.631526607671866], [6.200177079891608, 60.635166426721476], [6.189328207082586, 60.63677242005635], [6.171911314908786, 60.636898767883125], [6.149040739450856, 60.64434443004269], [6.124368492966097, 60.646777612482055], [6.106090035924634, 60.64705204983334], [6.075581654272024, 60.64060517168142], [6.060877594013358, 60.63936311320596], [6.02625785796286, 60.641361159338935], [6.011570528377372, 60.64749067379264], [5.989626718517696, 60.64496490658701], [5.977448419153662, 60.64620510987165], [5.970824656466973, 60.644238967928494], [5.9662806705947515, 60.638494610414156], [5.948544042539807, 60.636628862442876], [5.914571613122199, 60.623567602407135], [5.827706220865885, 60.601522814515356], [5.817491832374157, 60.59327273169581], [5.817705477276412, 60.58734092036992], [5.803687057284369, 60.57996635996546], [5.78048911664703, 60.5810578699575], [5.770963076214268, 60.57881560037583], [5.762195388863644, 60.574631641084856], [5.748164865712313, 60.56041096915168], [5.743675658609509, 60.55863823027799], [5.721341343466638, 60.53921421681432], [5.7279952704620065, 60.50359781516203], [5.73145994507705, 60.500586448158884], [5.734835046060803, 60.4897891319311], [5.733937903710266, 60.480380972642706], [5.744657878459008, 60.471276441388866], [5.739105277047311, 60.45871431081613], [5.7355275211348955, 60.456337641762346], [5.723002323858711, 60.45271615551603], [5.697138589737818, 60.45133222896321], [5.647094534139056, 60.44296482769795], [5.63545521784852, 60.43832908077009], [5.622390546872568, 60.42830255067231], [5.600889687720135, 60.42927508954515], [5.592499187974696, 60.42700662771411], [5.5792449079199224, 60.43049507619855], [5.561304303323864, 60.42296779865692], [5.540967115581046, 60.42270437854566], [5.528515450823241, 60.42042726354426], [5.510364741388732, 60.423986835376965], [5.47374224623624, 60.4221998998674], [5.458787256358166, 60.418168610555526], [5.3853049187609185, 60.38558242822681], [5.368040602326295, 60.38028256452032], [5.357715252886673, 60.38081765383046], [5.333260370593801, 60.39020473809737]]}, "properties": {"OBJECTID": 4291, "Banekortnavn": "BRGB", "Banestatus": "I", "Banenavn": "Bergensbanen", "GlobalID": "{D92DFF3C-099F-4DB1-A187-EA301B3B540B}", "Shape.STLength()": 365629.6978631873}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.232776965895704, 60.166412905451686], [10.222104256776849, 60.16623427142596], [10.206923260221862, 60.17579884008858], [10.195760388998561, 60.178826775492915], [10.188634091245316, 60.18521295914394], [10.169927374195609, 60.190301895329455], [10.163713382344072, 60.19617431924336], [10.151095851909, 60.19884030638771], [10.141629863668499, 60.19744538909642], [10.114546135154125, 60.20569532109274], [10.101396442517656, 60.207190214021004], [10.084053240196136, 60.206233246402554], [10.045146027588434, 60.211403292978446], [10.02876800509364, 60.20820056707658], [9.982991499376828, 60.2084904983624], [9.977076125692006, 60.22145274657656], [9.971016270695337, 60.22750252582575], [9.932365315147596, 60.238332393222905], [9.90767714635332, 60.248116883331825], [9.891174401017373, 60.24885725155824], [9.877883237197322, 60.24737161661901], [9.870775643518199, 60.26053254213405], [9.84834919309842, 60.2616177615021], [9.82377564569617, 60.26903570575178], [9.802896438360666, 60.26889104119775], [9.794824625556526, 60.265733339641116], [9.78951670703714, 60.26557454846036], [9.742239954956997, 60.28889875486319], [9.69432037191307, 60.288882312902864], [9.685786835947397, 60.29462778765873], [9.685832774123439, 60.29997276875146], [9.678695474342321, 60.30922364943226], [9.678250073948522, 60.3188446617495], [9.674779384668055, 60.32497451178332], [9.670165808042844, 60.32798044089161], [9.656993974914812, 60.33054415740627], [9.650067471356616, 60.343247611400486], [9.643341987708961, 60.34644327833354], [9.64720377237762, 60.35069490709523], [9.647237794941006, 60.35571350445043], [9.638051708104252, 60.37082265306823], [9.6283740670607, 60.37415914835455], [9.621434169408353, 60.374777699328064], [9.613352071273322, 60.38113694644221], [9.601537516679283, 60.38436842929178], [9.592236146637813, 60.389059713916836], [9.576264324671934, 60.39310846248061], [9.568720252897052, 60.39719911122398], [9.545070665825154, 60.39989848185739], [9.533380198259492, 60.39431100247101], [9.518985766481425, 60.39421137597737], [9.508265366730276, 60.40078999237558], [9.507278550835704, 60.41137483602565], [9.49922209199661, 60.41953779270295], [9.485803238019168, 60.42758404837511], [9.476709180824441, 60.430193906118355], [9.465428066636777, 60.43936057382871], [9.452710606304835, 60.44266278100478], [9.446873489920566, 60.446492089862694], [9.435559813259877, 60.448571308996975], [9.424628949688124, 60.44696013332008], [9.41367548823918, 60.44231321697629], [9.40998424674838, 60.43806975642808], [9.39135217163488, 60.43040607961993], [9.366872799898315, 60.43049798263375], [9.353724820996298, 60.43321072528096], [9.338509551797534, 60.42831021691738], [9.332829396904353, 60.428489912755836], [9.326095332161112, 60.43503842044365], [9.325312458881685, 60.44365228959548], [9.313005638812895, 60.45062607647553], [9.286516971179267, 60.449785694980456], [9.26478785429093, 60.45944859453823], [9.25908915717308, 60.471154063663874], [9.254072914902503, 60.47460963399346], [9.24504595526209, 60.476705709183214], [9.236600092750008, 60.475069781724464], [9.23242962017422, 60.47592155571997], [9.229628182671773, 60.48326591156078], [9.222890329136494, 60.488953002241196], [9.211148164287254, 60.49077348127598], [9.194570933686393, 60.48974845287745], [9.181114147798937, 60.493225060915094], [9.176429937452212, 60.49608994592145], [9.174629469291991, 60.50848305046844], [9.169355394602892, 60.519339115619324], [9.170454208844653, 60.52497626026032], [9.155678992980928, 60.54891001202948], [9.101321001730115, 60.58457487564821], [9.088581820100325, 60.60005048947824], [9.075609537590031, 60.60621613898974], [9.070053863314623, 60.616871446607995], [9.061337651275807, 60.623217005572236], [9.06381765197797, 60.62903251077588], [9.06281214521587, 60.63723915753342], [9.045500026565238, 60.656837084135255], [9.033260592977904, 60.66589931339103], [9.013219531909613, 60.69163489054409], [9.00013058725207, 60.69743769059283], [8.986002341875178, 60.70018845326435], [8.968568602396488, 60.69873020429144], [8.95211398647427, 60.695500234689675], [8.941761946908263, 60.69600834922669], [8.906567889308311, 60.68769084457215], [8.889088690717545, 60.68164640717188], [8.873749184897589, 60.68089481094206], [8.866055810276874, 60.68212662198273], [8.829363672267851, 60.6790540029604], [8.78611913261578, 60.663332480769604], [8.757544976153495, 60.665620878611996], [8.746349489358666, 60.66061641088195], [8.705074343418245, 60.65888603942896], [8.69898972045611, 60.6565778832355], [8.69096856691815, 60.64888807266346], [8.676521724217677, 60.64602905666161], [8.652924321213225, 60.64434746230334], [8.623193353231962, 60.6494763085896], [8.602555181182407, 60.6461920100477], [8.579547653309039, 60.630527121145285], [8.541208564151422, 60.622267597689586], [8.530880004479473, 60.613609927694306], [8.517519239880158, 60.609383324230116], [8.481692745919933, 60.591743397735264], [8.453225128771912, 60.58134360873738], [8.437610159050475, 60.572680023885965], [8.424842473198687, 60.57028745845986], [8.406935536204553, 60.56943191490737], [8.382381165650113, 60.57262848134089], [8.371840434336221, 60.57540210425961], [8.326900954623712, 60.57893175111783], [8.31912234627282, 60.57589110475954], [8.310488635328381, 60.56651713734368], [8.300593173738122, 60.56249841913748], [8.294428422220426, 60.55682935931551], [8.284045333152685, 60.55658359780131], [8.272285090394346, 60.55307936049233], [8.242564500336984, 60.54848308449802], [8.22064533594003, 60.535952591412865], [8.212303766489802, 60.53635404139638], [8.202711873423869, 60.53348895114297], [8.186148072285976, 60.53144805012404], [8.154628717204517, 60.532496204461346], [8.141792626032162, 60.53089911909463], [8.13575127807801, 60.52547020285089], [8.115928640092356, 60.52064086096998], [8.100268254830295, 60.51389223139723], [8.093565743295743, 60.5032540093365], [8.072966474373953, 60.49722244307779], [8.06926782107721, 60.49236732656758], [8.058906569368439, 60.48832134903771], [8.04172541752023, 60.49849285261405], [8.031524744669959, 60.49809479464872], [8.024210655812242, 60.50068428776302], [7.978732997656363, 60.50381299851452], [7.959392326088007, 60.501947112072976], [7.943826489748303, 60.50413333815847], [7.924658180136063, 60.50906422165764], [7.91440888510944, 60.50672590040511], [7.9107311681840935, 60.50293904158596], [7.9063260897527226, 60.50201144916695], [7.888386050549128, 60.50584004274696], [7.876764341009162, 60.51059030348281], [7.863726174926913, 60.512037081651826], [7.857730019447657, 60.51438405560465], [7.843479688437968, 60.51090831846463], [7.835877021626496, 60.511121313402334], [7.828323347094521, 60.51503836217397], [7.818521846638426, 60.52815557213561], [7.811303037679464, 60.532360555192646], [7.806106892012735, 60.53271594571497], [7.799937557243797, 60.52954312587541], [7.788205800221737, 60.530894201901276], [7.767176644027638, 60.5380151522359], [7.76147303333862, 60.546971979102096], [7.750695863361846, 60.551451493917256], [7.7269229742330054, 60.549722520696044], [7.675649201811823, 60.55181442492008], [7.653146035962889, 60.55500293057237], [7.613229430089226, 60.55485245230165], [7.592408230203094, 60.55901168363848], [7.577398315505952, 60.56691048395103], [7.56648494785778, 60.579959068500315], [7.5457384678146715, 60.59175131522705], [7.529588501017162, 60.59624615110122], [7.514836983706885, 60.59692032156212], [7.500241063889802, 60.603111321080256], [7.479504526271753, 60.604879980644164], [7.43998335663749, 60.61470052015461], [7.315761648093159, 60.65325554066636], [7.300577145625322, 60.65304908322458], [7.293296976633789, 60.65505105966019], [7.28473535061105, 60.653405613878476], [7.278241922359234, 60.65690824654996], [7.25995115735513, 60.660593188236916], [7.256505052323324, 60.66274418298399], [7.255962549850588, 60.66695805177274], [7.239703646437306, 60.67164463518658], [7.233859261383365, 60.6800184813898], [7.210295525049558, 60.69361251715446], [7.210294598659865, 60.70025383512355], [7.215725090932158, 60.707727508021065], [7.213049443441094, 60.71720479601357], [7.200386237799452, 60.71885116753892], [7.196795197765272, 60.722624603594184], [7.180342315186933, 60.729978530077915], [7.1707789977486405, 60.729171615777084], [7.155391849092829, 60.73121360828331], [7.145065595550882, 60.73482912929844], [7.141311816901102, 60.7381569556493], [7.128376364433008, 60.739590701093036], [7.123251804720199, 60.73854269167216], [7.122862528163646, 60.73442512501289], [7.119694880180491, 60.73295594035976], [7.00338245176122, 60.724344670650325], [6.987905395766979, 60.71188664456058], [6.972902181188291, 60.707433891376155], [6.966006964170576, 60.70356437646325], [6.949403102412056, 60.69945993376915], [6.944974712619234, 60.69996850276094], [6.934177503714064, 60.706565858466625], [6.911821085228102, 60.706104271595954], [6.898309825823247, 60.709034739914415], [6.864868976952604, 60.695351506540575], [6.855362858805541, 60.69492643577214], [6.850143959826599, 60.697866888773675], [6.845733952099624, 60.698067470513266], [6.831928127030516, 60.6885389371119], [6.810384809851679, 60.68467473349397], [6.806993579082661, 60.680712990041336], [6.807458988813622, 60.67149319582898], [6.800787150306461, 60.66797428451253], [6.789022395124999, 60.6697861509529], [6.767837589059348, 60.66797039253914], [6.74853826967591, 60.67663024907005], [6.726214007819425, 60.67832354988258], [6.717890175512318, 60.67759452001264], [6.712510811991793, 60.673633075772536], [6.704213256724189, 60.67184670271108], [6.698096267569823, 60.675780839107496], [6.6744940785510005, 60.68385729397091], [6.667358582407977, 60.680726758137205], [6.654946567632183, 60.67825829506831], [6.641138789796509, 60.68044061976029], [6.621474651920347, 60.67910902107006], [6.607692767242098, 60.68052515207991], [6.575941670870398, 60.679456123033795], [6.558561957813456, 60.67465921121638], [6.5565653835266255, 60.668682685625605], [6.535857201873292, 60.66684053656363], [6.533340265762468, 60.66035538932734], [6.5362963431924115, 60.65667232222052], [6.535711748251248, 60.65207338091493], [6.530873460373179, 60.649132093718904], [6.5233471222847, 60.648968027715874], [6.505044488156311, 60.6447340501541], [6.4987060879039875, 60.644816289061346], [6.453393812006387, 60.63692105132187], [6.440867003373562, 60.63993492460041], [6.42597670890064, 60.630279774398005], [6.402544624076074, 60.62838234695444], [6.380245192671701, 60.62245276517723], [6.371181157528102, 60.622617506247956], [6.329137413386014, 60.628657511236675], [6.293542744486305, 60.62912799767997], [6.273208578319175, 60.63258681110816], [6.244733371215603, 60.630313356464505], [6.2317400087030235, 60.63343040877465], [6.20874858479484, 60.631526607671866], [6.200177079891608, 60.635166426721476], [6.189328207082586, 60.63677242005635], [6.171911314908786, 60.636898767883125], [6.149040739450856, 60.64434443004269], [6.124368492966097, 60.646777612482055], [6.106090035924634, 60.64705204983334], [6.075581654272024, 60.64060517168142], [6.060877594013358, 60.63936311320596], [6.02625785796286, 60.641361159338935], [6.011570528377372, 60.64749067379264], [5.989626718517696, 60.64496490658701], [5.977448419153662, 60.64620510987165], [5.970824656466973, 60.644238967928494], [5.9662806705947515, 60.638494610414156], [5.948544042539807, 60.636628862442876], [5.914571613122199, 60.623567602407135], [5.827706220865885, 60.601522814515356], [5.817491832374157, 60.59327273169581], [5.817705477276412, 60.58734092036992], [5.803687057284369, 60.57996635996546], [5.78048911664703, 60.5810578699575], [5.770963076214268, 60.57881560037583], [5.762195388863644, 60.574631641084856], [5.748164865712313, 60.56041096915168], [5.743675658609509, 60.55863823027799], [5.721341343466638, 60.53921421681432], [5.7279952704620065, 60.50359781516203], [5.73145994507705, 60.500586448158884], [5.734835046060803, 60.4897891319311], [5.733937903710266, 60.480380972642706], [5.744657878459008, 60.471276441388866], [5.739105277047311, 60.45871431081613], [5.7355275211348955, 60.456337641762346], [5.723002323858711, 60.45271615551603], [5.697138589737818, 60.45133222896321], [5.647094534139056, 60.44296482769795], [5.63545521784852, 60.43832908077009], [5.622390546872568, 60.42830255067231], [5.600889687720135, 60.42927508954515], [5.592499187974696, 60.42700662771411], [5.5792449079199224, 60.43049507619855], [5.561304303323864, 60.42296779865692], [5.540967115581046, 60.42270437854566], [5.528515450823241, 60.42042726354426], [5.510364741388732, 60.423986835376965], [5.47374224623624, 60.4221998998674], [5.458787256358166, 60.418168610555526], [5.3853049187609185, 60.38558242822681], [5.368040602326295, 60.38028256452032], [5.357715252886673, 60.38081765383046], [5.333260370593801, 60.39020473809737]]}, "properties": {"Banenavn": "Bergensbanen"}}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13099</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="10">
@@ -610,11 +610,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4292, "geometry": {"type": "MultiLineString", "coordinates": [[[11.246593068605545, 60.33919567752482], [11.242779086273103, 60.37426788163823], [11.230568487937312, 60.394088342870376], [11.237759597923954, 60.40015558662916], [11.236187017236368, 60.40559200087512], [11.238936150166484, 60.413629073717985], [11.239288251762071, 60.4337726560172], [11.247260878831872, 60.46676141575323], [11.245232794571882, 60.47526316687574], [11.234516489879987, 60.48600194632481], [11.2317897430717, 60.49568504057807], [11.241937141620632, 60.50973006394876], [11.242288898917131, 60.53567235328157], [11.251819607229642, 60.562357356843904], [11.271013970008624, 60.58168700308069], [11.28502478909837, 60.591087451010424], [11.293541966282374, 60.60123415896298], [11.284737644292353, 60.605444128671635], [11.282018830770026, 60.61007521938495], [11.273699036016025, 60.61248421447551], [11.267585027604648, 60.61904551602524], [11.257126658482859, 60.620915459590506], [11.231579393887367, 60.638259500363255], [11.225330037674459, 60.648285450965496], [11.22440031471583, 60.667721719116656], [11.214943830008146, 60.67717920036399], [11.205246191852652, 60.705459255395546], [11.180279503511116, 60.736360538692715], [11.17518601572704, 60.73837692657165], [11.15719104735332, 60.73965570906077], [11.125353234171582, 60.75234166296519], [11.111998362855648, 60.755915533705476], [11.094256222584322, 60.76954899642304], [11.09350099574272, 60.774957854129006], [11.101176044995741, 60.781391959211646], [11.092476309300473, 60.78852972366084], [11.070380913611483, 60.79356522373567], [11.06087376035397, 60.794019922202246], [11.035279722737313, 60.80099355527932], [11.019213113204907, 60.81090597991993], [11.008433410325308, 60.81465734567121], [11.006424903706376, 60.82122610007659], [10.977089712570626, 60.831749528922515], [10.975899114089414, 60.8363212736472], [10.96608296530165, 60.84039619260993], [10.964023466529197, 60.84677381859892], [10.956343708398173, 60.85259701615494], [10.955852983139602, 60.86565988251593], [10.940349427331187, 60.878691996709385], [10.926498760205567, 60.88563113718845], [10.913296774537054, 60.889076132511576], [10.899694822111389, 60.88711694164689], [10.889960378457479, 60.89023490003864], [10.838343917750839, 60.91622732358199], [10.759793754850403, 60.91632174686862], [10.752249155112283, 60.91368567795511], [10.742346149069494, 60.91256632878374], [10.723840059480935, 60.91288550085334], [10.719789825368027, 60.917342341356], [10.709347936764877, 60.91933546911015], [10.70781796629392, 60.92331242272038], [10.695292427967566, 60.93180063243642], [10.684060138182403, 60.94830381359312], [10.669608546194445, 60.95649042450694], [10.665048937441473, 60.96256009941125], [10.65487657507814, 60.96854453676657], [10.649023279347672, 60.98060768857947], [10.605024939817966, 60.9885566127332], [10.598451429020308, 60.99418697805257], [10.553876607935912, 61.00935842754025], [10.539712322741337, 61.00814623294696], [10.519820324608695, 61.01077087527943], [10.516160293498345, 61.015912893757964], [10.502613025995757, 61.01940976397857], [10.499111407916658, 61.022991576432574], [10.491515511222522, 61.02458052690002], [10.492459700845998, 61.03403850485192], [10.463935618196553, 61.04620800506278], [10.458697476522941, 61.05267229829492], [10.455627997819823, 61.06401412690558], [10.466979383042606, 61.099652440547494], [10.460224334103428, 61.11804508798192], [10.425843613579282, 61.13649143320579], [10.419700481305524, 61.14198710191081], [10.419423831330606, 61.14757945672712], [10.415045584507398, 61.15267851687109], [10.404522501006172, 61.15667367717309], [10.403890311829294, 61.16889975359906], [10.416852687743626, 61.184012734182296], [10.409796168850763, 61.19448238548445], [10.437829926888943, 61.21306881389091], [10.437837016644897, 61.22911731190041], [10.42610428126337, 61.24677460455816], [10.415759361623826, 61.258511477433615], [10.403211567528405, 61.266025373837216], [10.388856650865442, 61.27161998330412], [10.36280928978425, 61.275703881556275], [10.32167975723543, 61.27198355123086], [10.310937349032587, 61.273041302196326], [10.294668094371394, 61.27781096318407], [10.278433606158218, 61.288165682762624], [10.277938055762235, 61.293766335806836], [10.291781546916491, 61.30285981114392], [10.296425209351064, 61.31072393800313], [10.276914933703676, 61.32290796953843], [10.276549902182856, 61.3335486098989], [10.268734100085661, 61.33911664749758], [10.269369706464182, 61.356951881654595], [10.263538251433364, 61.360962802822634], [10.264283999529136, 61.36783725047707], [10.254683131861343, 61.37446535173156], [10.234295917509293, 61.38043450682043], [10.219051977725684, 61.38775395235661], [10.212615865226729, 61.39904056894806], [10.202587274655297, 61.407802638259305], [10.205859138687384, 61.41950329589536], [10.188179129023768, 61.428583246151234], [10.185322058086394, 61.43986647982419], [10.188053199277377, 61.444283924909456], [10.184457417533325, 61.45062854230094], [10.180408973790703, 61.45301465342331], [10.17113557642954, 61.453892485572815], [10.1681697706184, 61.45618999515352], [10.165056042201764, 61.49236869572364], [10.157724630108344, 61.50169631333073], [10.145848021220395, 61.508611413365145], [10.140655327007961, 61.5152452785084], [10.149329122449426, 61.52473104499182], [10.148783736879553, 61.52696878160795], [10.127309761988768, 61.53018423849766], [10.093426818527185, 61.538323222924696], [10.078062057415915, 61.54527187273652], [10.055054932056892, 61.55052450766492], [10.041028885344756, 61.547839544031405], [9.993248330310083, 61.54863058544329], [9.963032872135178, 61.54648672235164], [9.942913738657092, 61.54861778095828], [9.928549325262805, 61.55234072883854], [9.927253927532806, 61.55995642591116], [9.920510473039391, 61.5644222495316], [9.896575520751643, 61.569562013507124], [9.879920355173374, 61.56986349024142], [9.867734587050688, 61.57399773130847], [9.856981462284406, 61.57509488530245], [9.844712758122727, 61.579018118469044], [9.8367641246502, 61.583871230754696], [9.826551759467105, 61.58548021824984], [9.788372001258335, 61.584279945423106], [9.761816314972315, 61.590091517864515], [9.743409697886781, 61.59684026948381], [9.741232893539381, 61.603818732212154], [9.733313149347014, 61.609342466915216], [9.73267077757981, 61.614063133958936], [9.72554574367742, 61.61620229519086], [9.722402547574285, 61.61998803472774], [9.723813920998994, 61.624720678302225], [9.718711274732652, 61.638553106535106], [9.730162499113996, 61.64655055847066], [9.7359514037453, 61.65491265999025], [9.732818351362894, 61.658775310031054], [9.720778674504576, 61.665473082203206], [9.71205811421858, 61.66601497676887], [9.681033314535977, 61.66290161169747], [9.645889312216738, 61.66382033450385], [9.611767760975589, 61.659229828679486], [9.561898812097388, 61.66806873767955], [9.550604643550296, 61.67220958123162], [9.540223501141863, 61.680034715187745], [9.5489508085582, 61.693091049940016], [9.546515834163367, 61.699018018095764], [9.548726651760672, 61.70403677477284], [9.537836000371025, 61.710678890630916], [9.532794617194872, 61.71719275237538], [9.538756688183627, 61.72919328645334], [9.550036882039409, 61.73868332798035], [9.534844409809345, 61.752954742119144], [9.53837425658602, 61.764790911007125], [9.535814235250713, 61.77601682645151], [9.54505484999859, 61.785168685922734], [9.5461896980151, 61.792453299224945], [9.535363607999525, 61.81114755871467], [9.505674183301746, 61.82413755579812], [9.469455848918706, 61.83133935098968], [9.424077712026259, 61.83656454079271], [9.409949477135084, 61.84099225975445], [9.413404464854302, 61.848347922281796], [9.410705157328637, 61.85408219742511], [9.39393199271579, 61.865158103133986], [9.413285221051488, 61.87025639240068], [9.419453408941951, 61.87543031408915], [9.403671226117366, 61.88281385604172], [9.403940373442403, 61.891274917042], [9.396296720733268, 61.89497638116037], [9.37244377601477, 61.90157450941899], [9.353206332045238, 61.917200924952844], [9.336289710071592, 61.91986798209644], [9.308172027478644, 61.92915269805942], [9.298414280228023, 61.945546027525864], [9.273828028761347, 61.952526898999736], [9.25578717382724, 61.96351840458945], [9.253157016576921, 61.973980630290114], [9.257588455219365, 61.98260581782813], [9.253658181717709, 61.99247403546515], [9.243703151665429, 61.99851359012488], [9.228463367483853, 62.003119171403554], [9.224383990343302, 62.010533092598365], [9.213820513200382, 62.017825030641], [9.166916809476927, 62.04072679356843], [9.15096884325021, 62.05081556063972], [9.139969096368233, 62.05345259499868], [9.129711655134582, 62.058683347616665], [9.123925489297585, 62.06563512977486], [9.127919007073665, 62.072503184088795], [9.133298620291528, 62.07560064866176], [9.137310784235401, 62.08304029803457], [9.143929467972894, 62.08645414729434], [9.144407278808421, 62.08873313697982], [9.112937411447371, 62.10724234627509], [9.089774498701052, 62.11130741995658], [9.086884383316258, 62.11309054933713], [9.089095308066339, 62.11558988912928], [9.094552011781081, 62.1157359058901], [9.099907415243983, 62.1115811686695], [9.121599755965532, 62.10793130818158], [9.154978197705363, 62.095808356034475], [9.173543713364174, 62.099108504201475], [9.187067413145083, 62.098426259883745], [9.219176881828608, 62.10390333250725], [9.244814328037307, 62.1045650882345], [9.268550854071554, 62.113459485334225], [9.32571684282089, 62.15301524348486], [9.371603795563699, 62.17140034702966], [9.393880461151596, 62.17696150374566], [9.40724740183849, 62.177504547322144], [9.440567460094975, 62.175294147391526], [9.46020396273929, 62.17873727767995], [9.496281696160816, 62.19473921181163], [9.526428963602436, 62.20112174526914], [9.553711027598556, 62.210052995072765], [9.553605633332287, 62.21264458402726], [9.544845369868941, 62.2165754420976], [9.533825490413255, 62.226893070544726], [9.52923221022115, 62.23462866294355], [9.530124977948843, 62.23952711916455], [9.543104662007908, 62.253845594238065], [9.565197363351398, 62.264636682839125], [9.579001154448635, 62.26828511498421], [9.582147242409045, 62.27729659508382], [9.595397178286202, 62.28435104882108], [9.591104492922918, 62.29199285833072], [9.592000060228157, 62.29561066545421], [9.600668851505366, 62.30125585922596], [9.616795566184061, 62.31719396999442], [9.618884011394579, 62.33907088835054], [9.615887195635507, 62.34360266123711], [9.629929315648624, 62.35097379911278], [9.628196980733222, 62.35856502452617], [9.637905929310989, 62.38196437148569], [9.632025809055355, 62.400116385479585], [9.63494587407125, 62.40563811182378], [9.633498133459998, 62.417841236642346], [9.602473184035663, 62.43853551005818], [9.574021336088428, 62.45117575753825], [9.57382875682256, 62.474626524269304], [9.584877667620187, 62.488163041686406], [9.588940751259152, 62.50689294172982], [9.600780316332258, 62.510239128275096], [9.608037187577077, 62.51450221798318], [9.615233360953617, 62.52827027391324], [9.631836165381614, 62.531818110258996], [9.640568336650338, 62.55248097624254], [9.652186756241507, 62.560346350759666], [9.67081508242837, 62.58094497411669], [9.686079510014617, 62.590007304664695], [9.721055723286563, 62.599500432008576], [9.78087717843646, 62.62788084131125], [9.837912313147715, 62.64524619685827], [9.868820146548932, 62.64761665622145], [9.878054403842732, 62.64996801463673], [9.898796697538497, 62.66557931586388], [9.924077385127273, 62.671463583230555], [9.932152169522759, 62.676062977102944], [9.937920894024169, 62.682784290400946], [9.939172600456214, 62.692018630430205], [9.944811152556495, 62.69710845587344], [9.958395929334229, 62.70277111888572], [9.968970113537743, 62.7197991079087], [9.981857641704185, 62.72274541980992], [9.994393066725264, 62.72295506582318], [9.996653685911847, 62.72441790849748], [9.997647441866258, 62.727831318501764], [9.98290881474347, 62.74363169792269], [9.986092234281188, 62.75226496529403], [9.996823386170261, 62.756154945968596], [9.989518495099505, 62.769849102490575], [9.988996860481421, 62.77834126326649], [10.007310623794664, 62.79013451017356], [10.02772868714578, 62.793093382614], [10.029256618389702, 62.798730072191866], [10.038256887191624, 62.80050590143366], [10.040828239584576, 62.8025229361032], [10.0350310214649, 62.81051212682781], [10.037061805943596, 62.81653316375019], [10.033206261363164, 62.81764146519789], [10.021962262303731, 62.81697778105599], [10.01234656187349, 62.82537110282944], [10.021781071024106, 62.83379465727446], [10.020129218223829, 62.839150051707186], [10.025152085210939, 62.84962845268193], [10.023419230949012, 62.85972700101356], [10.027275539767528, 62.86532414027423], [10.031752338971275, 62.86843467397167], [10.03909234765083, 62.86960062485891], [10.068873221797421, 62.86440127696809], [10.077336122421718, 62.865576215507396], [10.084234629865833, 62.868686602971266], [10.090610190765906, 62.876392045097035], [10.103495074006794, 62.884675121211416], [10.114033604990505, 62.89992613272768], [10.137830521348372, 62.91079661408081], [10.153277617975274, 62.92347198551428], [10.154384311978712, 62.927932947468264], [10.174664920852624, 62.9298263820379], [10.181084573291315, 62.93345568825567], [10.183523475733628, 62.945791026690415], [10.175328414295263, 62.95870226110304], [10.176692588454403, 62.966894849386996], [10.2062671329025, 62.97777390557159], [10.224062724669533, 62.979668716608764], [10.237081036134786, 62.98618237952498], [10.241706308726224, 62.992383785238246], [10.23265593495362, 62.996803292777045], [10.230791429371425, 63.000296840971885], [10.242064346110485, 63.012042168353396], [10.239095674093917, 63.01754790006889], [10.245951405515932, 63.020347062186886], [10.247603858835872, 63.02407069164668], [10.25493764388594, 63.027959019866806], [10.271004076963711, 63.033252728441084], [10.286542994318522, 63.03499051340528], [10.290497395196617, 63.03668089579073], [10.281545359721944, 63.04444317465626], [10.288071326004234, 63.059946003622585], [10.286609704868189, 63.0653293974509], [10.281958888025054, 63.06789200212417], [10.268778348943146, 63.068551142554945], [10.256617784099106, 63.07145156067749], [10.229378871649876, 63.101076938820114]], [[10.22937787262553, 63.101076881954455], [10.228229550927958, 63.10804956647258], [10.233836803958491, 63.11299956564921], [10.241323983961516, 63.11553370655988], [10.244447369988578, 63.12071318017494], [10.242037256867265, 63.125903795743625], [10.244309968432042, 63.13007647651461], [10.255672667603022, 63.14023414619497], [10.273312953462547, 63.15008353016526], [10.28235286321587, 63.15296231759091], [10.287269706382546, 63.15959287356422], [10.297420045285785, 63.16386367490612], [10.307214437262639, 63.17694859662881], [10.308207067893466, 63.18618788571083], [10.298990497709681, 63.19166304212414], [10.297336969996923, 63.195094475215484], [10.300814020143603, 63.20711782201488], [10.310761543708487, 63.21224534610152], [10.311639134461153, 63.215834369729556], [10.292207835134935, 63.22454806472317], [10.27990070930598, 63.23371375578105], [10.282106919305738, 63.24122394498735], [10.276814637703508, 63.24775304446521], [10.284700248989163, 63.25408147233016], [10.29323522837031, 63.271174703545306], [10.273300001479594, 63.28694823713816], [10.273193536718004, 63.290217616180534], [10.277265504058029, 63.29232460885309], [10.31956021529124, 63.299413253051675], [10.331039708998167, 63.30285565807383], [10.337615469062017, 63.30887557615545], [10.338831302483552, 63.3142734935373]], [[10.338828866871522, 63.31427309721403], [10.336002725233525, 63.318605950858775], [10.340847276611637, 63.32292445168514], [10.339144500448796, 63.32846231905467], [10.343451920806721, 63.33484484907627], [10.341183866719835, 63.34049273342379], [10.355241709697946, 63.347498816350054], [10.365597765265315, 63.37021277995969], [10.356538545425657, 63.37552356504085], [10.357093502946636, 63.38394704524658], [10.379567034603365, 63.392457595197435], [10.38657323317632, 63.399432978307765], [10.38283359259532, 63.418612506562205], [10.371176546794198, 63.4279812362857], [10.375046113575399, 63.43056732775588], [10.395009580372749, 63.436103748343264], [10.406318347174324, 63.436980676623435]], [[10.406328379820495, 63.43698091279362], [10.414037835372797, 63.437182026559846]]]}, "properties": {"OBJECTID": 4292, "Banekortnavn": "DOVB", "Banestatus": "I", "Banenavn": "Dovrebanen", "GlobalID": "{7BD05E91-3845-4DB8-9906-3205C4B81D37}", "Shape.STLength()": 478734.03132193646}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[11.246593068605545, 60.33919567752482], [11.242779086273103, 60.37426788163823], [11.230568487937312, 60.394088342870376], [11.237759597923954, 60.40015558662916], [11.236187017236368, 60.40559200087512], [11.238936150166484, 60.413629073717985], [11.239288251762071, 60.4337726560172], [11.247260878831872, 60.46676141575323], [11.245232794571882, 60.47526316687574], [11.234516489879987, 60.48600194632481], [11.2317897430717, 60.49568504057807], [11.241937141620632, 60.50973006394876], [11.242288898917131, 60.53567235328157], [11.251819607229642, 60.562357356843904], [11.271013970008624, 60.58168700308069], [11.28502478909837, 60.591087451010424], [11.293541966282374, 60.60123415896298], [11.284737644292353, 60.605444128671635], [11.282018830770026, 60.61007521938495], [11.273699036016025, 60.61248421447551], [11.267585027604648, 60.61904551602524], [11.257126658482859, 60.620915459590506], [11.231579393887367, 60.638259500363255], [11.225330037674459, 60.648285450965496], [11.22440031471583, 60.667721719116656], [11.214943830008146, 60.67717920036399], [11.205246191852652, 60.705459255395546], [11.180279503511116, 60.736360538692715], [11.17518601572704, 60.73837692657165], [11.15719104735332, 60.73965570906077], [11.125353234171582, 60.75234166296519], [11.111998362855648, 60.755915533705476], [11.094256222584322, 60.76954899642304], [11.09350099574272, 60.774957854129006], [11.101176044995741, 60.781391959211646], [11.092476309300473, 60.78852972366084], [11.070380913611483, 60.79356522373567], [11.06087376035397, 60.794019922202246], [11.035279722737313, 60.80099355527932], [11.019213113204907, 60.81090597991993], [11.008433410325308, 60.81465734567121], [11.006424903706376, 60.82122610007659], [10.977089712570626, 60.831749528922515], [10.975899114089414, 60.8363212736472], [10.96608296530165, 60.84039619260993], [10.964023466529197, 60.84677381859892], [10.956343708398173, 60.85259701615494], [10.955852983139602, 60.86565988251593], [10.940349427331187, 60.878691996709385], [10.926498760205567, 60.88563113718845], [10.913296774537054, 60.889076132511576], [10.899694822111389, 60.88711694164689], [10.889960378457479, 60.89023490003864], [10.838343917750839, 60.91622732358199], [10.759793754850403, 60.91632174686862], [10.752249155112283, 60.91368567795511], [10.742346149069494, 60.91256632878374], [10.723840059480935, 60.91288550085334], [10.719789825368027, 60.917342341356], [10.709347936764877, 60.91933546911015], [10.70781796629392, 60.92331242272038], [10.695292427967566, 60.93180063243642], [10.684060138182403, 60.94830381359312], [10.669608546194445, 60.95649042450694], [10.665048937441473, 60.96256009941125], [10.65487657507814, 60.96854453676657], [10.649023279347672, 60.98060768857947], [10.605024939817966, 60.9885566127332], [10.598451429020308, 60.99418697805257], [10.553876607935912, 61.00935842754025], [10.539712322741337, 61.00814623294696], [10.519820324608695, 61.01077087527943], [10.516160293498345, 61.015912893757964], [10.502613025995757, 61.01940976397857], [10.499111407916658, 61.022991576432574], [10.491515511222522, 61.02458052690002], [10.492459700845998, 61.03403850485192], [10.463935618196553, 61.04620800506278], [10.458697476522941, 61.05267229829492], [10.455627997819823, 61.06401412690558], [10.466979383042606, 61.099652440547494], [10.460224334103428, 61.11804508798192], [10.425843613579282, 61.13649143320579], [10.419700481305524, 61.14198710191081], [10.419423831330606, 61.14757945672712], [10.415045584507398, 61.15267851687109], [10.404522501006172, 61.15667367717309], [10.403890311829294, 61.16889975359906], [10.416852687743626, 61.184012734182296], [10.409796168850763, 61.19448238548445], [10.437829926888943, 61.21306881389091], [10.437837016644897, 61.22911731190041], [10.42610428126337, 61.24677460455816], [10.415759361623826, 61.258511477433615], [10.403211567528405, 61.266025373837216], [10.388856650865442, 61.27161998330412], [10.36280928978425, 61.275703881556275], [10.32167975723543, 61.27198355123086], [10.310937349032587, 61.273041302196326], [10.294668094371394, 61.27781096318407], [10.278433606158218, 61.288165682762624], [10.277938055762235, 61.293766335806836], [10.291781546916491, 61.30285981114392], [10.296425209351064, 61.31072393800313], [10.276914933703676, 61.32290796953843], [10.276549902182856, 61.3335486098989], [10.268734100085661, 61.33911664749758], [10.269369706464182, 61.356951881654595], [10.263538251433364, 61.360962802822634], [10.264283999529136, 61.36783725047707], [10.254683131861343, 61.37446535173156], [10.234295917509293, 61.38043450682043], [10.219051977725684, 61.38775395235661], [10.212615865226729, 61.39904056894806], [10.202587274655297, 61.407802638259305], [10.205859138687384, 61.41950329589536], [10.188179129023768, 61.428583246151234], [10.185322058086394, 61.43986647982419], [10.188053199277377, 61.444283924909456], [10.184457417533325, 61.45062854230094], [10.180408973790703, 61.45301465342331], [10.17113557642954, 61.453892485572815], [10.1681697706184, 61.45618999515352], [10.165056042201764, 61.49236869572364], [10.157724630108344, 61.50169631333073], [10.145848021220395, 61.508611413365145], [10.140655327007961, 61.5152452785084], [10.149329122449426, 61.52473104499182], [10.148783736879553, 61.52696878160795], [10.127309761988768, 61.53018423849766], [10.093426818527185, 61.538323222924696], [10.078062057415915, 61.54527187273652], [10.055054932056892, 61.55052450766492], [10.041028885344756, 61.547839544031405], [9.993248330310083, 61.54863058544329], [9.963032872135178, 61.54648672235164], [9.942913738657092, 61.54861778095828], [9.928549325262805, 61.55234072883854], [9.927253927532806, 61.55995642591116], [9.920510473039391, 61.5644222495316], [9.896575520751643, 61.569562013507124], [9.879920355173374, 61.56986349024142], [9.867734587050688, 61.57399773130847], [9.856981462284406, 61.57509488530245], [9.844712758122727, 61.579018118469044], [9.8367641246502, 61.583871230754696], [9.826551759467105, 61.58548021824984], [9.788372001258335, 61.584279945423106], [9.761816314972315, 61.590091517864515], [9.743409697886781, 61.59684026948381], [9.741232893539381, 61.603818732212154], [9.733313149347014, 61.609342466915216], [9.73267077757981, 61.614063133958936], [9.72554574367742, 61.61620229519086], [9.722402547574285, 61.61998803472774], [9.723813920998994, 61.624720678302225], [9.718711274732652, 61.638553106535106], [9.730162499113996, 61.64655055847066], [9.7359514037453, 61.65491265999025], [9.732818351362894, 61.658775310031054], [9.720778674504576, 61.665473082203206], [9.71205811421858, 61.66601497676887], [9.681033314535977, 61.66290161169747], [9.645889312216738, 61.66382033450385], [9.611767760975589, 61.659229828679486], [9.561898812097388, 61.66806873767955], [9.550604643550296, 61.67220958123162], [9.540223501141863, 61.680034715187745], [9.5489508085582, 61.693091049940016], [9.546515834163367, 61.699018018095764], [9.548726651760672, 61.70403677477284], [9.537836000371025, 61.710678890630916], [9.532794617194872, 61.71719275237538], [9.538756688183627, 61.72919328645334], [9.550036882039409, 61.73868332798035], [9.534844409809345, 61.752954742119144], [9.53837425658602, 61.764790911007125], [9.535814235250713, 61.77601682645151], [9.54505484999859, 61.785168685922734], [9.5461896980151, 61.792453299224945], [9.535363607999525, 61.81114755871467], [9.505674183301746, 61.82413755579812], [9.469455848918706, 61.83133935098968], [9.424077712026259, 61.83656454079271], [9.409949477135084, 61.84099225975445], [9.413404464854302, 61.848347922281796], [9.410705157328637, 61.85408219742511], [9.39393199271579, 61.865158103133986], [9.413285221051488, 61.87025639240068], [9.419453408941951, 61.87543031408915], [9.403671226117366, 61.88281385604172], [9.403940373442403, 61.891274917042], [9.396296720733268, 61.89497638116037], [9.37244377601477, 61.90157450941899], [9.353206332045238, 61.917200924952844], [9.336289710071592, 61.91986798209644], [9.308172027478644, 61.92915269805942], [9.298414280228023, 61.945546027525864], [9.273828028761347, 61.952526898999736], [9.25578717382724, 61.96351840458945], [9.253157016576921, 61.973980630290114], [9.257588455219365, 61.98260581782813], [9.253658181717709, 61.99247403546515], [9.243703151665429, 61.99851359012488], [9.228463367483853, 62.003119171403554], [9.224383990343302, 62.010533092598365], [9.213820513200382, 62.017825030641], [9.166916809476927, 62.04072679356843], [9.15096884325021, 62.05081556063972], [9.139969096368233, 62.05345259499868], [9.129711655134582, 62.058683347616665], [9.123925489297585, 62.06563512977486], [9.127919007073665, 62.072503184088795], [9.133298620291528, 62.07560064866176], [9.137310784235401, 62.08304029803457], [9.143929467972894, 62.08645414729434], [9.144407278808421, 62.08873313697982], [9.112937411447371, 62.10724234627509], [9.089774498701052, 62.11130741995658], [9.086884383316258, 62.11309054933713], [9.089095308066339, 62.11558988912928], [9.094552011781081, 62.1157359058901], [9.099907415243983, 62.1115811686695], [9.121599755965532, 62.10793130818158], [9.154978197705363, 62.095808356034475], [9.173543713364174, 62.099108504201475], [9.187067413145083, 62.098426259883745], [9.219176881828608, 62.10390333250725], [9.244814328037307, 62.1045650882345], [9.268550854071554, 62.113459485334225], [9.32571684282089, 62.15301524348486], [9.371603795563699, 62.17140034702966], [9.393880461151596, 62.17696150374566], [9.40724740183849, 62.177504547322144], [9.440567460094975, 62.175294147391526], [9.46020396273929, 62.17873727767995], [9.496281696160816, 62.19473921181163], [9.526428963602436, 62.20112174526914], [9.553711027598556, 62.210052995072765], [9.553605633332287, 62.21264458402726], [9.544845369868941, 62.2165754420976], [9.533825490413255, 62.226893070544726], [9.52923221022115, 62.23462866294355], [9.530124977948843, 62.23952711916455], [9.543104662007908, 62.253845594238065], [9.565197363351398, 62.264636682839125], [9.579001154448635, 62.26828511498421], [9.582147242409045, 62.27729659508382], [9.595397178286202, 62.28435104882108], [9.591104492922918, 62.29199285833072], [9.592000060228157, 62.29561066545421], [9.600668851505366, 62.30125585922596], [9.616795566184061, 62.31719396999442], [9.618884011394579, 62.33907088835054], [9.615887195635507, 62.34360266123711], [9.629929315648624, 62.35097379911278], [9.628196980733222, 62.35856502452617], [9.637905929310989, 62.38196437148569], [9.632025809055355, 62.400116385479585], [9.63494587407125, 62.40563811182378], [9.633498133459998, 62.417841236642346], [9.602473184035663, 62.43853551005818], [9.574021336088428, 62.45117575753825], [9.57382875682256, 62.474626524269304], [9.584877667620187, 62.488163041686406], [9.588940751259152, 62.50689294172982], [9.600780316332258, 62.510239128275096], [9.608037187577077, 62.51450221798318], [9.615233360953617, 62.52827027391324], [9.631836165381614, 62.531818110258996], [9.640568336650338, 62.55248097624254], [9.652186756241507, 62.560346350759666], [9.67081508242837, 62.58094497411669], [9.686079510014617, 62.590007304664695], [9.721055723286563, 62.599500432008576], [9.78087717843646, 62.62788084131125], [9.837912313147715, 62.64524619685827], [9.868820146548932, 62.64761665622145], [9.878054403842732, 62.64996801463673], [9.898796697538497, 62.66557931586388], [9.924077385127273, 62.671463583230555], [9.932152169522759, 62.676062977102944], [9.937920894024169, 62.682784290400946], [9.939172600456214, 62.692018630430205], [9.944811152556495, 62.69710845587344], [9.958395929334229, 62.70277111888572], [9.968970113537743, 62.7197991079087], [9.981857641704185, 62.72274541980992], [9.994393066725264, 62.72295506582318], [9.996653685911847, 62.72441790849748], [9.997647441866258, 62.727831318501764], [9.98290881474347, 62.74363169792269], [9.986092234281188, 62.75226496529403], [9.996823386170261, 62.756154945968596], [9.989518495099505, 62.769849102490575], [9.988996860481421, 62.77834126326649], [10.007310623794664, 62.79013451017356], [10.02772868714578, 62.793093382614], [10.029256618389702, 62.798730072191866], [10.038256887191624, 62.80050590143366], [10.040828239584576, 62.8025229361032], [10.0350310214649, 62.81051212682781], [10.037061805943596, 62.81653316375019], [10.033206261363164, 62.81764146519789], [10.021962262303731, 62.81697778105599], [10.01234656187349, 62.82537110282944], [10.021781071024106, 62.83379465727446], [10.020129218223829, 62.839150051707186], [10.025152085210939, 62.84962845268193], [10.023419230949012, 62.85972700101356], [10.027275539767528, 62.86532414027423], [10.031752338971275, 62.86843467397167], [10.03909234765083, 62.86960062485891], [10.068873221797421, 62.86440127696809], [10.077336122421718, 62.865576215507396], [10.084234629865833, 62.868686602971266], [10.090610190765906, 62.876392045097035], [10.103495074006794, 62.884675121211416], [10.114033604990505, 62.89992613272768], [10.137830521348372, 62.91079661408081], [10.153277617975274, 62.92347198551428], [10.154384311978712, 62.927932947468264], [10.174664920852624, 62.9298263820379], [10.181084573291315, 62.93345568825567], [10.183523475733628, 62.945791026690415], [10.175328414295263, 62.95870226110304], [10.176692588454403, 62.966894849386996], [10.2062671329025, 62.97777390557159], [10.224062724669533, 62.979668716608764], [10.237081036134786, 62.98618237952498], [10.241706308726224, 62.992383785238246], [10.23265593495362, 62.996803292777045], [10.230791429371425, 63.000296840971885], [10.242064346110485, 63.012042168353396], [10.239095674093917, 63.01754790006889], [10.245951405515932, 63.020347062186886], [10.247603858835872, 63.02407069164668], [10.25493764388594, 63.027959019866806], [10.271004076963711, 63.033252728441084], [10.286542994318522, 63.03499051340528], [10.290497395196617, 63.03668089579073], [10.281545359721944, 63.04444317465626], [10.288071326004234, 63.059946003622585], [10.286609704868189, 63.0653293974509], [10.281958888025054, 63.06789200212417], [10.268778348943146, 63.068551142554945], [10.256617784099106, 63.07145156067749], [10.229378871649876, 63.101076938820114]], [[10.22937787262553, 63.101076881954455], [10.228229550927958, 63.10804956647258], [10.233836803958491, 63.11299956564921], [10.241323983961516, 63.11553370655988], [10.244447369988578, 63.12071318017494], [10.242037256867265, 63.125903795743625], [10.244309968432042, 63.13007647651461], [10.255672667603022, 63.14023414619497], [10.273312953462547, 63.15008353016526], [10.28235286321587, 63.15296231759091], [10.287269706382546, 63.15959287356422], [10.297420045285785, 63.16386367490612], [10.307214437262639, 63.17694859662881], [10.308207067893466, 63.18618788571083], [10.298990497709681, 63.19166304212414], [10.297336969996923, 63.195094475215484], [10.300814020143603, 63.20711782201488], [10.310761543708487, 63.21224534610152], [10.311639134461153, 63.215834369729556], [10.292207835134935, 63.22454806472317], [10.27990070930598, 63.23371375578105], [10.282106919305738, 63.24122394498735], [10.276814637703508, 63.24775304446521], [10.284700248989163, 63.25408147233016], [10.29323522837031, 63.271174703545306], [10.273300001479594, 63.28694823713816], [10.273193536718004, 63.290217616180534], [10.277265504058029, 63.29232460885309], [10.31956021529124, 63.299413253051675], [10.331039708998167, 63.30285565807383], [10.337615469062017, 63.30887557615545], [10.338831302483552, 63.3142734935373]], [[10.338828866871522, 63.31427309721403], [10.336002725233525, 63.318605950858775], [10.340847276611637, 63.32292445168514], [10.339144500448796, 63.32846231905467], [10.343451920806721, 63.33484484907627], [10.341183866719835, 63.34049273342379], [10.355241709697946, 63.347498816350054], [10.365597765265315, 63.37021277995969], [10.356538545425657, 63.37552356504085], [10.357093502946636, 63.38394704524658], [10.379567034603365, 63.392457595197435], [10.38657323317632, 63.399432978307765], [10.38283359259532, 63.418612506562205], [10.371176546794198, 63.4279812362857], [10.375046113575399, 63.43056732775588], [10.395009580372749, 63.436103748343264], [10.406318347174324, 63.436980676623435]], [[10.406328379820495, 63.43698091279362], [10.414037835372797, 63.437182026559846]]]}, "properties": {"Banenavn": "Dovrebanen"}}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16537</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="11">
@@ -628,11 +628,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4294, "geometry": {"type": "LineString", "coordinates": [[10.71730513188755, 59.91749269335673], [10.70438684574382, 59.91959069462288], [10.690548683990478, 59.91937125598378], [10.672062729897688, 59.92305463440097], [10.65682964329919, 59.917083910982555], [10.644443161993316, 59.91429845046627], [10.625616351523933, 59.91474920135968], [10.593289166483832, 59.90363680396725], [10.575519230061575, 59.89932367510671], [10.56192033379139, 59.89914219248254], [10.552950697137373, 59.89711447165946], [10.542451077427925, 59.89824194312637], [10.520784093793567, 59.89145040950285], [10.505478693548044, 59.89025880413608], [10.502548172535045, 59.88826372534265], [10.503615665789095, 59.88298053680975], [10.50131777903903, 59.88036149048528], [10.460226394512032, 59.86636895878107], [10.46240337911449, 59.857516220470444], [10.467939391868644, 59.85213118559021], [10.464292461056058, 59.847470369673196], [10.45153295746165, 59.84147994535851], [10.441903311502621, 59.83966358902506], [10.412588913939482, 59.81672451460659], [10.336386833733606, 59.77775131847209], [10.31186924677045, 59.77237987858054], [10.261351194942433, 59.752499023577876], [10.238312155695505, 59.74637213827108], [10.22096568964234, 59.737707676947366], [10.21227494601555, 59.73713409556083], [10.198563938463385, 59.74153051834051], [10.14529234572798, 59.744760262890125]]}, "properties": {"OBJECTID": 4294, "Banekortnavn": "DRMB", "Banestatus": "I", "Banenavn": "Drammenbanen", "GlobalID": "{44061726-CD50-4C79-89C6-D0F5DBB8C0BC}", "Shape.STLength()": 42279.13486875145}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.71730513188755, 59.91749269335673], [10.70438684574382, 59.91959069462288], [10.690548683990478, 59.91937125598378], [10.672062729897688, 59.92305463440097], [10.65682964329919, 59.917083910982555], [10.644443161993316, 59.91429845046627], [10.625616351523933, 59.91474920135968], [10.593289166483832, 59.90363680396725], [10.575519230061575, 59.89932367510671], [10.56192033379139, 59.89914219248254], [10.552950697137373, 59.89711447165946], [10.542451077427925, 59.89824194312637], [10.520784093793567, 59.89145040950285], [10.505478693548044, 59.89025880413608], [10.502548172535045, 59.88826372534265], [10.503615665789095, 59.88298053680975], [10.50131777903903, 59.88036149048528], [10.460226394512032, 59.86636895878107], [10.46240337911449, 59.857516220470444], [10.467939391868644, 59.85213118559021], [10.464292461056058, 59.847470369673196], [10.45153295746165, 59.84147994535851], [10.441903311502621, 59.83966358902506], [10.412588913939482, 59.81672451460659], [10.336386833733606, 59.77775131847209], [10.31186924677045, 59.77237987858054], [10.261351194942433, 59.752499023577876], [10.238312155695505, 59.74637213827108], [10.22096568964234, 59.737707676947366], [10.21227494601555, 59.73713409556083], [10.198563938463385, 59.74153051834051], [10.14529234572798, 59.744760262890125]]}, "properties": {"Banenavn": "Drammenbanen"}}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1589</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="12">
@@ -646,11 +646,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4295, "geometry": {"type": "MultiLineString", "coordinates": [[[10.718916275015633, 59.911719744959406], [10.710115470033838, 59.91079973638439], [10.703798936088136, 59.91196117926965]], [[10.70375959140483, 59.911978662554674], [10.702160374592514, 59.912922515322606]], [[10.70215951309054, 59.91292315514113], [10.695330162996676, 59.91740060714736]], [[10.69525918817991, 59.917446965340915], [10.688394443608058, 59.919626626115836]], [[10.688214594114163, 59.91966404607436], [10.67828508407216, 59.92233207062957]]]}, "properties": {"OBJECTID": 4295, "Banekortnavn": "FILB", "Banestatus": "I", "Banenavn": "Filipstadbanen", "GlobalID": "{FDCC07F9-227C-44AE-8081-FF91F94FF4EC}", "Shape.STLength()": 2729.1806923203176}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[10.718916275015633, 59.911719744959406], [10.710115470033838, 59.91079973638439], [10.703798936088136, 59.91196117926965]], [[10.70375959140483, 59.911978662554674], [10.702160374592514, 59.912922515322606]], [[10.70215951309054, 59.91292315514113], [10.695330162996676, 59.91740060714736]], [[10.69525918817991, 59.917446965340915], [10.688394443608058, 59.919626626115836]], [[10.688214594114163, 59.91966404607436], [10.67828508407216, 59.92233207062957]]]}, "properties": {"Banenavn": "Filipstadbanen"}}</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>752</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4297, "geometry": {"type": "MultiLineString", "coordinates": [[[7.121282904729192, 60.73332458940421], [7.122418810683775, 60.73862128793739], [7.128028509686131, 60.741651103959256]], [[7.128028509686131, 60.741651103959256], [7.131284472534545, 60.743990753597124]], [[7.128028509686131, 60.741651103959256], [7.126124909252614, 60.74363796217596], [7.1352598743005595, 60.74668564151468], [7.135417384212402, 60.748208268899766], [7.122069072173534, 60.74855657670856], [7.110560149340648, 60.75602520507338], [7.103128792839959, 60.757266643560676], [7.097089374159615, 60.76190780653677], [7.1031036216860866, 60.76557676081848], [7.10343841005161, 60.777437659076924], [7.097547873120537, 60.78051364251873], [7.0947361393896, 60.78754424951432], [7.103959416705526, 60.79829728147021], [7.114158963662773, 60.80550964741129], [7.123087529807905, 60.80722323724894], [7.124525498944086, 60.81101745905524], [7.1230856314374975, 60.81812630044118], [7.118595214788985, 60.82360501571264], [7.125993745792403, 60.83544964304115], [7.119489244368239, 60.84695424499759], [7.112788388728377, 60.8519071052965], [7.107751400383467, 60.85974979743058], [7.108694216702744, 60.862105939345156], [7.114426469701485, 60.86297171649337]], [[7.131284472534545, 60.743990753597124], [7.128028509686131, 60.741651103959256]], [[7.131284472534545, 60.743990753597124], [7.1370447276902835, 60.74129093354482], [7.140867334679336, 60.741915424018266], [7.135045528214856, 60.745247899381674], [7.131284472534545, 60.743990753597124]]]}, "properties": {"OBJECTID": 4297, "Banekortnavn": "FLMB", "Banestatus": "I", "Banenavn": "Flåmsbana", "GlobalID": "{5FC54E10-1E6E-458F-B6A9-949574148609}", "Shape.STLength()": 19571.693499496047}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[7.121282904729192, 60.73332458940421], [7.122418810683775, 60.73862128793739], [7.128028509686131, 60.741651103959256]], [[7.128028509686131, 60.741651103959256], [7.131284472534545, 60.743990753597124]], [[7.128028509686131, 60.741651103959256], [7.126124909252614, 60.74363796217596], [7.1352598743005595, 60.74668564151468], [7.135417384212402, 60.748208268899766], [7.122069072173534, 60.74855657670856], [7.110560149340648, 60.75602520507338], [7.103128792839959, 60.757266643560676], [7.097089374159615, 60.76190780653677], [7.1031036216860866, 60.76557676081848], [7.10343841005161, 60.777437659076924], [7.097547873120537, 60.78051364251873], [7.0947361393896, 60.78754424951432], [7.103959416705526, 60.79829728147021], [7.114158963662773, 60.80550964741129], [7.123087529807905, 60.80722323724894], [7.124525498944086, 60.81101745905524], [7.1230856314374975, 60.81812630044118], [7.118595214788985, 60.82360501571264], [7.125993745792403, 60.83544964304115], [7.119489244368239, 60.84695424499759], [7.112788388728377, 60.8519071052965], [7.107751400383467, 60.85974979743058], [7.108694216702744, 60.862105939345156], [7.114426469701485, 60.86297171649337]], [[7.131284472534545, 60.743990753597124], [7.128028509686131, 60.741651103959256]], [[7.131284472534545, 60.743990753597124], [7.1370447276902835, 60.74129093354482], [7.140867334679336, 60.741915424018266], [7.135045528214856, 60.745247899381674], [7.131284472534545, 60.743990753597124]]]}, "properties": {"Banenavn": "Flåmsbana"}}</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1749</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="14">
@@ -682,11 +682,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4298, "geometry": {"type": "LineString", "coordinates": [[10.753845220536183, 59.91017657351622], [10.788502626744943, 59.905235552675855], [10.80673868371322, 59.9090507134373], [10.830405959537982, 59.90812951815079], [10.844287951942116, 59.909264543649044], [10.999766137253083, 59.94942506095827], [11.019974056636304, 59.95243652718409], [11.043579417870085, 59.95320182020183], [11.054874602126032, 59.95584878869193], [11.06277987702588, 59.960315582379074], [11.083327672358012, 59.99691814948915], [11.114252257186735, 60.016501609577745], [11.12322804864716, 60.025945192876904], [11.139913453901073, 60.058633767501384], [11.141845511781828, 60.102736249160614], [11.159468568102346, 60.12491334744912], [11.15849810559975, 60.13177782763611], [11.143418963522656, 60.15913824225603], [11.131310325953688, 60.1648971448233], [11.104215779212755, 60.16988280721987], [11.09241252118932, 60.17974537619578], [11.092553928776692, 60.1856208736317], [11.109698951090403, 60.21611571158419], [11.112135216042134, 60.2371071169361], [11.119593889246577, 60.24641513662186], [11.174481111549058, 60.291263383659214], [11.217583054256332, 60.30670839173819], [11.243145521812894, 60.31832961421752], [11.247901676764677, 60.325146082665995], [11.247143451158266, 60.33565494065531]]}, "properties": {"OBJECTID": 4298, "Banekortnavn": "GARB", "Banestatus": "I", "Banenavn": "Gardermobanen", "GlobalID": "{D2F5D065-A953-4A3B-96E3-CDB14A0BB6AC}", "Shape.STLength()": 66436.55386561634}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.753845220536183, 59.91017657351622], [10.788502626744943, 59.905235552675855], [10.80673868371322, 59.9090507134373], [10.830405959537982, 59.90812951815079], [10.844287951942116, 59.909264543649044], [10.999766137253083, 59.94942506095827], [11.019974056636304, 59.95243652718409], [11.043579417870085, 59.95320182020183], [11.054874602126032, 59.95584878869193], [11.06277987702588, 59.960315582379074], [11.083327672358012, 59.99691814948915], [11.114252257186735, 60.016501609577745], [11.12322804864716, 60.025945192876904], [11.139913453901073, 60.058633767501384], [11.141845511781828, 60.102736249160614], [11.159468568102346, 60.12491334744912], [11.15849810559975, 60.13177782763611], [11.143418963522656, 60.15913824225603], [11.131310325953688, 60.1648971448233], [11.104215779212755, 60.16988280721987], [11.09241252118932, 60.17974537619578], [11.092553928776692, 60.1856208736317], [11.109698951090403, 60.21611571158419], [11.112135216042134, 60.2371071169361], [11.119593889246577, 60.24641513662186], [11.174481111549058, 60.291263383659214], [11.217583054256332, 60.30670839173819], [11.243145521812894, 60.31832961421752], [11.247901676764677, 60.325146082665995], [11.247143451158266, 60.33565494065531]]}, "properties": {"Banenavn": "Gardermobanen"}}</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1513</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="15">
@@ -700,11 +700,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4299, "geometry": {"type": "LineString", "coordinates": [[10.753845220536183, 59.91017657351622], [10.783575239296244, 59.90559314639515], [10.791432045256917, 59.90537611873844], [10.794938345078814, 59.9068348953764], [10.781749405395676, 59.91722019801298], [10.780404147600168, 59.92237428022712], [10.784757362894807, 59.93181438082416], [10.776773079137095, 59.94994105111782], [10.767675768724722, 59.95310070394633], [10.766941055840798, 59.9579544227814], [10.777675379444512, 59.96440020872019], [10.787905287134695, 59.9677987312923], [10.788550955509317, 59.97822359110336], [10.794899733822435, 59.980443499065714], [10.798908546351322, 59.98465747373114], [10.806074295815126, 59.986948624180904], [10.80010436379158, 60.004772810881754], [10.812704328228039, 60.0163296719023], [10.809694937077044, 60.02112689656486], [10.809731169344422, 60.026774129444576], [10.81348256905307, 60.03043608350455], [10.812013996735606, 60.03691884450113], [10.82835965397955, 60.046358245731795], [10.835952242216216, 60.047805724003126], [10.844301878998353, 60.054469638018546], [10.844384084862815, 60.06016573728488], [10.848505503973504, 60.06306435685122], [10.853979676082615, 60.063130158537405], [10.8609507607721, 60.05843690300596], [10.869180456885372, 60.05918384463859], [10.871052765938323, 60.07884658176108], [10.862652902816322, 60.08508713792244], [10.863974113350045, 60.09034867885542], [10.860101535702514, 60.098268116715886], [10.850398982226732, 60.10481397319986], [10.836925029243941, 60.11036594555685], [10.83510243792004, 60.11549869719346], [10.82515555445961, 60.11925743820997], [10.815783540377923, 60.12026892672647], [10.807531711255285, 60.123915209800614], [10.786485061607427, 60.13529816966995], [10.78214455670582, 60.14079840461182], [10.77150414756532, 60.146309514796066], [10.758511543840047, 60.15050452125411], [10.734505266113372, 60.1520652906465], [10.727346494036206, 60.1567333622096], [10.718746534479209, 60.16813137810817], [10.722653945049691, 60.172541001816384], [10.721089645250261, 60.17721675417979], [10.726240568017372, 60.18297803335686], [10.724754413865913, 60.19743676762313], [10.721287585262152, 60.203906494848745], [10.730074940731912, 60.22123799918026], [10.725553387673061, 60.227850251411766], [10.702210789808616, 60.23854535762607], [10.700432670596292, 60.24225581745329], [10.684528332887686, 60.251809818521025], [10.670391269626373, 60.25337322773847], [10.664962151275265, 60.25649033830141], [10.666425874840638, 60.264252429126806], [10.66219519685541, 60.26697437933988], [10.66279720212515, 60.270790154915055], [10.657664399450246, 60.275917341808665], [10.607130372346447, 60.28684504770894], [10.603011971412489, 60.29141998144881], [10.587381744679558, 60.29774078659624], [10.58435693691997, 60.30808481691587], [10.579166177355997, 60.31129590524723], [10.580317740550331, 60.31561794908575], [10.573982929653386, 60.31916445743502], [10.571368350876488, 60.34160819549543], [10.565356624299211, 60.34784258851844], [10.57239869594941, 60.36372587278986], [10.56062034749946, 60.37445376468394], [10.566652356789454, 60.38155819299291], [10.540140304883538, 60.40882751939918], [10.541556581758622, 60.41535314993426], [10.526624087395076, 60.43686110240581], [10.51765715096532, 60.443724417959956], [10.51621167069751, 60.44933710295649], [10.509828271018405, 60.451926274893125], [10.509140815056137, 60.45654819781979], [10.500787375186846, 60.46811912173819], [10.498300315512438, 60.48196293709578], [10.503459376616512, 60.494361125448606], [10.509019570925721, 60.500542458608166], [10.521055383824008, 60.51124832309993], [10.530849047838247, 60.51605409608206], [10.536637562331633, 60.526232844404774], [10.532102032282493, 60.534513881446934], [10.534898224206385, 60.53817218070901], [10.532645292100536, 60.54191746879649], [10.53725083340678, 60.54929088272061], [10.543433843849684, 60.55235573555529], [10.554410543635642, 60.56465518181593], [10.563934228172382, 60.5821853162603], [10.585422325559588, 60.61038405685126], [10.584647903160308, 60.61882259447603], [10.592477464189102, 60.62414486499647], [10.59776023249272, 60.63106615410682], [10.604517543325628, 60.657093649913804], [10.610125541559654, 60.660811568752074], [10.611404447015714, 60.66795663848205], [10.619614388074824, 60.673150171665064], [10.614414030472473, 60.6812403579643], [10.614660426127882, 60.686000030667174], [10.607615638580882, 60.69333920371679], [10.609331423881118, 60.69757771619191], [10.606714349079338, 60.70399077543771], [10.624545419955561, 60.74997341571377], [10.634526898998352, 60.75913080982447], [10.636358792614207, 60.767912518763936], [10.644693292770382, 60.77261321441296], [10.653326873986874, 60.78358119914516], [10.674994168109606, 60.78553671716932], [10.686179564396438, 60.778678574997585], [10.692557470833595, 60.77914618675646], [10.697578944023148, 60.78671518659733], [10.69411232571257, 60.798031784628854]]}, "properties": {"OBJECTID": 4299, "Banekortnavn": "GJKB", "Banestatus": "I", "Banenavn": "Gjøvikbanen", "GlobalID": "{CB78881D-4DFF-4DD6-AE3E-DAB81DB325E9}", "Shape.STLength()": 121560.78886741883}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.753845220536183, 59.91017657351622], [10.783575239296244, 59.90559314639515], [10.791432045256917, 59.90537611873844], [10.794938345078814, 59.9068348953764], [10.781749405395676, 59.91722019801298], [10.780404147600168, 59.92237428022712], [10.784757362894807, 59.93181438082416], [10.776773079137095, 59.94994105111782], [10.767675768724722, 59.95310070394633], [10.766941055840798, 59.9579544227814], [10.777675379444512, 59.96440020872019], [10.787905287134695, 59.9677987312923], [10.788550955509317, 59.97822359110336], [10.794899733822435, 59.980443499065714], [10.798908546351322, 59.98465747373114], [10.806074295815126, 59.986948624180904], [10.80010436379158, 60.004772810881754], [10.812704328228039, 60.0163296719023], [10.809694937077044, 60.02112689656486], [10.809731169344422, 60.026774129444576], [10.81348256905307, 60.03043608350455], [10.812013996735606, 60.03691884450113], [10.82835965397955, 60.046358245731795], [10.835952242216216, 60.047805724003126], [10.844301878998353, 60.054469638018546], [10.844384084862815, 60.06016573728488], [10.848505503973504, 60.06306435685122], [10.853979676082615, 60.063130158537405], [10.8609507607721, 60.05843690300596], [10.869180456885372, 60.05918384463859], [10.871052765938323, 60.07884658176108], [10.862652902816322, 60.08508713792244], [10.863974113350045, 60.09034867885542], [10.860101535702514, 60.098268116715886], [10.850398982226732, 60.10481397319986], [10.836925029243941, 60.11036594555685], [10.83510243792004, 60.11549869719346], [10.82515555445961, 60.11925743820997], [10.815783540377923, 60.12026892672647], [10.807531711255285, 60.123915209800614], [10.786485061607427, 60.13529816966995], [10.78214455670582, 60.14079840461182], [10.77150414756532, 60.146309514796066], [10.758511543840047, 60.15050452125411], [10.734505266113372, 60.1520652906465], [10.727346494036206, 60.1567333622096], [10.718746534479209, 60.16813137810817], [10.722653945049691, 60.172541001816384], [10.721089645250261, 60.17721675417979], [10.726240568017372, 60.18297803335686], [10.724754413865913, 60.19743676762313], [10.721287585262152, 60.203906494848745], [10.730074940731912, 60.22123799918026], [10.725553387673061, 60.227850251411766], [10.702210789808616, 60.23854535762607], [10.700432670596292, 60.24225581745329], [10.684528332887686, 60.251809818521025], [10.670391269626373, 60.25337322773847], [10.664962151275265, 60.25649033830141], [10.666425874840638, 60.264252429126806], [10.66219519685541, 60.26697437933988], [10.66279720212515, 60.270790154915055], [10.657664399450246, 60.275917341808665], [10.607130372346447, 60.28684504770894], [10.603011971412489, 60.29141998144881], [10.587381744679558, 60.29774078659624], [10.58435693691997, 60.30808481691587], [10.579166177355997, 60.31129590524723], [10.580317740550331, 60.31561794908575], [10.573982929653386, 60.31916445743502], [10.571368350876488, 60.34160819549543], [10.565356624299211, 60.34784258851844], [10.57239869594941, 60.36372587278986], [10.56062034749946, 60.37445376468394], [10.566652356789454, 60.38155819299291], [10.540140304883538, 60.40882751939918], [10.541556581758622, 60.41535314993426], [10.526624087395076, 60.43686110240581], [10.51765715096532, 60.443724417959956], [10.51621167069751, 60.44933710295649], [10.509828271018405, 60.451926274893125], [10.509140815056137, 60.45654819781979], [10.500787375186846, 60.46811912173819], [10.498300315512438, 60.48196293709578], [10.503459376616512, 60.494361125448606], [10.509019570925721, 60.500542458608166], [10.521055383824008, 60.51124832309993], [10.530849047838247, 60.51605409608206], [10.536637562331633, 60.526232844404774], [10.532102032282493, 60.534513881446934], [10.534898224206385, 60.53817218070901], [10.532645292100536, 60.54191746879649], [10.53725083340678, 60.54929088272061], [10.543433843849684, 60.55235573555529], [10.554410543635642, 60.56465518181593], [10.563934228172382, 60.5821853162603], [10.585422325559588, 60.61038405685126], [10.584647903160308, 60.61882259447603], [10.592477464189102, 60.62414486499647], [10.59776023249272, 60.63106615410682], [10.604517543325628, 60.657093649913804], [10.610125541559654, 60.660811568752074], [10.611404447015714, 60.66795663848205], [10.619614388074824, 60.673150171665064], [10.614414030472473, 60.6812403579643], [10.614660426127882, 60.686000030667174], [10.607615638580882, 60.69333920371679], [10.609331423881118, 60.69757771619191], [10.606714349079338, 60.70399077543771], [10.624545419955561, 60.74997341571377], [10.634526898998352, 60.75913080982447], [10.636358792614207, 60.767912518763936], [10.644693292770382, 60.77261321441296], [10.653326873986874, 60.78358119914516], [10.674994168109606, 60.78553671716932], [10.686179564396438, 60.778678574997585], [10.692557470833595, 60.77914618675646], [10.697578944023148, 60.78671518659733], [10.69411232571257, 60.798031784628854]]}, "properties": {"Banenavn": "Gjøvikbanen"}}</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5165</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="16">
@@ -718,11 +718,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4300, "geometry": {"type": "LineString", "coordinates": [[6.413304653558431, 60.62956763784014], [6.438767037114207, 60.630315113698856], [6.455746883411935, 60.6361968829544], [6.462611683577917, 60.636070004028895], [6.477541893092168, 60.63255772413454]]}, "properties": {"OBJECTID": 4300, "Banekortnavn": "HARB", "Banestatus": "I", "Banenavn": "Hardangerbana", "GlobalID": "{F76D8090-6754-4010-A8CB-EDF6193CC53A}", "Shape.STLength()": 3814.6633593486354}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[6.413304653558431, 60.62956763784014], [6.438767037114207, 60.630315113698856], [6.455746883411935, 60.6361968829544], [6.462611683577917, 60.636070004028895], [6.477541893092168, 60.63255772413454]]}, "properties": {"Banenavn": "Hardangerbana"}}</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>485</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
@@ -736,11 +736,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4301, "geometry": {"type": "LineString", "coordinates": [[10.71730513188755, 59.91749269335673], [10.777887812187155, 59.906275881631025], [10.805234364058304, 59.90611712225345], [10.8198255717364, 59.908448479727056], [10.826189820216966, 59.91186824180716], [10.83392940857795, 59.92400665894935], [10.834086465832998, 59.93040408091567], [10.83952887948748, 59.9364030156698], [10.872046816295128, 59.94402952761374], [10.885317445346752, 59.94833776651266], [10.893915532301676, 59.953477380148705], [10.900646547722374, 59.953497609763545], [10.91630903724885, 59.948892562952615], [10.936454264461277, 59.94686073005895], [10.960130399555466, 59.93998257220416], [10.971489551866995, 59.93870981959296], [10.990379592444425, 59.94311048175563], [11.011141849618754, 59.955987515222844], [11.017340778828245, 59.955962300598074], [11.02515818233543, 59.95264650894023], [11.039767003698499, 59.952464269121], [11.053606219005841, 59.95535828770069], [11.06226365693871, 59.95980650125881], [11.082554261448985, 59.995908747849356], [11.103187940333733, 60.010969213695866], [11.101527252948484, 60.02166927338212], [11.12427494266447, 60.03030228314951], [11.138633426388953, 60.05586108769582], [11.13928079497605, 60.11098402094751], [11.143768331739293, 60.114924499486804], [11.158468953089443, 60.12013619957342], [11.163915749866245, 60.13156789116273], [11.175667701387884, 60.13945705086711], [11.183501728318861, 60.16341497259236], [11.19543224942693, 60.17927662857196], [11.179710377266908, 60.226614686928635], [11.205298876155117, 60.25135028137394], [11.205699122362349, 60.26256601328559], [11.210579802415, 60.269206814350255], [11.213683920651272, 60.28197740485839], [11.20958810047133, 60.289012894946474], [11.232467790988059, 60.30986377569667], [11.241837469164496, 60.31582038457781], [11.253708227377267, 60.31694619694513], [11.259132007269995, 60.322336859902286], [11.257853482913047, 60.32516081793537], [11.248627799121937, 60.32928948054928], [11.246593068605545, 60.33919567752482]]}, "properties": {"OBJECTID": 4301, "Banekortnavn": "HVDB", "Banestatus": "I", "Banenavn": "Hovedbanen", "GlobalID": "{1C2D07B2-997A-4603-B187-F180C930CE7A}", "Shape.STLength()": 70283.31611131578}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.71730513188755, 59.91749269335673], [10.777887812187155, 59.906275881631025], [10.805234364058304, 59.90611712225345], [10.8198255717364, 59.908448479727056], [10.826189820216966, 59.91186824180716], [10.83392940857795, 59.92400665894935], [10.834086465832998, 59.93040408091567], [10.83952887948748, 59.9364030156698], [10.872046816295128, 59.94402952761374], [10.885317445346752, 59.94833776651266], [10.893915532301676, 59.953477380148705], [10.900646547722374, 59.953497609763545], [10.91630903724885, 59.948892562952615], [10.936454264461277, 59.94686073005895], [10.960130399555466, 59.93998257220416], [10.971489551866995, 59.93870981959296], [10.990379592444425, 59.94311048175563], [11.011141849618754, 59.955987515222844], [11.017340778828245, 59.955962300598074], [11.02515818233543, 59.95264650894023], [11.039767003698499, 59.952464269121], [11.053606219005841, 59.95535828770069], [11.06226365693871, 59.95980650125881], [11.082554261448985, 59.995908747849356], [11.103187940333733, 60.010969213695866], [11.101527252948484, 60.02166927338212], [11.12427494266447, 60.03030228314951], [11.138633426388953, 60.05586108769582], [11.13928079497605, 60.11098402094751], [11.143768331739293, 60.114924499486804], [11.158468953089443, 60.12013619957342], [11.163915749866245, 60.13156789116273], [11.175667701387884, 60.13945705086711], [11.183501728318861, 60.16341497259236], [11.19543224942693, 60.17927662857196], [11.179710377266908, 60.226614686928635], [11.205298876155117, 60.25135028137394], [11.205699122362349, 60.26256601328559], [11.210579802415, 60.269206814350255], [11.213683920651272, 60.28197740485839], [11.20958810047133, 60.289012894946474], [11.232467790988059, 60.30986377569667], [11.241837469164496, 60.31582038457781], [11.253708227377267, 60.31694619694513], [11.259132007269995, 60.322336859902286], [11.257853482913047, 60.32516081793537], [11.248627799121937, 60.32928948054928], [11.246593068605545, 60.33919567752482]]}, "properties": {"Banenavn": "Hovedbanen"}}</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2244</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="18">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4305, "geometry": {"type": "LineString", "coordinates": [[11.048813258086565, 59.95396170987046], [11.057619224126201, 59.9536097051624], [11.113478662162098, 59.94015428675069], [11.136235883721321, 59.92495953867943], [11.144557161322767, 59.921932793191324], [11.153105690181237, 59.92209094921948], [11.164846678771758, 59.927844305052915], [11.178324986922982, 59.92936860520497], [11.2004031429359, 59.965910190391455], [11.214549246794068, 59.97679672801979], [11.239874326566829, 59.98566103754441], [11.255606137322653, 59.98410347554039], [11.262605998483137, 59.985067525827716], [11.290751905599336, 60.00149288849595], [11.301547309405711, 60.00509394320231], [11.319126242576017, 60.023947652091636], [11.327393942118025, 60.02911689841891], [11.350501854253233, 60.038353971534036], [11.37247150053326, 60.053485377395006], [11.38375277317011, 60.05751126321078], [11.389828781247916, 60.067712432863885], [11.411987116779574, 60.07877611639095], [11.46039463100523, 60.11326782913532], [11.464921852910205, 60.12388832433377], [11.480466722118322, 60.13731076103384], [11.480662511310825, 60.14475390116358], [11.49148326222717, 60.149382057697586], [11.502024468715982, 60.156893638566885], [11.515984110820703, 60.16306686493215], [11.52977472336253, 60.1657261445232], [11.5403302845921, 60.166495958821294], [11.554677079999243, 60.164875645403015], [11.560914648739546, 60.1660612228467], [11.574970163283352, 60.18160059490863], [11.622854799998798, 60.20497263805157], [11.646938638244002, 60.21021409540412], [11.669473003909602, 60.220065172299], [11.67502583390918, 60.22632465936681], [11.673381650166583, 60.24419993121593], [11.675944171251333, 60.250392254810016], [11.680346188170438, 60.253668231743866], [11.68759823864622, 60.25482510634697], [11.694159632195957, 60.25364819792339], [11.716675720294, 60.243826640767885], [11.809280941175693, 60.22645607294821], [11.876711325621043, 60.19766787189919], [11.88805630776211, 60.19798912583737], [11.911978665765623, 60.205685766625294], [11.942143163908977, 60.20764705994062], [11.96096703080681, 60.20368452022162], [11.979177536933076, 60.196112823922796], [11.989523799733604, 60.18969799236247], [12.001933258803422, 60.187592673660795], [12.030959150145993, 60.18798459372189], [12.039200996597822, 60.18577001616392], [12.044256393819484, 60.182441289886214], [12.052825728058524, 60.17011989041366], [12.048925880537274, 60.15246092042878], [12.064926534055038, 60.14492680917726], [12.07204341416268, 60.13918536596952], [12.095377448394276, 60.13252519116322], [12.10365590642144, 60.126875232661185], [12.111615554416531, 60.11734576927265], [12.118075364401161, 60.103357576191605], [12.118897860035815, 60.08552610803695], [12.135051552798858, 60.06879169974994], [12.134486528455811, 60.06266115625867], [12.12963310846439, 60.05564237654795], [12.132591163422642, 60.04665903524869], [12.119860057858597, 60.01809603586453], [12.114584791599256, 59.98716649473222], [12.132238973999037, 59.97806896417368], [12.16619401421276, 59.967159464799124], [12.18777097087756, 59.95598041945036], [12.20188377779169, 59.95137145596905], [12.243556297290414, 59.9317916660999]]}, "properties": {"OBJECTID": 4305, "Banekortnavn": "KVGB", "Banestatus": "I", "Banenavn": "Kongsvingerbanen", "GlobalID": "{2019E0A5-CF6F-4F16-BCCB-BA7D8C7B1A6B}", "Shape.STLength()": 114430.00003340463}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[11.048813258086565, 59.95396170987046], [11.057619224126201, 59.9536097051624], [11.113478662162098, 59.94015428675069], [11.136235883721321, 59.92495953867943], [11.144557161322767, 59.921932793191324], [11.153105690181237, 59.92209094921948], [11.164846678771758, 59.927844305052915], [11.178324986922982, 59.92936860520497], [11.2004031429359, 59.965910190391455], [11.214549246794068, 59.97679672801979], [11.239874326566829, 59.98566103754441], [11.255606137322653, 59.98410347554039], [11.262605998483137, 59.985067525827716], [11.290751905599336, 60.00149288849595], [11.301547309405711, 60.00509394320231], [11.319126242576017, 60.023947652091636], [11.327393942118025, 60.02911689841891], [11.350501854253233, 60.038353971534036], [11.37247150053326, 60.053485377395006], [11.38375277317011, 60.05751126321078], [11.389828781247916, 60.067712432863885], [11.411987116779574, 60.07877611639095], [11.46039463100523, 60.11326782913532], [11.464921852910205, 60.12388832433377], [11.480466722118322, 60.13731076103384], [11.480662511310825, 60.14475390116358], [11.49148326222717, 60.149382057697586], [11.502024468715982, 60.156893638566885], [11.515984110820703, 60.16306686493215], [11.52977472336253, 60.1657261445232], [11.5403302845921, 60.166495958821294], [11.554677079999243, 60.164875645403015], [11.560914648739546, 60.1660612228467], [11.574970163283352, 60.18160059490863], [11.622854799998798, 60.20497263805157], [11.646938638244002, 60.21021409540412], [11.669473003909602, 60.220065172299], [11.67502583390918, 60.22632465936681], [11.673381650166583, 60.24419993121593], [11.675944171251333, 60.250392254810016], [11.680346188170438, 60.253668231743866], [11.68759823864622, 60.25482510634697], [11.694159632195957, 60.25364819792339], [11.716675720294, 60.243826640767885], [11.809280941175693, 60.22645607294821], [11.876711325621043, 60.19766787189919], [11.88805630776211, 60.19798912583737], [11.911978665765623, 60.205685766625294], [11.942143163908977, 60.20764705994062], [11.96096703080681, 60.20368452022162], [11.979177536933076, 60.196112823922796], [11.989523799733604, 60.18969799236247], [12.001933258803422, 60.187592673660795], [12.030959150145993, 60.18798459372189], [12.039200996597822, 60.18577001616392], [12.044256393819484, 60.182441289886214], [12.052825728058524, 60.17011989041366], [12.048925880537274, 60.15246092042878], [12.064926534055038, 60.14492680917726], [12.07204341416268, 60.13918536596952], [12.095377448394276, 60.13252519116322], [12.10365590642144, 60.126875232661185], [12.111615554416531, 60.11734576927265], [12.118075364401161, 60.103357576191605], [12.118897860035815, 60.08552610803695], [12.135051552798858, 60.06879169974994], [12.134486528455811, 60.06266115625867], [12.12963310846439, 60.05564237654795], [12.132591163422642, 60.04665903524869], [12.119860057858597, 60.01809603586453], [12.114584791599256, 59.98716649473222], [12.132238973999037, 59.97806896417368], [12.16619401421276, 59.967159464799124], [12.18777097087756, 59.95598041945036], [12.20188377779169, 59.95137145596905], [12.243556297290414, 59.9317916660999]]}, "properties": {"Banenavn": "Kongsvingerbanen"}}</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3397</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="19">
@@ -772,11 +772,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4306, "geometry": {"type": "LineString", "coordinates": [[10.882029265033845, 63.44459081632564], [10.901132582222822, 63.4462553590262], [10.92261645435313, 63.445699312525065], [10.942920738305865, 63.44876343462484], [10.97251949572644, 63.445308540361566], [11.000381783601446, 63.448864351343616], [11.019822425322863, 63.44938230364222], [11.02866150816066, 63.45202893374575], [11.100040837058888, 63.46101155825083], [11.137714006758854, 63.45852893708557], [11.174817600941449, 63.46007142828985], [11.191056271439843, 63.4532210360242], [11.195179152205403, 63.44686593329203], [11.212804053402367, 63.442429539466346], [11.217719088790435, 63.43938744666117], [11.224571940410309, 63.43838554390122], [11.236173397544894, 63.439429471307164], [11.247656512504538, 63.437740350439114], [11.271255739726191, 63.44395331342419], [11.280483514894842, 63.45678782104475], [11.286312788005125, 63.458838150892355], [11.298821184424689, 63.45726740890311], [11.314476709589888, 63.45841553244337], [11.333610234417648, 63.45631756907072], [11.354100592864366, 63.45836160118738], [11.392755130055605, 63.45830779028847], [11.409901734642986, 63.45517732424152], [11.418711097940328, 63.4572425309503], [11.450887387649697, 63.45716923909499], [11.461230566702966, 63.46422477434817], [11.484600765467576, 63.46601781013039], [11.501654128655053, 63.46339522610526], [11.534996933949095, 63.461895918848946], [11.553814631801435, 63.456408550535585], [11.57889045569363, 63.45305443622936], [11.588836789927804, 63.44859853833297], [11.605973574153985, 63.44399468904603], [11.636248642630452, 63.44369688438409], [11.648185321590256, 63.44559146738431], [11.660996471311895, 63.44432669554354], [11.674418050424094, 63.445805037496385], [11.699830673270679, 63.443665026859804], [11.719404478087352, 63.43630906749022], [11.730644461718827, 63.43777627688169], [11.743272678629571, 63.43654254891909], [11.750136648911925, 63.430645608689915], [11.76105373193822, 63.430280915740184], [11.765048199466117, 63.42853385038276], [11.75351430814856, 63.41696435134271], [11.756803857288826, 63.41095127671507], [11.76325298278554, 63.40728275581708], [11.800317757526875, 63.399702376527], [11.836555033062975, 63.401680395118056], [11.84271964619687, 63.399145499042135], [11.84559110474753, 63.39300635999879], [11.868310926013153, 63.3864066438949], [11.887964042833573, 63.387579108947094], [11.899435151306154, 63.386088777672605], [11.910009190463834, 63.387353519124886], [11.928126690439976, 63.37865894002648], [11.943252113485213, 63.37605148253253], [11.953359596893762, 63.37070021585662], [11.977234468335295, 63.37079414081519], [11.99884965121029, 63.365892494349495], [12.01004643665817, 63.366204957697654], [12.028760079800382, 63.363178217374674], [12.031903539703022, 63.361349550602554], [12.030610602717765, 63.35718595605679], [12.035713960400694, 63.349314225933554], [12.060415646365392, 63.336858862037694]]}, "properties": {"OBJECTID": 4306, "Banekortnavn": "MERB", "Banestatus": "I", "Banenavn": "Meråkerbanen", "GlobalID": "{D8AF641D-3FCC-4CD3-9739-1061AEBAFCA6}", "Shape.STLength()": 70661.32820174577}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.882029265033845, 63.44459081632564], [10.901132582222822, 63.4462553590262], [10.92261645435313, 63.445699312525065], [10.942920738305865, 63.44876343462484], [10.97251949572644, 63.445308540361566], [11.000381783601446, 63.448864351343616], [11.019822425322863, 63.44938230364222], [11.02866150816066, 63.45202893374575], [11.100040837058888, 63.46101155825083], [11.137714006758854, 63.45852893708557], [11.174817600941449, 63.46007142828985], [11.191056271439843, 63.4532210360242], [11.195179152205403, 63.44686593329203], [11.212804053402367, 63.442429539466346], [11.217719088790435, 63.43938744666117], [11.224571940410309, 63.43838554390122], [11.236173397544894, 63.439429471307164], [11.247656512504538, 63.437740350439114], [11.271255739726191, 63.44395331342419], [11.280483514894842, 63.45678782104475], [11.286312788005125, 63.458838150892355], [11.298821184424689, 63.45726740890311], [11.314476709589888, 63.45841553244337], [11.333610234417648, 63.45631756907072], [11.354100592864366, 63.45836160118738], [11.392755130055605, 63.45830779028847], [11.409901734642986, 63.45517732424152], [11.418711097940328, 63.4572425309503], [11.450887387649697, 63.45716923909499], [11.461230566702966, 63.46422477434817], [11.484600765467576, 63.46601781013039], [11.501654128655053, 63.46339522610526], [11.534996933949095, 63.461895918848946], [11.553814631801435, 63.456408550535585], [11.57889045569363, 63.45305443622936], [11.588836789927804, 63.44859853833297], [11.605973574153985, 63.44399468904603], [11.636248642630452, 63.44369688438409], [11.648185321590256, 63.44559146738431], [11.660996471311895, 63.44432669554354], [11.674418050424094, 63.445805037496385], [11.699830673270679, 63.443665026859804], [11.719404478087352, 63.43630906749022], [11.730644461718827, 63.43777627688169], [11.743272678629571, 63.43654254891909], [11.750136648911925, 63.430645608689915], [11.76105373193822, 63.430280915740184], [11.765048199466117, 63.42853385038276], [11.75351430814856, 63.41696435134271], [11.756803857288826, 63.41095127671507], [11.76325298278554, 63.40728275581708], [11.800317757526875, 63.399702376527], [11.836555033062975, 63.401680395118056], [11.84271964619687, 63.399145499042135], [11.84559110474753, 63.39300635999879], [11.868310926013153, 63.3864066438949], [11.887964042833573, 63.387579108947094], [11.899435151306154, 63.386088777672605], [11.910009190463834, 63.387353519124886], [11.928126690439976, 63.37865894002648], [11.943252113485213, 63.37605148253253], [11.953359596893762, 63.37070021585662], [11.977234468335295, 63.37079414081519], [11.99884965121029, 63.365892494349495], [12.01004643665817, 63.366204957697654], [12.028760079800382, 63.363178217374674], [12.031903539703022, 63.361349550602554], [12.030610602717765, 63.35718595605679], [12.035713960400694, 63.349314225933554], [12.060415646365392, 63.336858862037694]]}, "properties": {"Banenavn": "Meråkerbanen"}}</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3159</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="20">
@@ -790,11 +790,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4308, "geometry": {"type": "LineString", "coordinates": [[5.344952120988504, 60.362079694216895], [5.3423852111843475, 60.36902610801341], [5.350125649523418, 60.37196298582118], [5.355068182648558, 60.3779799365951], [5.3513611385738145, 60.383396208088236], [5.344099799821142, 60.38587493472089]]}, "properties": {"OBJECTID": 4308, "Banekortnavn": "MINB", "Banestatus": "I", "Banenavn": "Godssporet Bergen-Minde", "GlobalID": "{C350E2F5-3F71-4387-B5E4-042C98BA8104}", "Shape.STLength()": 3172.5142759938594}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[5.344952120988504, 60.362079694216895], [5.3423852111843475, 60.36902610801341], [5.350125649523418, 60.37196298582118], [5.355068182648558, 60.3779799365951], [5.3513611385738145, 60.383396208088236], [5.344099799821142, 60.38587493472089]]}, "properties": {"Banenavn": "Godssporet Bergen-Minde"}}</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>537</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
@@ -808,11 +808,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4310, "geometry": {"type": "MultiLineString", "coordinates": [[[10.810936647762382, 63.41646202019495], [10.797366381060357, 63.41189467869973], [10.78358263854176, 63.413089080347476], [10.77788753629523, 63.4226892213308], [10.771384398407474, 63.4280201549302], [10.754776046248859, 63.432813505994], [10.718453632466169, 63.43095943500403], [10.675702450481383, 63.437611336533486], [10.663288158175074, 63.43741898839904], [10.65436969781768, 63.4412106213832], [10.638158755753304, 63.44252372087065], [10.614331704236333, 63.43736083485954], [10.609907013878505, 63.43829645678507], [10.606322521449957, 63.44158036264696], [10.600863379808358, 63.4420470496478], [10.559023986303831, 63.42973558355159], [10.544852301017652, 63.430429969606905], [10.526372150493415, 63.42644135684327], [10.489288529413887, 63.43600601497268], [10.467272718590218, 63.43629461571921], [10.448218868612866, 63.44044689721079], [10.436337776392026, 63.44045485087902], [10.414037835372797, 63.437182026559846]], [[10.81093669835305, 63.416462059952465], [10.81731822358726, 63.422215113383594], [10.854432488469579, 63.43366119893421], [10.871522246998008, 63.442244582259825], [10.889020714722893, 63.44566350039151], [10.905105156907586, 63.44694863967733], [10.91197265662473, 63.449538202612175], [10.9138075673863, 63.452325486930086], [10.91293003747005, 63.47796101454751], [10.896151473256438, 63.489048419931216], [10.89358509032554, 63.49775340139763], [10.881100530555171, 63.502444663853176], [10.863993802671793, 63.50239850615081], [10.853323704889512, 63.505786703683675], [10.805785882856428, 63.5097217602345], [10.79970155281253, 63.523887817784896], [10.809060058693682, 63.53059976623026], [10.822993871195713, 63.534129645095796], [10.842415286534836, 63.53625572690208], [10.859123582995272, 63.54258434312056], [10.874901766342283, 63.544773038020665], [10.890511264997789, 63.54414374540861], [10.896532643566358, 63.54544857957136], [10.9097023189346, 63.55295881404075], [10.923703647804258, 63.55636816098117], [10.941566318914173, 63.563863756831644], [10.995207909911247, 63.57720141805669], [11.013255268225073, 63.586520553728484], [11.040316753726485, 63.594878108207], [11.040088089097885, 63.60466697900303], [11.060373636876712, 63.61245502852568], [11.06701381593288, 63.61771629685945], [11.083739340108767, 63.62370729034182], [11.082666333853586, 63.62746428142306], [11.066108265097352, 63.63729126482215], [11.078271704014215, 63.648476838701], [11.10654186776342, 63.660497933764304], [11.124992659997512, 63.67654662446724], [11.144323451997248, 63.679717472199904], [11.168159913155403, 63.688769061515856], [11.186601214526096, 63.6927939807989], [11.189177408137722, 63.699449378647074], [11.202127643606211, 63.713742882882926], [11.217922110031049, 63.71631098109338], [11.250531551921789, 63.71603961885749], [11.260144563965904, 63.724068626374475], [11.288501362562748, 63.732117188256524], [11.292792755403637, 63.74109854028316], [11.325064640234432, 63.754647640611786], [11.345956919988753, 63.756359655336226], [11.375847505737307, 63.75438295840695], [11.42314018720948, 63.762938502961156], [11.433551997067239, 63.76022573487987], [11.451069866531995, 63.76149880298115], [11.468457821045245, 63.768872226569236], [11.474615438605003, 63.776176520866926], [11.4737878739305, 63.78456382445559], [11.484726212189246, 63.78842848091061], [11.48265908575799, 63.795627393775504], [11.471613836250912, 63.80427776581798], [11.451721991899765, 63.81211616403915], [11.44516258952704, 63.831796556360636], [11.43066081529572, 63.83538383835318], [11.420076388816279, 63.83545114516016], [11.415688822622613, 63.83705918183421], [11.411098122586923, 63.84967325021266], [11.403205182960825, 63.85327122396927], [11.400920907218442, 63.859489440759106], [11.406243240022144, 63.876157548890944], [11.430596354281963, 63.8935673882505], [11.437112820304932, 63.90307480327295], [11.43500770453756, 63.91132844886224], [11.424549150613744, 63.9248365053709], [11.411486881615414, 63.96271238842337], [11.424818096721946, 63.980896205198746], [11.463039758944563, 63.996013460750355], [11.497607743516838, 64.00561242310555], [11.499870780003508, 64.00843211090668], [11.491634844449246, 64.01460487483776], [11.492409599646532, 64.01791012402289], [11.513081738674934, 64.03113190184848], [11.526385277272512, 64.03433116164702], [11.545021211046057, 64.03625585193659], [11.553147419499254, 64.03957593283263], [11.575166533024088, 64.04174650492033], [11.59104309906578, 64.05110639831375], [11.600706691336864, 64.05378313097722], [11.6039919002787, 64.0565180678595], [11.601438736236597, 64.06159742418465], [11.616576478285095, 64.06830676818439], [11.63574691429474, 64.08340685067512], [11.632661990882294, 64.09193710794052], [11.636140370878202, 64.09751486629293], [11.664122390778054, 64.111610790189], [11.67620305122766, 64.11446536763185], [11.740719721877305, 64.12084597136239], [11.775614766911247, 64.12888900351395], [11.785408851520716, 64.12967975968918]], [[12.397057802448114, 64.53529914229546], [12.424593389288171, 64.53701237910701], [12.436910056896945, 64.53541830015526], [12.442963699543544, 64.53642515088403], [12.451559309908088, 64.5436822126803], [12.454118036798102, 64.55045778862183], [12.477997099159152, 64.56428036252566], [12.49121459642176, 64.5676569277617], [12.513730580155187, 64.57840684081593], [12.515121992956228, 64.58121593255301], [12.510872079097341, 64.58704870133951], [12.51480738722429, 64.5937934596437], [12.530332805446402, 64.60459718126734], [12.54450321667458, 64.61038394114135], [12.547539464560955, 64.61464681454159], [12.563872002600304, 64.61779439715076], [12.5810074774947, 64.62590294865657], [12.601408085874912, 64.6421375839564], [12.604744806366098, 64.64938940205577], [12.629606826611962, 64.65835006697169], [12.642950865122273, 64.66622143835328], [12.664806778411792, 64.6694323533772], [12.67685498637957, 64.67849474012787], [12.692965960410447, 64.68483645754564], [12.701368844167462, 64.69258071708217], [12.73266043723451, 64.70014298554655], [12.77506706485093, 64.7186291519547], [12.780742422221918, 64.72294478338154], [12.798661925880767, 64.72892199654841], [12.81722811688231, 64.74472814824261], [12.830943305803581, 64.75102837089386], [12.855822245963433, 64.75820115423903], [12.85835773583431, 64.76218137953187], [12.867857341509268, 64.76570550864454], [12.888093100116734, 64.77823388403257], [12.977948047441915, 64.8182999620814], [13.01321276951269, 64.84344988564165], [13.032537346591372, 64.84950989455062], [13.047089005096387, 64.85803439550348], [13.05349896368193, 64.85975055293996], [13.071692500375734, 64.88850063232282], [13.079768961377592, 64.89619254800606], [13.076260480327239, 64.91058515523453], [13.126281081673687, 64.9312937998134], [13.133558145018881, 64.93112901297962], [13.143590523258723, 64.92654564892074], [13.156440002751875, 64.9254381863408], [13.172113141186443, 64.93134706079499], [13.18648881716632, 64.94741000372974], [13.230960681991693, 64.96728197607818], [13.259640996259233, 64.99315957531007], [13.264616294380037, 65.00530704213568], [13.258964889236056, 65.01531418201978], [13.266704778048789, 65.02521894689396], [13.288958986628492, 65.03631616559905], [13.320763558411823, 65.04786401939589], [13.329344141313946, 65.05716023205426], [13.329779676027606, 65.06881038434179], [13.325864125794817, 65.0704169924633], [13.31641317808449, 65.070871951152], [13.313773352325708, 65.07342549678896], [13.320836757262894, 65.08064275043121], [13.330692939717368, 65.08459425637766], [13.346528056329804, 65.10183821285891], [13.331714226352318, 65.12181628955082], [13.333206510470756, 65.12829974907174], [13.336756202807496, 65.13340822354658], [13.350229753111426, 65.13868063780762], [13.354031502003725, 65.15052858178606], [13.366908424320316, 65.16157336101384], [13.368355474645393, 65.17015203930859], [13.359140575552008, 65.17922973016366], [13.34507499555935, 65.18368029529348], [13.340646965769098, 65.18875581147022], [13.35209645291313, 65.21423604911878], [13.359044246089796, 65.2197394443519], [13.357933984549863, 65.2255418969589], [13.343360087437134, 65.23646231541228], [13.322511939611543, 65.24642224355505], [13.320031965297767, 65.25392181833129], [13.303297401021789, 65.26696447145939], [13.305431603841091, 65.27189709395265], [13.314645503658218, 65.27913537191444], [13.309587796246454, 65.28611628139622], [13.30850387938299, 65.30392333298848], [13.312924887042278, 65.31826126945705], [13.340036532530103, 65.34586544062213], [13.340784019419427, 65.36241901858607], [13.362023710977777, 65.38280135193737], [13.361874983112672, 65.39000235230509], [13.371520352227279, 65.39481118257508], [13.381226745199331, 65.40459456150444], [13.388256033595471, 65.42685486802976], [13.393619431882525, 65.43094444393101], [13.396151168553727, 65.43736720508846], [13.38589916998598, 65.45405621380867], [13.400021351579946, 65.46701333749971], [13.402793446432813, 65.4893696027049], [13.392339561253468, 65.49826913109132], [13.391756066206101, 65.506903969244], [13.37491549233681, 65.51163903974623], [13.371147207926317, 65.5157858021029], [13.383135568251678, 65.52222956438895], [13.386408820035399, 65.52986953486067], [13.381232784292644, 65.54121322008305], [13.387482494785015, 65.55661333902283], [13.383322558945776, 65.56639595204433], [13.359315477515146, 65.58843261862806], [13.345221001596176, 65.59315677364572], [13.326543676207367, 65.59583052330998], [13.32292755141302, 65.60102307457511], [13.314224848422471, 65.60333030317425], [13.30715714553987, 65.60790444527989], [13.299722862394528, 65.61946214210542], [13.277982527301047, 65.62308100059631], [13.267912298498914, 65.62821321027646], [13.268228600304433, 65.6321397620828], [13.260593451789877, 65.63832976259192], [13.259840554083741, 65.64353017437115], [13.26565659031044, 65.66086325891555], [13.248971490631114, 65.67477655470952], [13.24259572639268, 65.68458625587542], [13.24581247656134, 65.6902870181069], [13.244521645334062, 65.69944844928145], [13.233752939034794, 65.7085305286613], [13.213960963177952, 65.71508890257378], [13.213529632335383, 65.73196542584841], [13.220078152583923, 65.73897503851322], [13.240734185861262, 65.75201064256729], [13.241247573990282, 65.76468801022075], [13.229914431367003, 65.78559046441248], [13.213416393019092, 65.79789961107993], [13.217644140700889, 65.81534607570441], [13.212338768965353, 65.8268439850355], [13.206191907106227, 65.8321243422302], [13.20567350431591, 65.83911186504227], [13.196105357920588, 65.84840711163129], [13.194105250710418, 65.85771740888887], [13.188209700917852, 65.86556264930586], [13.168114395635772, 65.87405571004201], [13.15974455086241, 65.8839994247833], [13.156652365189341, 65.89291681099559], [13.166609884878053, 65.90076306292698], [13.171824299865824, 65.90948723209105], [13.168292789384655, 65.91121273274156], [13.153835792081, 65.91280346016586], [13.134391661483377, 65.92130717699791], [13.133439325639875, 65.93019468580083], [13.141539463092311, 65.94191882255735], [13.17493404551577, 65.9552453579804], [13.188497829269272, 65.95667176630752], [13.209742645620043, 65.96162430772544], [13.249165839885496, 65.982181715201], [13.253173009800093, 65.98902932924113], [13.251667564277824, 65.99309651823914], [13.255823786101033, 65.9968858869975], [13.267245697518208, 66.00106385086497], [13.28027230613681, 66.00930039845976], [13.296605212952796, 66.01249346312532], [13.308762948276762, 66.01712053072134], [13.312435074906837, 66.02069613498092], [13.31203843640464, 66.02618447889195], [13.33142925838377, 66.03976847783086], [13.37296652364089, 66.04282929425064], [13.388854595880245, 66.0479626763438], [13.429554143492451, 66.05253516976516], [13.444479967860058, 66.06115398318659], [13.446832511927518, 66.06765377431947], [13.463560056501459, 66.074042447259], [13.467218359904424, 66.08131071865799], [13.507724818367182, 66.09945614342674], [13.521450555292512, 66.0990845613007], [13.531415023190036, 66.09323939252207], [13.544160874148016, 66.09448447132637], [13.564441468284276, 66.10487497976793], [13.564722416254781, 66.11848572072854], [13.567893246330616, 66.12330734812186], [13.575805185455831, 66.12752298217679], [13.576771855721182, 66.1315012269644], [13.592000525382401, 66.13669308796366], [13.598934223943601, 66.1469657877852], [13.610199378322418, 66.14920857688959], [13.617109156224425, 66.1529743968481], [13.64421768851275, 66.16019360026677], [13.69422090843026, 66.15853218075851], [13.715138993996597, 66.16170246301158], [13.738564429450312, 66.16832004666249], [13.754220612850318, 66.16956242653201], [13.771369218151658, 66.16498493798039], [13.77542017983365, 66.16069822771006], [13.783225105903675, 66.15787289050714], [13.784563929259527, 66.15085643889519], [13.796358838703547, 66.14052716879034], [13.816275884229215, 66.13618563952531], [13.826536143978624, 66.13723363510695], [13.831661003603212, 66.14129196841412], [13.829767233040368, 66.14743398236646], [13.844089999860959, 66.16339291973881], [13.82280745564568, 66.17314963048265], [13.806319836101428, 66.1770498693918], [13.799409801774805, 66.18093580320053], [13.79263013001676, 66.18741412789402], [13.794745667333405, 66.19222522518], [13.788180324353577, 66.197284138478], [13.793908154332815, 66.20627598900383], [13.813876528497412, 66.21320039514643], [13.85130236123224, 66.22275549166751], [13.859169911822283, 66.22879596580187], [13.884183049162042, 66.23142623820779], [13.903992381041514, 66.23592803797416], [13.92500188505958, 66.23497720968435], [13.933538753087136, 66.23881151499029], [13.94881711481228, 66.24123505526832], [13.957258519206627, 66.24631342316941], [13.973309843335086, 66.24913414467919], [13.977117010608463, 66.25283745076345], [13.9700990583929, 66.26299843308415], [13.980374403382983, 66.2704157796399], [13.99330282451626, 66.27336741937421], [14.014015469044644, 66.27280202074881], [14.028743142284563, 66.2752351471884], [14.04317625671481, 66.2817968134207], [14.05116171189627, 66.28807765978843], [14.085803524018178, 66.29230965447933], [14.09776711789468, 66.298364229649], [14.110357605237736, 66.30069708304273], [14.117244287913051, 66.30415207949407], [14.131399371239544, 66.30526345668848], [14.133899792059246, 66.30743963561054], [14.131246520612647, 66.31656009231226], [14.147786739856759, 66.31957541426564], [14.1534962813533, 66.32548378684712], [14.159013532380524, 66.32559196872457], [14.173888079327217, 66.32149219270397], [14.223351908570752, 66.32319608326796], [14.249133210169648, 66.31934921164041], [14.258149674371923, 66.32185033915401], [14.272974744515423, 66.33325930992062], [14.30114352136014, 66.33341734822461], [14.324005429979591, 66.33824020408296], [14.34790085580189, 66.3473118899999], [14.347131978638888, 66.35017492411211], [14.337407951888594, 66.35437248935186], [14.34034290970229, 66.36036064523893], [14.359983385889267, 66.36671235499468], [14.385273127636482, 66.37071519199512], [14.396855447497627, 66.37588638713247], [14.403368034420813, 66.39738026904406], [14.408108991828335, 66.4004122642134], [14.415947722543516, 66.40127639289689], [14.441277022594992, 66.39911060453419], [14.457178209025312, 66.40130805363599], [14.46778468786512, 66.40507924872666], [14.482242189136493, 66.40403612000044], [14.500983828213075, 66.40532326131523], [14.508555067133312, 66.40348600717978], [14.511685579392912, 66.39831020826769], [14.535328905263992, 66.38569414285877], [14.55121544334871, 66.38261261073959], [14.557346406029056, 66.3789512237359], [14.578292228694233, 66.37274796015468], [14.588925722152794, 66.37187135790091], [14.612516937638096, 66.37591037790806], [14.662047704661925, 66.39363598968846], [14.685814107509172, 66.39441150680486], [14.707061499597721, 66.40285358890752], [14.733665264606804, 66.40718608408423], [14.748710077143869, 66.4139128349497], [14.771047843778037, 66.41862015878363], [14.791414571740159, 66.4258230719004], [14.797056255707654, 66.43040619324775], [14.825122407990696, 66.4386706825836], [14.845880628485581, 66.45073522287869], [14.858436423549534, 66.46861154968117], [14.889422520589978, 66.49501418524869], [14.907031139057045, 66.49980799396415], [14.91788827202749, 66.50062046497828], [14.935308013230422, 66.4970364212264], [14.942613168328824, 66.49700032449402], [14.972274202399413, 66.5060703257649], [14.988765299999502, 66.50367914367891], [15.007625548373445, 66.49142002759815], [15.08814427245261, 66.47183231085424], [15.150214559903684, 66.45191469555189], [15.166093445363696, 66.45046449452958], [15.192330527456864, 66.45195676688562], [15.222329365368257, 66.4628770007284], [15.229107847753664, 66.46811372675505], [15.23308314025312, 66.47552524313966], [15.23209994994953, 66.49108356725533], [15.252601104629477, 66.50135140051088], [15.283951796303942, 66.50840850800412], [15.295066611151771, 66.51333887526651], [15.29852442026707, 66.51762905383083], [15.293727187236659, 66.5243846056608], [15.305978896849524, 66.54994856874247], [15.320008687285505, 66.56111062275652], [15.337802282073133, 66.56642327885079], [15.35068675986587, 66.57622703878832], [15.354730358667647, 66.5947238839256], [15.37643814806794, 66.61789396825068], [15.386271412755884, 66.63528279150577], [15.39898385070163, 66.64398011717091], [15.403727054676375, 66.65395617453368], [15.415450724423833, 66.66389417743429], [15.412845874427116, 66.66998878179974], [15.41639535457051, 66.67840243731995], [15.425695800875877, 66.68280418782354], [15.438820467663392, 66.69832602032822], [15.46093666580616, 66.71373368824148], [15.455829522296696, 66.73404986826824], [15.463475511451461, 66.74365435346648], [15.467809729422006, 66.76243245746876], [15.457141930253195, 66.77463633902016], [15.42442176830699, 66.7931351115965], [15.416424062904982, 66.79478392926154], [15.399115721910647, 66.7942119639649], [15.364990379732184, 66.80441056092195], [15.358087256913764, 66.80780434158343], [15.34921852387483, 66.81758964160575], [15.333997274097642, 66.8256446240569], [15.29087637117929, 66.83817047796667], [15.279489953215126, 66.8549272570937], [15.282343359339894, 66.8666327115119], [15.26561282555677, 66.87800031346788], [15.264672733092414, 66.88306141840852], [15.299522892834265, 66.90476810290406], [15.307566831139004, 66.9121968254961], [15.304207355464541, 66.91754520166212], [15.307872727856793, 66.93756837359294], [15.293994435287791, 66.9451995005963], [15.292743958911299, 66.94939456956364], [15.314292780515702, 66.9829929955542], [15.348322399111314, 67.00071575674663], [15.344815842368533, 67.01865792647578], [15.364126678648272, 67.02956861449064], [15.383141753482166, 67.0469089627876], [15.385910833733831, 67.05684784687445], [15.378360514941143, 67.08378034724228], [15.388968690194835, 67.09103174331496], [15.423941017894341, 67.09910508816671], [15.442377097401323, 67.09884948861051], [15.458200085108723, 67.0945753233614], [15.467255946199325, 67.09618081124674], [15.472787540834481, 67.09931543126281], [15.451498049259417, 67.11464671691971], [15.455376882082387, 67.12114436101106], [15.448540428499939, 67.13017056561156], [15.448144776899673, 67.13614035472342], [15.450968541856277, 67.14850783871137], [15.463108180897585, 67.1519421159838], [15.485208108609282, 67.16314226210258], [15.479713887269984, 67.17334962647378], [15.482118771737213, 67.18391242077274], [15.465344876762261, 67.19400301801456], [15.447296328853092, 67.19790728651847], [15.438954145686107, 67.20763083436093], [15.421683948540082, 67.2128972182697], [15.418658891730846, 67.21543118699006], [15.423165107374283, 67.22672289118785], [15.421434236478445, 67.23134898210172], [15.430982827945803, 67.23661723937201], [15.427465868208774, 67.24856490808237], [15.43726801044455, 67.25500724603512], [15.437879556481336, 67.26183489446176], [15.428748178705675, 67.26401286186469], [15.406126719608201, 67.26211752228352], [15.384691435183472, 67.26973409798116], [15.347032870460968, 67.27208034245909], [15.31760240683356, 67.26700515002626], [15.300674173521841, 67.2675713701403], [15.287796278374342, 67.26518819005696], [15.267156157706829, 67.26793329220895], [15.258991303533053, 67.27166103271192], [15.240191596811558, 67.27557576670492], [15.220596305891517, 67.29272357640896], [15.185716381632101, 67.30173549436442], [15.180361592569946, 67.31211504197638], [15.169786932986305, 67.31903751683917], [15.169004416895072, 67.32774121870897], [15.157405566444485, 67.33046916894251], [15.138582382609545, 67.32855243096556], [15.129700107984446, 67.3253064907395], [15.107292384691972, 67.32237089195384], [15.078804972030193, 67.32077299036706], [15.067245496225022, 67.32245102868653], [15.035766990105744, 67.32190078763158], [15.027862853639245, 67.31976383622921], [15.018285175296832, 67.31360424752425], [15.001247843811111, 67.3076381738849], [14.97852795894889, 67.29646250266207], [14.934169775727531, 67.29128129959152], [14.908505214632152, 67.2934058825716], [14.895162041656342, 67.29754301382332], [14.865168578147138, 67.29971927806824], [14.826805248161751, 67.29590073445115], [14.803703952296264, 67.29824695815917], [14.786159998683265, 67.2960435892144], [14.753565404903467, 67.29662591658881], [14.746926121197568, 67.29902124881325], [14.746593194746524, 67.30536470686617], [14.73996058034067, 67.31308573565497], [14.73058560321219, 67.3157110918626], [14.72260077156376, 67.3139079953355], [14.718761286589121, 67.30770676950559], [14.674710792145891, 67.29579434777654], [14.6461543180695, 67.2933629391048], [14.618349883869106, 67.2934216492356], [14.51693202899162, 67.27848360892217], [14.497417973828444, 67.27725827672519], [14.470601362282647, 67.28129534683517], [14.4433164378265, 67.29058971402925], [14.424378984222056, 67.29365570807134], [14.39143298279782, 67.28635822804559]], [[12.39705776882348, 64.53529919068279], [12.383756282951563, 64.53043622901595], [12.381570386663151, 64.52273347352144], [12.35894142900311, 64.50728151829607], [12.34627738787398, 64.48804910985521], [12.345331086792427, 64.47130959699281], [12.333740287014209, 64.45271491898492], [12.337860111933177, 64.44808026167817], [12.340534149211143, 64.43031043466618], [12.337029138283038, 64.4188864416005], [12.34450757088689, 64.41230218125145], [12.339278340068992, 64.40254140954667], [12.347276113308927, 64.39696027020186], [12.348538332724178, 64.39237628413338], [12.36446038350115, 64.38801576143767], [12.373017179708413, 64.38147104070917], [12.393873730380424, 64.38402618241024], [12.411418386530288, 64.38238080006772], [12.427530096408212, 64.38518942500869], [12.443670101575725, 64.3839692639507], [12.473447400631004, 64.38695063651193], [12.490205889880531, 64.38403875921026], [12.496276431383434, 64.38057837701348], [12.510388909190755, 64.37709612173379], [12.528089769225874, 64.35837545199934], [12.522130087193576, 64.33661257048603], [12.52617177806553, 64.33394120674275], [12.53747822784726, 64.33205538879947], [12.541846669171811, 64.32969909042991], [12.560856674071818, 64.2963714102591], [12.559590519667257, 64.29354229651172], [12.48693665819057, 64.26679788672506], [12.46073736565069, 64.26368969899985], [12.449898211553855, 64.26508768868611], [12.436069135789747, 64.26394316119637], [12.38857222678658, 64.25527317390154], [12.384235963611948, 64.25274494845189], [12.383380760224114, 64.24791548336594], [12.370682782565805, 64.24127173355751], [12.340716205237788, 64.23562643005567], [12.325167692862175, 64.23063098107369], [12.279774009007978, 64.22015204119081], [12.233386707979482, 64.20437660757909], [12.197054142652814, 64.19800603912033], [12.192914476953579, 64.19534439700838], [12.190375642461046, 64.18530162623571], [12.177415054382992, 64.1786733885818], [12.154197230036525, 64.1771056813558], [12.140780184262823, 64.1796590244061], [12.120727136408197, 64.18006490213759], [12.10138102817329, 64.17863664366733], [12.08661684263882, 64.17550107311274], [12.050334216002526, 64.17390142349842], [12.030041424772815, 64.17008617032623], [12.016080259600455, 64.17050457512993], [11.98864215026657, 64.16624494627858], [11.97270951202446, 64.15881681154977], [11.946042566773713, 64.15103768916173], [11.908747676359864, 64.13379744806682], [11.884448704435409, 64.13572035470462], [11.87544888753624, 64.13823368995342], [11.850280462806044, 64.1386206705462], [11.831747058742303, 64.13634101919644], [11.798022204456094, 64.12900864785087], [11.785409099065411, 64.12968134808358]]]}, "properties": {"OBJECTID": 4310, "Banekortnavn": "NORB", "Banestatus": "I", "Banenavn": "Nordlandsbanen", "GlobalID": "{FF57D4AE-B33F-4891-A6E9-7AB3D39F5E22}", "Shape.STLength()": 718109.2179479429}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[10.810936647762382, 63.41646202019495], [10.797366381060357, 63.41189467869973], [10.78358263854176, 63.413089080347476], [10.77788753629523, 63.4226892213308], [10.771384398407474, 63.4280201549302], [10.754776046248859, 63.432813505994], [10.718453632466169, 63.43095943500403], [10.675702450481383, 63.437611336533486], [10.663288158175074, 63.43741898839904], [10.65436969781768, 63.4412106213832], [10.638158755753304, 63.44252372087065], [10.614331704236333, 63.43736083485954], [10.609907013878505, 63.43829645678507], [10.606322521449957, 63.44158036264696], [10.600863379808358, 63.4420470496478], [10.559023986303831, 63.42973558355159], [10.544852301017652, 63.430429969606905], [10.526372150493415, 63.42644135684327], [10.489288529413887, 63.43600601497268], [10.467272718590218, 63.43629461571921], [10.448218868612866, 63.44044689721079], [10.436337776392026, 63.44045485087902], [10.414037835372797, 63.437182026559846]], [[10.81093669835305, 63.416462059952465], [10.81731822358726, 63.422215113383594], [10.854432488469579, 63.43366119893421], [10.871522246998008, 63.442244582259825], [10.889020714722893, 63.44566350039151], [10.905105156907586, 63.44694863967733], [10.91197265662473, 63.449538202612175], [10.9138075673863, 63.452325486930086], [10.91293003747005, 63.47796101454751], [10.896151473256438, 63.489048419931216], [10.89358509032554, 63.49775340139763], [10.881100530555171, 63.502444663853176], [10.863993802671793, 63.50239850615081], [10.853323704889512, 63.505786703683675], [10.805785882856428, 63.5097217602345], [10.79970155281253, 63.523887817784896], [10.809060058693682, 63.53059976623026], [10.822993871195713, 63.534129645095796], [10.842415286534836, 63.53625572690208], [10.859123582995272, 63.54258434312056], [10.874901766342283, 63.544773038020665], [10.890511264997789, 63.54414374540861], [10.896532643566358, 63.54544857957136], [10.9097023189346, 63.55295881404075], [10.923703647804258, 63.55636816098117], [10.941566318914173, 63.563863756831644], [10.995207909911247, 63.57720141805669], [11.013255268225073, 63.586520553728484], [11.040316753726485, 63.594878108207], [11.040088089097885, 63.60466697900303], [11.060373636876712, 63.61245502852568], [11.06701381593288, 63.61771629685945], [11.083739340108767, 63.62370729034182], [11.082666333853586, 63.62746428142306], [11.066108265097352, 63.63729126482215], [11.078271704014215, 63.648476838701], [11.10654186776342, 63.660497933764304], [11.124992659997512, 63.67654662446724], [11.144323451997248, 63.679717472199904], [11.168159913155403, 63.688769061515856], [11.186601214526096, 63.6927939807989], [11.189177408137722, 63.699449378647074], [11.202127643606211, 63.713742882882926], [11.217922110031049, 63.71631098109338], [11.250531551921789, 63.71603961885749], [11.260144563965904, 63.724068626374475], [11.288501362562748, 63.732117188256524], [11.292792755403637, 63.74109854028316], [11.325064640234432, 63.754647640611786], [11.345956919988753, 63.756359655336226], [11.375847505737307, 63.75438295840695], [11.42314018720948, 63.762938502961156], [11.433551997067239, 63.76022573487987], [11.451069866531995, 63.76149880298115], [11.468457821045245, 63.768872226569236], [11.474615438605003, 63.776176520866926], [11.4737878739305, 63.78456382445559], [11.484726212189246, 63.78842848091061], [11.48265908575799, 63.795627393775504], [11.471613836250912, 63.80427776581798], [11.451721991899765, 63.81211616403915], [11.44516258952704, 63.831796556360636], [11.43066081529572, 63.83538383835318], [11.420076388816279, 63.83545114516016], [11.415688822622613, 63.83705918183421], [11.411098122586923, 63.84967325021266], [11.403205182960825, 63.85327122396927], [11.400920907218442, 63.859489440759106], [11.406243240022144, 63.876157548890944], [11.430596354281963, 63.8935673882505], [11.437112820304932, 63.90307480327295], [11.43500770453756, 63.91132844886224], [11.424549150613744, 63.9248365053709], [11.411486881615414, 63.96271238842337], [11.424818096721946, 63.980896205198746], [11.463039758944563, 63.996013460750355], [11.497607743516838, 64.00561242310555], [11.499870780003508, 64.00843211090668], [11.491634844449246, 64.01460487483776], [11.492409599646532, 64.01791012402289], [11.513081738674934, 64.03113190184848], [11.526385277272512, 64.03433116164702], [11.545021211046057, 64.03625585193659], [11.553147419499254, 64.03957593283263], [11.575166533024088, 64.04174650492033], [11.59104309906578, 64.05110639831375], [11.600706691336864, 64.05378313097722], [11.6039919002787, 64.0565180678595], [11.601438736236597, 64.06159742418465], [11.616576478285095, 64.06830676818439], [11.63574691429474, 64.08340685067512], [11.632661990882294, 64.09193710794052], [11.636140370878202, 64.09751486629293], [11.664122390778054, 64.111610790189], [11.67620305122766, 64.11446536763185], [11.740719721877305, 64.12084597136239], [11.775614766911247, 64.12888900351395], [11.785408851520716, 64.12967975968918]], [[12.397057802448114, 64.53529914229546], [12.424593389288171, 64.53701237910701], [12.436910056896945, 64.53541830015526], [12.442963699543544, 64.53642515088403], [12.451559309908088, 64.5436822126803], [12.454118036798102, 64.55045778862183], [12.477997099159152, 64.56428036252566], [12.49121459642176, 64.5676569277617], [12.513730580155187, 64.57840684081593], [12.515121992956228, 64.58121593255301], [12.510872079097341, 64.58704870133951], [12.51480738722429, 64.5937934596437], [12.530332805446402, 64.60459718126734], [12.54450321667458, 64.61038394114135], [12.547539464560955, 64.61464681454159], [12.563872002600304, 64.61779439715076], [12.5810074774947, 64.62590294865657], [12.601408085874912, 64.6421375839564], [12.604744806366098, 64.64938940205577], [12.629606826611962, 64.65835006697169], [12.642950865122273, 64.66622143835328], [12.664806778411792, 64.6694323533772], [12.67685498637957, 64.67849474012787], [12.692965960410447, 64.68483645754564], [12.701368844167462, 64.69258071708217], [12.73266043723451, 64.70014298554655], [12.77506706485093, 64.7186291519547], [12.780742422221918, 64.72294478338154], [12.798661925880767, 64.72892199654841], [12.81722811688231, 64.74472814824261], [12.830943305803581, 64.75102837089386], [12.855822245963433, 64.75820115423903], [12.85835773583431, 64.76218137953187], [12.867857341509268, 64.76570550864454], [12.888093100116734, 64.77823388403257], [12.977948047441915, 64.8182999620814], [13.01321276951269, 64.84344988564165], [13.032537346591372, 64.84950989455062], [13.047089005096387, 64.85803439550348], [13.05349896368193, 64.85975055293996], [13.071692500375734, 64.88850063232282], [13.079768961377592, 64.89619254800606], [13.076260480327239, 64.91058515523453], [13.126281081673687, 64.9312937998134], [13.133558145018881, 64.93112901297962], [13.143590523258723, 64.92654564892074], [13.156440002751875, 64.9254381863408], [13.172113141186443, 64.93134706079499], [13.18648881716632, 64.94741000372974], [13.230960681991693, 64.96728197607818], [13.259640996259233, 64.99315957531007], [13.264616294380037, 65.00530704213568], [13.258964889236056, 65.01531418201978], [13.266704778048789, 65.02521894689396], [13.288958986628492, 65.03631616559905], [13.320763558411823, 65.04786401939589], [13.329344141313946, 65.05716023205426], [13.329779676027606, 65.06881038434179], [13.325864125794817, 65.0704169924633], [13.31641317808449, 65.070871951152], [13.313773352325708, 65.07342549678896], [13.320836757262894, 65.08064275043121], [13.330692939717368, 65.08459425637766], [13.346528056329804, 65.10183821285891], [13.331714226352318, 65.12181628955082], [13.333206510470756, 65.12829974907174], [13.336756202807496, 65.13340822354658], [13.350229753111426, 65.13868063780762], [13.354031502003725, 65.15052858178606], [13.366908424320316, 65.16157336101384], [13.368355474645393, 65.17015203930859], [13.359140575552008, 65.17922973016366], [13.34507499555935, 65.18368029529348], [13.340646965769098, 65.18875581147022], [13.35209645291313, 65.21423604911878], [13.359044246089796, 65.2197394443519], [13.357933984549863, 65.2255418969589], [13.343360087437134, 65.23646231541228], [13.322511939611543, 65.24642224355505], [13.320031965297767, 65.25392181833129], [13.303297401021789, 65.26696447145939], [13.305431603841091, 65.27189709395265], [13.314645503658218, 65.27913537191444], [13.309587796246454, 65.28611628139622], [13.30850387938299, 65.30392333298848], [13.312924887042278, 65.31826126945705], [13.340036532530103, 65.34586544062213], [13.340784019419427, 65.36241901858607], [13.362023710977777, 65.38280135193737], [13.361874983112672, 65.39000235230509], [13.371520352227279, 65.39481118257508], [13.381226745199331, 65.40459456150444], [13.388256033595471, 65.42685486802976], [13.393619431882525, 65.43094444393101], [13.396151168553727, 65.43736720508846], [13.38589916998598, 65.45405621380867], [13.400021351579946, 65.46701333749971], [13.402793446432813, 65.4893696027049], [13.392339561253468, 65.49826913109132], [13.391756066206101, 65.506903969244], [13.37491549233681, 65.51163903974623], [13.371147207926317, 65.5157858021029], [13.383135568251678, 65.52222956438895], [13.386408820035399, 65.52986953486067], [13.381232784292644, 65.54121322008305], [13.387482494785015, 65.55661333902283], [13.383322558945776, 65.56639595204433], [13.359315477515146, 65.58843261862806], [13.345221001596176, 65.59315677364572], [13.326543676207367, 65.59583052330998], [13.32292755141302, 65.60102307457511], [13.314224848422471, 65.60333030317425], [13.30715714553987, 65.60790444527989], [13.299722862394528, 65.61946214210542], [13.277982527301047, 65.62308100059631], [13.267912298498914, 65.62821321027646], [13.268228600304433, 65.6321397620828], [13.260593451789877, 65.63832976259192], [13.259840554083741, 65.64353017437115], [13.26565659031044, 65.66086325891555], [13.248971490631114, 65.67477655470952], [13.24259572639268, 65.68458625587542], [13.24581247656134, 65.6902870181069], [13.244521645334062, 65.69944844928145], [13.233752939034794, 65.7085305286613], [13.213960963177952, 65.71508890257378], [13.213529632335383, 65.73196542584841], [13.220078152583923, 65.73897503851322], [13.240734185861262, 65.75201064256729], [13.241247573990282, 65.76468801022075], [13.229914431367003, 65.78559046441248], [13.213416393019092, 65.79789961107993], [13.217644140700889, 65.81534607570441], [13.212338768965353, 65.8268439850355], [13.206191907106227, 65.8321243422302], [13.20567350431591, 65.83911186504227], [13.196105357920588, 65.84840711163129], [13.194105250710418, 65.85771740888887], [13.188209700917852, 65.86556264930586], [13.168114395635772, 65.87405571004201], [13.15974455086241, 65.8839994247833], [13.156652365189341, 65.89291681099559], [13.166609884878053, 65.90076306292698], [13.171824299865824, 65.90948723209105], [13.168292789384655, 65.91121273274156], [13.153835792081, 65.91280346016586], [13.134391661483377, 65.92130717699791], [13.133439325639875, 65.93019468580083], [13.141539463092311, 65.94191882255735], [13.17493404551577, 65.9552453579804], [13.188497829269272, 65.95667176630752], [13.209742645620043, 65.96162430772544], [13.249165839885496, 65.982181715201], [13.253173009800093, 65.98902932924113], [13.251667564277824, 65.99309651823914], [13.255823786101033, 65.9968858869975], [13.267245697518208, 66.00106385086497], [13.28027230613681, 66.00930039845976], [13.296605212952796, 66.01249346312532], [13.308762948276762, 66.01712053072134], [13.312435074906837, 66.02069613498092], [13.31203843640464, 66.02618447889195], [13.33142925838377, 66.03976847783086], [13.37296652364089, 66.04282929425064], [13.388854595880245, 66.0479626763438], [13.429554143492451, 66.05253516976516], [13.444479967860058, 66.06115398318659], [13.446832511927518, 66.06765377431947], [13.463560056501459, 66.074042447259], [13.467218359904424, 66.08131071865799], [13.507724818367182, 66.09945614342674], [13.521450555292512, 66.0990845613007], [13.531415023190036, 66.09323939252207], [13.544160874148016, 66.09448447132637], [13.564441468284276, 66.10487497976793], [13.564722416254781, 66.11848572072854], [13.567893246330616, 66.12330734812186], [13.575805185455831, 66.12752298217679], [13.576771855721182, 66.1315012269644], [13.592000525382401, 66.13669308796366], [13.598934223943601, 66.1469657877852], [13.610199378322418, 66.14920857688959], [13.617109156224425, 66.1529743968481], [13.64421768851275, 66.16019360026677], [13.69422090843026, 66.15853218075851], [13.715138993996597, 66.16170246301158], [13.738564429450312, 66.16832004666249], [13.754220612850318, 66.16956242653201], [13.771369218151658, 66.16498493798039], [13.77542017983365, 66.16069822771006], [13.783225105903675, 66.15787289050714], [13.784563929259527, 66.15085643889519], [13.796358838703547, 66.14052716879034], [13.816275884229215, 66.13618563952531], [13.826536143978624, 66.13723363510695], [13.831661003603212, 66.14129196841412], [13.829767233040368, 66.14743398236646], [13.844089999860959, 66.16339291973881], [13.82280745564568, 66.17314963048265], [13.806319836101428, 66.1770498693918], [13.799409801774805, 66.18093580320053], [13.79263013001676, 66.18741412789402], [13.794745667333405, 66.19222522518], [13.788180324353577, 66.197284138478], [13.793908154332815, 66.20627598900383], [13.813876528497412, 66.21320039514643], [13.85130236123224, 66.22275549166751], [13.859169911822283, 66.22879596580187], [13.884183049162042, 66.23142623820779], [13.903992381041514, 66.23592803797416], [13.92500188505958, 66.23497720968435], [13.933538753087136, 66.23881151499029], [13.94881711481228, 66.24123505526832], [13.957258519206627, 66.24631342316941], [13.973309843335086, 66.24913414467919], [13.977117010608463, 66.25283745076345], [13.9700990583929, 66.26299843308415], [13.980374403382983, 66.2704157796399], [13.99330282451626, 66.27336741937421], [14.014015469044644, 66.27280202074881], [14.028743142284563, 66.2752351471884], [14.04317625671481, 66.2817968134207], [14.05116171189627, 66.28807765978843], [14.085803524018178, 66.29230965447933], [14.09776711789468, 66.298364229649], [14.110357605237736, 66.30069708304273], [14.117244287913051, 66.30415207949407], [14.131399371239544, 66.30526345668848], [14.133899792059246, 66.30743963561054], [14.131246520612647, 66.31656009231226], [14.147786739856759, 66.31957541426564], [14.1534962813533, 66.32548378684712], [14.159013532380524, 66.32559196872457], [14.173888079327217, 66.32149219270397], [14.223351908570752, 66.32319608326796], [14.249133210169648, 66.31934921164041], [14.258149674371923, 66.32185033915401], [14.272974744515423, 66.33325930992062], [14.30114352136014, 66.33341734822461], [14.324005429979591, 66.33824020408296], [14.34790085580189, 66.3473118899999], [14.347131978638888, 66.35017492411211], [14.337407951888594, 66.35437248935186], [14.34034290970229, 66.36036064523893], [14.359983385889267, 66.36671235499468], [14.385273127636482, 66.37071519199512], [14.396855447497627, 66.37588638713247], [14.403368034420813, 66.39738026904406], [14.408108991828335, 66.4004122642134], [14.415947722543516, 66.40127639289689], [14.441277022594992, 66.39911060453419], [14.457178209025312, 66.40130805363599], [14.46778468786512, 66.40507924872666], [14.482242189136493, 66.40403612000044], [14.500983828213075, 66.40532326131523], [14.508555067133312, 66.40348600717978], [14.511685579392912, 66.39831020826769], [14.535328905263992, 66.38569414285877], [14.55121544334871, 66.38261261073959], [14.557346406029056, 66.3789512237359], [14.578292228694233, 66.37274796015468], [14.588925722152794, 66.37187135790091], [14.612516937638096, 66.37591037790806], [14.662047704661925, 66.39363598968846], [14.685814107509172, 66.39441150680486], [14.707061499597721, 66.40285358890752], [14.733665264606804, 66.40718608408423], [14.748710077143869, 66.4139128349497], [14.771047843778037, 66.41862015878363], [14.791414571740159, 66.4258230719004], [14.797056255707654, 66.43040619324775], [14.825122407990696, 66.4386706825836], [14.845880628485581, 66.45073522287869], [14.858436423549534, 66.46861154968117], [14.889422520589978, 66.49501418524869], [14.907031139057045, 66.49980799396415], [14.91788827202749, 66.50062046497828], [14.935308013230422, 66.4970364212264], [14.942613168328824, 66.49700032449402], [14.972274202399413, 66.5060703257649], [14.988765299999502, 66.50367914367891], [15.007625548373445, 66.49142002759815], [15.08814427245261, 66.47183231085424], [15.150214559903684, 66.45191469555189], [15.166093445363696, 66.45046449452958], [15.192330527456864, 66.45195676688562], [15.222329365368257, 66.4628770007284], [15.229107847753664, 66.46811372675505], [15.23308314025312, 66.47552524313966], [15.23209994994953, 66.49108356725533], [15.252601104629477, 66.50135140051088], [15.283951796303942, 66.50840850800412], [15.295066611151771, 66.51333887526651], [15.29852442026707, 66.51762905383083], [15.293727187236659, 66.5243846056608], [15.305978896849524, 66.54994856874247], [15.320008687285505, 66.56111062275652], [15.337802282073133, 66.56642327885079], [15.35068675986587, 66.57622703878832], [15.354730358667647, 66.5947238839256], [15.37643814806794, 66.61789396825068], [15.386271412755884, 66.63528279150577], [15.39898385070163, 66.64398011717091], [15.403727054676375, 66.65395617453368], [15.415450724423833, 66.66389417743429], [15.412845874427116, 66.66998878179974], [15.41639535457051, 66.67840243731995], [15.425695800875877, 66.68280418782354], [15.438820467663392, 66.69832602032822], [15.46093666580616, 66.71373368824148], [15.455829522296696, 66.73404986826824], [15.463475511451461, 66.74365435346648], [15.467809729422006, 66.76243245746876], [15.457141930253195, 66.77463633902016], [15.42442176830699, 66.7931351115965], [15.416424062904982, 66.79478392926154], [15.399115721910647, 66.7942119639649], [15.364990379732184, 66.80441056092195], [15.358087256913764, 66.80780434158343], [15.34921852387483, 66.81758964160575], [15.333997274097642, 66.8256446240569], [15.29087637117929, 66.83817047796667], [15.279489953215126, 66.8549272570937], [15.282343359339894, 66.8666327115119], [15.26561282555677, 66.87800031346788], [15.264672733092414, 66.88306141840852], [15.299522892834265, 66.90476810290406], [15.307566831139004, 66.9121968254961], [15.304207355464541, 66.91754520166212], [15.307872727856793, 66.93756837359294], [15.293994435287791, 66.9451995005963], [15.292743958911299, 66.94939456956364], [15.314292780515702, 66.9829929955542], [15.348322399111314, 67.00071575674663], [15.344815842368533, 67.01865792647578], [15.364126678648272, 67.02956861449064], [15.383141753482166, 67.0469089627876], [15.385910833733831, 67.05684784687445], [15.378360514941143, 67.08378034724228], [15.388968690194835, 67.09103174331496], [15.423941017894341, 67.09910508816671], [15.442377097401323, 67.09884948861051], [15.458200085108723, 67.0945753233614], [15.467255946199325, 67.09618081124674], [15.472787540834481, 67.09931543126281], [15.451498049259417, 67.11464671691971], [15.455376882082387, 67.12114436101106], [15.448540428499939, 67.13017056561156], [15.448144776899673, 67.13614035472342], [15.450968541856277, 67.14850783871137], [15.463108180897585, 67.1519421159838], [15.485208108609282, 67.16314226210258], [15.479713887269984, 67.17334962647378], [15.482118771737213, 67.18391242077274], [15.465344876762261, 67.19400301801456], [15.447296328853092, 67.19790728651847], [15.438954145686107, 67.20763083436093], [15.421683948540082, 67.2128972182697], [15.418658891730846, 67.21543118699006], [15.423165107374283, 67.22672289118785], [15.421434236478445, 67.23134898210172], [15.430982827945803, 67.23661723937201], [15.427465868208774, 67.24856490808237], [15.43726801044455, 67.25500724603512], [15.437879556481336, 67.26183489446176], [15.428748178705675, 67.26401286186469], [15.406126719608201, 67.26211752228352], [15.384691435183472, 67.26973409798116], [15.347032870460968, 67.27208034245909], [15.31760240683356, 67.26700515002626], [15.300674173521841, 67.2675713701403], [15.287796278374342, 67.26518819005696], [15.267156157706829, 67.26793329220895], [15.258991303533053, 67.27166103271192], [15.240191596811558, 67.27557576670492], [15.220596305891517, 67.29272357640896], [15.185716381632101, 67.30173549436442], [15.180361592569946, 67.31211504197638], [15.169786932986305, 67.31903751683917], [15.169004416895072, 67.32774121870897], [15.157405566444485, 67.33046916894251], [15.138582382609545, 67.32855243096556], [15.129700107984446, 67.3253064907395], [15.107292384691972, 67.32237089195384], [15.078804972030193, 67.32077299036706], [15.067245496225022, 67.32245102868653], [15.035766990105744, 67.32190078763158], [15.027862853639245, 67.31976383622921], [15.018285175296832, 67.31360424752425], [15.001247843811111, 67.3076381738849], [14.97852795894889, 67.29646250266207], [14.934169775727531, 67.29128129959152], [14.908505214632152, 67.2934058825716], [14.895162041656342, 67.29754301382332], [14.865168578147138, 67.29971927806824], [14.826805248161751, 67.29590073445115], [14.803703952296264, 67.29824695815917], [14.786159998683265, 67.2960435892144], [14.753565404903467, 67.29662591658881], [14.746926121197568, 67.29902124881325], [14.746593194746524, 67.30536470686617], [14.73996058034067, 67.31308573565497], [14.73058560321219, 67.3157110918626], [14.72260077156376, 67.3139079953355], [14.718761286589121, 67.30770676950559], [14.674710792145891, 67.29579434777654], [14.6461543180695, 67.2933629391048], [14.618349883869106, 67.2934216492356], [14.51693202899162, 67.27848360892217], [14.497417973828444, 67.27725827672519], [14.470601362282647, 67.28129534683517], [14.4433164378265, 67.29058971402925], [14.424378984222056, 67.29365570807134], [14.39143298279782, 67.28635822804559]], [[12.39705776882348, 64.53529919068279], [12.383756282951563, 64.53043622901595], [12.381570386663151, 64.52273347352144], [12.35894142900311, 64.50728151829607], [12.34627738787398, 64.48804910985521], [12.345331086792427, 64.47130959699281], [12.333740287014209, 64.45271491898492], [12.337860111933177, 64.44808026167817], [12.340534149211143, 64.43031043466618], [12.337029138283038, 64.4188864416005], [12.34450757088689, 64.41230218125145], [12.339278340068992, 64.40254140954667], [12.347276113308927, 64.39696027020186], [12.348538332724178, 64.39237628413338], [12.36446038350115, 64.38801576143767], [12.373017179708413, 64.38147104070917], [12.393873730380424, 64.38402618241024], [12.411418386530288, 64.38238080006772], [12.427530096408212, 64.38518942500869], [12.443670101575725, 64.3839692639507], [12.473447400631004, 64.38695063651193], [12.490205889880531, 64.38403875921026], [12.496276431383434, 64.38057837701348], [12.510388909190755, 64.37709612173379], [12.528089769225874, 64.35837545199934], [12.522130087193576, 64.33661257048603], [12.52617177806553, 64.33394120674275], [12.53747822784726, 64.33205538879947], [12.541846669171811, 64.32969909042991], [12.560856674071818, 64.2963714102591], [12.559590519667257, 64.29354229651172], [12.48693665819057, 64.26679788672506], [12.46073736565069, 64.26368969899985], [12.449898211553855, 64.26508768868611], [12.436069135789747, 64.26394316119637], [12.38857222678658, 64.25527317390154], [12.384235963611948, 64.25274494845189], [12.383380760224114, 64.24791548336594], [12.370682782565805, 64.24127173355751], [12.340716205237788, 64.23562643005567], [12.325167692862175, 64.23063098107369], [12.279774009007978, 64.22015204119081], [12.233386707979482, 64.20437660757909], [12.197054142652814, 64.19800603912033], [12.192914476953579, 64.19534439700838], [12.190375642461046, 64.18530162623571], [12.177415054382992, 64.1786733885818], [12.154197230036525, 64.1771056813558], [12.140780184262823, 64.1796590244061], [12.120727136408197, 64.18006490213759], [12.10138102817329, 64.17863664366733], [12.08661684263882, 64.17550107311274], [12.050334216002526, 64.17390142349842], [12.030041424772815, 64.17008617032623], [12.016080259600455, 64.17050457512993], [11.98864215026657, 64.16624494627858], [11.97270951202446, 64.15881681154977], [11.946042566773713, 64.15103768916173], [11.908747676359864, 64.13379744806682], [11.884448704435409, 64.13572035470462], [11.87544888753624, 64.13823368995342], [11.850280462806044, 64.1386206705462], [11.831747058742303, 64.13634101919644], [11.798022204456094, 64.12900864785087], [11.785409099065411, 64.12968134808358]]]}, "properties": {"Banenavn": "Nordlandsbanen"}}</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24707</v>
+        <v>24541</v>
       </c>
     </row>
     <row r="22">
@@ -826,11 +826,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4311, "geometry": {"type": "LineString", "coordinates": [[10.818533614183496, 63.434672389990745], [10.84543276918532, 63.43516492799331], [10.864679269694296, 63.444096888093135], [10.88097854447231, 63.44442068111982]]}, "properties": {"OBJECTID": 4311, "Banekortnavn": "NORB_MVK", "Banestatus": "I", "Banenavn": "Nordlandsbanen Sidespor Muruvik", "GlobalID": "{B17928C5-2234-4DDE-A40B-8BE9A2FDE80A}", "Shape.STLength()": 3540.4405641821836}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.818533614183496, 63.434672389990745], [10.84543276918532, 63.43516492799331], [10.864679269694296, 63.444096888093135], [10.88097854447231, 63.44442068111982]]}, "properties": {"Banenavn": "Nordlandsbanen Sidespor Muruvik"}}</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>470</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23">
@@ -844,11 +844,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4312, "geometry": {"type": "LineString", "coordinates": [[11.164240557538026, 63.71125517775384], [11.171817569201501, 63.69700962225393], [11.179473095378663, 63.696465400963376], [11.190088892819285, 63.700491913578865]]}, "properties": {"OBJECTID": 4312, "Banekortnavn": "NORB_SGN", "Banestatus": "I", "Banenavn": "Nordlandsbanen Sidespor Fiborgtangen", "GlobalID": "{DE463ED2-3E4C-43BD-80C4-24C252644CD4}", "Shape.STLength()": 2705.1201159374673}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[11.164240557538026, 63.71125517775384], [11.171817569201501, 63.69700962225393], [11.179473095378663, 63.696465400963376], [11.190088892819285, 63.700491913578865]]}, "properties": {"Banenavn": "Nordlandsbanen Sidespor Fiborgtangen"}}</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>477</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24">
@@ -862,11 +862,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4313, "geometry": {"type": "LineString", "coordinates": [[11.474863968388679, 63.77777131025886], [11.473385159046236, 63.78029842153421], [11.466712981214329, 63.781224474725185], [11.460354824764227, 63.784561648795645], [11.441770990826523, 63.7848088983649]]}, "properties": {"OBJECTID": 4313, "Banekortnavn": "NORB_VDL", "Banestatus": "I", "Banenavn": "Nordlandsbanen Sidespor Verdal", "GlobalID": "{3F031728-1F66-433E-8312-7392378C3671}", "Shape.STLength()": 2038.6485605498972}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[11.474863968388679, 63.77777131025886], [11.473385159046236, 63.78029842153421], [11.466712981214329, 63.781224474725185], [11.460354824764227, 63.784561648795645], [11.441770990826523, 63.7848088983649]]}, "properties": {"Banenavn": "Nordlandsbanen Sidespor Verdal"}}</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>511</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25">
@@ -880,11 +880,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4315, "geometry": {"type": "LineString", "coordinates": [[9.64826993527884, 59.67371873219941], [9.642509703009708, 59.68137124494755], [9.64448460320508, 59.68842655680472], [9.637253555745588, 59.69242444615024], [9.636939662640167, 59.699750197914966], [9.621431608225395, 59.707532882837924], [9.61203891004614, 59.71561769615729], [9.60078919218281, 59.71926383915013], [9.595168122554206, 59.72380406528443], [9.595354930544287, 59.74019965082862], [9.5916484623158, 59.7438425453992], [9.590419147905008, 59.749990197986406], [9.593370282127427, 59.76136531384594], [9.587820537214226, 59.764870196154725], [9.579526865888258, 59.76557044510149], [9.577518221822665, 59.76893557634482], [9.577801002399514, 59.773833084892466], [9.585637104426521, 59.78150739613039], [9.586071527515136, 59.784819273410065], [9.584313674340324, 59.78877011849334], [9.577458665448296, 59.79224287867396], [9.585033921539688, 59.8037876525595], [9.578233643096343, 59.82307962480897], [9.580730401292158, 59.82738653583579], [9.578590887986739, 59.83161876173496], [9.57098881651345, 59.83503901131581], [9.548040170232511, 59.83877519990787], [9.53729610403661, 59.83905295424669], [9.53006618435535, 59.84340103180591], [9.51513157377593, 59.84511696082605], [9.50328641374533, 59.85072251128532], [9.478661040053352, 59.85407311003223], [9.464406776970101, 59.8509149201317], [9.453087571284899, 59.85265158379846], [9.439267352994069, 59.85909384762228], [9.422189380239034, 59.86415214778797]]}, "properties": {"OBJECTID": 4315, "Banekortnavn": "NUMB", "Banestatus": "I", "Banenavn": "Numedalsbanen", "GlobalID": "{9F1106AA-ABBA-4DD8-84F6-C79132D92866}", "Shape.STLength()": 29811.26999349029}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.64826993527884, 59.67371873219941], [9.642509703009708, 59.68137124494755], [9.64448460320508, 59.68842655680472], [9.637253555745588, 59.69242444615024], [9.636939662640167, 59.699750197914966], [9.621431608225395, 59.707532882837924], [9.61203891004614, 59.71561769615729], [9.60078919218281, 59.71926383915013], [9.595168122554206, 59.72380406528443], [9.595354930544287, 59.74019965082862], [9.5916484623158, 59.7438425453992], [9.590419147905008, 59.749990197986406], [9.593370282127427, 59.76136531384594], [9.587820537214226, 59.764870196154725], [9.579526865888258, 59.76557044510149], [9.577518221822665, 59.76893557634482], [9.577801002399514, 59.773833084892466], [9.585637104426521, 59.78150739613039], [9.586071527515136, 59.784819273410065], [9.584313674340324, 59.78877011849334], [9.577458665448296, 59.79224287867396], [9.585033921539688, 59.8037876525595], [9.578233643096343, 59.82307962480897], [9.580730401292158, 59.82738653583579], [9.578590887986739, 59.83161876173496], [9.57098881651345, 59.83503901131581], [9.548040170232511, 59.83877519990787], [9.53729610403661, 59.83905295424669], [9.53006618435535, 59.84340103180591], [9.51513157377593, 59.84511696082605], [9.50328641374533, 59.85072251128532], [9.478661040053352, 59.85407311003223], [9.464406776970101, 59.8509149201317], [9.453087571284899, 59.85265158379846], [9.439267352994069, 59.85909384762228], [9.422189380239034, 59.86415214778797]]}, "properties": {"Banenavn": "Numedalsbanen"}}</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1715</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="26">
@@ -898,11 +898,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4317, "geometry": {"type": "LineString", "coordinates": [[10.834382820480196, 59.71815565439054], [10.837421549799721, 59.714903568441684], [10.86960127492596, 59.710262599952856], [10.875722517611193, 59.70810888151643], [10.886846693916594, 59.68715041248073], [10.9010461182328, 59.677508406584934], [10.932364323638224, 59.67077427900151], [10.949944412953975, 59.66465616891148], [10.960363577300104, 59.664577386830494], [10.978915488071285, 59.661016195680716], [10.99654437378649, 59.661221486931275], [11.01303312450995, 59.65790876049836], [11.02979095033093, 59.63586851069773], [11.034998155654629, 59.62316119904891], [11.047463044691067, 59.622976659423145], [11.07058275599565, 59.61899286109862], [11.084022026557626, 59.62232653709097], [11.095684735068929, 59.62801299535785], [11.106541851435356, 59.62806934521713], [11.10860532623496, 59.61857786436262], [11.117203697435679, 59.608442094589776], [11.13536806472779, 59.60419123813182], [11.140710253885102, 59.60120859923957], [11.140468184445412, 59.59228043476708], [11.148870065866245, 59.5835805191688], [11.18143891739384, 59.577440000859525], [11.238829265914, 59.57069526474734], [11.24956392142213, 59.56725220822601], [11.275201729896908, 59.566001934215585], [11.288203821861368, 59.56923269964351], [11.300324760345118, 59.56471712466701], [11.314301740309247, 59.56225505891004], [11.323109853837693, 59.558254358976065], [11.32285288426748, 59.55105175512762], [11.30451189348992, 59.532311434058705], [11.307046731618515, 59.52164220450523], [11.303598489735469, 59.513337422129275], [11.317307908937863, 59.497759970361706], [11.31828285361134, 59.4910971228289], [11.327618789766728, 59.478291049280394], [11.338207496528826, 59.45208238594189], [11.339624617067736, 59.416115369904695], [11.335687077368096, 59.41277255515144], [11.325418704294226, 59.40964420699556], [11.328197668321828, 59.40306892837497], [11.317956942089754, 59.39219474618306], [11.283604339216946, 59.36898587759792], [11.276006427658832, 59.347684057237196], [11.263813189108124, 59.34539027254794], [11.259900493952783, 59.33672223692292], [11.248589364518779, 59.33401839189987], [11.251775215653756, 59.32342840980931], [11.246282168704074, 59.32189506637124], [11.235761328734357, 59.32260517327671], [11.22815867266691, 59.31992054830516], [11.227858776685297, 59.317642711760925], [11.232153850229853, 59.3144580291019], [11.232517310531742, 59.30903000193794], [11.226543630411452, 59.30346845326475], [11.217610189718055, 59.29910310518655], [11.21570396873423, 59.29489410928967], [11.209792066535933, 59.292648460659414], [11.195143554069652, 59.290853870268066], [11.189982038635467, 59.28642654981661], [11.182077638903618, 59.283905766348276], [11.179682273767341, 59.27826724182119], [11.175389007969606, 59.275752663276826], [11.16383747816185, 59.273954231519205], [11.156177523242528, 59.27580748859498], [11.147169406220211, 59.27471230023661], [11.13466439061421, 59.275689819940894]]}, "properties": {"OBJECTID": 4317, "Banekortnavn": "OBOL", "Banestatus": "I", "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{0D5E3341-C39B-411C-AF3B-72A653712C21}", "Shape.STLength()": 77792.01967456598}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.834382820480196, 59.71815565439054], [10.837421549799721, 59.714903568441684], [10.86960127492596, 59.710262599952856], [10.875722517611193, 59.70810888151643], [10.886846693916594, 59.68715041248073], [10.9010461182328, 59.677508406584934], [10.932364323638224, 59.67077427900151], [10.949944412953975, 59.66465616891148], [10.960363577300104, 59.664577386830494], [10.978915488071285, 59.661016195680716], [10.99654437378649, 59.661221486931275], [11.01303312450995, 59.65790876049836], [11.02979095033093, 59.63586851069773], [11.034998155654629, 59.62316119904891], [11.047463044691067, 59.622976659423145], [11.07058275599565, 59.61899286109862], [11.084022026557626, 59.62232653709097], [11.095684735068929, 59.62801299535785], [11.106541851435356, 59.62806934521713], [11.10860532623496, 59.61857786436262], [11.117203697435679, 59.608442094589776], [11.13536806472779, 59.60419123813182], [11.140710253885102, 59.60120859923957], [11.140468184445412, 59.59228043476708], [11.148870065866245, 59.5835805191688], [11.18143891739384, 59.577440000859525], [11.238829265914, 59.57069526474734], [11.24956392142213, 59.56725220822601], [11.275201729896908, 59.566001934215585], [11.288203821861368, 59.56923269964351], [11.300324760345118, 59.56471712466701], [11.314301740309247, 59.56225505891004], [11.323109853837693, 59.558254358976065], [11.32285288426748, 59.55105175512762], [11.30451189348992, 59.532311434058705], [11.307046731618515, 59.52164220450523], [11.303598489735469, 59.513337422129275], [11.317307908937863, 59.497759970361706], [11.31828285361134, 59.4910971228289], [11.327618789766728, 59.478291049280394], [11.338207496528826, 59.45208238594189], [11.339624617067736, 59.416115369904695], [11.335687077368096, 59.41277255515144], [11.325418704294226, 59.40964420699556], [11.328197668321828, 59.40306892837497], [11.317956942089754, 59.39219474618306], [11.283604339216946, 59.36898587759792], [11.276006427658832, 59.347684057237196], [11.263813189108124, 59.34539027254794], [11.259900493952783, 59.33672223692292], [11.248589364518779, 59.33401839189987], [11.251775215653756, 59.32342840980931], [11.246282168704074, 59.32189506637124], [11.235761328734357, 59.32260517327671], [11.22815867266691, 59.31992054830516], [11.227858776685297, 59.317642711760925], [11.232153850229853, 59.3144580291019], [11.232517310531742, 59.30903000193794], [11.226543630411452, 59.30346845326475], [11.217610189718055, 59.29910310518655], [11.21570396873423, 59.29489410928967], [11.209792066535933, 59.292648460659414], [11.195143554069652, 59.290853870268066], [11.189982038635467, 59.28642654981661], [11.182077638903618, 59.283905766348276], [11.179682273767341, 59.27826724182119], [11.175389007969606, 59.275752663276826], [11.16383747816185, 59.273954231519205], [11.156177523242528, 59.27580748859498], [11.147169406220211, 59.27471230023661], [11.13466439061421, 59.275689819940894]]}, "properties": {"Banenavn": "Østfoldbanen østre linje"}}</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3205</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="27">
@@ -916,11 +916,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4318, "geometry": {"type": "LineString", "coordinates": [[10.758226165374795, 59.90981266078915], [10.768739846868522, 59.90484614449719], [10.75760660832707, 59.90018018937809], [10.755695895880496, 59.896721825235204], [10.770554239385861, 59.88506042809023], [10.784074399859307, 59.868437324504875], [10.78724134123416, 59.860373894978814], [10.784740651409335, 59.851492117806856], [10.788375467403977, 59.84912373688287], [10.798826425910255, 59.849583575962086], [10.80295757783924, 59.84732475972973], [10.797451705683978, 59.84097501583002], [10.79677673246631, 59.833739435562926], [10.796824595079766, 59.81633317207171], [10.805327430250195, 59.80710517277564], [10.799772728186948, 59.790210049018185], [10.80222578665762, 59.778512302085105], [10.813756875590016, 59.764515650140794], [10.822511164316984, 59.763021854934586], [10.837057534539301, 59.75671821844858], [10.835821978070552, 59.74692341819033], [10.841287566275808, 59.73198727518647], [10.828811966255076, 59.70929816472426], [10.810237965211982, 59.69725761010703], [10.800667941231008, 59.6872264529403], [10.793326202346092, 59.66737441081296], [10.7982632506799, 59.65450960114998], [10.79630568675039, 59.64440771598507], [10.770146800405653, 59.61515107487282], [10.74124470516687, 59.59963300705284], [10.738598247693341, 59.5908259880064], [10.725245791567962, 59.57213613431927], [10.721830257886571, 59.56063018776488], [10.730406340093928, 59.530726370347], [10.729025556709113, 59.52162665058244], [10.705243142203273, 59.489205044997455], [10.671913340662975, 59.45533383010825], [10.668656238624575, 59.44288421957035], [10.655398475422599, 59.43458214794266], [10.659463465577373, 59.428715517686534], [10.656599893326048, 59.41222775207529], [10.658748881758932, 59.40639465780757], [10.66825774979013, 59.40221202012408], [10.71488285759431, 59.394205050863754], [10.781209346482347, 59.36217122357562], [10.83583794547579, 59.34786969107418], [10.863552737298942, 59.34780367778854], [10.874980372705723, 59.34404467031869], [10.879390892537582, 59.33940098372016], [10.882986608901382, 59.32768709752086], [10.88421804598516, 59.30976415347231], [10.891769488749391, 59.305109800104404], [10.904296439881023, 59.290844061780895], [10.903310022974601, 59.277613971354725], [10.906699488259799, 59.26982690610767], [10.90415533511777, 59.26335667339458], [10.91410222395247, 59.22994129695428], [10.918266778347204, 59.224067489614235], [10.940704977376045, 59.2170925290594], [10.948612522676337, 59.20952598471684], [10.953542732105163, 59.20900528158195], [10.957225421409936, 59.2103048662252], [10.96287159798011, 59.21764425661497], [10.977946598317484, 59.2278041668435], [10.97918360971765, 59.235412438670835], [10.991167090427888, 59.246422507289545], [11.021236739156858, 59.266987202872365], [11.028955325891593, 59.268238444205025], [11.037404103562988, 59.264994127793344], [11.046176266364366, 59.26468744524517], [11.060936178045916, 59.268929183308295], [11.07871530041415, 59.27168443495674], [11.089970444556212, 59.276062861626194], [11.093934208253637, 59.28554839845155], [11.10436727473313, 59.289831599114], [11.11126512005379, 59.290048267008466], [11.13962837162708, 59.27341999762667], [11.146132894367216, 59.26327130965902], [11.162843995033208, 59.249832070113534], [11.164195196233564, 59.24222521980363], [11.186111673637845, 59.22419515091544], [11.189528310294303, 59.20199395198248], [11.19919052136735, 59.195032467987915], [11.20316703711673, 59.18233731774702], [11.222180691810136, 59.177782066436805], [11.23401783437987, 59.16839310335817], [11.243339434836406, 59.15400139214443], [11.252709359930897, 59.151323385506444], [11.260864018042323, 59.146792289137416], [11.292962714734902, 59.124834145776234], [11.299981377330688, 59.12279225198663], [11.31257471403485, 59.12198153863774], [11.325460917623046, 59.11909093593895], [11.334666800473626, 59.119341420058184], [11.34194583546883, 59.11736673646044], [11.360427163237821, 59.11840742657815], [11.368253476532846, 59.12075747145085], [11.37799758485445, 59.118928354700046], [11.393784513985679, 59.12248044982947], [11.405324515226093, 59.1228192409381], [11.437478254897806, 59.128110126090014], [11.448065132560863, 59.124317301166705], [11.46099566229116, 59.1265111887981], [11.474544268532549, 59.12248809110909], [11.476074442576596, 59.119617212807796], [11.467057329947943, 59.108408569304814], [11.475030941056316, 59.10350373696523], [11.475882683734987, 59.09792358154097], [11.48063389492645, 59.09329311988223], [11.472824318540136, 59.0767947368741], [11.47603410165618, 59.06495470647024], [11.503276167895233, 59.04608859852729], [11.515055135541488, 59.02651355667767], [11.51521495235088, 59.02050437262156], [11.531745413907062, 58.9992080207169], [11.531635215518696, 58.99350898162783], [11.547032344010743, 58.98825595016135], [11.550509761572508, 58.98522957677631], [11.551626179543591, 58.982102678716345], [11.548884243859812, 58.97773877169172], [11.551467633039445, 58.96636882807793], [11.57002671102951, 58.96221094626722], [11.578204040847034, 58.95885480829766], [11.587737613336094, 58.957993544942205], [11.595823249778727, 58.95189864591236], [11.618479052817204, 58.9434182816319], [11.62973338096004, 58.94085144491393], [11.65318780129139, 58.942687132520554], [11.661584906864295, 58.940516887984906], [11.669873908120241, 58.934718346272]]}, "properties": {"OBJECTID": 4318, "Banekortnavn": "OBVL", "Banestatus": "I", "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{9C2BF70C-1523-4598-88C8-2540C8050A94}", "Shape.STLength()": 167739.08062942195}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.758226165374795, 59.90981266078915], [10.768739846868522, 59.90484614449719], [10.75760660832707, 59.90018018937809], [10.755695895880496, 59.896721825235204], [10.770554239385861, 59.88506042809023], [10.784074399859307, 59.868437324504875], [10.78724134123416, 59.860373894978814], [10.784740651409335, 59.851492117806856], [10.788375467403977, 59.84912373688287], [10.798826425910255, 59.849583575962086], [10.80295757783924, 59.84732475972973], [10.797451705683978, 59.84097501583002], [10.79677673246631, 59.833739435562926], [10.796824595079766, 59.81633317207171], [10.805327430250195, 59.80710517277564], [10.799772728186948, 59.790210049018185], [10.80222578665762, 59.778512302085105], [10.813756875590016, 59.764515650140794], [10.822511164316984, 59.763021854934586], [10.837057534539301, 59.75671821844858], [10.835821978070552, 59.74692341819033], [10.841287566275808, 59.73198727518647], [10.828811966255076, 59.70929816472426], [10.810237965211982, 59.69725761010703], [10.800667941231008, 59.6872264529403], [10.793326202346092, 59.66737441081296], [10.7982632506799, 59.65450960114998], [10.79630568675039, 59.64440771598507], [10.770146800405653, 59.61515107487282], [10.74124470516687, 59.59963300705284], [10.738598247693341, 59.5908259880064], [10.725245791567962, 59.57213613431927], [10.721830257886571, 59.56063018776488], [10.730406340093928, 59.530726370347], [10.729025556709113, 59.52162665058244], [10.705243142203273, 59.489205044997455], [10.671913340662975, 59.45533383010825], [10.668656238624575, 59.44288421957035], [10.655398475422599, 59.43458214794266], [10.659463465577373, 59.428715517686534], [10.656599893326048, 59.41222775207529], [10.658748881758932, 59.40639465780757], [10.66825774979013, 59.40221202012408], [10.71488285759431, 59.394205050863754], [10.781209346482347, 59.36217122357562], [10.83583794547579, 59.34786969107418], [10.863552737298942, 59.34780367778854], [10.874980372705723, 59.34404467031869], [10.879390892537582, 59.33940098372016], [10.882986608901382, 59.32768709752086], [10.88421804598516, 59.30976415347231], [10.891769488749391, 59.305109800104404], [10.904296439881023, 59.290844061780895], [10.903310022974601, 59.277613971354725], [10.906699488259799, 59.26982690610767], [10.90415533511777, 59.26335667339458], [10.91410222395247, 59.22994129695428], [10.918266778347204, 59.224067489614235], [10.940704977376045, 59.2170925290594], [10.948612522676337, 59.20952598471684], [10.953542732105163, 59.20900528158195], [10.957225421409936, 59.2103048662252], [10.96287159798011, 59.21764425661497], [10.977946598317484, 59.2278041668435], [10.97918360971765, 59.235412438670835], [10.991167090427888, 59.246422507289545], [11.021236739156858, 59.266987202872365], [11.028955325891593, 59.268238444205025], [11.037404103562988, 59.264994127793344], [11.046176266364366, 59.26468744524517], [11.060936178045916, 59.268929183308295], [11.07871530041415, 59.27168443495674], [11.089970444556212, 59.276062861626194], [11.093934208253637, 59.28554839845155], [11.10436727473313, 59.289831599114], [11.11126512005379, 59.290048267008466], [11.13962837162708, 59.27341999762667], [11.146132894367216, 59.26327130965902], [11.162843995033208, 59.249832070113534], [11.164195196233564, 59.24222521980363], [11.186111673637845, 59.22419515091544], [11.189528310294303, 59.20199395198248], [11.19919052136735, 59.195032467987915], [11.20316703711673, 59.18233731774702], [11.222180691810136, 59.177782066436805], [11.23401783437987, 59.16839310335817], [11.243339434836406, 59.15400139214443], [11.252709359930897, 59.151323385506444], [11.260864018042323, 59.146792289137416], [11.292962714734902, 59.124834145776234], [11.299981377330688, 59.12279225198663], [11.31257471403485, 59.12198153863774], [11.325460917623046, 59.11909093593895], [11.334666800473626, 59.119341420058184], [11.34194583546883, 59.11736673646044], [11.360427163237821, 59.11840742657815], [11.368253476532846, 59.12075747145085], [11.37799758485445, 59.118928354700046], [11.393784513985679, 59.12248044982947], [11.405324515226093, 59.1228192409381], [11.437478254897806, 59.128110126090014], [11.448065132560863, 59.124317301166705], [11.46099566229116, 59.1265111887981], [11.474544268532549, 59.12248809110909], [11.476074442576596, 59.119617212807796], [11.467057329947943, 59.108408569304814], [11.475030941056316, 59.10350373696523], [11.475882683734987, 59.09792358154097], [11.48063389492645, 59.09329311988223], [11.472824318540136, 59.0767947368741], [11.47603410165618, 59.06495470647024], [11.503276167895233, 59.04608859852729], [11.515055135541488, 59.02651355667767], [11.51521495235088, 59.02050437262156], [11.531745413907062, 58.9992080207169], [11.531635215518696, 58.99350898162783], [11.547032344010743, 58.98825595016135], [11.550509761572508, 58.98522957677631], [11.551626179543591, 58.982102678716345], [11.548884243859812, 58.97773877169172], [11.551467633039445, 58.96636882807793], [11.57002671102951, 58.96221094626722], [11.578204040847034, 58.95885480829766], [11.587737613336094, 58.957993544942205], [11.595823249778727, 58.95189864591236], [11.618479052817204, 58.9434182816319], [11.62973338096004, 58.94085144491393], [11.65318780129139, 58.942687132520554], [11.661584906864295, 58.940516887984906], [11.669873908120241, 58.934718346272]]}, "properties": {"Banenavn": "Østfoldbanen vestre linje"}}</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5617</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="28">
@@ -934,11 +934,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4319, "geometry": {"type": "LineString", "coordinates": [[11.144141012276325, 59.274848370527636], [11.140720220397482, 59.274152596252776], [11.140821747610456, 59.27224171404761]]}, "properties": {"OBJECTID": 4319, "Banekortnavn": "OBVL_SBO", "Banestatus": "I", "Banenavn": "Østfoldbanen Hafslundsløyfa", "GlobalID": "{837EB4D6-9F3C-48F4-860C-1661611CCFA3}", "Shape.STLength()": 422.7391648094672}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[11.144141012276325, 59.274848370527636], [11.140720220397482, 59.274152596252776], [11.140821747610456, 59.27224171404761]]}, "properties": {"Banenavn": "Østfoldbanen Hafslundsløyfa"}}</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>426</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -952,11 +952,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4320, "geometry": {"type": "MultiLineString", "coordinates": [[[17.416961982737778, 68.4115643188915], [17.428871840029, 68.4156176925751], [17.433474547442668, 68.41965440902979], [17.433093569492243, 68.4235208080985], [17.42285856014831, 68.43269549229863], [17.424567742810392, 68.43763429495237], [17.43075111076385, 68.44146208693812], [17.451421401375026, 68.44182866571258], [17.459807467472622, 68.44811649835387], [17.477132154753708, 68.4515882134031], [17.500685551775817, 68.45162551232472], [17.51722600585651, 68.44932220399421], [17.525193326779608, 68.44996979859529]], [[17.838630258195096, 68.39885440562244], [17.838625653601788, 68.39886978578909], [17.838639315089583, 68.39882709330703], [17.838630258195096, 68.39885440562244]], [[17.838630258195096, 68.39885440562244], [17.84017741956404, 68.40157994568591], [17.86376971149486, 68.4092911611476]], [[17.77442024710921, 68.40679244674472], [17.77442088564751, 68.40677278665117], [17.774425887408825, 68.40672602604096], [17.77442024710921, 68.40679244674472]], [[17.77442024710921, 68.40679244674472], [17.774419902713614, 68.40680304119043]], [[17.774419902713614, 68.40680304119043], [17.77442024710921, 68.40679244674472]], [[17.774419902713614, 68.40680304119043], [17.77807688044401, 68.40452115218268], [17.791698373373357, 68.40346510740324], [17.829179907088346, 68.39534443306042], [17.83665444283346, 68.39602427415774], [17.838630258195096, 68.39885440562244]], [[17.86376971149486, 68.4092911611476], [17.863847954016663, 68.40929770801527], [17.863729268074298, 68.40928816099063], [17.86376971149486, 68.4092911611476]], [[17.86376971149486, 68.4092911611476], [17.881978785533995, 68.4103112223995], [17.893108862871635, 68.40944833156043]], [[17.893108862871635, 68.40944833156043], [17.893204244682533, 68.40944564084893], [17.893075331900672, 68.40944966779392], [17.893108862871635, 68.40944833156043]], [[17.893108862871635, 68.40944833156043], [17.924417920035527, 68.40000029361059], [17.933975148153337, 68.39854341285812], [17.944644322688532, 68.39891125772711], [17.981901818409387, 68.39162742629007], [17.987146879636356, 68.3930438675778], [17.993045147008285, 68.3991266162806], [17.98892354170619, 68.40652501935288], [18.007770900046957, 68.42921843088125], [18.003688466615213, 68.43534107000761], [18.016367211189536, 68.44004463810647], [18.050206897151792, 68.44392927515827], [18.055268979932062, 68.44171980009031], [18.05036584855784, 68.43705101195086], [18.05343203888254, 68.43456433747686], [18.089309963155365, 68.42940767672623], [18.105857292600163, 68.43002763548395]], [[17.525193311955622, 68.4499702134852], [17.563775325688905, 68.44872259833474]], [[17.563774325201177, 68.44872141822512], [17.582210415079107, 68.4442206953447], [17.64220789059932, 68.43798730408017], [17.663326493845645, 68.4318659603115], [17.682462559364925, 68.43060988596883], [17.69132975812725, 68.42791181572366], [17.711267055886154, 68.42901153656086], [17.735694976663865, 68.42377176973663], [17.77173795774009, 68.41006231567026], [17.774419902713614, 68.40680304119043]]]}, "properties": {"OBJECTID": 4320, "Banekortnavn": "OFTB", "Banestatus": "I", "Banenavn": "Ofotbanen", "GlobalID": "{215275FE-FBA2-4564-8C8D-384EE1948AC2}", "Shape.STLength()": 41440.23494727197}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[17.416961982737778, 68.4115643188915], [17.428871840029, 68.4156176925751], [17.433474547442668, 68.41965440902979], [17.433093569492243, 68.4235208080985], [17.42285856014831, 68.43269549229863], [17.424567742810392, 68.43763429495237], [17.43075111076385, 68.44146208693812], [17.451421401375026, 68.44182866571258], [17.459807467472622, 68.44811649835387], [17.477132154753708, 68.4515882134031], [17.500685551775817, 68.45162551232472], [17.51722600585651, 68.44932220399421], [17.525193326779608, 68.44996979859529]], [[17.838630258195096, 68.39885440562244], [17.838625653601788, 68.39886978578909], [17.838639315089583, 68.39882709330703], [17.838630258195096, 68.39885440562244]], [[17.838630258195096, 68.39885440562244], [17.84017741956404, 68.40157994568591], [17.86376971149486, 68.4092911611476]], [[17.77442024710921, 68.40679244674472], [17.77442088564751, 68.40677278665117], [17.774425887408825, 68.40672602604096], [17.77442024710921, 68.40679244674472]], [[17.77442024710921, 68.40679244674472], [17.774419902713614, 68.40680304119043]], [[17.774419902713614, 68.40680304119043], [17.77442024710921, 68.40679244674472]], [[17.774419902713614, 68.40680304119043], [17.77807688044401, 68.40452115218268], [17.791698373373357, 68.40346510740324], [17.829179907088346, 68.39534443306042], [17.83665444283346, 68.39602427415774], [17.838630258195096, 68.39885440562244]], [[17.86376971149486, 68.4092911611476], [17.863847954016663, 68.40929770801527], [17.863729268074298, 68.40928816099063], [17.86376971149486, 68.4092911611476]], [[17.86376971149486, 68.4092911611476], [17.881978785533995, 68.4103112223995], [17.893108862871635, 68.40944833156043]], [[17.893108862871635, 68.40944833156043], [17.893204244682533, 68.40944564084893], [17.893075331900672, 68.40944966779392], [17.893108862871635, 68.40944833156043]], [[17.893108862871635, 68.40944833156043], [17.924417920035527, 68.40000029361059], [17.933975148153337, 68.39854341285812], [17.944644322688532, 68.39891125772711], [17.981901818409387, 68.39162742629007], [17.987146879636356, 68.3930438675778], [17.993045147008285, 68.3991266162806], [17.98892354170619, 68.40652501935288], [18.007770900046957, 68.42921843088125], [18.003688466615213, 68.43534107000761], [18.016367211189536, 68.44004463810647], [18.050206897151792, 68.44392927515827], [18.055268979932062, 68.44171980009031], [18.05036584855784, 68.43705101195086], [18.05343203888254, 68.43456433747686], [18.089309963155365, 68.42940767672623], [18.105857292600163, 68.43002763548395]], [[17.525193311955622, 68.4499702134852], [17.563775325688905, 68.44872259833474]], [[17.563774325201177, 68.44872141822512], [17.582210415079107, 68.4442206953447], [17.64220789059932, 68.43798730408017], [17.663326493845645, 68.4318659603115], [17.682462559364925, 68.43060988596883], [17.69132975812725, 68.42791181572366], [17.711267055886154, 68.42901153656086], [17.735694976663865, 68.42377176973663], [17.77173795774009, 68.41006231567026], [17.774419902713614, 68.40680304119043]]]}, "properties": {"Banenavn": "Ofotbanen"}}</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3306</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="30">
@@ -970,11 +970,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4321, "geometry": {"type": "LineString", "coordinates": [[17.529167033124583, 68.44971009917454], [17.548729572504943, 68.45014795408835], [17.55874880871702, 68.4489511944707]]}, "properties": {"OBJECTID": 4321, "Banekortnavn": "OFTB_DJU", "Banestatus": "I", "Banenavn": "Ofotbanen Djupvik", "GlobalID": "{303F585B-1350-4E15-B3FC-1ED35173A672}", "Shape.STLength()": 1237.077166973277}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[17.529167033124583, 68.44971009917454], [17.548729572504943, 68.45014795408835], [17.55874880871702, 68.4489511944707]]}, "properties": {"Banenavn": "Ofotbanen Djupvik"}}</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>412</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -988,11 +988,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4322, "geometry": {"type": "LineString", "coordinates": [[17.950741770430213, 68.39779784454045], [17.968941155139444, 68.3970408334157], [17.975153016991637, 68.39208003136355]]}, "properties": {"OBJECTID": 4322, "Banekortnavn": "OFTB_KAT", "Banestatus": "I", "Banenavn": "Ofotbanen Katterat", "GlobalID": "{C863CDFA-9060-4767-A6D6-688EB4DBF6B7}", "Shape.STLength()": 1363.9220275127052}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[17.950741770430213, 68.39779784454045], [17.968941155139444, 68.3970408334157], [17.975153016991637, 68.39208003136355]]}, "properties": {"Banenavn": "Ofotbanen Katterat"}}</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>415</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4323, "geometry": {"type": "LineString", "coordinates": [[9.90465530175402, 59.77060668715213], [9.894677493189919, 59.77676114971745], [9.89428618893705, 59.78899003771029], [9.883530247753587, 59.79805115416314], [9.888081400060704, 59.81692721526102], [9.898698538840428, 59.8302591216237], [9.895099588452156, 59.8424537375449], [9.89480598339068, 59.86160048078073], [9.889747642421105, 59.86688696038252], [9.89018784705237, 59.87242032267392], [9.906531988784911, 59.88119295666291], [9.915521282384113, 59.89458605678937], [9.935651906574545, 59.90447327951683], [9.948838201156383, 59.92694439949735], [9.955170050610494, 59.93030525073363], [9.965003466079775, 59.931580402476165], [9.971764447298593, 59.93440867458323], [9.977838461087355, 59.94245135336595], [9.977902944886207, 59.94893227165655], [9.987067974828175, 59.961928293722174], [10.00331554394422, 59.97332648340043], [10.011267481320207, 59.98312897964821], [10.025053479214902, 59.994385780148185], [10.025154757916882, 60.01239487482206], [10.033316001557603, 60.023579244198174], [10.049961141508206, 60.032448042056], [10.053848516045626, 60.041333048470136], [10.074862942964431, 60.05167546635833], [10.08295499531396, 60.05986698525011], [10.090028623765086, 60.062694768883425], [10.098302770553104, 60.07106023707677], [10.104478409181644, 60.08310504597772], [10.115592434061062, 60.08586142209613], [10.117808179339585, 60.09040483069807], [10.128119668506399, 60.09476377350962], [10.132201374428831, 60.10270702385058], [10.143222930679647, 60.11364836086483], [10.148927478388746, 60.11653139895749], [10.153005835552168, 60.1253707096398], [10.160059576211053, 60.13135498557603], [10.18592186817553, 60.14054634121864], [10.198785749982184, 60.14310157057966], [10.227425808486302, 60.16051327296906], [10.25261679896074, 60.16561127773015], [10.251250439688606, 60.16869574410404], [10.239819267224547, 60.17031254898405], [10.241921792158259, 60.173944708193126], [10.236943446986375, 60.17910819891963], [10.233319361866386, 60.19230197464038], [10.234940246244669, 60.19633626279052], [10.242550116241395, 60.19994493381694], [10.242987672683375, 60.20330997063117], [10.2387102141595, 60.20648133208506], [10.23662074908331, 60.212844774921685], [10.226618790534996, 60.218728667529795], [10.217019684790776, 60.221477213033815], [10.216063958202668, 60.22506171521408], [10.223230042975663, 60.22873627912846], [10.26558912677163, 60.23421145199606], [10.271371261694135, 60.23338731112022], [10.278889078485015, 60.22961851493643], [10.31304128374264, 60.22219774409618], [10.344449505416943, 60.227615521273066]]}, "properties": {"OBJECTID": 4323, "Banekortnavn": "RANB", "Banestatus": "I", "Banenavn": "Randsfjordbanen", "GlobalID": "{7BA8E0FC-1CED-4EE9-99A1-C099992E6C1D}", "Shape.STLength()": 68138.88514761586}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.90465530175402, 59.77060668715213], [9.894677493189919, 59.77676114971745], [9.89428618893705, 59.78899003771029], [9.883530247753587, 59.79805115416314], [9.888081400060704, 59.81692721526102], [9.898698538840428, 59.8302591216237], [9.895099588452156, 59.8424537375449], [9.89480598339068, 59.86160048078073], [9.889747642421105, 59.86688696038252], [9.89018784705237, 59.87242032267392], [9.906531988784911, 59.88119295666291], [9.915521282384113, 59.89458605678937], [9.935651906574545, 59.90447327951683], [9.948838201156383, 59.92694439949735], [9.955170050610494, 59.93030525073363], [9.965003466079775, 59.931580402476165], [9.971764447298593, 59.93440867458323], [9.977838461087355, 59.94245135336595], [9.977902944886207, 59.94893227165655], [9.987067974828175, 59.961928293722174], [10.00331554394422, 59.97332648340043], [10.011267481320207, 59.98312897964821], [10.025053479214902, 59.994385780148185], [10.025154757916882, 60.01239487482206], [10.033316001557603, 60.023579244198174], [10.049961141508206, 60.032448042056], [10.053848516045626, 60.041333048470136], [10.074862942964431, 60.05167546635833], [10.08295499531396, 60.05986698525011], [10.090028623765086, 60.062694768883425], [10.098302770553104, 60.07106023707677], [10.104478409181644, 60.08310504597772], [10.115592434061062, 60.08586142209613], [10.117808179339585, 60.09040483069807], [10.128119668506399, 60.09476377350962], [10.132201374428831, 60.10270702385058], [10.143222930679647, 60.11364836086483], [10.148927478388746, 60.11653139895749], [10.153005835552168, 60.1253707096398], [10.160059576211053, 60.13135498557603], [10.18592186817553, 60.14054634121864], [10.198785749982184, 60.14310157057966], [10.227425808486302, 60.16051327296906], [10.25261679896074, 60.16561127773015], [10.251250439688606, 60.16869574410404], [10.239819267224547, 60.17031254898405], [10.241921792158259, 60.173944708193126], [10.236943446986375, 60.17910819891963], [10.233319361866386, 60.19230197464038], [10.234940246244669, 60.19633626279052], [10.242550116241395, 60.19994493381694], [10.242987672683375, 60.20330997063117], [10.2387102141595, 60.20648133208506], [10.23662074908331, 60.212844774921685], [10.226618790534996, 60.218728667529795], [10.217019684790776, 60.221477213033815], [10.216063958202668, 60.22506171521408], [10.223230042975663, 60.22873627912846], [10.26558912677163, 60.23421145199606], [10.271371261694135, 60.23338731112022], [10.278889078485015, 60.22961851493643], [10.31304128374264, 60.22219774409618], [10.344449505416943, 60.227615521273066]]}, "properties": {"Banenavn": "Randsfjordbanen"}}</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2841</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="33">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4324, "geometry": {"type": "LineString", "coordinates": [[9.126511777501497, 62.0698273277471], [9.131308676339682, 62.07777567205439], [9.130709106565758, 62.08635354185881], [9.123681590481448, 62.09040292032079], [9.110428144737195, 62.09298050941619], [9.087740748392537, 62.09258088149657], [9.033762550602884, 62.09503343929267], [9.01747813784644, 62.102180274578046], [8.996809517727476, 62.10379853823873], [8.966912390250059, 62.1125964665139], [8.917441250553521, 62.12067002476973], [8.902293615775129, 62.121156647186496], [8.846541484772949, 62.11868700255079], [8.77631071881056, 62.12840940534881], [8.733069293696623, 62.12936570425907], [8.708377788448605, 62.13730253006638], [8.684938833650651, 62.15157627823169], [8.650659906802458, 62.166833769976265], [8.614237278215038, 62.180290815375], [8.569761235465565, 62.18879724829335], [8.520853260355574, 62.19461717035404], [8.489283647978391, 62.20235714362963], [8.419143988377567, 62.22758979369096], [8.399994313268351, 62.22995173236953], [8.346272201078255, 62.23040815204208], [8.318562020171111, 62.235718727752335], [8.301727513781303, 62.23466162316411], [8.259058273111231, 62.23741633442565], [8.244563130206561, 62.23879762939986], [8.227681350250966, 62.24276282884447], [8.198161780017442, 62.25984974790164], [8.182932621895278, 62.26212931499439], [8.141365029072885, 62.2770761613302], [8.137200301534072, 62.28180294143381], [8.137647320951062, 62.286137644278966], [8.129109845505942, 62.29222883185406], [8.118969301709202, 62.30446231391184], [8.083259426293894, 62.325859983021445], [8.07669683442015, 62.334155043890924], [8.0658823402098, 62.34188693332761], [8.051441013671726, 62.356962757452415], [8.05084165499086, 62.361153985136156], [8.058807808732045, 62.364850947633535], [8.053548715985086, 62.3675412784078], [8.04793493742724, 62.365531336944805], [8.049183719523052, 62.35705812997159], [8.063298934943882, 62.34041963004715], [8.059219353203433, 62.338045473097836], [8.053379195970061, 62.339305166121775], [8.036678531105789, 62.35482721883191], [8.030253404031788, 62.3774329498129], [8.015331344733339, 62.38897855563369], [8.015890016346518, 62.393988070823426], [8.006356067736496, 62.41229703448927], [7.996471382410741, 62.42248977363578], [7.976499861967749, 62.429058451254754], [7.961977964508096, 62.43014286539064], [7.930904987014376, 62.42821718923941], [7.902068305895302, 62.433693374766264], [7.886858507629691, 62.43306128173749], [7.85960063359763, 62.43537182811915], [7.845290204561344, 62.438280230001], [7.81943502217849, 62.45936951937302], [7.803677567647372, 62.462510780276084], [7.789112968268507, 62.47171139291977], [7.769947632421517, 62.47590526074949], [7.762451881602667, 62.48172415953842], [7.758579144832233, 62.49129326512808], [7.767820021303576, 62.4979250035513], [7.7699707414791215, 62.50296306663538], [7.765598401025205, 62.50758325922236], [7.764373022972622, 62.514795948683975], [7.756382633047862, 62.521112455488215], [7.757074098101548, 62.52555123560093], [7.753297764804172, 62.52960649498402], [7.7473406934164375, 62.53247241268116], [7.733439587813878, 62.53420864410862], [7.721624082006213, 62.54140589405206], [7.716072578450132, 62.55013495874504], [7.7022995435367685, 62.55725285860284], [7.678138951836058, 62.563405725083435], [7.681980458882491, 62.56709318476106], [7.703439015530802, 62.56758501739288]]}, "properties": {"OBJECTID": 4324, "Banekortnavn": "RAUB", "Banestatus": "I", "Banenavn": "Raumabanen", "GlobalID": "{03690D6A-E598-4DBF-866B-03B438595AEB}", "Shape.STLength()": 113583.91347089308}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.126511777501497, 62.0698273277471], [9.131308676339682, 62.07777567205439], [9.130709106565758, 62.08635354185881], [9.123681590481448, 62.09040292032079], [9.110428144737195, 62.09298050941619], [9.087740748392537, 62.09258088149657], [9.033762550602884, 62.09503343929267], [9.01747813784644, 62.102180274578046], [8.996809517727476, 62.10379853823873], [8.966912390250059, 62.1125964665139], [8.917441250553521, 62.12067002476973], [8.902293615775129, 62.121156647186496], [8.846541484772949, 62.11868700255079], [8.77631071881056, 62.12840940534881], [8.733069293696623, 62.12936570425907], [8.708377788448605, 62.13730253006638], [8.684938833650651, 62.15157627823169], [8.650659906802458, 62.166833769976265], [8.614237278215038, 62.180290815375], [8.569761235465565, 62.18879724829335], [8.520853260355574, 62.19461717035404], [8.489283647978391, 62.20235714362963], [8.419143988377567, 62.22758979369096], [8.399994313268351, 62.22995173236953], [8.346272201078255, 62.23040815204208], [8.318562020171111, 62.235718727752335], [8.301727513781303, 62.23466162316411], [8.259058273111231, 62.23741633442565], [8.244563130206561, 62.23879762939986], [8.227681350250966, 62.24276282884447], [8.198161780017442, 62.25984974790164], [8.182932621895278, 62.26212931499439], [8.141365029072885, 62.2770761613302], [8.137200301534072, 62.28180294143381], [8.137647320951062, 62.286137644278966], [8.129109845505942, 62.29222883185406], [8.118969301709202, 62.30446231391184], [8.083259426293894, 62.325859983021445], [8.07669683442015, 62.334155043890924], [8.0658823402098, 62.34188693332761], [8.051441013671726, 62.356962757452415], [8.05084165499086, 62.361153985136156], [8.058807808732045, 62.364850947633535], [8.053548715985086, 62.3675412784078], [8.04793493742724, 62.365531336944805], [8.049183719523052, 62.35705812997159], [8.063298934943882, 62.34041963004715], [8.059219353203433, 62.338045473097836], [8.053379195970061, 62.339305166121775], [8.036678531105789, 62.35482721883191], [8.030253404031788, 62.3774329498129], [8.015331344733339, 62.38897855563369], [8.015890016346518, 62.393988070823426], [8.006356067736496, 62.41229703448927], [7.996471382410741, 62.42248977363578], [7.976499861967749, 62.429058451254754], [7.961977964508096, 62.43014286539064], [7.930904987014376, 62.42821718923941], [7.902068305895302, 62.433693374766264], [7.886858507629691, 62.43306128173749], [7.85960063359763, 62.43537182811915], [7.845290204561344, 62.438280230001], [7.81943502217849, 62.45936951937302], [7.803677567647372, 62.462510780276084], [7.789112968268507, 62.47171139291977], [7.769947632421517, 62.47590526074949], [7.762451881602667, 62.48172415953842], [7.758579144832233, 62.49129326512808], [7.767820021303576, 62.4979250035513], [7.7699707414791215, 62.50296306663538], [7.765598401025205, 62.50758325922236], [7.764373022972622, 62.514795948683975], [7.756382633047862, 62.521112455488215], [7.757074098101548, 62.52555123560093], [7.753297764804172, 62.52960649498402], [7.7473406934164375, 62.53247241268116], [7.733439587813878, 62.53420864410862], [7.721624082006213, 62.54140589405206], [7.716072578450132, 62.55013495874504], [7.7022995435367685, 62.55725285860284], [7.678138951836058, 62.563405725083435], [7.681980458882491, 62.56709318476106], [7.703439015530802, 62.56758501739288]]}, "properties": {"Banenavn": "Raumabanen"}}</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3605</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="34">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4326, "geometry": {"type": "LineString", "coordinates": [[10.626931958572003, 60.281886347117165], [10.615394734232407, 60.28480596578903], [10.605256507414174, 60.28510605795099], [10.601285454654901, 60.290301517401474], [10.58737051775682, 60.29315524061181], [10.568316376780633, 60.29385543374495], [10.55770530023703, 60.29104048142916], [10.524700692285188, 60.29104384089827], [10.518420751818612, 60.293283917712955], [10.508817160669846, 60.29277223823738], [10.461217588749767, 60.29982839370183], [10.426121566214036, 60.29373571631875], [10.422940240768652, 60.291411515933014], [10.423687221108016, 60.28706047210824], [10.415486285734119, 60.281273304357235], [10.412320890506342, 60.27479306981587], [10.420116434840297, 60.27040452396833], [10.425417616406142, 60.26013262640775], [10.426684590021383, 60.25290341747152], [10.422093321809713, 60.24860216206376], [10.398578004293617, 60.23729518032216], [10.390366034565751, 60.237000164514534], [10.378252008621615, 60.23392398527558], [10.376430968485273, 60.2316029900659], [10.378251236419333, 60.2258861177066], [10.364925458162604, 60.21772207958735], [10.356196745122471, 60.21520652314361], [10.353881078514522, 60.20693404959529], [10.325601956280702, 60.19398009833084], [10.311825449368074, 60.19242703788673], [10.296319610232272, 60.18059478602366], [10.261102567091347, 60.17590535844556], [10.252683640039654, 60.1703827693686], [10.238722083628678, 60.16870576338687], [10.232776965895704, 60.166412905451686]]}, "properties": {"OBJECTID": 4326, "Banekortnavn": "ROAB", "Banestatus": "I", "Banenavn": "Roa-Hønefossbanen", "GlobalID": "{86C1461C-9755-4DAA-8591-767B56F2096E}", "Shape.STLength()": 32653.089326546607}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.626931958572003, 60.281886347117165], [10.615394734232407, 60.28480596578903], [10.605256507414174, 60.28510605795099], [10.601285454654901, 60.290301517401474], [10.58737051775682, 60.29315524061181], [10.568316376780633, 60.29385543374495], [10.55770530023703, 60.29104048142916], [10.524700692285188, 60.29104384089827], [10.518420751818612, 60.293283917712955], [10.508817160669846, 60.29277223823738], [10.461217588749767, 60.29982839370183], [10.426121566214036, 60.29373571631875], [10.422940240768652, 60.291411515933014], [10.423687221108016, 60.28706047210824], [10.415486285734119, 60.281273304357235], [10.412320890506342, 60.27479306981587], [10.420116434840297, 60.27040452396833], [10.425417616406142, 60.26013262640775], [10.426684590021383, 60.25290341747152], [10.422093321809713, 60.24860216206376], [10.398578004293617, 60.23729518032216], [10.390366034565751, 60.237000164514534], [10.378252008621615, 60.23392398527558], [10.376430968485273, 60.2316029900659], [10.378251236419333, 60.2258861177066], [10.364925458162604, 60.21772207958735], [10.356196745122471, 60.21520652314361], [10.353881078514522, 60.20693404959529], [10.325601956280702, 60.19398009833084], [10.311825449368074, 60.19242703788673], [10.296319610232272, 60.18059478602366], [10.261102567091347, 60.17590535844556], [10.252683640039654, 60.1703827693686], [10.238722083628678, 60.16870576338687], [10.232776965895704, 60.166412905451686]]}, "properties": {"Banenavn": "Roa-Hønefossbanen"}}</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1725</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="35">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4327, "geometry": {"type": "LineString", "coordinates": [[11.084369807884718, 60.79091446449244], [11.092955281788592, 60.79101834663794], [11.10356411783529, 60.79676126448971], [11.126661800491163, 60.797360447752666], [11.188797175115083, 60.78223343437839], [11.203046531429074, 60.77718817055373], [11.235519138912018, 60.77717827070248], [11.263336076523228, 60.78911116913199], [11.287136738643179, 60.795454227255526], [11.304925219530517, 60.79682143072141], [11.313374791244444, 60.79909664979625], [11.355301014910713, 60.82905293280413], [11.374911934684457, 60.835725164725005], [11.415200827493663, 60.854143107332256], [11.433973409928777, 60.865979496277156], [11.462592371617514, 60.87508001977113], [11.470329652437213, 60.875331433323616], [11.481339096093691, 60.87236380830849], [11.504988598756315, 60.87921823025117], [11.542470272267442, 60.877757336686145], [11.547099520277378, 60.88058839743968], [11.543874282895544, 60.8874981483122], [11.527472108530576, 60.902771679624045], [11.513836143765765, 60.930735359847326], [11.483757870459373, 60.9686878937731], [11.460210651929708, 60.982431356763165], [11.418870599964942, 60.997748512861236], [11.40396829836555, 61.00668384849723], [11.375117860947936, 61.03504924427278], [11.362335633475105, 61.053845057662826], [11.34966256636103, 61.06474699400945], [11.351547829995534, 61.080338973247486], [11.368366819803633, 61.115452609731754], [11.362527407428418, 61.12553682703178], [11.368419546894604, 61.132199754787806], [11.37165713524342, 61.141790217235474], [11.346011055999892, 61.1769749013268], [11.342518915421225, 61.193914735717975], [11.33587787986999, 61.20546918940639], [11.337179724119089, 61.21286035135303], [11.327691527068115, 61.240717246611155], [11.328337447423579, 61.24643324785481], [11.31834686294429, 61.25678474216461], [11.318746445425719, 61.263558772511104], [11.305523646214295, 61.27730586457344], [11.287557861717568, 61.28858451006079], [11.278008189583828, 61.29916143754381], [11.266372471604813, 61.32303203288641], [11.254073021377652, 61.34031163101722], [11.222968077154585, 61.36180304444958], [11.219643067575376, 61.36668326445275], [11.148939652556768, 61.39291838532571], [11.14217856150047, 61.40442935056718], [11.130556667684887, 61.412889268955354], [11.080763312812815, 61.43046012866025], [11.06630327803141, 61.44440245229689], [11.051660270573647, 61.449603206508776], [11.03706206935994, 61.475143638613915], [11.041845614102852, 61.4817977261215], [11.056430238696864, 61.485886648528314], [11.069186099099214, 61.51231171307468], [11.065661085412538, 61.52088394642226], [11.069387912043275, 61.53294229557698], [11.065810199621557, 61.54427405389706], [11.051370573485514, 61.55564015796445], [11.052276272428577, 61.567672909245886], [11.037548702871975, 61.57809309177844], [11.029958414641758, 61.59487371552821], [11.021579532873343, 61.603342916140726], [11.01727573046437, 61.603775044244095], [11.006214688016392, 61.60125448280826], [10.973894092367232, 61.60906162965587], [10.957045670346067, 61.61074549678151], [10.946297313984447, 61.60970082818127], [10.933424095752208, 61.61168458330311], [10.903740281260768, 61.623864301279575], [10.896904799150702, 61.65395777026817], [10.912629295018233, 61.67996495685685], [10.912476002601997, 61.68692658188553], [10.89595913723819, 61.70508389388461], [10.879337753390756, 61.71360448186005], [10.865103919170497, 61.71527131309836], [10.823242796843138, 61.74005097885684], [10.82002718966072, 61.74903342023025], [10.825308844737727, 61.762308265043536], [10.849633681801695, 61.78864000432709], [10.845312011078612, 61.81859431677239], [10.851900934986123, 61.82179535530687], [10.85348501919368, 61.827341769793], [10.859176606376606, 61.83252520580706], [10.90106103972036, 61.84349465512402], [10.905624462430726, 61.848233544539745], [10.905811552438507, 61.855041745807405], [10.909259786412468, 61.858982796352635], [10.90810726475329, 61.87122827415837], [10.89784667690918, 61.88362541923744], [10.876946030799044, 61.89259682486713], [10.874543569264695, 61.89525011589458], [10.874516020590962, 61.90640414248887], [10.878933351689485, 61.92054176105611], [10.886760556253803, 61.92861155545017], [10.898534064002128, 61.9353712863298], [10.90367466379563, 61.94217023072907], [10.89196205582969, 61.954284732653754], [10.891690662908333, 61.96093767869729], [10.89722950222602, 61.97454916671075], [10.89535227383434, 61.98584936630129], [10.883916612111584, 61.9930463590228], [10.86141991704012, 61.9956867205608], [10.845596389374577, 62.00536355796638], [10.840382073851966, 62.01391931457294], [10.834067210714938, 62.017698199943666], [10.78843718291046, 62.02856319140451], [10.779634159360047, 62.03264941440485], [10.74803353563031, 62.038856931843846], [10.731069403495056, 62.04584818699939], [10.713025546659017, 62.06272910057233], [10.704966730247904, 62.0757486091879], [10.696375022552061, 62.07795084222919], [10.691860183408252, 62.082910684185364], [10.677376749291982, 62.08595817673887], [10.656952138129455, 62.093496855425805], [10.637347849251437, 62.10543026197897], [10.628778538374597, 62.11232400773533], [10.630063526838558, 62.118710165410256], [10.626194166768087, 62.12616911437719], [10.625744598820747, 62.138699052674816], [10.62037781424236, 62.14904297679616], [10.6183103556812, 62.168419987116046], [10.65648662691778, 62.20912858779072], [10.657394536568052, 62.218597248967214], [10.663554450706343, 62.22670689337504], [10.670492230353869, 62.24723467791824], [10.685918047985096, 62.25865487229108], [10.713905276353506, 62.2686931391133], [10.739607036002859, 62.26807006333011], [10.761889865926674, 62.27051377772194], [10.782175371288254, 62.276877779860946], [10.800886026669009, 62.279296916559105], [10.818231229663501, 62.28579325819156], [10.840974380257316, 62.29069668144872], [10.846159021997957, 62.29441812246038], [10.87228326777649, 62.32862033168053], [10.891599254639122, 62.33813876478341], [10.903607237159934, 62.35007946166738], [10.919782693793012, 62.36111209080718], [10.912403209908561, 62.36955855394322], [10.913703928393822, 62.37206699448205], [10.925927675479002, 62.37611242537025], [10.949690378016587, 62.3793855785053], [10.96555723554329, 62.38844093028491], [10.984208007606501, 62.391237147318726], [10.992888063103278, 62.393995695821694], [10.996753458653313, 62.39836401094349], [10.996313718308166, 62.40742634108305], [11.006092968809744, 62.41287316753415], [11.015925555779756, 62.414560589898684], [11.03359024866014, 62.41418313123499], [11.064060888922558, 62.416074031856226], [11.077703446713933, 62.41847378004768], [11.08687609613386, 62.423871996050806], [11.108424729708956, 62.429210402432446], [11.119279214374552, 62.43731458431816], [11.123080337284899, 62.446310629435075], [11.141247838806082, 62.45930554864359], [11.178975496167034, 62.476862674559165], [11.198771728122471, 62.49219575070271], [11.227261879901166, 62.49743846249533], [11.238354353310514, 62.50175098819053], [11.252771182005453, 62.50165570734491], [11.29786531687786, 62.52372703713732], [11.304951121428557, 62.53363690484183], [11.300136091032451, 62.541739733903725], [11.30356831241527, 62.54952035625108], [11.33334249363976, 62.564395306209605], [11.337531911205808, 62.56936436412611], [11.342954409605781, 62.57021196138898], [11.371446002971286, 62.566914714439385], [11.385997318049089, 62.57079212130526], [11.384250847141265, 62.57383327435622], [11.350316209958049, 62.57809570485287], [11.346854634829347, 62.58099936917732], [11.364137282463963, 62.615856353460536], [11.3826850751898, 62.63117169957286], [11.39396582081024, 62.634694662122726], [11.416597473786744, 62.64903678873391], [11.419329332651126, 62.672113240209484], [11.39533759946975, 62.685305324397866], [11.39348371117948, 62.69093551491262], [11.387582154459789, 62.6949343047607], [11.32856239802664, 62.727028794290604], [11.321886869030623, 62.736491116184055], [11.324505292107268, 62.74492492174246], [11.329498167977535, 62.74952209066145], [11.329970858765993, 62.755824168128576], [11.340302915916869, 62.765362730453624], [11.350396531351823, 62.769342846699374], [11.363318239698593, 62.79043742850457], [11.370758109333394, 62.791566343999925], [11.387992242660767, 62.78604805234891], [11.393947346554834, 62.78698829880905], [11.395849701380074, 62.78965783628934], [11.38371369924248, 62.80194201427478], [11.383304690625167, 62.80611748885927], [11.371670778754554, 62.80837843456351], [11.361409545257212, 62.812439463594544], [11.35044170181612, 62.825571171457014], [11.3327743986788, 62.838757191134036], [11.315599940977835, 62.84632580638512], [11.23741496116296, 62.85282213159997], [11.224488238911885, 62.859679014868696], [11.217322880263309, 62.861043345647516], [11.213393092172453, 62.86975425130476], [11.192395363070895, 62.8746737124129], [11.18622076366933, 62.8827880227457], [11.186526284798203, 62.89355479296854], [11.20513476976718, 62.9024302558234], [11.189150593888787, 62.91058559109335], [11.176654788396865, 62.92116743525374], [11.14464845344919, 62.92842830725536], [11.110980488253702, 62.9320224463229], [11.099435973421583, 62.94043718129396], [11.074174114450829, 62.9412178841356], [11.052901737132844, 62.945117441277354], [11.043907380070625, 62.94876695591728], [11.037494045264005, 62.953981079936376], [11.006503182467597, 62.95802879729666], [10.993631929480529, 62.957071870538435], [10.982110819895306, 62.95969215918797], [10.95630256425902, 62.96703949940045], [10.945873677788288, 62.9715829274966], [10.943436651613574, 62.979605673204276], [10.928024865309572, 62.98463856875608], [10.924155850455413, 62.984583554607994], [10.917935047776599, 62.98089633937314], [10.897715387833035, 62.975864342787546], [10.88878595178048, 62.97034559089629], [10.866986916152673, 62.96264353492789], [10.845972937160997, 62.95955247605542], [10.823772052847373, 62.96120543105771], [10.813629091854702, 62.95874264261964], [10.786296863038961, 62.95612804826584], [10.774633818370363, 62.94892093534062], [10.756792945082648, 62.947891420784266], [10.7325022470671, 62.95552867736773], [10.718409900512153, 62.9568629057277], [10.691525585154272, 62.954834016538626], [10.670993902128188, 62.94227502140297], [10.664028301342615, 62.94159688159751], [10.652375876191646, 62.94377441188132], [10.640428464471741, 62.94317818601596], [10.636328267791619, 62.944840543613836], [10.632548759861294, 62.95164640248961], [10.593670649211408, 62.95655408638814], [10.584850497454303, 62.966882921247574], [10.561396676116907, 62.97625221804697], [10.5539641763301, 62.98572101770294], [10.538465861024108, 62.991740800874794], [10.507071674157851, 62.99415928755785], [10.493599255890844, 62.99817756088516], [10.470930819837545, 62.99625494270205], [10.450485419905643, 63.01107329380084], [10.445941719750873, 63.016976013479976], [10.435932334125546, 63.01994482691908], [10.402703963905946, 63.02009295599202], [10.389858649559864, 63.017341481849215], [10.35681316897415, 63.01712355204326], [10.341174750393014, 63.01875300896111], [10.328721204673698, 63.02336127102785], [10.319609341034619, 63.02409680589584], [10.312585498940757, 63.03193589705749], [10.299395922677393, 63.036747424212166], [10.285313855170061, 63.048148664099756], [10.287166409445563, 63.0572321745192]]}, "properties": {"OBJECTID": 4327, "Banekortnavn": "ROSB", "Banestatus": "I", "Banenavn": "Rørosbanen", "GlobalID": "{EF370084-F966-46D6-9169-59315A49AFDC}", "Shape.STLength()": 379248.39866507327}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[11.084369807884718, 60.79091446449244], [11.092955281788592, 60.79101834663794], [11.10356411783529, 60.79676126448971], [11.126661800491163, 60.797360447752666], [11.188797175115083, 60.78223343437839], [11.203046531429074, 60.77718817055373], [11.235519138912018, 60.77717827070248], [11.263336076523228, 60.78911116913199], [11.287136738643179, 60.795454227255526], [11.304925219530517, 60.79682143072141], [11.313374791244444, 60.79909664979625], [11.355301014910713, 60.82905293280413], [11.374911934684457, 60.835725164725005], [11.415200827493663, 60.854143107332256], [11.433973409928777, 60.865979496277156], [11.462592371617514, 60.87508001977113], [11.470329652437213, 60.875331433323616], [11.481339096093691, 60.87236380830849], [11.504988598756315, 60.87921823025117], [11.542470272267442, 60.877757336686145], [11.547099520277378, 60.88058839743968], [11.543874282895544, 60.8874981483122], [11.527472108530576, 60.902771679624045], [11.513836143765765, 60.930735359847326], [11.483757870459373, 60.9686878937731], [11.460210651929708, 60.982431356763165], [11.418870599964942, 60.997748512861236], [11.40396829836555, 61.00668384849723], [11.375117860947936, 61.03504924427278], [11.362335633475105, 61.053845057662826], [11.34966256636103, 61.06474699400945], [11.351547829995534, 61.080338973247486], [11.368366819803633, 61.115452609731754], [11.362527407428418, 61.12553682703178], [11.368419546894604, 61.132199754787806], [11.37165713524342, 61.141790217235474], [11.346011055999892, 61.1769749013268], [11.342518915421225, 61.193914735717975], [11.33587787986999, 61.20546918940639], [11.337179724119089, 61.21286035135303], [11.327691527068115, 61.240717246611155], [11.328337447423579, 61.24643324785481], [11.31834686294429, 61.25678474216461], [11.318746445425719, 61.263558772511104], [11.305523646214295, 61.27730586457344], [11.287557861717568, 61.28858451006079], [11.278008189583828, 61.29916143754381], [11.266372471604813, 61.32303203288641], [11.254073021377652, 61.34031163101722], [11.222968077154585, 61.36180304444958], [11.219643067575376, 61.36668326445275], [11.148939652556768, 61.39291838532571], [11.14217856150047, 61.40442935056718], [11.130556667684887, 61.412889268955354], [11.080763312812815, 61.43046012866025], [11.06630327803141, 61.44440245229689], [11.051660270573647, 61.449603206508776], [11.03706206935994, 61.475143638613915], [11.041845614102852, 61.4817977261215], [11.056430238696864, 61.485886648528314], [11.069186099099214, 61.51231171307468], [11.065661085412538, 61.52088394642226], [11.069387912043275, 61.53294229557698], [11.065810199621557, 61.54427405389706], [11.051370573485514, 61.55564015796445], [11.052276272428577, 61.567672909245886], [11.037548702871975, 61.57809309177844], [11.029958414641758, 61.59487371552821], [11.021579532873343, 61.603342916140726], [11.01727573046437, 61.603775044244095], [11.006214688016392, 61.60125448280826], [10.973894092367232, 61.60906162965587], [10.957045670346067, 61.61074549678151], [10.946297313984447, 61.60970082818127], [10.933424095752208, 61.61168458330311], [10.903740281260768, 61.623864301279575], [10.896904799150702, 61.65395777026817], [10.912629295018233, 61.67996495685685], [10.912476002601997, 61.68692658188553], [10.89595913723819, 61.70508389388461], [10.879337753390756, 61.71360448186005], [10.865103919170497, 61.71527131309836], [10.823242796843138, 61.74005097885684], [10.82002718966072, 61.74903342023025], [10.825308844737727, 61.762308265043536], [10.849633681801695, 61.78864000432709], [10.845312011078612, 61.81859431677239], [10.851900934986123, 61.82179535530687], [10.85348501919368, 61.827341769793], [10.859176606376606, 61.83252520580706], [10.90106103972036, 61.84349465512402], [10.905624462430726, 61.848233544539745], [10.905811552438507, 61.855041745807405], [10.909259786412468, 61.858982796352635], [10.90810726475329, 61.87122827415837], [10.89784667690918, 61.88362541923744], [10.876946030799044, 61.89259682486713], [10.874543569264695, 61.89525011589458], [10.874516020590962, 61.90640414248887], [10.878933351689485, 61.92054176105611], [10.886760556253803, 61.92861155545017], [10.898534064002128, 61.9353712863298], [10.90367466379563, 61.94217023072907], [10.89196205582969, 61.954284732653754], [10.891690662908333, 61.96093767869729], [10.89722950222602, 61.97454916671075], [10.89535227383434, 61.98584936630129], [10.883916612111584, 61.9930463590228], [10.86141991704012, 61.9956867205608], [10.845596389374577, 62.00536355796638], [10.840382073851966, 62.01391931457294], [10.834067210714938, 62.017698199943666], [10.78843718291046, 62.02856319140451], [10.779634159360047, 62.03264941440485], [10.74803353563031, 62.038856931843846], [10.731069403495056, 62.04584818699939], [10.713025546659017, 62.06272910057233], [10.704966730247904, 62.0757486091879], [10.696375022552061, 62.07795084222919], [10.691860183408252, 62.082910684185364], [10.677376749291982, 62.08595817673887], [10.656952138129455, 62.093496855425805], [10.637347849251437, 62.10543026197897], [10.628778538374597, 62.11232400773533], [10.630063526838558, 62.118710165410256], [10.626194166768087, 62.12616911437719], [10.625744598820747, 62.138699052674816], [10.62037781424236, 62.14904297679616], [10.6183103556812, 62.168419987116046], [10.65648662691778, 62.20912858779072], [10.657394536568052, 62.218597248967214], [10.663554450706343, 62.22670689337504], [10.670492230353869, 62.24723467791824], [10.685918047985096, 62.25865487229108], [10.713905276353506, 62.2686931391133], [10.739607036002859, 62.26807006333011], [10.761889865926674, 62.27051377772194], [10.782175371288254, 62.276877779860946], [10.800886026669009, 62.279296916559105], [10.818231229663501, 62.28579325819156], [10.840974380257316, 62.29069668144872], [10.846159021997957, 62.29441812246038], [10.87228326777649, 62.32862033168053], [10.891599254639122, 62.33813876478341], [10.903607237159934, 62.35007946166738], [10.919782693793012, 62.36111209080718], [10.912403209908561, 62.36955855394322], [10.913703928393822, 62.37206699448205], [10.925927675479002, 62.37611242537025], [10.949690378016587, 62.3793855785053], [10.96555723554329, 62.38844093028491], [10.984208007606501, 62.391237147318726], [10.992888063103278, 62.393995695821694], [10.996753458653313, 62.39836401094349], [10.996313718308166, 62.40742634108305], [11.006092968809744, 62.41287316753415], [11.015925555779756, 62.414560589898684], [11.03359024866014, 62.41418313123499], [11.064060888922558, 62.416074031856226], [11.077703446713933, 62.41847378004768], [11.08687609613386, 62.423871996050806], [11.108424729708956, 62.429210402432446], [11.119279214374552, 62.43731458431816], [11.123080337284899, 62.446310629435075], [11.141247838806082, 62.45930554864359], [11.178975496167034, 62.476862674559165], [11.198771728122471, 62.49219575070271], [11.227261879901166, 62.49743846249533], [11.238354353310514, 62.50175098819053], [11.252771182005453, 62.50165570734491], [11.29786531687786, 62.52372703713732], [11.304951121428557, 62.53363690484183], [11.300136091032451, 62.541739733903725], [11.30356831241527, 62.54952035625108], [11.33334249363976, 62.564395306209605], [11.337531911205808, 62.56936436412611], [11.342954409605781, 62.57021196138898], [11.371446002971286, 62.566914714439385], [11.385997318049089, 62.57079212130526], [11.384250847141265, 62.57383327435622], [11.350316209958049, 62.57809570485287], [11.346854634829347, 62.58099936917732], [11.364137282463963, 62.615856353460536], [11.3826850751898, 62.63117169957286], [11.39396582081024, 62.634694662122726], [11.416597473786744, 62.64903678873391], [11.419329332651126, 62.672113240209484], [11.39533759946975, 62.685305324397866], [11.39348371117948, 62.69093551491262], [11.387582154459789, 62.6949343047607], [11.32856239802664, 62.727028794290604], [11.321886869030623, 62.736491116184055], [11.324505292107268, 62.74492492174246], [11.329498167977535, 62.74952209066145], [11.329970858765993, 62.755824168128576], [11.340302915916869, 62.765362730453624], [11.350396531351823, 62.769342846699374], [11.363318239698593, 62.79043742850457], [11.370758109333394, 62.791566343999925], [11.387992242660767, 62.78604805234891], [11.393947346554834, 62.78698829880905], [11.395849701380074, 62.78965783628934], [11.38371369924248, 62.80194201427478], [11.383304690625167, 62.80611748885927], [11.371670778754554, 62.80837843456351], [11.361409545257212, 62.812439463594544], [11.35044170181612, 62.825571171457014], [11.3327743986788, 62.838757191134036], [11.315599940977835, 62.84632580638512], [11.23741496116296, 62.85282213159997], [11.224488238911885, 62.859679014868696], [11.217322880263309, 62.861043345647516], [11.213393092172453, 62.86975425130476], [11.192395363070895, 62.8746737124129], [11.18622076366933, 62.8827880227457], [11.186526284798203, 62.89355479296854], [11.20513476976718, 62.9024302558234], [11.189150593888787, 62.91058559109335], [11.176654788396865, 62.92116743525374], [11.14464845344919, 62.92842830725536], [11.110980488253702, 62.9320224463229], [11.099435973421583, 62.94043718129396], [11.074174114450829, 62.9412178841356], [11.052901737132844, 62.945117441277354], [11.043907380070625, 62.94876695591728], [11.037494045264005, 62.953981079936376], [11.006503182467597, 62.95802879729666], [10.993631929480529, 62.957071870538435], [10.982110819895306, 62.95969215918797], [10.95630256425902, 62.96703949940045], [10.945873677788288, 62.9715829274966], [10.943436651613574, 62.979605673204276], [10.928024865309572, 62.98463856875608], [10.924155850455413, 62.984583554607994], [10.917935047776599, 62.98089633937314], [10.897715387833035, 62.975864342787546], [10.88878595178048, 62.97034559089629], [10.866986916152673, 62.96264353492789], [10.845972937160997, 62.95955247605542], [10.823772052847373, 62.96120543105771], [10.813629091854702, 62.95874264261964], [10.786296863038961, 62.95612804826584], [10.774633818370363, 62.94892093534062], [10.756792945082648, 62.947891420784266], [10.7325022470671, 62.95552867736773], [10.718409900512153, 62.9568629057277], [10.691525585154272, 62.954834016538626], [10.670993902128188, 62.94227502140297], [10.664028301342615, 62.94159688159751], [10.652375876191646, 62.94377441188132], [10.640428464471741, 62.94317818601596], [10.636328267791619, 62.944840543613836], [10.632548759861294, 62.95164640248961], [10.593670649211408, 62.95655408638814], [10.584850497454303, 62.966882921247574], [10.561396676116907, 62.97625221804697], [10.5539641763301, 62.98572101770294], [10.538465861024108, 62.991740800874794], [10.507071674157851, 62.99415928755785], [10.493599255890844, 62.99817756088516], [10.470930819837545, 62.99625494270205], [10.450485419905643, 63.01107329380084], [10.445941719750873, 63.016976013479976], [10.435932334125546, 63.01994482691908], [10.402703963905946, 63.02009295599202], [10.389858649559864, 63.017341481849215], [10.35681316897415, 63.01712355204326], [10.341174750393014, 63.01875300896111], [10.328721204673698, 63.02336127102785], [10.319609341034619, 63.02409680589584], [10.312585498940757, 63.03193589705749], [10.299395922677393, 63.036747424212166], [10.285313855170061, 63.048148664099756], [10.287166409445563, 63.0572321745192]]}, "properties": {"Banenavn": "Rørosbanen"}}</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11522</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="36">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4329, "geometry": {"type": "LineString", "coordinates": [[12.019849382263313, 60.18811735963237], [12.02675440072235, 60.189266521654254], [12.031441704701622, 60.192459406241205], [12.03383947887623, 60.22407350444707], [12.041821111763404, 60.24052531729802], [12.052178246342306, 60.25246598941357], [12.055292527702003, 60.267196572136584], [12.042012489977322, 60.279336162761744], [12.021934239449878, 60.31437892049116], [12.025716237313782, 60.33217105392698], [12.03582095747262, 60.337404230212236], [12.051069193217785, 60.341644883924566], [12.054152387422596, 60.344721080749885], [12.053115178870824, 60.354184777832], [12.0413924654898, 60.362125992602074], [12.040493636925369, 60.369867828127404], [12.045346669708863, 60.383432942944], [12.050577283797848, 60.43391791290293], [12.069382526391772, 60.47436846146411], [12.070257440234574, 60.48154818800558], [12.07999021208248, 60.4918997674326], [12.066682379954846, 60.56800851755586], [12.04428520429073, 60.58705516267712], [12.024564989467551, 60.59506868830554], [12.007532706385867, 60.60755477214082], [11.990871694206014, 60.60956738974101], [11.978289376048835, 60.60887423002584], [11.960923004527615, 60.61136437413513], [11.928332188485369, 60.62483414113889], [11.88927092227178, 60.63775337903815], [11.851265408583686, 60.6535749685081], [11.842195477949355, 60.66153417737527], [11.826936026864857, 60.70026781308882], [11.805585598312911, 60.71294792014531], [11.76721002270991, 60.741864928887715], [11.743582546494983, 60.77935004014741], [11.716900680958314, 60.80577998089814], [11.660368901718291, 60.8156581848773], [11.63115182388952, 60.82686593475801], [11.615452042643957, 60.83499070534579], [11.597252013720043, 60.83822493147646], [11.586841724359546, 60.84375158728701], [11.57956145824315, 60.843701208964156], [11.563585920868679, 60.84784722054613], [11.543255499334807, 60.86499409913222], [11.547681956810528, 60.878911424404855], [11.541509884318193, 60.889258399198255]]}, "properties": {"OBJECTID": 4329, "Banekortnavn": "SOLB", "Banestatus": "I", "Banenavn": "Solørbanen", "GlobalID": "{9C5FE646-E451-43F5-9243-9520A92798FA}", "Shape.STLength()": 93795.36575156878}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[12.019849382263313, 60.18811735963237], [12.02675440072235, 60.189266521654254], [12.031441704701622, 60.192459406241205], [12.03383947887623, 60.22407350444707], [12.041821111763404, 60.24052531729802], [12.052178246342306, 60.25246598941357], [12.055292527702003, 60.267196572136584], [12.042012489977322, 60.279336162761744], [12.021934239449878, 60.31437892049116], [12.025716237313782, 60.33217105392698], [12.03582095747262, 60.337404230212236], [12.051069193217785, 60.341644883924566], [12.054152387422596, 60.344721080749885], [12.053115178870824, 60.354184777832], [12.0413924654898, 60.362125992602074], [12.040493636925369, 60.369867828127404], [12.045346669708863, 60.383432942944], [12.050577283797848, 60.43391791290293], [12.069382526391772, 60.47436846146411], [12.070257440234574, 60.48154818800558], [12.07999021208248, 60.4918997674326], [12.066682379954846, 60.56800851755586], [12.04428520429073, 60.58705516267712], [12.024564989467551, 60.59506868830554], [12.007532706385867, 60.60755477214082], [11.990871694206014, 60.60956738974101], [11.978289376048835, 60.60887423002584], [11.960923004527615, 60.61136437413513], [11.928332188485369, 60.62483414113889], [11.88927092227178, 60.63775337903815], [11.851265408583686, 60.6535749685081], [11.842195477949355, 60.66153417737527], [11.826936026864857, 60.70026781308882], [11.805585598312911, 60.71294792014531], [11.76721002270991, 60.741864928887715], [11.743582546494983, 60.77935004014741], [11.716900680958314, 60.80577998089814], [11.660368901718291, 60.8156581848773], [11.63115182388952, 60.82686593475801], [11.615452042643957, 60.83499070534579], [11.597252013720043, 60.83822493147646], [11.586841724359546, 60.84375158728701], [11.57956145824315, 60.843701208964156], [11.563585920868679, 60.84784722054613], [11.543255499334807, 60.86499409913222], [11.547681956810528, 60.878911424404855], [11.541509884318193, 60.889258399198255]]}, "properties": {"Banenavn": "Solørbanen"}}</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2202</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="37">
@@ -1096,11 +1096,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4330, "geometry": {"type": "MultiLineString", "coordinates": [[[7.987993705694185, 58.145728976754015], [7.988553237633931, 58.14573691774741]], [[7.987993705694185, 58.145728976754015], [7.980174647105428, 58.146143134958365], [7.968448320464028, 58.152056424007434], [7.961487194885641, 58.15209219731594], [7.947059271928056, 58.15507325592061], [7.93705445261328, 58.15329151788141], [7.917242608988477, 58.15489339336414], [7.897093329702845, 58.153616388400906], [7.874311369722848, 58.156586642624376], [7.8584275345631145, 58.15082247175824], [7.8411593094346745, 58.1534755597983], [7.822408234572974, 58.16766417328218], [7.802023202540245, 58.17816560816614], [7.798500262204973, 58.18517311070304], [7.784020414695006, 58.19652484096487], [7.781101875182598, 58.20157635334052], [7.777588480549893, 58.202767462092886], [7.766043944707036, 58.200415859900126], [7.736607360213089, 58.20115783809767], [7.730334931920872, 58.199668437184364], [7.7141016900426, 58.19933017737155], [7.6881074980989315, 58.20503174412177], [7.677709979777152, 58.20568210205827], [7.666278808594034, 58.20917215653845], [7.631198415343208, 58.20865630101914], [7.623568058103941, 58.206760806886436], [7.6165177053277064, 58.200994014089275], [7.607456573285007, 58.19829934134955], [7.597748299899708, 58.184548831714004], [7.57762120281843, 58.17612299762809], [7.563412082481174, 58.175215185376395], [7.543650687305887, 58.18282705016004], [7.538981306664373, 58.190339687739616], [7.530199398273873, 58.19292247829028], [7.5201086741649315, 58.19937308276846], [7.514170038584081, 58.20700631115318], [7.504032386041443, 58.22901800197391], [7.503135393379516, 58.23856585871534], [7.4843022749715304, 58.254003961758606], [7.458729843305595, 58.26503506739379], [7.4472274619273895, 58.26786225582018], [7.439036206633806, 58.26751670138488], [7.429562354301875, 58.271190651089846], [7.406010636557193, 58.27397928579327], [7.395367578522783, 58.277979940594086], [7.377362649364623, 58.28123817561196], [7.372902730816054, 58.28536670669963], [7.363677194960239, 58.287426064126535], [7.363090382819845, 58.291602067740975], [7.371011156758649, 58.29833942716898], [7.368520287919251, 58.30490452788826], [7.373933996137637, 58.31100077617962], [7.361695207059304, 58.3237275708858], [7.2193260751670865, 58.33196748124869], [7.204573022375553, 58.3312897635591], [7.050486697770005, 58.34258192797024], [7.042543189968346, 58.34733452994574], [7.043823263191606, 58.3519507209055], [7.040241687430457, 58.359450500091995], [7.023150781912734, 58.36321429509238], [7.011289813446905, 58.37247101933082], [6.976777276354548, 58.371481072030754], [6.9487356042844866, 58.38265543823205], [6.847468161462533, 58.38516032801643], [6.8184060995683335, 58.38243334052902], [6.808893887387567, 58.3909619498531], [6.802744845464998, 58.39328150291168], [6.8005472456823135, 58.398925472519515], [6.793772726327423, 58.40518776337949], [6.768559631950612, 58.40243893054074], [6.756214708782201, 58.40635482987211], [6.747049207211791, 58.405357034450375], [6.731386658019094, 58.410906868529445], [6.68054603354539, 58.42203916448388], [6.674775427648268, 58.42061020901242], [6.667976464310086, 58.408090361640475], [6.662438972205853, 58.40691034646543], [6.6586065783537745, 58.40910058116982], [6.661971882395175, 58.41468512514362], [6.656020164761722, 58.4245699477217], [6.608183937308025, 58.44252989878237], [6.597279039632706, 58.440317518340066], [6.579607198654716, 58.441834561426006], [6.559624575384015, 58.44957825118442], [6.549595337008088, 58.45900543021675]], [[6.54959516154595, 58.459005315447484], [6.531684275853888, 58.46151154578434], [6.5199875636468505, 58.469508988041376], [6.505473715134123, 58.484621946057096], [6.495082944283491, 58.4874259868739], [6.467367873700203, 58.479497199144305], [6.438624974913199, 58.477449124845435], [6.378645976664186, 58.466188665101654], [6.368661720476832, 58.46580432908015], [6.36469552639327, 58.470804379117105]], [[6.364696481304033, 58.47080468269202], [6.362823890777598, 58.47522341631427], [6.3514899456602265, 58.48431169780069], [6.349021695718308, 58.49018966546556], [6.360912650805731, 58.49875525868236], [6.3598176620597, 58.51841044559161], [6.355016208737703, 58.52374323054888], [6.347294424169879, 58.526268873018736], [6.338176476729536, 58.532247975206616], [6.330760716539043, 58.53339005955139], [6.32467585541745, 58.536204071032635], [6.320815819886092, 58.54071797390683], [6.3071731723945526, 58.54402747473484], [6.285528746785225, 58.54437938841833], [6.259804592552035, 58.54932168609667], [6.238844115984224, 58.54823981530857], [6.220958381472745, 58.551325496651636], [6.191770401815133, 58.54896773269898], [6.1813350742826465, 58.55157392949967], [6.168070709448542, 58.543983471169184], [6.158459464625913, 58.53450006250922], [6.137515275387378, 58.529277615581044], [6.1240261224448185, 58.520618706890374], [6.11446489888173, 58.51856370820419], [6.097617869310141, 58.519288699342326], [6.04179650809247, 58.51121909125614], [6.040233388718874, 58.5079718769439], [6.042284662774024, 58.50314261713031], [6.033514604556768, 58.49545018679064], [6.034647107759201, 58.49015672477265], [6.023946478085629, 58.47462190270286], [6.0254638396544955, 58.468977939397604], [6.022878613646682, 58.46494868380444], [6.019521961860446, 58.46320513268006], [6.007322183673248, 58.461437399397454], [5.995559126704917, 58.461562378687404], [5.988416654299726, 58.465747064824136], [5.9667144781601955, 58.471613204799276], [5.936673554600309, 58.47199417127681], [5.90893165274991, 58.47757446855957], [5.892769085213345, 58.488399249432945], [5.883785609881404, 58.48842362860766], [5.872812354783378, 58.491422855986116], [5.853351703250836, 58.48924452594083], [5.8128918304149835, 58.499395196132696], [5.801701353897985, 58.5058685162873], [5.8061649185489035, 58.516120376893284], [5.802518883761155, 58.52014329072727], [5.773167847209291, 58.53258941522679], [5.7458317162960935, 58.541706716482736], [5.731505648507586, 58.5487491535227], [5.719720348267659, 58.558592320341525], [5.67564910178832, 58.574689737837886], [5.667585837868869, 58.586132902211745], [5.653907276628282, 58.5993893678605], [5.635077166389324, 58.6470653747337], [5.63432259396293, 58.654315141787556], [5.659531747117953, 58.69350487724043], [5.658053152012045, 58.703127081669365], [5.645621423292142, 58.71569131968279], [5.649858484348159, 58.735729302636514], [5.678283850201435, 58.758527903105715], [5.678036244855598, 58.77156745604295], [5.695284882588577, 58.78047969854265], [5.706990224926091, 58.79221037077329], [5.702794029336329, 58.80906035231796], [5.720745599116387, 58.827014343250326], [5.731732019935498, 58.84048455539162], [5.735199349793204, 58.85112507764206], [5.744358244059759, 58.858688541625504], [5.7441518515213525, 58.86891749910304], [5.74079199176467, 58.87359317919747], [5.746652221196991, 58.87840212439734], [5.74870716272328, 58.8856283756782], [5.740674216539832, 58.89848016222316], [5.740049527225777, 58.904419014846184], [5.732881053998651, 58.9089483120333], [5.725998267701453, 58.91865056850764], [5.729950173949172, 58.92193296929884], [5.75313733358316, 58.9292818229533], [5.7561594819165505, 58.93953116251054], [5.743944418895225, 58.95134714377382], [5.7400016656094754, 58.961048595081884], [5.732347672682587, 58.96653131444164]], [[9.120161731040216, 59.02525783887339], [9.12016172477603, 59.02525604275527]], [[9.120161731040216, 59.02525783887339], [9.143712503672702, 59.00860918302768], [9.143255059454566, 59.00314262871258], [9.148782475114302, 58.9971041797439], [9.149972883912252, 58.978999199624724], [9.157613239741012, 58.965789215281276], [9.149223636259702, 58.962170051847345], [9.135936319079034, 58.95133202703986], [9.134765901260035, 58.94630485111274], [9.137843485056367, 58.937325001884574], [9.136142153544437, 58.933208860683656], [9.115171627849191, 58.91794487388994], [9.07132693599056, 58.89959857932789], [9.060387986523292, 58.89774449842574], [9.059442583694478, 58.887972750907686], [9.033536146063712, 58.88642757939665], [9.029056002197027, 58.881221052276864], [9.014545954292872, 58.87481667485863], [9.015912728250083, 58.87176258495686], [9.029769861446374, 58.86918739836598], [9.047805372249185, 58.86163080927066], [9.053400419138406, 58.85709401039696], [9.07373028444892, 58.85002739275634], [9.076617763259106, 58.847383273861546], [9.069257990894645, 58.83622357916538], [9.057538481099243, 58.83113043690744], [9.05874861770215, 58.826065749184494], [9.053617332259561, 58.82203286617109], [9.05257821428459, 58.815770013283796], [9.017763293214811, 58.78591352254792], [9.011803995854955, 58.78498270156935], [8.999189360594025, 58.78730795651428], [8.98934099327817, 58.79503444841615], [8.972139171083784, 58.794848311095485], [8.948498527856726, 58.78398137722915], [8.930490745897233, 58.78511620820573], [8.915042259025133, 58.782386271878316], [8.895141534686138, 58.78535690345059], [8.874923188636666, 58.77925051715704], [8.86612230171741, 58.775175102648205], [8.861755765047874, 58.770825322062116], [8.859247929895359, 58.762175717870804], [8.85209092267417, 58.75968491343915], [8.82598254671518, 58.74277916218702], [8.759944734012107, 58.71489371227827], [8.743997198981925, 58.704900292560104], [8.737823155643184, 58.69475134867074], [8.726656007111169, 58.6913239330406], [8.70834095186426, 58.68169738974352], [8.688388777832024, 58.677024557883506], [8.68298698519209, 58.672833875302615], [8.674431470587686, 58.67160375314038], [8.67101892064309, 58.667375543552474], [8.676536221025955, 58.658992295488105], [8.674818785305456, 58.65634974388181], [8.670283167733471, 58.655785953274716], [8.663607182463691, 58.657789809891774], [8.656800482137939, 58.65654456288536], [8.64860531917112, 58.657448595749166], [8.638917704789145, 58.653875826850395], [8.624122102155834, 58.65901904890951], [8.59577897342503, 58.65568170175117], [8.587584488065653, 58.6499373552221], [8.575215422895159, 58.64625226859965], [8.566352340572374, 58.638430207718045], [8.552272080243, 58.63242282081379], [8.539736284303139, 58.63166457917321], [8.53155349238542, 58.62723133732105], [8.52459255084811, 58.62819464739173], [8.50324502455934, 58.63741495938828], [8.493487090761702, 58.635366634251994], [8.489737116159809, 58.63147404343946], [8.479962245680353, 58.627936410286054], [8.468971866481892, 58.61897977568187], [8.461555293564842, 58.61621313416112], [8.454229894737896, 58.61551306138968], [8.443605638165296, 58.61108840467796], [8.4333568955959, 58.609882998078916], [8.421772120168711, 58.605264305793824], [8.419137830237021, 58.60165367315646], [8.40424617299461, 58.59226264331476], [8.393704608349847, 58.580225641221766], [8.384715187338227, 58.57517980003216], [8.357507300412124, 58.53832706967207], [8.337887342995257, 58.530454786734495], [8.330289768004272, 58.53172724528526], [8.309505300025808, 58.52966494858521], [8.298056868291777, 58.5330116791559], [8.274323903837736, 58.53387746371155], [8.25522725050383, 58.53018896622986], [8.229869416772067, 58.52133104973153], [8.223680046344482, 58.51366059649459], [8.200712680975137, 58.50597466239569], [8.191574732740843, 58.488798575727664], [8.163709571921554, 58.47475714378613], [8.146373320794742, 58.460134063716495], [8.130470822263202, 58.45106387468421], [8.106676118218857, 58.442574644100226], [8.099638358995978, 58.4385693303202], [8.089910836119644, 58.42856670582588], [8.090699958219101, 58.42138404016175], [8.082076828174387, 58.40864737910993], [8.091036136821062, 58.39415699309973], [8.080752776503092, 58.383418368123046], [8.082756394279848, 58.3781630619223], [8.069837687970763, 58.37080386124901], [8.047150087632701, 58.3525125373674], [8.040959063734828, 58.33868314186685], [8.036548146375624, 58.33451840723], [8.019730001302257, 58.326824381201256], [8.00546397683959, 58.314482243848026], [7.980238281396345, 58.30093890492609], [7.9787800360108685, 58.290251299147336], [7.981221517321346, 58.286715945187886], [7.977250239368317, 58.264399509512316], [7.964925222618951, 58.248756712157366], [7.95600288810134, 58.24591127382003], [7.952169413075649, 58.242342725867374], [7.943417885213894, 58.240794851087436], [7.937498509296805, 58.236967675657034], [7.9347008915383865, 58.23389880265654], [7.934255807573512, 58.22428039632138], [7.924516114200697, 58.21748501275331], [7.923730891263056, 58.20967677544065], [7.931067164986102, 58.206182151417366], [7.932792438463399, 58.20235559356965], [7.93080603556737, 58.18647700528037], [7.949283787254514, 58.166948938841216], [7.957127729939655, 58.15437061557361], [7.961017370981592, 58.15225607500468], [7.969311776202898, 58.151863632480904], [7.980431418245816, 58.14611069481627], [7.987993705694185, 58.145728976754015]], [[10.14529234572798, 59.744760262890125], [10.105402670165102, 59.74563196747517], [10.070853664347087, 59.74897730609617], [10.051756495089807, 59.754643039396996], [10.042303271959804, 59.75482323631395], [10.025262964673619, 59.751136951863415], [10.014526807281891, 59.7507185382772], [9.986792053855583, 59.754251326833725], [9.965316882358774, 59.75914877122979], [9.93807357611606, 59.76098588689943], [9.925366885455057, 59.760117496823725], [9.918214099839043, 59.762118325188126], [9.903392942493335, 59.771270293842036], [9.89787449674859, 59.7714364207623], [9.888375382584206, 59.7524009479063], [9.877587351862733, 59.74515516025343], [9.85950104569531, 59.72436834180117], [9.847889648971885, 59.716877505962564], [9.825646317169877, 59.71694863433651], [9.820957854665709, 59.71565767892347], [9.791980967833956, 59.6951982895469], [9.790768877024586, 59.690047064986835], [9.76289448906932, 59.66479753964755], [9.740219505819145, 59.65004578073801], [9.735977892830247, 59.644592320735065], [9.727576418871552, 59.63988593560252], [9.719295107691535, 59.637643667400596], [9.712175889666543, 59.630256605616964], [9.698654137359421, 59.62302377020827], [9.689530575273434, 59.62283257444275], [9.673462387649328, 59.63326635829141], [9.66478144751453, 59.63573724766459], [9.654959118317052, 59.64712568327014], [9.659395995184383, 59.658247850372746], [9.654446792553712, 59.66450727708856], [9.654479689362782, 59.66973832605535], [9.64826993527884, 59.67371873219941], [9.643753646546914, 59.67441634928313], [9.638468256810581, 59.67125194030056], [9.64052935225674, 59.665647989149264], [9.634119287126072, 59.65359653537227], [9.634625144255944, 59.64667193617073], [9.637732494416525, 59.64283900790945], [9.63272834988322, 59.63225199498262], [9.61492438353105, 59.62963811054826], [9.586953001426583, 59.637377752580456], [9.563245517340842, 59.62926818234667], [9.553643072446217, 59.63036611288332], [9.546047163428728, 59.629121283161055], [9.517827135750276, 59.63306122745926], [9.504011036532994, 59.630147548750365], [9.474075975045157, 59.629153948368206], [9.47046891900896, 59.627687049451374], [9.468325342415435, 59.62371078047189], [9.469178759809918, 59.618220003871905], [9.45687588194752, 59.612115798187105], [9.438642997518182, 59.60701139116397], [9.416452875358697, 59.60323543363343], [9.384618715988443, 59.59324361517985], [9.382515667933744, 59.58477667343964], [9.37663519598319, 59.578761891029956], [9.384696209337443, 59.5678631199304], [9.384618932815119, 59.5628730042564], [9.38203456857079, 59.55817803162656], [9.373101863348532, 59.55355746543343], [9.367484071106912, 59.543315260930314], [9.371844114633438, 59.53579406191092], [9.386239316471631, 59.535692116443684], [9.389730248837404, 59.532668437639614], [9.386292891615533, 59.530608198531134], [9.37618935061549, 59.53132244688196], [9.368063386898907, 59.52881157685306], [9.351405471191661, 59.5222178277193], [9.343313034112029, 59.516034398511664], [9.341005378083606, 59.51085205377804], [9.342684634812821, 59.50188461820007], [9.331205140190743, 59.489921811194854], [9.33004723305957, 59.4811520452758], [9.322033440505908, 59.476983286273246], [9.328039423651184, 59.470174580303045], [9.339964842351653, 59.46204551848348], [9.338706733778071, 59.45172752307912], [9.341423880700736, 59.44615494591601], [9.334977614197244, 59.44211056072571], [9.335674244695161, 59.436714241653824], [9.331239397464511, 59.431886179007364], [9.322796488438518, 59.429993025809935], [9.317241128248456, 59.42687078063915], [9.326459537512632, 59.40967113262459], [9.316100610224545, 59.40385647555765], [9.29210412557887, 59.40134827421847], [9.26908070617078, 59.39371677882178], [9.254202523878455, 59.39422677142925], [9.24482867850024, 59.38986148487662], [9.224940205063273, 59.38648374802255], [9.212049991552552, 59.38977122490798], [9.18659681938412, 59.39121800199645], [9.173968372783401, 59.38841883012589], [9.167590805260781, 59.3885610692331], [9.15639475187318, 59.39431029753854], [9.147146068984165, 59.39597797182347], [9.127602240376595, 59.40320345484522], [9.088134361227715, 59.40732290403121], [9.07986242704269, 59.40974377819518], [9.064822727754393, 59.40875559204194], [9.058819558230068, 59.406527153895716], [9.049167245096056, 59.39185489189327], [9.041350503591648, 59.38510824442027], [9.044971080852747, 59.3762410670211], [9.066475029976402, 59.35866898015598], [9.087057518284576, 59.34623335387353], [9.088432264204267, 59.337899904434806], [9.092900080059005, 59.33098959793865], [9.089417480414376, 59.32356568111816], [9.102192537246326, 59.29662317273756], [9.099117575761735, 59.28954893669041], [9.107350412393695, 59.285746549115984], [9.117076044132931, 59.2774801007515], [9.134961748849548, 59.25762857730801], [9.13292747903685, 59.2552006012041], [9.115417531159943, 59.24979652355865], [9.111230537389659, 59.2458261129955], [9.121759328401183, 59.2365097555948], [9.114317278161627, 59.231445674053944], [9.110973244461348, 59.21595002555692], [9.096915874830428, 59.20973957879812], [9.093188505169573, 59.20548399478682], [9.081513246299576, 59.202475870524], [9.079397010591059, 59.19849223025615], [9.081502690210675, 59.19451666210822], [9.090066064050445, 59.18864763003068], [9.08205887120657, 59.18096230203465], [9.086731608694175, 59.154635242686595], [9.083039179370207, 59.148886312828765], [9.089828963417593, 59.1332937926438], [9.10121338957465, 59.126432062856765], [9.10367564221555, 59.1139590107792], [9.08927209453695, 59.106164404494734], [9.072930559107867, 59.1052040016188], [9.066921149446124, 59.101166640404855], [9.062875088884855, 59.09312445900714], [9.067591035793335, 59.08274311512423], [9.070437072918596, 59.06331757637209], [9.085707502789724, 59.05449701048551], [9.088125205589757, 59.04852617900676], [9.10411417140819, 59.042760732951436], [9.120161731040216, 59.02525783887339]]]}, "properties": {"OBJECTID": 4330, "Banekortnavn": "SORB", "Banestatus": "I", "Banenavn": "Sørlandsbanen", "GlobalID": "{694EB896-675A-4A8B-8B24-47DC85A6BBB1}", "Shape.STLength()": 534881.0860230403}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "MultiLineString", "coordinates": [[[7.987993705694185, 58.145728976754015], [7.988553237633931, 58.14573691774741]], [[7.987993705694185, 58.145728976754015], [7.980174647105428, 58.146143134958365], [7.968448320464028, 58.152056424007434], [7.961487194885641, 58.15209219731594], [7.947059271928056, 58.15507325592061], [7.93705445261328, 58.15329151788141], [7.917242608988477, 58.15489339336414], [7.897093329702845, 58.153616388400906], [7.874311369722848, 58.156586642624376], [7.8584275345631145, 58.15082247175824], [7.8411593094346745, 58.1534755597983], [7.822408234572974, 58.16766417328218], [7.802023202540245, 58.17816560816614], [7.798500262204973, 58.18517311070304], [7.784020414695006, 58.19652484096487], [7.781101875182598, 58.20157635334052], [7.777588480549893, 58.202767462092886], [7.766043944707036, 58.200415859900126], [7.736607360213089, 58.20115783809767], [7.730334931920872, 58.199668437184364], [7.7141016900426, 58.19933017737155], [7.6881074980989315, 58.20503174412177], [7.677709979777152, 58.20568210205827], [7.666278808594034, 58.20917215653845], [7.631198415343208, 58.20865630101914], [7.623568058103941, 58.206760806886436], [7.6165177053277064, 58.200994014089275], [7.607456573285007, 58.19829934134955], [7.597748299899708, 58.184548831714004], [7.57762120281843, 58.17612299762809], [7.563412082481174, 58.175215185376395], [7.543650687305887, 58.18282705016004], [7.538981306664373, 58.190339687739616], [7.530199398273873, 58.19292247829028], [7.5201086741649315, 58.19937308276846], [7.514170038584081, 58.20700631115318], [7.504032386041443, 58.22901800197391], [7.503135393379516, 58.23856585871534], [7.4843022749715304, 58.254003961758606], [7.458729843305595, 58.26503506739379], [7.4472274619273895, 58.26786225582018], [7.439036206633806, 58.26751670138488], [7.429562354301875, 58.271190651089846], [7.406010636557193, 58.27397928579327], [7.395367578522783, 58.277979940594086], [7.377362649364623, 58.28123817561196], [7.372902730816054, 58.28536670669963], [7.363677194960239, 58.287426064126535], [7.363090382819845, 58.291602067740975], [7.371011156758649, 58.29833942716898], [7.368520287919251, 58.30490452788826], [7.373933996137637, 58.31100077617962], [7.361695207059304, 58.3237275708858], [7.2193260751670865, 58.33196748124869], [7.204573022375553, 58.3312897635591], [7.050486697770005, 58.34258192797024], [7.042543189968346, 58.34733452994574], [7.043823263191606, 58.3519507209055], [7.040241687430457, 58.359450500091995], [7.023150781912734, 58.36321429509238], [7.011289813446905, 58.37247101933082], [6.976777276354548, 58.371481072030754], [6.9487356042844866, 58.38265543823205], [6.847468161462533, 58.38516032801643], [6.8184060995683335, 58.38243334052902], [6.808893887387567, 58.3909619498531], [6.802744845464998, 58.39328150291168], [6.8005472456823135, 58.398925472519515], [6.793772726327423, 58.40518776337949], [6.768559631950612, 58.40243893054074], [6.756214708782201, 58.40635482987211], [6.747049207211791, 58.405357034450375], [6.731386658019094, 58.410906868529445], [6.68054603354539, 58.42203916448388], [6.674775427648268, 58.42061020901242], [6.667976464310086, 58.408090361640475], [6.662438972205853, 58.40691034646543], [6.6586065783537745, 58.40910058116982], [6.661971882395175, 58.41468512514362], [6.656020164761722, 58.4245699477217], [6.608183937308025, 58.44252989878237], [6.597279039632706, 58.440317518340066], [6.579607198654716, 58.441834561426006], [6.559624575384015, 58.44957825118442], [6.549595337008088, 58.45900543021675]], [[6.54959516154595, 58.459005315447484], [6.531684275853888, 58.46151154578434], [6.5199875636468505, 58.469508988041376], [6.505473715134123, 58.484621946057096], [6.495082944283491, 58.4874259868739], [6.467367873700203, 58.479497199144305], [6.438624974913199, 58.477449124845435], [6.378645976664186, 58.466188665101654], [6.368661720476832, 58.46580432908015], [6.36469552639327, 58.470804379117105]], [[6.364696481304033, 58.47080468269202], [6.362823890777598, 58.47522341631427], [6.3514899456602265, 58.48431169780069], [6.349021695718308, 58.49018966546556], [6.360912650805731, 58.49875525868236], [6.3598176620597, 58.51841044559161], [6.355016208737703, 58.52374323054888], [6.347294424169879, 58.526268873018736], [6.338176476729536, 58.532247975206616], [6.330760716539043, 58.53339005955139], [6.32467585541745, 58.536204071032635], [6.320815819886092, 58.54071797390683], [6.3071731723945526, 58.54402747473484], [6.285528746785225, 58.54437938841833], [6.259804592552035, 58.54932168609667], [6.238844115984224, 58.54823981530857], [6.220958381472745, 58.551325496651636], [6.191770401815133, 58.54896773269898], [6.1813350742826465, 58.55157392949967], [6.168070709448542, 58.543983471169184], [6.158459464625913, 58.53450006250922], [6.137515275387378, 58.529277615581044], [6.1240261224448185, 58.520618706890374], [6.11446489888173, 58.51856370820419], [6.097617869310141, 58.519288699342326], [6.04179650809247, 58.51121909125614], [6.040233388718874, 58.5079718769439], [6.042284662774024, 58.50314261713031], [6.033514604556768, 58.49545018679064], [6.034647107759201, 58.49015672477265], [6.023946478085629, 58.47462190270286], [6.0254638396544955, 58.468977939397604], [6.022878613646682, 58.46494868380444], [6.019521961860446, 58.46320513268006], [6.007322183673248, 58.461437399397454], [5.995559126704917, 58.461562378687404], [5.988416654299726, 58.465747064824136], [5.9667144781601955, 58.471613204799276], [5.936673554600309, 58.47199417127681], [5.90893165274991, 58.47757446855957], [5.892769085213345, 58.488399249432945], [5.883785609881404, 58.48842362860766], [5.872812354783378, 58.491422855986116], [5.853351703250836, 58.48924452594083], [5.8128918304149835, 58.499395196132696], [5.801701353897985, 58.5058685162873], [5.8061649185489035, 58.516120376893284], [5.802518883761155, 58.52014329072727], [5.773167847209291, 58.53258941522679], [5.7458317162960935, 58.541706716482736], [5.731505648507586, 58.5487491535227], [5.719720348267659, 58.558592320341525], [5.67564910178832, 58.574689737837886], [5.667585837868869, 58.586132902211745], [5.653907276628282, 58.5993893678605], [5.635077166389324, 58.6470653747337], [5.63432259396293, 58.654315141787556], [5.659531747117953, 58.69350487724043], [5.658053152012045, 58.703127081669365], [5.645621423292142, 58.71569131968279], [5.649858484348159, 58.735729302636514], [5.678283850201435, 58.758527903105715], [5.678036244855598, 58.77156745604295], [5.695284882588577, 58.78047969854265], [5.706990224926091, 58.79221037077329], [5.702794029336329, 58.80906035231796], [5.720745599116387, 58.827014343250326], [5.731732019935498, 58.84048455539162], [5.735199349793204, 58.85112507764206], [5.744358244059759, 58.858688541625504], [5.7441518515213525, 58.86891749910304], [5.74079199176467, 58.87359317919747], [5.746652221196991, 58.87840212439734], [5.74870716272328, 58.8856283756782], [5.740674216539832, 58.89848016222316], [5.740049527225777, 58.904419014846184], [5.732881053998651, 58.9089483120333], [5.725998267701453, 58.91865056850764], [5.729950173949172, 58.92193296929884], [5.75313733358316, 58.9292818229533], [5.7561594819165505, 58.93953116251054], [5.743944418895225, 58.95134714377382], [5.7400016656094754, 58.961048595081884], [5.732347672682587, 58.96653131444164]], [[9.120161731040216, 59.02525783887339], [9.12016172477603, 59.02525604275527]], [[9.120161731040216, 59.02525783887339], [9.143712503672702, 59.00860918302768], [9.143255059454566, 59.00314262871258], [9.148782475114302, 58.9971041797439], [9.149972883912252, 58.978999199624724], [9.157613239741012, 58.965789215281276], [9.149223636259702, 58.962170051847345], [9.135936319079034, 58.95133202703986], [9.134765901260035, 58.94630485111274], [9.137843485056367, 58.937325001884574], [9.136142153544437, 58.933208860683656], [9.115171627849191, 58.91794487388994], [9.07132693599056, 58.89959857932789], [9.060387986523292, 58.89774449842574], [9.059442583694478, 58.887972750907686], [9.033536146063712, 58.88642757939665], [9.029056002197027, 58.881221052276864], [9.014545954292872, 58.87481667485863], [9.015912728250083, 58.87176258495686], [9.029769861446374, 58.86918739836598], [9.047805372249185, 58.86163080927066], [9.053400419138406, 58.85709401039696], [9.07373028444892, 58.85002739275634], [9.076617763259106, 58.847383273861546], [9.069257990894645, 58.83622357916538], [9.057538481099243, 58.83113043690744], [9.05874861770215, 58.826065749184494], [9.053617332259561, 58.82203286617109], [9.05257821428459, 58.815770013283796], [9.017763293214811, 58.78591352254792], [9.011803995854955, 58.78498270156935], [8.999189360594025, 58.78730795651428], [8.98934099327817, 58.79503444841615], [8.972139171083784, 58.794848311095485], [8.948498527856726, 58.78398137722915], [8.930490745897233, 58.78511620820573], [8.915042259025133, 58.782386271878316], [8.895141534686138, 58.78535690345059], [8.874923188636666, 58.77925051715704], [8.86612230171741, 58.775175102648205], [8.861755765047874, 58.770825322062116], [8.859247929895359, 58.762175717870804], [8.85209092267417, 58.75968491343915], [8.82598254671518, 58.74277916218702], [8.759944734012107, 58.71489371227827], [8.743997198981925, 58.704900292560104], [8.737823155643184, 58.69475134867074], [8.726656007111169, 58.6913239330406], [8.70834095186426, 58.68169738974352], [8.688388777832024, 58.677024557883506], [8.68298698519209, 58.672833875302615], [8.674431470587686, 58.67160375314038], [8.67101892064309, 58.667375543552474], [8.676536221025955, 58.658992295488105], [8.674818785305456, 58.65634974388181], [8.670283167733471, 58.655785953274716], [8.663607182463691, 58.657789809891774], [8.656800482137939, 58.65654456288536], [8.64860531917112, 58.657448595749166], [8.638917704789145, 58.653875826850395], [8.624122102155834, 58.65901904890951], [8.59577897342503, 58.65568170175117], [8.587584488065653, 58.6499373552221], [8.575215422895159, 58.64625226859965], [8.566352340572374, 58.638430207718045], [8.552272080243, 58.63242282081379], [8.539736284303139, 58.63166457917321], [8.53155349238542, 58.62723133732105], [8.52459255084811, 58.62819464739173], [8.50324502455934, 58.63741495938828], [8.493487090761702, 58.635366634251994], [8.489737116159809, 58.63147404343946], [8.479962245680353, 58.627936410286054], [8.468971866481892, 58.61897977568187], [8.461555293564842, 58.61621313416112], [8.454229894737896, 58.61551306138968], [8.443605638165296, 58.61108840467796], [8.4333568955959, 58.609882998078916], [8.421772120168711, 58.605264305793824], [8.419137830237021, 58.60165367315646], [8.40424617299461, 58.59226264331476], [8.393704608349847, 58.580225641221766], [8.384715187338227, 58.57517980003216], [8.357507300412124, 58.53832706967207], [8.337887342995257, 58.530454786734495], [8.330289768004272, 58.53172724528526], [8.309505300025808, 58.52966494858521], [8.298056868291777, 58.5330116791559], [8.274323903837736, 58.53387746371155], [8.25522725050383, 58.53018896622986], [8.229869416772067, 58.52133104973153], [8.223680046344482, 58.51366059649459], [8.200712680975137, 58.50597466239569], [8.191574732740843, 58.488798575727664], [8.163709571921554, 58.47475714378613], [8.146373320794742, 58.460134063716495], [8.130470822263202, 58.45106387468421], [8.106676118218857, 58.442574644100226], [8.099638358995978, 58.4385693303202], [8.089910836119644, 58.42856670582588], [8.090699958219101, 58.42138404016175], [8.082076828174387, 58.40864737910993], [8.091036136821062, 58.39415699309973], [8.080752776503092, 58.383418368123046], [8.082756394279848, 58.3781630619223], [8.069837687970763, 58.37080386124901], [8.047150087632701, 58.3525125373674], [8.040959063734828, 58.33868314186685], [8.036548146375624, 58.33451840723], [8.019730001302257, 58.326824381201256], [8.00546397683959, 58.314482243848026], [7.980238281396345, 58.30093890492609], [7.9787800360108685, 58.290251299147336], [7.981221517321346, 58.286715945187886], [7.977250239368317, 58.264399509512316], [7.964925222618951, 58.248756712157366], [7.95600288810134, 58.24591127382003], [7.952169413075649, 58.242342725867374], [7.943417885213894, 58.240794851087436], [7.937498509296805, 58.236967675657034], [7.9347008915383865, 58.23389880265654], [7.934255807573512, 58.22428039632138], [7.924516114200697, 58.21748501275331], [7.923730891263056, 58.20967677544065], [7.931067164986102, 58.206182151417366], [7.932792438463399, 58.20235559356965], [7.93080603556737, 58.18647700528037], [7.949283787254514, 58.166948938841216], [7.957127729939655, 58.15437061557361], [7.961017370981592, 58.15225607500468], [7.969311776202898, 58.151863632480904], [7.980431418245816, 58.14611069481627], [7.987993705694185, 58.145728976754015]], [[10.14529234572798, 59.744760262890125], [10.105402670165102, 59.74563196747517], [10.070853664347087, 59.74897730609617], [10.051756495089807, 59.754643039396996], [10.042303271959804, 59.75482323631395], [10.025262964673619, 59.751136951863415], [10.014526807281891, 59.7507185382772], [9.986792053855583, 59.754251326833725], [9.965316882358774, 59.75914877122979], [9.93807357611606, 59.76098588689943], [9.925366885455057, 59.760117496823725], [9.918214099839043, 59.762118325188126], [9.903392942493335, 59.771270293842036], [9.89787449674859, 59.7714364207623], [9.888375382584206, 59.7524009479063], [9.877587351862733, 59.74515516025343], [9.85950104569531, 59.72436834180117], [9.847889648971885, 59.716877505962564], [9.825646317169877, 59.71694863433651], [9.820957854665709, 59.71565767892347], [9.791980967833956, 59.6951982895469], [9.790768877024586, 59.690047064986835], [9.76289448906932, 59.66479753964755], [9.740219505819145, 59.65004578073801], [9.735977892830247, 59.644592320735065], [9.727576418871552, 59.63988593560252], [9.719295107691535, 59.637643667400596], [9.712175889666543, 59.630256605616964], [9.698654137359421, 59.62302377020827], [9.689530575273434, 59.62283257444275], [9.673462387649328, 59.63326635829141], [9.66478144751453, 59.63573724766459], [9.654959118317052, 59.64712568327014], [9.659395995184383, 59.658247850372746], [9.654446792553712, 59.66450727708856], [9.654479689362782, 59.66973832605535], [9.64826993527884, 59.67371873219941], [9.643753646546914, 59.67441634928313], [9.638468256810581, 59.67125194030056], [9.64052935225674, 59.665647989149264], [9.634119287126072, 59.65359653537227], [9.634625144255944, 59.64667193617073], [9.637732494416525, 59.64283900790945], [9.63272834988322, 59.63225199498262], [9.61492438353105, 59.62963811054826], [9.586953001426583, 59.637377752580456], [9.563245517340842, 59.62926818234667], [9.553643072446217, 59.63036611288332], [9.546047163428728, 59.629121283161055], [9.517827135750276, 59.63306122745926], [9.504011036532994, 59.630147548750365], [9.474075975045157, 59.629153948368206], [9.47046891900896, 59.627687049451374], [9.468325342415435, 59.62371078047189], [9.469178759809918, 59.618220003871905], [9.45687588194752, 59.612115798187105], [9.438642997518182, 59.60701139116397], [9.416452875358697, 59.60323543363343], [9.384618715988443, 59.59324361517985], [9.382515667933744, 59.58477667343964], [9.37663519598319, 59.578761891029956], [9.384696209337443, 59.5678631199304], [9.384618932815119, 59.5628730042564], [9.38203456857079, 59.55817803162656], [9.373101863348532, 59.55355746543343], [9.367484071106912, 59.543315260930314], [9.371844114633438, 59.53579406191092], [9.386239316471631, 59.535692116443684], [9.389730248837404, 59.532668437639614], [9.386292891615533, 59.530608198531134], [9.37618935061549, 59.53132244688196], [9.368063386898907, 59.52881157685306], [9.351405471191661, 59.5222178277193], [9.343313034112029, 59.516034398511664], [9.341005378083606, 59.51085205377804], [9.342684634812821, 59.50188461820007], [9.331205140190743, 59.489921811194854], [9.33004723305957, 59.4811520452758], [9.322033440505908, 59.476983286273246], [9.328039423651184, 59.470174580303045], [9.339964842351653, 59.46204551848348], [9.338706733778071, 59.45172752307912], [9.341423880700736, 59.44615494591601], [9.334977614197244, 59.44211056072571], [9.335674244695161, 59.436714241653824], [9.331239397464511, 59.431886179007364], [9.322796488438518, 59.429993025809935], [9.317241128248456, 59.42687078063915], [9.326459537512632, 59.40967113262459], [9.316100610224545, 59.40385647555765], [9.29210412557887, 59.40134827421847], [9.26908070617078, 59.39371677882178], [9.254202523878455, 59.39422677142925], [9.24482867850024, 59.38986148487662], [9.224940205063273, 59.38648374802255], [9.212049991552552, 59.38977122490798], [9.18659681938412, 59.39121800199645], [9.173968372783401, 59.38841883012589], [9.167590805260781, 59.3885610692331], [9.15639475187318, 59.39431029753854], [9.147146068984165, 59.39597797182347], [9.127602240376595, 59.40320345484522], [9.088134361227715, 59.40732290403121], [9.07986242704269, 59.40974377819518], [9.064822727754393, 59.40875559204194], [9.058819558230068, 59.406527153895716], [9.049167245096056, 59.39185489189327], [9.041350503591648, 59.38510824442027], [9.044971080852747, 59.3762410670211], [9.066475029976402, 59.35866898015598], [9.087057518284576, 59.34623335387353], [9.088432264204267, 59.337899904434806], [9.092900080059005, 59.33098959793865], [9.089417480414376, 59.32356568111816], [9.102192537246326, 59.29662317273756], [9.099117575761735, 59.28954893669041], [9.107350412393695, 59.285746549115984], [9.117076044132931, 59.2774801007515], [9.134961748849548, 59.25762857730801], [9.13292747903685, 59.2552006012041], [9.115417531159943, 59.24979652355865], [9.111230537389659, 59.2458261129955], [9.121759328401183, 59.2365097555948], [9.114317278161627, 59.231445674053944], [9.110973244461348, 59.21595002555692], [9.096915874830428, 59.20973957879812], [9.093188505169573, 59.20548399478682], [9.081513246299576, 59.202475870524], [9.079397010591059, 59.19849223025615], [9.081502690210675, 59.19451666210822], [9.090066064050445, 59.18864763003068], [9.08205887120657, 59.18096230203465], [9.086731608694175, 59.154635242686595], [9.083039179370207, 59.148886312828765], [9.089828963417593, 59.1332937926438], [9.10121338957465, 59.126432062856765], [9.10367564221555, 59.1139590107792], [9.08927209453695, 59.106164404494734], [9.072930559107867, 59.1052040016188], [9.066921149446124, 59.101166640404855], [9.062875088884855, 59.09312445900714], [9.067591035793335, 59.08274311512423], [9.070437072918596, 59.06331757637209], [9.085707502789724, 59.05449701048551], [9.088125205589757, 59.04852617900676], [9.10411417140819, 59.042760732951436], [9.120161731040216, 59.02525783887339]]]}, "properties": {"Banenavn": "Sørlandsbanen"}}</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18893</v>
+        <v>18727</v>
       </c>
     </row>
     <row r="38">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4331, "geometry": {"type": "LineString", "coordinates": [[7.949975907511911, 58.165889223096315], [7.954194234140896, 58.15763006411373], [7.951565200224904, 58.155252557428746], [7.948293728326047, 58.15496001848943]]}, "properties": {"OBJECTID": 4331, "Banekortnavn": "SORB_DNE", "Banestatus": "I", "Banenavn": "Sørlandsbanen nordre tilsving Dalane", "GlobalID": "{3A474C7B-1700-4C4A-962B-F1F8D7F55BC8}", "Shape.STLength()": 1454.3976103564576}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[7.949975907511911, 58.165889223096315], [7.954194234140896, 58.15763006411373], [7.951565200224904, 58.155252557428746], [7.948293728326047, 58.15496001848943]]}, "properties": {"Banenavn": "Sørlandsbanen nordre tilsving Dalane"}}</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>473</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4332, "geometry": {"type": "LineString", "coordinates": [[10.432641311240268, 59.831701590006865], [10.431025250531016, 59.82336658859769], [10.436001465336608, 59.81250682614551], [10.438156183054618, 59.79704669396276], [10.43614406058304, 59.79184024709566], [10.420555744142494, 59.77637879145806], [10.415154881541588, 59.76630493300999], [10.394688791656456, 59.74884448724555], [10.382202917606618, 59.74315077441925], [10.367065105530214, 59.74109958201235], [10.341842644550312, 59.745368367081674]]}, "properties": {"OBJECTID": 4332, "Banekortnavn": "SPIB", "Banestatus": "I", "Banenavn": "Spikkestadbanen", "GlobalID": "{A5DDBAC6-FA6D-40CC-8091-6EE3D0FE864E}", "Shape.STLength()": 13166.282343902583}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.432641311240268, 59.831701590006865], [10.431025250531016, 59.82336658859769], [10.436001465336608, 59.81250682614551], [10.438156183054618, 59.79704669396276], [10.43614406058304, 59.79184024709566], [10.420555744142494, 59.77637879145806], [10.415154881541588, 59.76630493300999], [10.394688791656456, 59.74884448724555], [10.382202917606618, 59.74315077441925], [10.367065105530214, 59.74109958201235], [10.341842644550312, 59.745368367081674]]}, "properties": {"Banenavn": "Spikkestadbanen"}}</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>738</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4333, "geometry": {"type": "LineString", "coordinates": [[10.3812014620664, 63.42020212190414], [10.383959418845537, 63.41518820500443], [10.390824835635582, 63.41255990168115], [10.413753840195007, 63.41452707613147], [10.428240915132113, 63.42453898229837], [10.443797427911838, 63.43918301025669], [10.449024777053012, 63.4401165705838], [10.458353008694226, 63.438528530382776]]}, "properties": {"OBJECTID": 4333, "Banekortnavn": "STLB", "Banestatus": "I", "Banenavn": "Stavne-Leangenbanen", "GlobalID": "{F7B6BC3B-B47B-4E36-A116-0875EC07EBFA}", "Shape.STLength()": 6107.50206785262}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.3812014620664, 63.42020212190414], [10.383959418845537, 63.41518820500443], [10.390824835635582, 63.41255990168115], [10.413753840195007, 63.41452707613147], [10.428240915132113, 63.42453898229837], [10.443797427911838, 63.43918301025669], [10.449024777053012, 63.4401165705838], [10.458353008694226, 63.438528530382776]]}, "properties": {"Banenavn": "Stavne-Leangenbanen"}}</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>614</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4334, "geometry": {"type": "LineString", "coordinates": [[10.38310776567012, 63.40952176459504], [10.386012145505077, 63.41163217965718], [10.393254683584068, 63.41240572122725]]}, "properties": {"OBJECTID": 4334, "Banekortnavn": "STLB_SAV", "Banestatus": "I", "Banenavn": "Stavne-Leangenbanen søndre tilsving Stavne", "GlobalID": "{FD0841D7-62D8-4E1B-BCDD-D763C3A5A49E}", "Shape.STLength()": 648.1244835368768}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.38310776567012, 63.40952176459504], [10.386012145505077, 63.41163217965718], [10.393254683584068, 63.41240572122725]]}, "properties": {"Banenavn": "Stavne-Leangenbanen søndre tilsving Stavne"}}</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>438</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4336, "geometry": {"type": "LineString", "coordinates": [[9.33098343974623, 59.488756763613644], [9.33797601341268, 59.49705816212391], [9.337772677896856, 59.511106492886384], [9.32942867709592, 59.514958371503326], [9.31871062322923, 59.516414356568795], [9.306162165735353, 59.52950193404009], [9.288877843081504, 59.534752391044435], [9.275940692829066, 59.55521954585007], [9.270735300619293, 59.557354433682924]]}, "properties": {"OBJECTID": 4336, "Banekortnavn": "TINB", "Banestatus": "I", "Banenavn": "Tinnosbanen", "GlobalID": "{864E335C-1992-4169-A78C-37D516F7DB25}", "Shape.STLength()": 9368.283338113966}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.33098343974623, 59.488756763613644], [9.33797601341268, 59.49705816212391], [9.337772677896856, 59.511106492886384], [9.32942867709592, 59.514958371503326], [9.31871062322923, 59.516414356568795], [9.306162165735353, 59.52950193404009], [9.288877843081504, 59.534752391044435], [9.275940692829066, 59.55521954585007], [9.270735300619293, 59.557354433682924]]}, "properties": {"Banenavn": "Tinnosbanen"}}</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>643</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43">
@@ -1204,11 +1204,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4338, "geometry": {"type": "LineString", "coordinates": [[9.270735300619293, 59.557354433682924], [9.25675008845188, 59.557039391309615]]}, "properties": {"OBJECTID": 4338, "Banekortnavn": "TINB_NTD", "Banestatus": "I", "Banenavn": "Tinnosbanen Notodden kollektivterminal", "GlobalID": "{BED6A7E5-4DF9-45DC-8DE7-3CCC52BF9B6B}", "Shape.STLength()": 791.243622912828}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[9.270735300619293, 59.557354433682924], [9.25675008845188, 59.557039391309615]]}, "properties": {"Banenavn": "Tinnosbanen Notodden kollektivterminal"}}</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>392</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44">
@@ -1222,11 +1222,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4350, "geometry": {"type": "LineString", "coordinates": [[10.408128453861423, 59.278724230491086], [10.40864314300796, 59.272678593453314], [10.414562516755076, 59.269238598681994], [10.419941549678144, 59.269317458291006], [10.421449974653676, 59.27301542239036], [10.408128453861423, 59.278724230491086]]}, "properties": {"OBJECTID": 4350, "Banekortnavn": "VESB", "Banestatus": "I", "Banenavn": "Vestfoldbanen", "GlobalID": "{8DD045AE-1B46-44DE-8673-287BFA5CFD1B}", "Shape.STLength()": 2902.1901882233606}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.408128453861423, 59.278724230491086], [10.40864314300796, 59.272678593453314], [10.414562516755076, 59.269238598681994], [10.419941549678144, 59.269317458291006], [10.421449974653676, 59.27301542239036], [10.408128453861423, 59.278724230491086]]}, "properties": {"Banenavn": "Vestfoldbanen"}}</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>534</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 4351, "geometry": {"type": "LineString", "coordinates": [[10.408128453861423, 59.278724230491086], [10.395791994165531, 59.28271761499761], [10.340808767465543, 59.28463583111111], [10.33498530605737, 59.283011823585234], [10.31205482944806, 59.25228851782609], [10.310930753343598, 59.24630151457917], [10.315834464732271, 59.240099649511414], [10.31266343904524, 59.232148975271535], [10.305086650364812, 59.22374933144382], [10.292449398757835, 59.21770015131909], [10.285196996002712, 59.211034334747985], [10.285490545955135, 59.19843982078804], [10.277643341540198, 59.18545690221892], [10.276476745201634, 59.17546670867302], [10.247836894494874, 59.14237470146002], [10.229530242849163, 59.13522889205853], [10.210573070746113, 59.13627693445569], [10.196803934727507, 59.122709192924496], [10.168064256417653, 59.110176982781454], [10.166418259259332, 59.10308069015813], [10.16978800158641, 59.09348032845954], [10.158007153917838, 59.06790243248251], [10.14417701398682, 59.05555907922553], [10.125882615560508, 59.051203103995384], [10.113044715165898, 59.043394885425165], [10.09545244712897, 59.0367693726568], [10.084461166963806, 59.03726325970316], [10.076554833857804, 59.046008903446], [10.072379012084015, 59.04788279552756], [10.056384457815492, 59.048619172565445], [10.040932850483257, 59.0473460311285], [10.012779766447071, 59.053917571135074], [10.009551946671236, 59.055888537406545]]}, "properties": {"OBJECTID": 4351, "Banekortnavn": "VESB", "Banestatus": "I", "Banenavn": "Vestfoldbanen", "GlobalID": "{2129EA26-DCB8-4377-80B1-4A41586F4A6B}", "Shape.STLength()": 43378.75860391829}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "LineString", "coordinates": [[10.408128453861423, 59.278724230491086], [10.395791994165531, 59.28271761499761], [10.340808767465543, 59.28463583111111], [10.33498530605737, 59.283011823585234], [10.31205482944806, 59.25228851782609], [10.310930753343598, 59.24630151457917], [10.315834464732271, 59.240099649511414], [10.31266343904524, 59.232148975271535], [10.305086650364812, 59.22374933144382], [10.292449398757835, 59.21770015131909], [10.285196996002712, 59.211034334747985], [10.285490545955135, 59.19843982078804], [10.277643341540198, 59.18545690221892], [10.276476745201634, 59.17546670867302], [10.247836894494874, 59.14237470146002], [10.229530242849163, 59.13522889205853], [10.210573070746113, 59.13627693445569], [10.196803934727507, 59.122709192924496], [10.168064256417653, 59.110176982781454], [10.166418259259332, 59.10308069015813], [10.16978800158641, 59.09348032845954], [10.158007153917838, 59.06790243248251], [10.14417701398682, 59.05555907922553], [10.125882615560508, 59.051203103995384], [10.113044715165898, 59.043394885425165], [10.09545244712897, 59.0367693726568], [10.084461166963806, 59.03726325970316], [10.076554833857804, 59.046008903446], [10.072379012084015, 59.04788279552756], [10.056384457815492, 59.048619172565445], [10.040932850483257, 59.0473460311285], [10.012779766447071, 59.053917571135074], [10.009551946671236, 59.055888537406545]]}, "properties": {"Banenavn": "Vestfoldbanen"}}</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1638</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="46">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 2, "geometry": {"type": "Point", "coordinates": [9.766953349451061, 59.66931830829303]}, "properties": {"OBJECTID": 2, "Banekortnavn": "SORB", "Navn": "Krekling", "Sporkilometer": 85.76, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "16.10.1874", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0C94F789-15D7-4E60-B20B-A5480458C81F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.766953349451061, 59.66931830829303]}, "properties": {"Navn": "Krekling", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 3, "geometry": {"type": "Point", "coordinates": [11.397246177179213, 61.01312721913072]}, "properties": {"OBJECTID": 3, "Banekortnavn": "ROSB", "Navn": "Rudstad", "Sporkilometer": 175.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.02.1916", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{CB6793DE-2F12-4650-89E3-846B0B60D943}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.397246177179213, 61.01312721913072]}, "properties": {"Navn": "Rudstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>441</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 5, "geometry": {"type": "Point", "coordinates": [5.466025079007241, 60.42020312265149]}, "properties": {"OBJECTID": 5, "Banekortnavn": "BRGB", "Navn": "Arna", "Sporkilometer": 461.93, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "01.08.1964", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{8CFDA442-F209-46F5-92E5-7802ED2EDE1A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.466025079007241, 60.42020312265149]}, "properties": {"Navn": "Arna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>440</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 6, "geometry": {"type": "Point", "coordinates": [10.377593505148552, 63.431210462618786]}, "properties": {"OBJECTID": 6, "Banekortnavn": "DOVB", "Navn": "Skansen", "Sporkilometer": 551.67, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{016B45E2-6B5A-4806-A6EF-69FAEFB0B16F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.377593505148552, 63.431210462618786]}, "properties": {"Navn": "Skansen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>443</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 8, "geometry": {"type": "Point", "coordinates": [9.126033490311352, 62.068748990234866]}, "properties": {"OBJECTID": 8, "Banekortnavn": "DOVB", "Navn": "Dombås", "Sporkilometer": 343.04, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "06.12.1913", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{84AF26A7-9646-4B23-80F2-BD7C5957E7ED}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.126033490311352, 62.068748990234866]}, "properties": {"Navn": "Dombås", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>441</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 9, "geometry": {"type": "Point", "coordinates": [11.103836711504528, 60.02327493833112]}, "properties": {"OBJECTID": 9, "Banekortnavn": "HVDB", "Navn": "Frogner", "Sporkilometer": 29.86, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{23BAAF63-D541-455D-BE04-986D476DDDA6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.103836711504528, 60.02327493833112]}, "properties": {"Navn": "Frogner", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>441</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 10, "geometry": {"type": "Point", "coordinates": [10.106447084829524, 60.08407547769525]}, "properties": {"OBJECTID": 10, "Banekortnavn": "RANB", "Navn": "Tyristrand", "Sporkilometer": 110.68, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "25.11.1867", "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{C12A4314-C39B-485E-B219-25199A794BF3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.106447084829524, 60.08407547769525]}, "properties": {"Navn": "Tyristrand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 11, "geometry": {"type": "Point", "coordinates": [11.260678130138812, 61.33175242492733]}, "properties": {"OBJECTID": 11, "Banekortnavn": "ROSB", "Navn": "Opphus", "Sporkilometer": 213.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "25.06.1876", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{CBA41183-F2E6-4EC9-9EBB-B1A12FF3D487}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.260678130138812, 61.33175242492733]}, "properties": {"Navn": "Opphus", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 12, "geometry": {"type": "Point", "coordinates": [13.199834173422555, 65.84479933761277]}, "properties": {"OBJECTID": 12, "Banekortnavn": "NORB", "Navn": "Mosjøen", "Sporkilometer": 406.01, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{61CEDAFC-BDDF-443E-915B-CFD192426586}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.199834173422555, 65.84479933761277]}, "properties": {"Navn": "Mosjøen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 15, "geometry": {"type": "Point", "coordinates": [11.009377202187713, 59.258991691320425]}, "properties": {"OBJECTID": 15, "Banekortnavn": "OBVL", "Navn": "Rolvsøy", "Sporkilometer": 101.04, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "08.01.1990", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{BE56EA41-58A8-41E7-96DC-12C95E44FE49}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.009377202187713, 59.258991691320425]}, "properties": {"Navn": "Rolvsøy", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>460</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56">
@@ -1438,11 +1438,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 16, "geometry": {"type": "Point", "coordinates": [10.620561290251679, 60.28346703799952]}, "properties": {"OBJECTID": 16, "Banekortnavn": "GJKB", "Navn": "Roa", "Sporkilometer": 57.74, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{EBBF3BBE-9AC5-435E-A11D-C73BBDBA0C7B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.620561290251679, 60.28346703799952]}, "properties": {"Navn": "Roa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>440</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
@@ -1456,11 +1456,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 18, "geometry": {"type": "Point", "coordinates": [6.235950739509023, 60.63259755438315]}, "properties": {"OBJECTID": 18, "Banekortnavn": "BRGB", "Navn": "Seimsgrend", "Sporkilometer": 396.19, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.05.1936", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{CF9645C5-5348-4486-ABE4-0D2188271144}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.235950739509023, 60.63259755438315]}, "properties": {"Navn": "Seimsgrend", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 20, "geometry": {"type": "Point", "coordinates": [11.300685697990463, 63.744721788752074]}, "properties": {"OBJECTID": 20, "Banekortnavn": "NORB", "Navn": "Levanger", "Sporkilometer": 83.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{C4E0155C-76DE-4DEC-B770-C1D6BAC4EC1F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.300685697990463, 63.744721788752074]}, "properties": {"Navn": "Levanger", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 28, "geometry": {"type": "Point", "coordinates": [11.464991798686578, 60.123968636638224]}, "properties": {"OBJECTID": 28, "Banekortnavn": "KVGB", "Navn": "Årnes", "Sporkilometer": 58.46, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{08C870D9-5294-4675-9202-C7BDD036729A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.464991798686578, 60.123968636638224]}, "properties": {"Navn": "Årnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60">
@@ -1510,11 +1510,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 29, "geometry": {"type": "Point", "coordinates": [11.222774462847516, 60.77677562651911]}, "properties": {"OBJECTID": 29, "Banekortnavn": "ROSB", "Navn": "Ilseng", "Sporkilometer": 135.33, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.06.1862", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{7EF73F79-34DC-4712-AEDA-186F347DB08C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.222774462847516, 60.77677562651911]}, "properties": {"Navn": "Ilseng", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>443</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 30, "geometry": {"type": "Point", "coordinates": [11.144256253967763, 62.928492130106385]}, "properties": {"OBJECTID": 30, "Banekortnavn": "ROSB", "Navn": "Haltdalen", "Sporkilometer": 453.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.01.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{AB79557F-BAED-4962-9509-E1D8DFF26363}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.144256253967763, 62.928492130106385]}, "properties": {"Navn": "Haltdalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>447</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62">
@@ -1546,11 +1546,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 34, "geometry": {"type": "Point", "coordinates": [11.261765698292185, 59.566973757076745]}, "properties": {"OBJECTID": 34, "Banekortnavn": "OBOL", "Navn": "Slitu", "Sporkilometer": 35.02, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{F056DC15-1D77-44E0-9655-6308AF3ADC50}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.261765698292185, 59.566973757076745]}, "properties": {"Navn": "Slitu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>456</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 35, "geometry": {"type": "Point", "coordinates": [9.968178484081765, 61.547233901419055]}, "properties": {"OBJECTID": 35, "Banekortnavn": "DOVB", "Navn": "Hundorp", "Sporkilometer": 252.45, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{DD02B6F7-1B12-4853-B8F6-4C0BC02DF8E2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.968178484081765, 61.547233901419055]}, "properties": {"Navn": "Hundorp", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 36, "geometry": {"type": "Point", "coordinates": [10.887811174180413, 59.94991080493834]}, "properties": {"OBJECTID": 36, "Banekortnavn": "HVDB", "Navn": "Grorud", "Sporkilometer": 10.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{DAEC24D5-DEC1-4574-926E-CCC4F6390FD4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.887811174180413, 59.94991080493834]}, "properties": {"Navn": "Grorud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>441</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 37, "geometry": {"type": "Point", "coordinates": [17.65626402123871, 68.43380442476492]}, "properties": {"OBJECTID": 37, "Banekortnavn": "OFTB", "Navn": "Straumsnes", "Sporkilometer": 13.76, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1902", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{DFC58B8D-8B51-41B4-9DEF-3ABC1CB132C4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [17.65626402123871, 68.43380442476492]}, "properties": {"Navn": "Straumsnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>444</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 39, "geometry": {"type": "Point", "coordinates": [12.493555894636762, 64.5686459459771]}, "properties": {"OBJECTID": 39, "Banekortnavn": "NORB", "Navn": "Harran", "Sporkilometer": 235.79, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{ACDFC322-038C-4601-A906-270BC89C60D4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.493555894636762, 64.5686459459771]}, "properties": {"Navn": "Harran", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
@@ -1636,11 +1636,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 42, "geometry": {"type": "Point", "coordinates": [10.689774400714185, 59.475203799841076]}, "properties": {"OBJECTID": 42, "Banekortnavn": "OBVL", "Navn": "Kambo", "Sporkilometer": 53.84, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1898", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{69B0351B-86AD-46C0-A75A-291EC86E477C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.689774400714185, 59.475203799841076]}, "properties": {"Navn": "Kambo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>457</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 43, "geometry": {"type": "Point", "coordinates": [10.829088012711653, 60.117472621943506]}, "properties": {"OBJECTID": 43, "Banekortnavn": "GJKB", "Navn": "Hakadal", "Sporkilometer": 32.07, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{C6880F1C-79A7-425A-BF23-BB6ABD263905}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.829088012711653, 60.117472621943506]}, "properties": {"Navn": "Hakadal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 45, "geometry": {"type": "Point", "coordinates": [11.097586625391596, 60.1937672131985]}, "properties": {"OBJECTID": 45, "Banekortnavn": "GARB", "Navn": "Gardermoen", "Sporkilometer": 51.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "27.08.1998", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{D9A0810E-7295-486D-AE72-1B10D0DE0793}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.097586625391596, 60.1937672131985]}, "properties": {"Navn": "Gardermoen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70">
@@ -1690,11 +1690,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 46, "geometry": {"type": "Point", "coordinates": [5.740258650091872, 58.90027904568552]}, "properties": {"OBJECTID": 46, "Banekortnavn": "SORB", "Navn": "Gausel", "Sporkilometer": 589.751, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.11.2009", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{72D521C6-2C74-4037-ADCE-3DD0688B5B3C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.740258650091872, 58.90027904568552]}, "properties": {"Navn": "Gausel", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 47, "geometry": {"type": "Point", "coordinates": [10.410994066928088, 59.39118770606066]}, "properties": {"OBJECTID": 47, "Banekortnavn": "VESB", "Navn": "Skoppum", "Sporkilometer": 99.54, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{A4937ADC-F803-4950-AF45-7D12903AC53E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.410994066928088, 59.39118770606066]}, "properties": {"Navn": "Skoppum", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 48, "geometry": {"type": "Point", "coordinates": [9.177785597049612, 59.389321739275935]}, "properties": {"OBJECTID": 48, "Banekortnavn": "SORB", "Navn": "Gvarv", "Sporkilometer": 156.49, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "18.12.1922", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{4DC202C6-6A39-4D38-B77D-995570B7CEB7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.177785597049612, 59.389321739275935]}, "properties": {"Navn": "Gvarv", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>445</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 51, "geometry": {"type": "Point", "coordinates": [7.988155555455365, 58.1457306199886]}, "properties": {"OBJECTID": 51, "Banekortnavn": "SORB", "Navn": "Kristiansand", "Sporkilometer": 365.29, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "26.11.1895", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{1A8D7650-D267-414A-9C0D-E5535CE596FA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.988155555455365, 58.1457306199886]}, "properties": {"Navn": "Kristiansand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 53, "geometry": {"type": "Point", "coordinates": [10.815661377880101, 59.353612219814956]}, "properties": {"OBJECTID": 53, "Banekortnavn": "OBVL", "Navn": "Haug", "Sporkilometer": 74.01, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "19.05.2000", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{34186328-4937-4F2A-8FFF-4046D5278DF3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.815661377880101, 59.353612219814956]}, "properties": {"Navn": "Haug", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>456</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
@@ -1780,11 +1780,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 54, "geometry": {"type": "Point", "coordinates": [10.723599962682748, 60.20747683539087]}, "properties": {"OBJECTID": 54, "Banekortnavn": "GJKB", "Navn": "Harestua", "Sporkilometer": 45.74, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.06.1984", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{ADEB44E4-0393-4FDF-8627-529814CDAE8F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.723599962682748, 60.20747683539087]}, "properties": {"Navn": "Harestua", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 55, "geometry": {"type": "Point", "coordinates": [6.535257859046822, 60.66359576077356]}, "properties": {"OBJECTID": 55, "Banekortnavn": "BRGB", "Navn": "Kløve", "Sporkilometer": 375.86, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1931", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{3CE578E2-EEDB-4246-B8E1-E9A1DE4E1B1B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.535257859046822, 60.66359576077356]}, "properties": {"Navn": "Kløve", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 56, "geometry": {"type": "Point", "coordinates": [10.779673046063822, 59.94281585710241]}, "properties": {"OBJECTID": 56, "Banekortnavn": "GJKB", "Navn": "Grefsen", "Sporkilometer": 6.95, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{A7345A14-A5DA-4AAB-9F5C-08BDB5762640}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.779673046063822, 59.94281585710241]}, "properties": {"Navn": "Grefsen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>443</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 58, "geometry": {"type": "Point", "coordinates": [11.052117055805587, 63.60932461195085]}, "properties": {"OBJECTID": 58, "Banekortnavn": "NORB", "Navn": "Åsen", "Sporkilometer": 61.4, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{180D9C8B-3FF6-43B9-98A4-AD4F5E029514}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.052117055805587, 63.60932461195085]}, "properties": {"Navn": "Åsen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 59, "geometry": {"type": "Point", "coordinates": [10.267172007652459, 59.16624820624978]}, "properties": {"OBJECTID": 59, "Banekortnavn": "VESB", "Navn": "Torp", "Sporkilometer": 134.92, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.01.2008", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{BA08B1C2-84E4-4DD8-B5D8-0AF3142A8947}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.267172007652459, 59.16624820624978]}, "properties": {"Navn": "Torp", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80">
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 63, "geometry": {"type": "Point", "coordinates": [9.698052195542846, 59.06642215440539]}, "properties": {"OBJECTID": 63, "Banekortnavn": "BREB_TAK", "Navn": "Grenlandsterminalen", "Sporkilometer": 201.14, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "01.01.1993", "GyldigTil": None, "Banenavn": "Brevikbanen", "GlobalID": "{615CC8C3-A1DD-4A4A-BE89-697E2A18ECF8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.698052195542846, 59.06642215440539]}, "properties": {"Navn": "Grenlandsterminalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>460</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 65, "geometry": {"type": "Point", "coordinates": [6.957717557583042, 58.37968324691628]}, "properties": {"OBJECTID": 65, "Banekortnavn": "SORB", "Navn": "Storekvina", "Sporkilometer": 446.37, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{892FB489-04B1-4804-BF9B-C281CD2B656D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.957717557583042, 58.37968324691628]}, "properties": {"Navn": "Storekvina", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>449</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -1906,11 +1906,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 67, "geometry": {"type": "Point", "coordinates": [11.301184786060574, 60.00487441606467]}, "properties": {"OBJECTID": 67, "Banekortnavn": "KVGB", "Navn": "Blaker", "Sporkilometer": 41.98, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{4C6B498C-2F3A-42E5-8A9B-EFCD88C440CA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.301184786060574, 60.00487441606467]}, "properties": {"Navn": "Blaker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83">
@@ -1924,11 +1924,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 68, "geometry": {"type": "Point", "coordinates": [10.48905718427757, 60.29612134861326]}, "properties": {"OBJECTID": 68, "Banekortnavn": "ROAB", "Navn": "Grindvoll", "Sporkilometer": 65.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Roa-Hønefossbanen", "GlobalID": "{F9CE7A28-C380-46D0-973B-C93CBB4255CC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.48905718427757, 60.29612134861326]}, "properties": {"Navn": "Grindvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>451</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84">
@@ -1942,11 +1942,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 71, "geometry": {"type": "Point", "coordinates": [10.279759983430143, 63.15200801460662]}, "properties": {"OBJECTID": 71, "Banekortnavn": "DOVB", "Navn": "Lundamo", "Sporkilometer": 514.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{F68EBC23-A1E5-44B3-8CA5-B1EAEA2EA576}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.279759983430143, 63.15200801460662]}, "properties": {"Navn": "Lundamo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 72, "geometry": {"type": "Point", "coordinates": [10.823328594544877, 63.508649154029435]}, "properties": {"OBJECTID": 72, "Banekortnavn": "NORB", "Navn": "Skatval", "Sporkilometer": 41.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{00B386AE-C625-406C-8166-D6CB255FAD60}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.823328594544877, 63.508649154029435]}, "properties": {"Navn": "Skatval", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86">
@@ -1978,11 +1978,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 73, "geometry": {"type": "Point", "coordinates": [11.032442953075977, 59.626431242170156]}, "properties": {"OBJECTID": 73, "Banekortnavn": "OBOL", "Navn": "Knapstad", "Sporkilometer": 17.27, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1928", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{ACE8228C-59CC-416B-B6FA-BCF71DC38C74}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.032442953075977, 59.626431242170156]}, "properties": {"Navn": "Knapstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>459</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 74, "geometry": {"type": "Point", "coordinates": [10.295416544730315, 61.312111007359654]}, "properties": {"OBJECTID": 74, "Banekortnavn": "DOVB", "Navn": "Tretten", "Sporkilometer": 214.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{32B0DA15-6B78-45B9-9F3A-40D824602927}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.295416544730315, 61.312111007359654]}, "properties": {"Navn": "Tretten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 75, "geometry": {"type": "Point", "coordinates": [10.818696412079262, 59.90820640620512]}, "properties": {"OBJECTID": 75, "Banekortnavn": "HVDB", "Navn": "Bryn", "Sporkilometer": 3.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{18379430-FAEC-4145-9954-B527C71688F1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.818696412079262, 59.90820640620512]}, "properties": {"Navn": "Bryn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>439</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 78, "geometry": {"type": "Point", "coordinates": [12.379871511852082, 64.24594352435926]}, "properties": {"OBJECTID": 78, "Banekortnavn": "NORB", "Navn": "Snåsa", "Sporkilometer": 181.64, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "30.10.1926", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{8A80F2E9-835E-4681-B3FC-2E9BF272127B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.379871511852082, 64.24594352435926]}, "properties": {"Navn": "Snåsa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 79, "geometry": {"type": "Point", "coordinates": [8.11125345665486, 58.44405456961357]}, "properties": {"OBJECTID": 79, "Banekortnavn": "SORB", "Navn": "Oggevatn", "Sporkilometer": 325.54, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{83B1D02C-66E0-44F0-A47D-C36B07D7DC23}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.11125345665486, 58.44405456961357]}, "properties": {"Navn": "Oggevatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>446</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 81, "geometry": {"type": "Point", "coordinates": [10.834742583783086, 59.71933478726971]}, "properties": {"OBJECTID": 81, "Banekortnavn": "OBVL", "Navn": "Ski", "Sporkilometer": 24.31, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{E7356F19-1B51-41EF-802C-B1FA5290A39C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.834742583783086, 59.71933478726971]}, "properties": {"Navn": "Ski", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>454</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 83, "geometry": {"type": "Point", "coordinates": [10.810063704636697, 60.02375078814949]}, "properties": {"OBJECTID": 83, "Banekortnavn": "GJKB", "Navn": "Snippen", "Sporkilometer": 17.68, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.11.1945", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{93696236-AADC-4B1C-827C-E40E2469F2A2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.810063704636697, 60.02375078814949]}, "properties": {"Navn": "Snippen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93">
@@ -2104,11 +2104,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 84, "geometry": {"type": "Point", "coordinates": [6.9795295365113335, 60.709282199716455]}, "properties": {"OBJECTID": 84, "Banekortnavn": "BRGB", "Navn": "Vieren", "Sporkilometer": 344.8, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "09.05.1948", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{FBD1665F-FBEC-4597-9F0C-441C8D8FB9E1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.9795295365113335, 60.709282199716455]}, "properties": {"Navn": "Vieren", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>445</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 85, "geometry": {"type": "Point", "coordinates": [7.113214277655488, 60.86288763838821]}, "properties": {"OBJECTID": 85, "Banekortnavn": "FLMB", "Navn": "Flåm", "Sporkilometer": 356, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.08.1940", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{11C284D4-BE3F-48ED-B775-CBD6F60C95DE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.113214277655488, 60.86288763838821]}, "properties": {"Navn": "Flåm", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>436</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
@@ -2140,11 +2140,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 86, "geometry": {"type": "Point", "coordinates": [5.678027845956599, 58.77155879129494]}, "properties": {"OBJECTID": 86, "Banekortnavn": "SORB", "Navn": "Klepp", "Sporkilometer": 573.94, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{AB05266F-E9B9-47AC-8358-A8813F710374}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.678027845956599, 58.77155879129494]}, "properties": {"Navn": "Klepp", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 89, "geometry": {"type": "Point", "coordinates": [12.124509848844138, 60.02741932061923]}, "properties": {"OBJECTID": 89, "Banekortnavn": "KVGB", "Navn": "Matrand", "Sporkilometer": 122.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.11.1865", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{287C70F6-68B5-4D20-BB94-22E8A9A52952}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.124509848844138, 60.02741932061923]}, "properties": {"Navn": "Matrand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97">
@@ -2176,11 +2176,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 91, "geometry": {"type": "Point", "coordinates": [9.644917192479708, 59.1669749735403]}, "properties": {"OBJECTID": 91, "Banekortnavn": "BRAB", "Navn": "Borgestad", "Sporkilometer": 186.8, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "04.12.1916", "GyldigTil": None, "Banenavn": "Bratsbergbanen", "GlobalID": "{E342A6E3-5D61-4EDA-8182-D23E2384470F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.644917192479708, 59.1669749735403]}, "properties": {"Navn": "Borgestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 92, "geometry": {"type": "Point", "coordinates": [10.461925322223927, 59.858443268669916]}, "properties": {"OBJECTID": 92, "Banekortnavn": "DRMB", "Navn": "Hvalstad", "Sporkilometer": 20.19, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{CDECC159-44D5-46C3-9245-8EA16433E625}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.461925322223927, 59.858443268669916]}, "properties": {"Navn": "Hvalstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>447</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99">
@@ -2212,11 +2212,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 94, "geometry": {"type": "Point", "coordinates": [9.984908156457225, 62.749247713160116]}, "properties": {"OBJECTID": 94, "Banekortnavn": "DOVB", "Navn": "Ulsberg", "Sporkilometer": 455.17, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{6B81F364-950F-46C3-A4E2-CF3F30280653}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.984908156457225, 62.749247713160116]}, "properties": {"Navn": "Ulsberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 96, "geometry": {"type": "Point", "coordinates": [7.690338678798806, 62.56719618910678]}, "properties": {"OBJECTID": 96, "Banekortnavn": "RAUB", "Navn": "Åndalsnes", "Sporkilometer": 457.28, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "30.11.1924", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{D2501C50-0384-4E1A-A101-91C80F0E4C19}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.690338678798806, 62.56719618910678]}, "properties": {"Navn": "Åndalsnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 97, "geometry": {"type": "Point", "coordinates": [10.785400895300993, 62.03000510147678]}, "properties": {"OBJECTID": 97, "Banekortnavn": "ROSB", "Navn": "Bellingmo", "Sporkilometer": 311.68, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.08.1898", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{1E59EB8F-5BE9-4A91-A454-0FE9B79F2373}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.785400895300993, 62.03000510147678]}, "properties": {"Navn": "Bellingmo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>446</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102">
@@ -2266,11 +2266,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 102, "geometry": {"type": "Point", "coordinates": [10.232784399415841, 59.743765106438126]}, "properties": {"OBJECTID": 102, "Banekortnavn": "DRMB", "Navn": "Brakerøya", "Sporkilometer": 50.76, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1873", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{93911F24-A3AD-4505-84BE-7DDAAD63353D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.232784399415841, 59.743765106438126]}, "properties": {"Navn": "Brakerøya", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 103, "geometry": {"type": "Point", "coordinates": [7.211088042218748, 58.331581245898406]}, "properties": {"OBJECTID": 103, "Banekortnavn": "SORB", "Navn": "Snartemo", "Sporkilometer": 428.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{F8A0F162-F1C3-48AF-8B1A-D4003C214C99}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.211088042218748, 58.331581245898406]}, "properties": {"Navn": "Snartemo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 104, "geometry": {"type": "Point", "coordinates": [11.163079870717105, 59.927212817664945]}, "properties": {"OBJECTID": 104, "Banekortnavn": "KVGB", "Navn": "Fetsund", "Sporkilometer": 29.11, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{362EB274-C3B0-4DAC-BF2C-0C58105ADCF9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.163079870717105, 59.927212817664945]}, "properties": {"Navn": "Fetsund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>452</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105">
@@ -2320,11 +2320,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 106, "geometry": {"type": "Point", "coordinates": [10.998105933641455, 62.40881680984812]}, "properties": {"OBJECTID": 106, "Banekortnavn": "ROSB", "Navn": "Tolga", "Sporkilometer": 368.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{ECF397D9-DBFC-47FA-A406-02167FC39C8B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.998105933641455, 62.40881680984812]}, "properties": {"Navn": "Tolga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106">
@@ -2338,11 +2338,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 107, "geometry": {"type": "Point", "coordinates": [15.193309458357113, 67.29914303060205]}, "properties": {"OBJECTID": 107, "Banekortnavn": "NORB", "Navn": "Valnesfjord", "Sporkilometer": 685.5, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.02.1962", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{7C4C2AFA-6E1B-438D-97F5-A7FAE1B4CE3B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.193309458357113, 67.29914303060205]}, "properties": {"Navn": "Valnesfjord", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>453</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107">
@@ -2356,11 +2356,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 108, "geometry": {"type": "Point", "coordinates": [10.285131544246136, 63.05143988109541]}, "properties": {"OBJECTID": 108, "Banekortnavn": "DOVB", "Navn": "Støren", "Sporkilometer": 501.2, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{BC1B6A51-46BE-480C-ACF5-954E4463A354}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.285131544246136, 63.05143988109541]}, "properties": {"Navn": "Støren", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 109, "geometry": {"type": "Point", "coordinates": [10.833909727588928, 63.43491376677612]}, "properties": {"OBJECTID": 109, "Banekortnavn": "NORB_MVK", "Navn": "Muruvik", "Sporkilometer": 27.78, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{C3DF2BC5-A694-4A10-98B5-C6C8D4A505A8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.833909727588928, 63.43491376677612]}, "properties": {"Navn": "Muruvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>453</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109">
@@ -2392,11 +2392,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 111, "geometry": {"type": "Point", "coordinates": [10.946063059224123, 59.66578157438092]}, "properties": {"OBJECTID": 111, "Banekortnavn": "OBOL", "Navn": "Skotbu", "Sporkilometer": 9.55, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1928", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{9FFAFCCB-4AD7-4BA1-A48F-9F3FAFEEDF7E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.946063059224123, 59.66578157438092]}, "properties": {"Navn": "Skotbu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>457</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110">
@@ -2410,11 +2410,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 112, "geometry": {"type": "Point", "coordinates": [10.422120719677853, 61.13947414274039]}, "properties": {"OBJECTID": 112, "Banekortnavn": "DOVB", "Navn": "Hove", "Sporkilometer": 187.75, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "04.11.1991", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{3348B733-94EB-4E87-8697-519A58303B16}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.422120719677853, 61.13947414274039]}, "properties": {"Navn": "Hove", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 117, "geometry": {"type": "Point", "coordinates": [11.494214672944473, 64.01268418336959]}, "properties": {"OBJECTID": 117, "Banekortnavn": "NORB", "Navn": "Steinkjer", "Sporkilometer": 125.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1905", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{AA856E49-520E-4270-AA95-B1BFC2F7D55D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.494214672944473, 64.01268418336959]}, "properties": {"Navn": "Steinkjer", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 118, "geometry": {"type": "Point", "coordinates": [8.630134600493335, 58.65755698833899]}, "properties": {"OBJECTID": 118, "Banekortnavn": "SORB", "Navn": "Nelaug", "Sporkilometer": 281.41, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.11.1935", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{C6BD8FEA-EF7B-4DAE-B73B-77C76FAD8F48}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.630134600493335, 58.65755698833899]}, "properties": {"Navn": "Nelaug", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 120, "geometry": {"type": "Point", "coordinates": [10.80659298718521, 59.77277532304908]}, "properties": {"OBJECTID": 120, "Banekortnavn": "OBVL", "Navn": "Greverud", "Sporkilometer": 17.305, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1939", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{43E75DD9-197E-4151-89F2-5EE7A6DDA0EE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.80659298718521, 59.77277532304908]}, "properties": {"Navn": "Greverud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>461</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114">
@@ -2482,11 +2482,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 121, "geometry": {"type": "Point", "coordinates": [10.419405797395745, 59.77435738906573]}, "properties": {"OBJECTID": 121, "Banekortnavn": "SPIB", "Navn": "Hallenskog", "Sporkilometer": 30.88, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "19.02.1933", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{3F8A1065-7897-4338-823E-1860EBFDB1E9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.419405797395745, 59.77435738906573]}, "properties": {"Navn": "Hallenskog", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>453</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115">
@@ -2500,11 +2500,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 122, "geometry": {"type": "Point", "coordinates": [10.817242736507401, 60.91572228215331]}, "properties": {"OBJECTID": 122, "Banekortnavn": "DOVB", "Navn": "Rudshøgda", "Sporkilometer": 148.23, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1915", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{44FB279F-7757-44D2-9CFE-60DF48D90242}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.817242736507401, 60.91572228215331]}, "properties": {"Navn": "Rudshøgda", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 123, "geometry": {"type": "Point", "coordinates": [7.503975866885266, 60.60190677835977]}, "properties": {"OBJECTID": 123, "Banekortnavn": "BRGB", "Navn": "Finse", "Sporkilometer": 302.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{86C14EE2-269C-4B93-B667-D1DCF04191E0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.503975866885266, 60.60190677835977]}, "properties": {"Navn": "Finse", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 124, "geometry": {"type": "Point", "coordinates": [7.101903908462054, 60.77172216545398]}, "properties": {"OBJECTID": 124, "Banekortnavn": "FLMB", "Navn": "Blomheller", "Sporkilometer": 344.2, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1942", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{BCC1B11E-CAE4-4799-940A-BC3AC1CB9570}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.101903908462054, 60.77172216545398]}, "properties": {"Navn": "Blomheller", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>446</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 125, "geometry": {"type": "Point", "coordinates": [5.646463654456451, 58.61821603831975]}, "properties": {"OBJECTID": 125, "Banekortnavn": "SORB", "Navn": "Varhaug", "Sporkilometer": 555.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{32296916-DA75-4FC5-9C80-1F3215042647}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.646463654456451, 58.61821603831975]}, "properties": {"Navn": "Varhaug", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
@@ -2572,11 +2572,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 129, "geometry": {"type": "Point", "coordinates": [11.680580229515353, 60.25375177382734]}, "properties": {"OBJECTID": 129, "Banekortnavn": "KVGB", "Navn": "Skarnes", "Sporkilometer": 79.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{477C5E8B-8D86-4461-93C6-3461A750334A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.680580229515353, 60.25375177382734]}, "properties": {"Navn": "Skarnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>451</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
@@ -2590,11 +2590,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 131, "geometry": {"type": "Point", "coordinates": [9.346936627350672, 59.34182239581313]}, "properties": {"OBJECTID": 131, "Banekortnavn": "BRAB", "Navn": "Valebø", "Sporkilometer": 156.09, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "23.12.1917", "GyldigTil": None, "Banenavn": "Bratsbergbanen", "GlobalID": "{8329D0CC-DF4B-47E1-AC93-F872BDD3E38A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.346936627350672, 59.34182239581313]}, "properties": {"Navn": "Valebø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>448</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121">
@@ -2608,11 +2608,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 132, "geometry": {"type": "Point", "coordinates": [10.607141912039493, 59.9080700550502]}, "properties": {"OBJECTID": 132, "Banekortnavn": "DRMB", "Navn": "Stabekk", "Sporkilometer": 8.99, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.05.1884", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{109FA486-04BF-4D6C-B7CD-27ABCEF49BCD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.607141912039493, 59.9080700550502]}, "properties": {"Navn": "Stabekk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 134, "geometry": {"type": "Point", "coordinates": [9.540860489756879, 62.21997867638821]}, "properties": {"OBJECTID": 134, "Banekortnavn": "DOVB", "Navn": "Hjerkinn", "Sporkilometer": 381.74, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7519A436-A2A2-4E85-B224-9E86715E2CA4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.540860489756879, 62.21997867638821]}, "properties": {"Navn": "Hjerkinn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123">
@@ -2644,11 +2644,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 135, "geometry": {"type": "Point", "coordinates": [8.206573109007469, 60.53466191914629]}, "properties": {"OBJECTID": 135, "Banekortnavn": "BRGB", "Navn": "Geilo", "Sporkilometer": 252.74, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{D945AB10-29CD-4288-812B-441F63D02D50}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.206573109007469, 60.53466191914629]}, "properties": {"Navn": "Geilo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 136, "geometry": {"type": "Point", "coordinates": [11.176911903089259, 60.14174613978929]}, "properties": {"OBJECTID": 136, "Banekortnavn": "HVDB", "Navn": "Jessheim", "Sporkilometer": 44.6, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{9C6AE672-8BE5-4A5B-B581-2BE63B3B1C83}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.176911903089259, 60.14174613978929]}, "properties": {"Navn": "Jessheim", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125">
@@ -2680,11 +2680,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 137, "geometry": {"type": "Point", "coordinates": [8.853872611227528, 62.11867948084778]}, "properties": {"OBJECTID": 137, "Banekortnavn": "RAUB", "Navn": "Lesja", "Sporkilometer": 360.68, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "19.11.1921", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{B1EFAEB2-378A-4449-B61F-7B848260376C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.853872611227528, 62.11867948084778]}, "properties": {"Navn": "Lesja", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126">
@@ -2698,11 +2698,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 138, "geometry": {"type": "Point", "coordinates": [11.059001574442824, 61.49430619667881]}, "properties": {"OBJECTID": 138, "Banekortnavn": "ROSB", "Navn": "Stai", "Sporkilometer": 237.42, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "14.12.1875", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{670B34E6-EB63-4868-B61F-C3147E417576}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.059001574442824, 61.49430619667881]}, "properties": {"Navn": "Stai", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 139, "geometry": {"type": "Point", "coordinates": [14.132452843900484, 66.31092649929032]}, "properties": {"OBJECTID": 139, "Banekortnavn": "NORB", "Navn": "Mo i Rana", "Sporkilometer": 497.98, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "20.03.1942", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{B4C5C600-5F5E-47BC-9305-A7439A04AAE2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.132452843900484, 66.31092649929032]}, "properties": {"Navn": "Mo i Rana", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>452</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128">
@@ -2734,11 +2734,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 141, "geometry": {"type": "Point", "coordinates": [10.4165025004956, 63.43726979671274]}, "properties": {"OBJECTID": 141, "Banekortnavn": "NORB", "Navn": "Lademoen", "Sporkilometer": 0.96, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.01.2007", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{E4B352F3-C76F-49A3-BD80-B4ED70B035D6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.4165025004956, 63.43726979671274]}, "properties": {"Navn": "Lademoen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 142, "geometry": {"type": "Point", "coordinates": [11.118272848505935, 59.28608684379306]}, "properties": {"OBJECTID": 142, "Banekortnavn": "OBVL", "Navn": "Sarpsborg", "Sporkilometer": 109.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{61792825-161E-41C8-9408-3B276B31BFF1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.118272848505935, 59.28608684379306]}, "properties": {"Navn": "Sarpsborg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>463</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 148, "geometry": {"type": "Point", "coordinates": [10.776479229376745, 59.87765411079382]}, "properties": {"OBJECTID": 148, "Banekortnavn": "OBVL", "Navn": "Bekkelaget", "Sporkilometer": 4.3, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "29.05.1988", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{C29C39D3-EF1E-4EF6-B197-355D809679BC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.776479229376745, 59.87765411079382]}, "properties": {"Navn": "Bekkelaget", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>461</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 152, "geometry": {"type": "Point", "coordinates": [10.535084333312348, 63.42801014337034]}, "properties": {"OBJECTID": 152, "Banekortnavn": "NORB", "Navn": "Ranheim", "Sporkilometer": 7.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{98319D0B-EDEC-41EB-9863-063D8A3A51E6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.535084333312348, 63.42801014337034]}, "properties": {"Navn": "Ranheim", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132">
@@ -2806,11 +2806,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 154, "geometry": {"type": "Point", "coordinates": [11.483136856161536, 59.05896646452529]}, "properties": {"OBJECTID": 154, "Banekortnavn": "OBVL", "Navn": "Aspedammen", "Sporkilometer": 150.12, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "25.07.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{BB46BB0D-9C5C-4FA1-9417-9BB2B0DC6DC1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.483136856161536, 59.05896646452529]}, "properties": {"Navn": "Aspedammen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 155, "geometry": {"type": "Point", "coordinates": [10.699240930437025, 60.929286782002194]}, "properties": {"OBJECTID": 155, "Banekortnavn": "DOVB", "Navn": "Moelv", "Sporkilometer": 155.95, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{EA29D285-D41E-4CDA-A880-4291848C10F7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.699240930437025, 60.929286782002194]}, "properties": {"Navn": "Moelv", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134">
@@ -2842,11 +2842,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 156, "geometry": {"type": "Point", "coordinates": [10.61641791225411, 60.67875307941892]}, "properties": {"OBJECTID": 156, "Banekortnavn": "GJKB", "Navn": "Reinsvoll", "Sporkilometer": 106.65, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.12.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{302751C0-90BE-4139-9A22-A5E8C48DA2A9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.61641791225411, 60.67875307941892]}, "properties": {"Navn": "Reinsvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>448</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135">
@@ -2860,11 +2860,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 160, "geometry": {"type": "Point", "coordinates": [11.401754436606378, 63.85687499611651]}, "properties": {"OBJECTID": 160, "Banekortnavn": "NORB", "Navn": "Røra", "Sporkilometer": 105.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1905", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{A66E5953-6862-494D-8E21-365D9B2EF8AF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.401754436606378, 63.85687499611651]}, "properties": {"Navn": "Røra", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>447</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136">
@@ -2878,11 +2878,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 161, "geometry": {"type": "Point", "coordinates": [10.797327172158305, 59.837546022139236]}, "properties": {"OBJECTID": 161, "Banekortnavn": "OBVL", "Navn": "Holmlia", "Sporkilometer": 9.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "28.10.1987", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{36FD7CED-5054-4742-96EE-2219F8B9153D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.797327172158305, 59.837546022139236]}, "properties": {"Navn": "Holmlia", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>460</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137">
@@ -2896,11 +2896,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 162, "geometry": {"type": "Point", "coordinates": [9.10571682922667, 58.914149583891856]}, "properties": {"OBJECTID": 162, "Banekortnavn": "SORB", "Navn": "Lyser", "Sporkilometer": 228.4, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.10.1999", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0787C566-0BC3-4D70-AA34-E88A2395648E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.10571682922667, 58.914149583891856]}, "properties": {"Navn": "Lyser", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 164, "geometry": {"type": "Point", "coordinates": [10.797825957077126, 59.823998016949076]}, "properties": {"OBJECTID": 164, "Banekortnavn": "OBVL", "Navn": "Rosenholm", "Sporkilometer": 11.363, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.07.1988", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{7B9BF61F-4B7B-4DD4-BDF7-B5545352BE04}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.797825957077126, 59.823998016949076]}, "properties": {"Navn": "Rosenholm", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139">
@@ -2932,11 +2932,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 166, "geometry": {"type": "Point", "coordinates": [11.194918692969392, 60.7178876288243]}, "properties": {"OBJECTID": 166, "Banekortnavn": "DOVB", "Navn": "Stange", "Sporkilometer": 114.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "08.11.1880", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{4236F940-5C4F-4A59-83BF-7716A1FE5E60}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.194918692969392, 60.7178876288243]}, "properties": {"Navn": "Stange", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140">
@@ -2950,11 +2950,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 168, "geometry": {"type": "Point", "coordinates": [5.89742421019821, 58.48585459963201]}, "properties": {"OBJECTID": 168, "Banekortnavn": "SORB", "Navn": "Hellvik", "Sporkilometer": 532.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0D93CE54-8044-44DD-A2FC-116D9D91806C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.89742421019821, 58.48585459963201]}, "properties": {"Navn": "Hellvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 169, "geometry": {"type": "Point", "coordinates": [9.86715928281552, 59.73443797722116]}, "properties": {"OBJECTID": 169, "Banekortnavn": "SORB", "Navn": "Vestfossen", "Sporkilometer": 75.79, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.11.1871", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{A613055B-885A-46B9-AFF7-64FDA3F7338F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.86715928281552, 59.73443797722116]}, "properties": {"Navn": "Vestfossen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142">
@@ -2986,11 +2986,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 171, "geometry": {"type": "Point", "coordinates": [10.458850330348081, 63.00454153057349]}, "properties": {"OBJECTID": 171, "Banekortnavn": "ROSB", "Navn": "Rognes", "Sporkilometer": 498.32, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "04.01.1876", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{092EDCA3-F9A7-43E6-97D5-5BDEA33498C5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.458850330348081, 63.00454153057349]}, "properties": {"Navn": "Rognes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143">
@@ -3004,11 +3004,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 174, "geometry": {"type": "Point", "coordinates": [9.332460556056407, 61.92110701952969]}, "properties": {"OBJECTID": 174, "Banekortnavn": "DOVB", "Navn": "Brennhaug", "Sporkilometer": 321.83, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "06.12.1913", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{C3413EC4-2850-4F9B-8C23-84353B1C1080}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.332460556056407, 61.92110701952969]}, "properties": {"Navn": "Brennhaug", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 175, "geometry": {"type": "Point", "coordinates": [11.076799351643984, 59.98620635069339]}, "properties": {"OBJECTID": 175, "Banekortnavn": "HVDB", "Navn": "Lillestrøm N", "Sporkilometer": 25.2, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{8E534E78-821F-42EB-A66F-62A5C7757590}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.076799351643984, 59.98620635069339]}, "properties": {"Navn": "Lillestrøm N", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>441</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145">
@@ -3040,11 +3040,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 176, "geometry": {"type": "Point", "coordinates": [9.969851253464002, 59.93323004121934]}, "properties": {"OBJECTID": 176, "Banekortnavn": "RANB", "Navn": "Geithus", "Sporkilometer": 91.45, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "19.03.1874", "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{D93294E2-3DE6-4A8E-BB4F-7DD453F5720D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.969851253464002, 59.93323004121934]}, "properties": {"Navn": "Geithus", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146">
@@ -3058,11 +3058,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 178, "geometry": {"type": "Point", "coordinates": [13.241875288787867, 65.70241041059656]}, "properties": {"OBJECTID": 178, "Banekortnavn": "NORB", "Navn": "Eiterstraum", "Sporkilometer": 388.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{3AFD9733-F361-48D5-8AAA-ABEC4D2CDD06}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.241875288787867, 65.70241041059656]}, "properties": {"Navn": "Eiterstraum", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>453</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147">
@@ -3076,11 +3076,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 179, "geometry": {"type": "Point", "coordinates": [7.835087571582679, 58.157243729215104]}, "properties": {"OBJECTID": 179, "Banekortnavn": "SORB", "Navn": "Nodeland", "Sporkilometer": 375.29, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{30D15B53-4372-42A4-A04C-E5E7A5E5DA5B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.835087571582679, 58.157243729215104]}, "properties": {"Navn": "Nodeland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148">
@@ -3094,11 +3094,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 181, "geometry": {"type": "Point", "coordinates": [10.95034458632841, 59.20909688831501]}, "properties": {"OBJECTID": 181, "Banekortnavn": "OBVL", "Navn": "Fredrikstad", "Sporkilometer": 94.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{79D1A8D0-F53D-476D-B725-C91B8EF2261A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.95034458632841, 59.20909688831501]}, "properties": {"Navn": "Fredrikstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>463</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149">
@@ -3112,11 +3112,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 183, "geometry": {"type": "Point", "coordinates": [6.410351441058436, 60.62918151194862]}, "properties": {"OBJECTID": 183, "Banekortnavn": "BRGB", "Navn": "Voss", "Sporkilometer": 385.32, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{8F27BDA4-9944-4A6F-AEAC-65AC68A103ED}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.410351441058436, 60.62918151194862]}, "properties": {"Navn": "Voss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>444</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150">
@@ -3130,11 +3130,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 185, "geometry": {"type": "Point", "coordinates": [11.194293154018471, 63.70505689462569]}, "properties": {"OBJECTID": 185, "Banekortnavn": "NORB", "Navn": "Skogn", "Sporkilometer": 76.01, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{069E3EAD-91FF-4419-B89D-76D5D4646B7E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.194293154018471, 63.70505689462569]}, "properties": {"Navn": "Skogn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 186, "geometry": {"type": "Point", "coordinates": [10.031666495479014, 59.05004006430095]}, "properties": {"OBJECTID": 186, "Banekortnavn": "VESB", "Navn": "Larvik", "Sporkilometer": 158.66, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{99AA11B4-96D5-482E-8516-FEE86A8231B8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.031666495479014, 59.05004006430095]}, "properties": {"Navn": "Larvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152">
@@ -3166,11 +3166,11 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 190, "geometry": {"type": "Point", "coordinates": [11.230878741558536, 60.39508773780837]}, "properties": {"OBJECTID": 190, "Banekortnavn": "DOVB", "Navn": "Minnesund", "Sporkilometer": 75.33, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "08.11.1880", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{084380BA-C37E-49E6-924E-2DCD16D10D18}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.230878741558536, 60.39508773780837]}, "properties": {"Navn": "Minnesund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>447</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153">
@@ -3184,11 +3184,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 192, "geometry": {"type": "Point", "coordinates": [6.736722164791545, 58.40946547799881]}, "properties": {"OBJECTID": 192, "Banekortnavn": "SORB", "Navn": "Bjørkevoll", "Sporkilometer": 461.48, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{CCA2F18B-793C-4E00-B0B9-7F9C4F82FE4C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.736722164791545, 58.40946547799881]}, "properties": {"Navn": "Bjørkevoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154">
@@ -3202,11 +3202,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 194, "geometry": {"type": "Point", "coordinates": [11.372969754405164, 60.0537549104976]}, "properties": {"OBJECTID": 194, "Banekortnavn": "KVGB", "Navn": "Haga", "Sporkilometer": 48.87, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{54A0A6C8-C4E0-467C-9CD9-EC866FF0CFBD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.372969754405164, 60.0537549104976]}, "properties": {"Navn": "Haga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>447</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 195, "geometry": {"type": "Point", "coordinates": [10.30628422861342, 60.18853388093989]}, "properties": {"OBJECTID": 195, "Banekortnavn": "ROAB", "Navn": "Hval", "Sporkilometer": 85.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Roa-Hønefossbanen", "GlobalID": "{2A8D6CE1-4BFF-429A-8380-10762D029C49}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.30628422861342, 60.18853388093989]}, "properties": {"Navn": "Hval", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>448</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156">
@@ -3238,11 +3238,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 197, "geometry": {"type": "Point", "coordinates": [8.705830929283975, 58.57661703241115]}, "properties": {"OBJECTID": 197, "Banekortnavn": "ADLB", "Navn": "Bøylestad", "Sporkilometer": 293.28, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "18.12.1910", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{6DA5AEF8-9D9C-4BF9-840F-124BF9863048}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.705830929283975, 58.57661703241115]}, "properties": {"Navn": "Bøylestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157">
@@ -3256,11 +3256,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 200, "geometry": {"type": "Point", "coordinates": [11.242060166668987, 60.5323278539077]}, "properties": {"OBJECTID": 200, "Banekortnavn": "DOVB", "Navn": "Strandlykkja", "Sporkilometer": 91.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.12.1882", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{1DF64F18-5671-46C8-BFBB-D3720F5831DD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.242060166668987, 60.5323278539077]}, "properties": {"Navn": "Strandlykkja", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>448</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
@@ -3274,11 +3274,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 207, "geometry": {"type": "Point", "coordinates": [10.277118978774949, 63.284014612482125]}, "properties": {"OBJECTID": 207, "Banekortnavn": "DOVB", "Navn": "Melhus skysstasjon", "Sporkilometer": 531.42, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.08.1993", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{5FC54C5D-9458-498A-A6CA-5279D38AF553}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.277118978774949, 63.284014612482125]}, "properties": {"Navn": "Melhus skysstasjon", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>458</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159">
@@ -3292,11 +3292,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 209, "geometry": {"type": "Point", "coordinates": [9.746918637968692, 61.595357889120606]}, "properties": {"OBJECTID": 209, "Banekortnavn": "DOVB", "Navn": "Vinstra", "Sporkilometer": 266.6, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{80554341-88FA-4E21-85A1-E9AD4A60AFCF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.746918637968692, 61.595357889120606]}, "properties": {"Navn": "Vinstra", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>445</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160">
@@ -3310,11 +3310,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 210, "geometry": {"type": "Point", "coordinates": [10.94553896812024, 59.944908679124126]}, "properties": {"OBJECTID": 210, "Banekortnavn": "HVDB", "Navn": "Lørenskog", "Sporkilometer": 14.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.04.1891", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{61010CB4-8620-4E22-892E-5A44F6C97A72}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.94553896812024, 59.944908679124126]}, "properties": {"Navn": "Lørenskog", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>447</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 211, "geometry": {"type": "Point", "coordinates": [18.003461999166024, 68.43488255655359]}, "properties": {"OBJECTID": 211, "Banekortnavn": "OFTB", "Navn": "Søsterbekk", "Sporkilometer": 36.042, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1988", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{A59B97E9-0604-4C2C-B6C1-C3A011FACE0F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [18.003461999166024, 68.43488255655359]}, "properties": {"Navn": "Søsterbekk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>448</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162">
@@ -3346,11 +3346,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 213, "geometry": {"type": "Point", "coordinates": [13.152118353013082, 64.92573833332058]}, "properties": {"OBJECTID": 213, "Banekortnavn": "NORB", "Navn": "Namsskogan", "Sporkilometer": 290.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{97D7132D-CB71-4318-AF8B-E7CB4BF9AA6E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.152118353013082, 64.92573833332058]}, "properties": {"Navn": "Namsskogan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>453</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163">
@@ -3364,11 +3364,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 214, "geometry": {"type": "Point", "coordinates": [7.938824189081831, 58.17954516013579]}, "properties": {"OBJECTID": 214, "Banekortnavn": "SORB", "Navn": "Langemyr", "Sporkilometer": 359.96, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "08.06.1989", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{A1B43FE0-CD4E-4378-A476-C08143EEC8CF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.938824189081831, 58.17954516013579]}, "properties": {"Navn": "Langemyr", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 216, "geometry": {"type": "Point", "coordinates": [10.693635980824265, 59.398166397056215]}, "properties": {"OBJECTID": 216, "Banekortnavn": "OBVL", "Navn": "Dilling", "Sporkilometer": 65.34, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{0BF42EC5-645F-4969-8DCA-B879F26BB4A0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.693635980824265, 59.398166397056215]}, "properties": {"Navn": "Dilling", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>461</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 217, "geometry": {"type": "Point", "coordinates": [10.720144165484182, 60.165734501548215]}, "properties": {"OBJECTID": 217, "Banekortnavn": "GJKB", "Navn": "Stryken", "Sporkilometer": 40.83, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{F8BF417C-334D-4E16-9ED3-678664A7A9CD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.720144165484182, 60.165734501548215]}, "properties": {"Navn": "Stryken", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166">
@@ -3418,11 +3418,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 218, "geometry": {"type": "Point", "coordinates": [6.630447815912212, 60.680124819736164]}, "properties": {"OBJECTID": 218, "Banekortnavn": "BRGB", "Navn": "Øyeflaten", "Sporkilometer": 369.4, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1931", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{A6B07878-D45C-457B-A6D6-80A23D6442D8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.630447815912212, 60.680124819736164]}, "properties": {"Navn": "Øyeflaten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>449</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167">
@@ -3436,11 +3436,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 219, "geometry": {"type": "Point", "coordinates": [11.203223075206877, 60.30187157069685]}, "properties": {"OBJECTID": 219, "Banekortnavn": "GARB", "Navn": "Venjar", "Sporkilometer": 65.7388, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "27.09.1998", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{8ABACF1E-0392-4C58-9011-2EDA831908D5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.203223075206877, 60.30187157069685]}, "properties": {"Navn": "Venjar", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 220, "geometry": {"type": "Point", "coordinates": [5.742390918475063, 58.95603290291512]}, "properties": {"OBJECTID": 220, "Banekortnavn": "SORB", "Navn": "Paradis", "Sporkilometer": 597.324, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.11.2009", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{D6E086E9-DD56-4728-972F-A804ABA33C2F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.742390918475063, 58.95603290291512]}, "properties": {"Navn": "Paradis", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169">
@@ -3472,11 +3472,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 221, "geometry": {"type": "Point", "coordinates": [10.333280728975554, 59.28104849412334]}, "properties": {"OBJECTID": 221, "Banekortnavn": "VESB", "Navn": "Sem", "Sporkilometer": 121.06, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{F5C9E47B-6803-4243-B2F1-CD3C517B817D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.333280728975554, 59.28104849412334]}, "properties": {"Navn": "Sem", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>445</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
@@ -3490,11 +3490,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 226, "geometry": {"type": "Point", "coordinates": [10.161036303054383, 59.743761832042544]}, "properties": {"OBJECTID": 226, "Banekortnavn": "DRMB", "Navn": "Gulskogen", "Sporkilometer": 55.27, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "27.01.1868", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{E99CD311-5481-4F67-81D6-255224BB1B99}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.161036303054383, 59.743761832042544]}, "properties": {"Navn": "Gulskogen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171">
@@ -3508,11 +3508,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 227, "geometry": {"type": "Point", "coordinates": [7.01787168291786, 58.367755805226814]}, "properties": {"OBJECTID": 227, "Banekortnavn": "SORB", "Navn": "Sandvatn", "Sporkilometer": 442.19, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{F023310A-C89E-4C9D-926E-E6FD9DFB953D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.01787168291786, 58.367755805226814]}, "properties": {"Navn": "Sandvatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172">
@@ -3526,11 +3526,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 231, "geometry": {"type": "Point", "coordinates": [11.37901340124339, 62.57457042259008]}, "properties": {"OBJECTID": 231, "Banekortnavn": "ROSB", "Navn": "Røros", "Sporkilometer": 399.05, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{F9560D17-8A0D-44EF-888C-C846DCEC52A6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.37901340124339, 62.57457042259008]}, "properties": {"Navn": "Røros", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173">
@@ -3544,11 +3544,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 232, "geometry": {"type": "Point", "coordinates": [14.557266222166882, 67.28388228859052]}, "properties": {"OBJECTID": 232, "Banekortnavn": "NORB", "Navn": "Mørkved", "Sporkilometer": 720.65, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.08.1987", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{0738393B-8207-4598-A92D-EC2114994553}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.557266222166882, 67.28388228859052]}, "properties": {"Navn": "Mørkved", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174">
@@ -3562,11 +3562,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 233, "geometry": {"type": "Point", "coordinates": [10.23060451169206, 63.098939491808515]}, "properties": {"OBJECTID": 233, "Banekortnavn": "DOVB", "Navn": "Hovin", "Sporkilometer": 507.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{A794B9E9-3814-4DB0-AEFC-0F7D05CE6C43}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.23060451169206, 63.098939491808515]}, "properties": {"Navn": "Hovin", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175">
@@ -3580,11 +3580,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 234, "geometry": {"type": "Point", "coordinates": [10.913447854519704, 63.47042392905271]}, "properties": {"OBJECTID": 234, "Banekortnavn": "NORB", "Navn": "Stjørdal", "Sporkilometer": 34.67, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{2A7C28AB-A18B-48EA-A35C-B7B92A3F6D4F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.913447854519704, 63.47042392905271]}, "properties": {"Navn": "Stjørdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 237, "geometry": {"type": "Point", "coordinates": [10.72855250468251, 59.91555986689922]}, "properties": {"OBJECTID": 237, "Banekortnavn": "HVDB", "Navn": "Nationaltheatret", "Sporkilometer": -1.4, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.06.1980", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{BF2C045A-9F00-4494-BFFB-D6FD03A5B61B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.72855250468251, 59.91555986689922]}, "properties": {"Navn": "Nationaltheatret", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>452</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177">
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 240, "geometry": {"type": "Point", "coordinates": [12.19211086496237, 64.18885761411913]}, "properties": {"OBJECTID": 240, "Banekortnavn": "NORB", "Navn": "Starrgrasmyra", "Sporkilometer": 170.07, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.06.1984", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{5941520A-DC25-413D-A6CA-CA28EEEABC8B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.19211086496237, 64.18885761411913]}, "properties": {"Navn": "Starrgrasmyra", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>455</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178">
@@ -3634,11 +3634,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 241, "geometry": {"type": "Point", "coordinates": [8.352155856002701, 58.535852894158566]}, "properties": {"OBJECTID": 241, "Banekortnavn": "SORB", "Navn": "Herefoss", "Sporkilometer": 306.03, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{62AEE5B7-7C8A-48B8-9C00-58F45F4BE80E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.352155856002701, 58.535852894158566]}, "properties": {"Navn": "Herefoss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179">
@@ -3652,11 +3652,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 243, "geometry": {"type": "Point", "coordinates": [10.836774679256845, 59.7501212737914]}, "properties": {"OBJECTID": 243, "Banekortnavn": "OBVL", "Navn": "Langhus", "Sporkilometer": 20.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.05.1919", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{5720148E-E163-4E19-9823-EAC6A9C01F7D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.836774679256845, 59.7501212737914]}, "properties": {"Navn": "Langhus", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>459</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180">
@@ -3670,11 +3670,11 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 244, "geometry": {"type": "Point", "coordinates": [10.342142585783042, 59.74530368902248]}, "properties": {"OBJECTID": 244, "Banekortnavn": "SPIB", "Navn": "Spikkestad", "Sporkilometer": 37.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.02.1885", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{F7D3A67C-CE18-4EE4-A5D1-494838C9C528}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.342142585783042, 59.74530368902248]}, "properties": {"Navn": "Spikkestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>453</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 246, "geometry": {"type": "Point", "coordinates": [11.16313669317716, 59.58179166528345]}, "properties": {"OBJECTID": 246, "Banekortnavn": "OBOL", "Navn": "Askim", "Sporkilometer": 29.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{60E41DB0-9E33-4936-BACE-376536709094}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.16313669317716, 59.58179166528345]}, "properties": {"Navn": "Askim", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>455</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 247, "geometry": {"type": "Point", "coordinates": [10.16581206452319, 61.472240527636664]}, "properties": {"OBJECTID": 247, "Banekortnavn": "DOVB", "Navn": "Kvitfjell", "Sporkilometer": 235.35, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.03.1992", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7D9597C1-E83A-4C23-BD70-46FDFF3D4B3E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.16581206452319, 61.472240527636664]}, "properties": {"Navn": "Kvitfjell", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 248, "geometry": {"type": "Point", "coordinates": [10.861747410679337, 59.94103883076884]}, "properties": {"OBJECTID": 248, "Banekortnavn": "HVDB", "Navn": "Aker", "Sporkilometer": 8.72, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "07.06.1971", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{FD60C00C-E44A-418C-8B4E-8A5569827C31}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.861747410679337, 59.94103883076884]}, "properties": {"Navn": "Aker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>441</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184">
@@ -3742,11 +3742,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 251, "geometry": {"type": "Point", "coordinates": [12.337133276324423, 64.45838289276793]}, "properties": {"OBJECTID": 251, "Banekortnavn": "NORB", "Navn": "Grong", "Sporkilometer": 219.54, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "30.11.1929", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{9CB01FE2-5DC4-456B-941D-EAB94161D34C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.337133276324423, 64.45838289276793]}, "properties": {"Navn": "Grong", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>448</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185">
@@ -3760,11 +3760,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 252, "geometry": {"type": "Point", "coordinates": [7.967814757809726, 58.253032843225824]}, "properties": {"OBJECTID": 252, "Banekortnavn": "SORB", "Navn": "Vennesla", "Sporkilometer": 350.16, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{AA9E919F-001B-48BF-9B93-10F0F732B2A5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.967814757809726, 58.253032843225824]}, "properties": {"Navn": "Vennesla", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186">
@@ -3778,11 +3778,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 254, "geometry": {"type": "Point", "coordinates": [10.724078728451396, 59.54881641282868]}, "properties": {"OBJECTID": 254, "Banekortnavn": "OBVL", "Navn": "Hølen", "Sporkilometer": 45.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "23.09.1996", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{57A91A74-C65D-46CA-8761-A184BFAE8C4A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.724078728451396, 59.54881641282868]}, "properties": {"Navn": "Hølen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>457</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187">
@@ -3796,11 +3796,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 255, "geometry": {"type": "Point", "coordinates": [10.862465256670598, 60.0856337646831]}, "properties": {"OBJECTID": 255, "Banekortnavn": "GJKB", "Navn": "Åneby", "Sporkilometer": 27.73, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "27.05.1905", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{CE71F097-F4C9-4175-873D-3C0BB2DBF50D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.862465256670598, 60.0856337646831]}, "properties": {"Navn": "Åneby", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188">
@@ -3814,11 +3814,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 256, "geometry": {"type": "Point", "coordinates": [6.840415793359771, 60.69406504343804]}, "properties": {"OBJECTID": 256, "Banekortnavn": "BRGB", "Navn": "Mjølfjell", "Sporkilometer": 354.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{496C12A5-0AF7-4C10-B1D9-B8A4B17C63F4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.840415793359771, 60.69406504343804]}, "properties": {"Navn": "Mjølfjell", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189">
@@ -3832,11 +3832,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 257, "geometry": {"type": "Point", "coordinates": [11.139546861532382, 60.07534052902623]}, "properties": {"OBJECTID": 257, "Banekortnavn": "GARB", "Navn": "Kløfta", "Sporkilometer": 36.38, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{853D9A9E-487A-448E-A868-20258EF6D691}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.139546861532382, 60.07534052902623]}, "properties": {"Navn": "Kløfta", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190">
@@ -3850,11 +3850,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 258, "geometry": {"type": "Point", "coordinates": [5.733900987818077, 58.8475059675402]}, "properties": {"OBJECTID": 258, "Banekortnavn": "SORB", "Navn": "Skeiane", "Sporkilometer": 583.45, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "12.08.2017", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{11F0A165-4F58-4D13-8D06-B0C78796B9E2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.733900987818077, 58.8475059675402]}, "properties": {"Navn": "Skeiane", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191">
@@ -3868,11 +3868,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 265, "geometry": {"type": "Point", "coordinates": [10.346108327282916, 59.78258479154841]}, "properties": {"OBJECTID": 265, "Banekortnavn": "DRMB", "Navn": "Eriksrud", "Sporkilometer": 42.99, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{7BDAFCAD-5389-4635-B552-AA3CD9A73545}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.346108327282916, 59.78258479154841]}, "properties": {"Navn": "Eriksrud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>440</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192">
@@ -3886,11 +3886,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 266, "geometry": {"type": "Point", "coordinates": [11.102268014414728, 59.943011566520255]}, "properties": {"OBJECTID": 266, "Banekortnavn": "KVGB", "Navn": "Tuen", "Sporkilometer": 24.395, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.01.1932", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{8514049F-9ACF-48E1-8274-7F82FF013066}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.102268014414728, 59.943011566520255]}, "properties": {"Navn": "Tuen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>450</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193">
@@ -3904,11 +3904,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 268, "geometry": {"type": "Point", "coordinates": [10.776159608430463, 62.274780837487945]}, "properties": {"OBJECTID": 268, "Banekortnavn": "ROSB", "Navn": "Tynset", "Sporkilometer": 347.21, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{2027DD10-3B15-411C-ABD9-2B657BB2799E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.776159608430463, 62.274780837487945]}, "properties": {"Navn": "Tynset", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 269, "geometry": {"type": "Point", "coordinates": [15.398706226354438, 67.09336176423805]}, "properties": {"OBJECTID": 269, "Banekortnavn": "NORB", "Navn": "Rognan", "Sporkilometer": 647.76, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1958", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{95153A0D-FBD0-4476-92E2-9F23B5E572D0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.398706226354438, 67.09336176423805]}, "properties": {"Navn": "Rognan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195">
@@ -3940,11 +3940,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 271, "geometry": {"type": "Point", "coordinates": [10.17751590793903, 62.9550311735876]}, "properties": {"OBJECTID": 271, "Banekortnavn": "DOVB", "Navn": "Soknedal", "Sporkilometer": 486.6, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7C93BD72-EDD0-44B5-B818-117DF08495FC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.17751590793903, 62.9550311735876]}, "properties": {"Navn": "Soknedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196">
@@ -3958,11 +3958,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 273, "geometry": {"type": "Point", "coordinates": [8.709213674083216, 58.46601791022251]}, "properties": {"OBJECTID": 273, "Banekortnavn": "ADLB", "Navn": "Stoa", "Sporkilometer": 313.792, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "18.12.2008", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{A9E547B6-82F5-49D3-82E2-21B6B2F6905E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.709213674083216, 58.46601791022251]}, "properties": {"Navn": "Stoa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>446</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
@@ -3976,11 +3976,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 274, "geometry": {"type": "Point", "coordinates": [10.890825047010292, 59.6835528566119]}, "properties": {"OBJECTID": 274, "Banekortnavn": "OBOL", "Navn": "Kråkstad", "Sporkilometer": 5.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{B5A86CDD-FDC1-49FE-8000-BF65F33B6E88}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.890825047010292, 59.6835528566119]}, "properties": {"Navn": "Kråkstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>458</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198">
@@ -3994,11 +3994,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 275, "geometry": {"type": "Point", "coordinates": [10.486032315845598, 61.036281086622274]}, "properties": {"OBJECTID": 275, "Banekortnavn": "DOVB", "Navn": "Bergseng", "Sporkilometer": 174.71, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{C62FA1C9-C426-428D-9117-9707CC84ECFE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.486032315845598, 61.036281086622274]}, "properties": {"Navn": "Bergseng", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199">
@@ -4012,11 +4012,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 276, "geometry": {"type": "Point", "coordinates": [10.694580983732997, 60.797285024215746]}, "properties": {"OBJECTID": 276, "Banekortnavn": "GJKB", "Navn": "Gjøvik", "Sporkilometer": 123.83, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "28.11.1902", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{4355C96F-C217-4AA8-BC38-37FFB7974BB6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.694580983732997, 60.797285024215746]}, "properties": {"Navn": "Gjøvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200">
@@ -4030,11 +4030,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 279, "geometry": {"type": "Point", "coordinates": [9.336171965596076, 59.51213993304019]}, "properties": {"OBJECTID": 279, "Banekortnavn": "TINB", "Navn": "Trykkerud", "Sporkilometer": 138.53, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.05.1939", "GyldigTil": None, "Banenavn": "Tinnosbanen", "GlobalID": "{0B25F5EA-7570-47D9-BA45-CB8101A8C94E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.336171965596076, 59.51213993304019]}, "properties": {"Navn": "Trykkerud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>448</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201">
@@ -4048,11 +4048,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 280, "geometry": {"type": "Point", "coordinates": [11.420785464898334, 63.93564142640141]}, "properties": {"OBJECTID": 280, "Banekortnavn": "NORB", "Navn": "Mære", "Sporkilometer": 114.844, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.10.1977", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{C2E04B59-5491-42C3-99AD-51C9AA542CC7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.420785464898334, 63.93564142640141]}, "properties": {"Navn": "Mære", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>448</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202">
@@ -4066,11 +4066,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 281, "geometry": {"type": "Point", "coordinates": [8.855357277810779, 58.760857561163405]}, "properties": {"OBJECTID": 281, "Banekortnavn": "SORB", "Navn": "Vegårshei", "Sporkilometer": 261.51, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.11.1935", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{86FA6450-288C-45EF-88A3-B37A51C46D18}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.855357277810779, 58.760857561163405]}, "properties": {"Navn": "Vegårshei", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203">
@@ -4084,11 +4084,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 282, "geometry": {"type": "Point", "coordinates": [11.760515265319768, 63.423000072473]}, "properties": {"OBJECTID": 282, "Banekortnavn": "MERB", "Navn": "Meråker", "Sporkilometer": 81.08, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Meråkerbanen", "GlobalID": "{B3EA3C28-4DFE-4355-A6DC-340402662952}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.760515265319768, 63.423000072473]}, "properties": {"Navn": "Meråker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>445</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
@@ -4102,11 +4102,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 283, "geometry": {"type": "Point", "coordinates": [10.800427193185874, 59.786493616054024]}, "properties": {"OBJECTID": 283, "Banekortnavn": "OBVL", "Navn": "Myrvoll", "Sporkilometer": 15.72, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "27.06.1988", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{DF2D41F2-C921-4986-99C2-DDFD1A7514AC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.800427193185874, 59.786493616054024]}, "properties": {"Navn": "Myrvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>461</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205">
@@ -4120,11 +4120,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 284, "geometry": {"type": "Point", "coordinates": [10.436075705607939, 59.8072754589239]}, "properties": {"OBJECTID": 284, "Banekortnavn": "SPIB", "Navn": "Gullhella", "Sporkilometer": 26.953, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.07.1937", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{62BBA9F0-C156-47AC-9CF6-1DBBE585A722}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.436075705607939, 59.8072754589239]}, "properties": {"Navn": "Gullhella", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>452</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206">
@@ -4138,11 +4138,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 285, "geometry": {"type": "Point", "coordinates": [10.985540048359315, 60.82863531322724]}, "properties": {"OBJECTID": 285, "Banekortnavn": "DOVB", "Navn": "Jessnes", "Sporkilometer": 133.19, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{8DCDA71A-269C-48F4-AA18-CCAF155A1927}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.985540048359315, 60.82863531322724]}, "properties": {"Navn": "Jessnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 286, "geometry": {"type": "Point", "coordinates": [7.135698743671065, 60.747089241458134]}, "properties": {"OBJECTID": 286, "Banekortnavn": "FLMB", "Navn": "Kjosfossen", "Sporkilometer": 339.9, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1951", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{49420A44-D11C-4187-BBE2-5CCAE1C332D4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.135698743671065, 60.747089241458134]}, "properties": {"Navn": "Kjosfossen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>447</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208">
@@ -4174,11 +4174,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 287, "geometry": {"type": "Point", "coordinates": [5.748900872208321, 58.54050720384583]}, "properties": {"OBJECTID": 287, "Banekortnavn": "SORB", "Navn": "Brusand", "Sporkilometer": 544.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "13.12.1879", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{D49855A1-BD17-48B1-A096-64A7E27210E3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.748900872208321, 58.54050720384583]}, "properties": {"Navn": "Brusand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209">
@@ -4192,11 +4192,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 289, "geometry": {"type": "Point", "coordinates": [9.695163881481477, 59.622338365003536]}, "properties": {"OBJECTID": 289, "Banekortnavn": "SORB", "Navn": "Skollenborg", "Sporkilometer": 92.59, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "10.11.1871", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{50EF9C5D-6970-452E-B4F4-D2AF22879AEE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.695163881481477, 59.622338365003536]}, "properties": {"Navn": "Skollenborg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>452</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210">
@@ -4210,11 +4210,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 292, "geometry": {"type": "Point", "coordinates": [5.333260370594221, 60.39020473809756]}, "properties": {"OBJECTID": 292, "Banekortnavn": "BRGB", "Navn": "Bergen", "Sporkilometer": 471.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "26.05.1913", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{D74B42EC-8016-43D1-BDC0-DD1E46BC57DB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.333260370594221, 60.39020473809756]}, "properties": {"Navn": "Bergen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
@@ -4228,11 +4228,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 293, "geometry": {"type": "Point", "coordinates": [10.39806936300087, 63.436503174216945]}, "properties": {"OBJECTID": 293, "Banekortnavn": "DOVB", "Navn": "Trondheim", "Sporkilometer": 552.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{BC4943E7-9452-46F4-97E5-0E9B90276CB8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.39806936300087, 63.436503174216945]}, "properties": {"Navn": "Trondheim", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212">
@@ -4246,11 +4246,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 294, "geometry": {"type": "Point", "coordinates": [10.78318707934774, 59.96620111483245]}, "properties": {"OBJECTID": 294, "Banekortnavn": "GJKB", "Navn": "Kjelsås", "Sporkilometer": 10.28, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{734137B4-41DD-4D8C-B477-F77A978FE23E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.78318707934774, 59.96620111483245]}, "properties": {"Navn": "Kjelsås", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213">
@@ -4264,11 +4264,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 295, "geometry": {"type": "Point", "coordinates": [7.1230668358946385, 60.73528263815295]}, "properties": {"OBJECTID": 295, "Banekortnavn": "BRGB", "Navn": "Myrdal", "Sporkilometer": 335.8, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{DE811464-7661-4C8A-ACFF-B7CFAC30CCFC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.1230668358946385, 60.73528263815295]}, "properties": {"Navn": "Myrdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>446</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214">
@@ -4282,11 +4282,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 296, "geometry": {"type": "Point", "coordinates": [7.122835265583906, 60.83975900780439]}, "properties": {"OBJECTID": 296, "Banekortnavn": "FLMB", "Navn": "Håreina", "Sporkilometer": 353.01, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.02.1941", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{23861F37-0001-48C9-AFF1-B55FCD8927DF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.122835265583906, 60.83975900780439]}, "properties": {"Navn": "Håreina", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 298, "geometry": {"type": "Point", "coordinates": [10.222244660541069, 59.6264062251395]}, "properties": {"OBJECTID": 298, "Banekortnavn": "VESB", "Navn": "Galleberg", "Sporkilometer": 68.14, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "05.10.2001", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{8C29366D-29AA-48BC-A80F-B6B4F820962D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.222244660541069, 59.6264062251395]}, "properties": {"Navn": "Galleberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216">
@@ -4318,11 +4318,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 299, "geometry": {"type": "Point", "coordinates": [9.38489542330456, 59.56585722044931]}, "properties": {"OBJECTID": 299, "Banekortnavn": "SORB", "Navn": "Øysteinstul", "Sporkilometer": 125.01, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.02.1920", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{51AB5AFA-52FF-4606-A59D-B2A7A4719114}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.38489542330456, 59.56585722044931]}, "properties": {"Navn": "Øysteinstul", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217">
@@ -4336,11 +4336,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 300, "geometry": {"type": "Point", "coordinates": [11.369528180698714, 61.13458267790487]}, "properties": {"OBJECTID": 300, "Banekortnavn": "ROSB", "Navn": "Rena", "Sporkilometer": 190.38, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.10.1871", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{4A983C0D-8A4F-4E26-8096-F8A4F85E05FC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.369528180698714, 61.13458267790487]}, "properties": {"Navn": "Rena", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218">
@@ -4354,11 +4354,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 301, "geometry": {"type": "Point", "coordinates": [12.003633229414241, 60.187616230731976]}, "properties": {"OBJECTID": 301, "Banekortnavn": "KVGB", "Navn": "Kongsvinger", "Sporkilometer": 100.28, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{2AD3D1F1-CEE1-4181-8F37-C7E0DD3B165F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.003633229414241, 60.187616230731976]}, "properties": {"Navn": "Kongsvinger", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>457</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219">
@@ -4372,11 +4372,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 304, "geometry": {"type": "Point", "coordinates": [10.502603038879693, 59.885632230930895]}, "properties": {"OBJECTID": 304, "Banekortnavn": "DRMB", "Navn": "Slependen", "Sporkilometer": 15.82, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.09.1873", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{E8948A9E-41DD-4C2F-B854-D971E0C80383}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.502603038879693, 59.885632230930895]}, "properties": {"Navn": "Slependen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220">
@@ -4390,11 +4390,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 306, "geometry": {"type": "Point", "coordinates": [9.694226520614349, 62.593001041610634]}, "properties": {"OBJECTID": 306, "Banekortnavn": "DOVB", "Navn": "Oppdal", "Sporkilometer": 429.28, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{405F8A96-A569-4AE0-99AC-81BBDDC448A1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.694226520614349, 62.593001041610634]}, "properties": {"Navn": "Oppdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221">
@@ -4408,11 +4408,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 307, "geometry": {"type": "Point", "coordinates": [11.181311451275622, 60.218831375008186]}, "properties": {"OBJECTID": 307, "Banekortnavn": "HVDB", "Navn": "Sand", "Sporkilometer": 53.44, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "12.10.1992", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{ECD355F7-5CE2-4A99-826A-6E5E5CE6489F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.181311451275622, 60.218831375008186]}, "properties": {"Navn": "Sand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>443</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222">
@@ -4426,11 +4426,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 308, "geometry": {"type": "Point", "coordinates": [8.058600501304943, 62.34700204090626]}, "properties": {"OBJECTID": 308, "Banekortnavn": "RAUB", "Navn": "Verma", "Sporkilometer": 418.09, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "25.11.1923", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{6E86280E-764C-4FED-ACAD-D16EA8D9E3B9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.058600501304943, 62.34700204090626]}, "properties": {"Navn": "Verma", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223">
@@ -4444,11 +4444,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 309, "geometry": {"type": "Point", "coordinates": [10.879025602607639, 61.83815490062908]}, "properties": {"OBJECTID": 309, "Banekortnavn": "ROSB", "Navn": "Hanestad", "Sporkilometer": 285, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "08.11.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{4F89B2BC-7CA8-451E-9327-23094A66ABB6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.879025602607639, 61.83815490062908]}, "properties": {"Navn": "Hanestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224">
@@ -4462,11 +4462,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 310, "geometry": {"type": "Point", "coordinates": [14.838057542065458, 66.44604188354742]}, "properties": {"OBJECTID": 310, "Banekortnavn": "NORB", "Navn": "Dunderland", "Sporkilometer": 543.05, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1945", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{006EE5BF-6113-48CF-BEC2-74203C817C0F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.838057542065458, 66.44604188354742]}, "properties": {"Navn": "Dunderland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>453</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225">
@@ -4480,11 +4480,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 312, "geometry": {"type": "Point", "coordinates": [10.464374696725665, 63.4368574954391]}, "properties": {"OBJECTID": 312, "Banekortnavn": "NORB", "Navn": "Leangen", "Sporkilometer": 3.49, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1882", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{141D4329-36DB-418F-A7A4-76128AFDAE8F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.464374696725665, 63.4368574954391]}, "properties": {"Navn": "Leangen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226">
@@ -4498,11 +4498,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 313, "geometry": {"type": "Point", "coordinates": [8.689576201496237, 58.462698580513845]}, "properties": {"OBJECTID": 313, "Banekortnavn": "ADLB", "Navn": "Bråstad", "Sporkilometer": 312.52, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.11.1908", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{A65FE930-661E-4EB6-BFFB-758A176FE251}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.689576201496237, 58.462698580513845]}, "properties": {"Navn": "Bråstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227">
@@ -4516,11 +4516,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 314, "geometry": {"type": "Point", "coordinates": [11.291551906102523, 59.12556217812215]}, "properties": {"OBJECTID": 314, "Banekortnavn": "OBVL", "Navn": "Berg", "Sporkilometer": 130.93, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "04.02.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{63B50D83-8AA1-4E72-B2C3-FEA344131D6A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.291551906102523, 59.12556217812215]}, "properties": {"Navn": "Berg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>458</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
@@ -4534,11 +4534,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 319, "geometry": {"type": "Point", "coordinates": [11.484271068851385, 63.79112313290481]}, "properties": {"OBJECTID": 319, "Banekortnavn": "NORB", "Navn": "Verdal", "Sporkilometer": 96.23, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.11.1904", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{A5DF7DEF-632B-4435-A781-1215A56E99B7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.484271068851385, 63.79112313290481]}, "properties": {"Navn": "Verdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
@@ -4552,11 +4552,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 320, "geometry": {"type": "Point", "coordinates": [10.784610338304134, 59.85303857562048]}, "properties": {"OBJECTID": 320, "Banekortnavn": "OBVL", "Navn": "Ljan", "Sporkilometer": 7.18, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.04.1988", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{FD5A1BBB-CBA3-4D3A-B845-DEFA155728C0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.784610338304134, 59.85303857562048]}, "properties": {"Navn": "Ljan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>456</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230">
@@ -4570,11 +4570,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 324, "geometry": {"type": "Point", "coordinates": [11.223964799749195, 60.65820867915569]}, "properties": {"OBJECTID": 324, "Banekortnavn": "DOVB", "Navn": "Steinsrud", "Sporkilometer": 107.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.11.1882", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{3259BAB7-E350-4EAB-B028-3456E2044900}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.223964799749195, 60.65820867915569]}, "properties": {"Navn": "Steinsrud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 326, "geometry": {"type": "Point", "coordinates": [6.154985089166799, 58.5336760599059]}, "properties": {"OBJECTID": 326, "Banekortnavn": "SORB", "Navn": "Helleland", "Sporkilometer": 511.29, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.11.1904", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{A4D67A54-CE0E-4E2B-8565-2F4ED82AA602}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.154985089166799, 58.5336760599059]}, "properties": {"Navn": "Helleland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232">
@@ -4606,11 +4606,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 327, "geometry": {"type": "Point", "coordinates": [9.961687374698952, 59.759423843095284]}, "properties": {"OBJECTID": 327, "Banekortnavn": "SORB", "Navn": "Steinberg", "Sporkilometer": 67, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.12.1906", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{8287A850-5CD5-4F05-B1BE-49F975A55314}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.961687374698952, 59.759423843095284]}, "properties": {"Navn": "Steinberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>447</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 330, "geometry": {"type": "Point", "coordinates": [8.648621031036532, 58.507508930388454]}, "properties": {"OBJECTID": 330, "Banekortnavn": "ADLB", "Navn": "Blakstad", "Sporkilometer": 302.5, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "25.08.1989", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{33613A7B-88D9-4706-B61F-C382586AE8B5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.648621031036532, 58.507508930388454]}, "properties": {"Navn": "Blakstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 331, "geometry": {"type": "Point", "coordinates": [10.357594267349372, 63.35089975935601]}, "properties": {"OBJECTID": 331, "Banekortnavn": "DOVB", "Navn": "Heimdal", "Sporkilometer": 541.41, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{C7AFEC17-3ED0-4933-883E-6B7A6DAE57EB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.357594267349372, 63.35089975935601]}, "properties": {"Navn": "Heimdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="235">
@@ -4660,11 +4660,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 333, "geometry": {"type": "Point", "coordinates": [9.537122808399253, 61.77227531939815]}, "properties": {"OBJECTID": 333, "Banekortnavn": "DOVB", "Navn": "Otta", "Sporkilometer": 297.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{C57DDCF7-A917-40D0-8931-63581AD65B20}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.537122808399253, 61.77227531939815]}, "properties": {"Navn": "Otta", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="236">
@@ -4678,11 +4678,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 334, "geometry": {"type": "Point", "coordinates": [11.001882269721548, 59.9493911461666]}, "properties": {"OBJECTID": 334, "Banekortnavn": "HVDB", "Navn": "Strømmen", "Sporkilometer": 17.93, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{13F9DB93-55C6-44F7-9A8E-681896A619E0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.001882269721548, 59.9493911461666]}, "properties": {"Navn": "Strømmen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>445</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237">
@@ -4696,11 +4696,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 335, "geometry": {"type": "Point", "coordinates": [9.89595772782079, 59.846174002828874]}, "properties": {"OBJECTID": 335, "Banekortnavn": "RANB", "Navn": "Skotselv", "Sporkilometer": 79.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{BDAC5C2E-7D30-4BE7-8588-ED97EA7356A4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.89595772782079, 59.846174002828874]}, "properties": {"Navn": "Skotselv", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="238">
@@ -4714,11 +4714,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 337, "geometry": {"type": "Point", "coordinates": [13.394990267229945, 65.43421011298992]}, "properties": {"OBJECTID": 337, "Banekortnavn": "NORB", "Navn": "Svenningdal", "Sporkilometer": 354.49, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{D5B1CBC2-FB7D-4281-BE3A-80D346016FEF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.394990267229945, 65.43421011298992]}, "properties": {"Navn": "Svenningdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>454</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239">
@@ -4732,11 +4732,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 340, "geometry": {"type": "Point", "coordinates": [10.865221715908236, 59.34759129020978]}, "properties": {"OBJECTID": 340, "Banekortnavn": "OBVL", "Navn": "Råde", "Sporkilometer": 77.01, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{1948F5F7-86D2-44A2-ABD5-368F2F5B6236}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.865221715908236, 59.34759129020978]}, "properties": {"Navn": "Råde", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>457</v>
+        <v>174</v>
       </c>
     </row>
     <row r="240">
@@ -4750,11 +4750,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 343, "geometry": {"type": "Point", "coordinates": [9.276337298081163, 62.1189288066512]}, "properties": {"OBJECTID": 343, "Banekortnavn": "DOVB", "Navn": "Fokstua", "Sporkilometer": 361.65, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{887B5E73-65D3-4037-B21F-F5D787EB87FF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.276337298081163, 62.1189288066512]}, "properties": {"Navn": "Fokstua", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="241">
@@ -4768,11 +4768,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 344, "geometry": {"type": "Point", "coordinates": [8.366904760204918, 60.57586609716763]}, "properties": {"OBJECTID": 344, "Banekortnavn": "BRGB", "Navn": "Hol", "Sporkilometer": 241.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{1293B64A-8242-42E1-A63A-5531799C9A91}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.366904760204918, 60.57586609716763]}, "properties": {"Navn": "Hol", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>443</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242">
@@ -4786,11 +4786,11 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 345, "geometry": {"type": "Point", "coordinates": [11.129052372611818, 60.040366378222494]}, "properties": {"OBJECTID": 345, "Banekortnavn": "HVDB", "Navn": "Lindeberg", "Sporkilometer": 32.39, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.02.1944", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{F7415331-046E-4EEA-BC0E-59FE0D4BABCD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.129052372611818, 60.040366378222494]}, "properties": {"Navn": "Lindeberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>448</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243">
@@ -4804,11 +4804,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 348, "geometry": {"type": "Point", "coordinates": [13.455845777887998, 66.071180518694]}, "properties": {"OBJECTID": 348, "Banekortnavn": "NORB", "Navn": "Drevvatn", "Sporkilometer": 440.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.03.1941", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{23B606BF-DA43-43DA-932D-8364F62DD9B4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.455845777887998, 66.071180518694]}, "properties": {"Navn": "Drevvatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244">
@@ -4822,11 +4822,11 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 349, "geometry": {"type": "Point", "coordinates": [7.71958275279836, 58.19962551643816]}, "properties": {"OBJECTID": 349, "Banekortnavn": "SORB", "Navn": "Breland", "Sporkilometer": 385.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{7CE3D241-D44D-46CD-AFD7-84AB3E5F7826}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.71958275279836, 58.19962551643816]}, "properties": {"Navn": "Breland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="245">
@@ -4840,11 +4840,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 352, "geometry": {"type": "Point", "coordinates": [10.584753875423013, 60.30503272014666]}, "properties": {"OBJECTID": 352, "Banekortnavn": "GJKB", "Navn": "Lunner", "Sporkilometer": 61.13, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{C097857D-3101-4AB3-96F1-47E42FBE3F48}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.584753875423013, 60.30503272014666]}, "properties": {"Navn": "Lunner", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="246">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 360, "geometry": {"type": "Point", "coordinates": [12.060843988721214, 60.456323206895114]}, "properties": {"OBJECTID": 360, "Banekortnavn": "SOLB", "Navn": "Kirkenær", "Sporkilometer": 133.14, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "03.11.1893", "GyldigTil": None, "Banenavn": "Solørbanen", "GlobalID": "{5909ED8B-85AF-48B8-876C-946214B61C4E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.060843988721214, 60.456323206895114]}, "properties": {"Navn": "Kirkenær", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="247">
@@ -4876,11 +4876,11 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 364, "geometry": {"type": "Point", "coordinates": [11.567232294471673, 60.17099435352218]}, "properties": {"OBJECTID": 364, "Banekortnavn": "KVGB", "Navn": "Seterstøa", "Sporkilometer": 67.17, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{9EF3A39B-3C82-4FDB-9112-321E0AFAF9B1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.567232294471673, 60.17099435352218]}, "properties": {"Navn": "Seterstøa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>453</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248">
@@ -4894,11 +4894,11 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 367, "geometry": {"type": "Point", "coordinates": [8.680801335410571, 58.636218819751036]}, "properties": {"OBJECTID": 367, "Banekortnavn": "ADLB", "Navn": "Flaten", "Sporkilometer": 285.84, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "18.12.1910", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{6E2770FE-4364-42A9-B9E3-46E0DE5AA5B8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.680801335410571, 58.636218819751036]}, "properties": {"Navn": "Flaten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249">
@@ -4912,11 +4912,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 369, "geometry": {"type": "Point", "coordinates": [10.289183331641196, 63.262429837016505]}, "properties": {"OBJECTID": 369, "Banekortnavn": "DOVB", "Navn": "Søberg", "Sporkilometer": 528.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{8D70FB4D-5347-4383-AAFB-2EA55493993D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.289183331641196, 63.262429837016505]}, "properties": {"Navn": "Søberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250">
@@ -4930,11 +4930,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 371, "geometry": {"type": "Point", "coordinates": [9.86870768690666, 61.573737352663535]}, "properties": {"OBJECTID": 371, "Banekortnavn": "DOVB", "Navn": "Fron", "Sporkilometer": 259.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.10.1967", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{2C55E741-848A-4997-B46B-F26F97418838}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.86870768690666, 61.573737352663535]}, "properties": {"Navn": "Fron", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="251">
@@ -4948,11 +4948,11 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 372, "geometry": {"type": "Point", "coordinates": [10.908199734329456, 59.95153993716593]}, "properties": {"OBJECTID": 372, "Banekortnavn": "HVDB", "Navn": "Haugenstua", "Sporkilometer": 11.9, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1937", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{7B8BAC68-8921-422E-9EE7-633DD700E9E6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.908199734329456, 59.95153993716593]}, "properties": {"Navn": "Haugenstua", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>447</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252">
@@ -4966,11 +4966,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 373, "geometry": {"type": "Point", "coordinates": [17.79083617903106, 68.40360482972773]}, "properties": {"OBJECTID": 373, "Banekortnavn": "OFTB", "Navn": "Rombak", "Sporkilometer": 20.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1902", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{354C5E2E-B1E8-4309-9C07-9B8D53DACB30}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [17.79083617903106, 68.40360482972773]}, "properties": {"Navn": "Rombak", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>442</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253">
@@ -4984,11 +4984,11 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 375, "geometry": {"type": "Point", "coordinates": [12.71472347581488, 64.69627639223278]}, "properties": {"OBJECTID": 375, "Banekortnavn": "NORB", "Navn": "Lassemoen", "Sporkilometer": 254.64, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{1282F067-C173-4B23-B4BD-D2C18F5C526C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.71472347581488, 64.69627639223278]}, "properties": {"Navn": "Lassemoen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>451</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 378, "geometry": {"type": "Point", "coordinates": [10.669307839105478, 59.447215644097206]}, "properties": {"OBJECTID": 378, "Banekortnavn": "OBVL", "Navn": "Sandbukta", "Sporkilometer": 57.187, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "18.06.1995", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{30867757-99FF-49F1-B8FC-518A9278D529}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.669307839105478, 59.447215644097206]}, "properties": {"Navn": "Sandbukta", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255">
@@ -5020,11 +5020,11 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 380, "geometry": {"type": "Point", "coordinates": [6.73077564623542, 60.67813399679556]}, "properties": {"OBJECTID": 380, "Banekortnavn": "BRGB", "Navn": "Reimegrend", "Sporkilometer": 362.73, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{56B7B8C6-68B4-4712-A3C0-E1D2DB35C187}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.73077564623542, 60.67813399679556]}, "properties": {"Navn": "Reimegrend", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="256">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 381, "geometry": {"type": "Point", "coordinates": [11.160770454600513, 60.28071361262016]}, "properties": {"OBJECTID": 381, "Banekortnavn": "GARB", "Navn": "Bekkedalshøgda", "Sporkilometer": 62.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "27.09.1998", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{DD204BC0-F892-46DB-AADA-C0A13DFAE474}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.160770454600513, 60.28071361262016]}, "properties": {"Navn": "Bekkedalshøgda", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>455</v>
+        <v>184</v>
       </c>
     </row>
     <row r="257">
@@ -5056,11 +5056,11 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 382, "geometry": {"type": "Point", "coordinates": [5.728915658588794, 58.91406385584285]}, "properties": {"OBJECTID": 382, "Banekortnavn": "SORB", "Navn": "Jåttåvågen", "Sporkilometer": 591.5, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.11.2009", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{9D0EEBCD-EC3A-4DD9-BAF1-48C4D3F7156D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.728915658588794, 58.91406385584285]}, "properties": {"Navn": "Jåttåvågen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>450</v>
+        <v>179</v>
       </c>
     </row>
     <row r="258">
@@ -5074,11 +5074,11 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 383, "geometry": {"type": "Point", "coordinates": [10.38721163625944, 59.30728376816445]}, "properties": {"OBJECTID": 383, "Banekortnavn": "VESB", "Navn": "Barkåker", "Sporkilometer": 109.69, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{B3292CEE-58A1-48AF-BBF2-BF631880E8EC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.38721163625944, 59.30728376816445]}, "properties": {"Navn": "Barkåker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 388, "geometry": {"type": "Point", "coordinates": [10.20344749487833, 59.740683760392756]}, "properties": {"OBJECTID": 388, "Banekortnavn": "DRMB", "Navn": "Drammen", "Sporkilometer": 52.86, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{5CCA5D88-3BD9-463F-BAF5-7765E8CE35C9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.20344749487833, 59.740683760392756]}, "properties": {"Navn": "Drammen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
     </row>
     <row r="260">
@@ -5110,11 +5110,11 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 390, "geometry": {"type": "Point", "coordinates": [6.5073046598610045, 60.64525264660109]}, "properties": {"OBJECTID": 390, "Banekortnavn": "BRGB", "Navn": "Ygre", "Sporkilometer": 379.03, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{0E24B56B-2379-46C3-8565-2F4A4904C5F5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.5073046598610045, 60.64525264660109]}, "properties": {"Navn": "Ygre", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="261">
@@ -5128,11 +5128,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 391, "geometry": {"type": "Point", "coordinates": [10.768916921435748, 59.95238513107434]}, "properties": {"OBJECTID": 391, "Banekortnavn": "GJKB", "Navn": "Nydalen", "Sporkilometer": 8.3, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "18.11.1946", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{9DFF60F2-5402-4F65-9E71-117C0D44C182}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.768916921435748, 59.95238513107434]}, "properties": {"Navn": "Nydalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262">
@@ -5146,11 +5146,11 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 394, "geometry": {"type": "Point", "coordinates": [10.222853979371331, 59.135326779642284]}, "properties": {"OBJECTID": 394, "Banekortnavn": "VESB", "Navn": "Sandefjord", "Sporkilometer": 139.52, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{A303ED15-1389-4612-A5E8-DB176597C6B0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.222853979371331, 59.135326779642284]}, "properties": {"Navn": "Sandefjord", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>453</v>
+        <v>181</v>
       </c>
     </row>
     <row r="263">
@@ -5164,11 +5164,11 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 400, "geometry": {"type": "Point", "coordinates": [6.837516772250516, 58.38419270672027]}, "properties": {"OBJECTID": 400, "Banekortnavn": "SORB", "Navn": "Gyland", "Sporkilometer": 453.53, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{A08762B6-9A19-4B1D-AE6E-AF951A59B34A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.837516772250516, 58.38419270672027]}, "properties": {"Navn": "Gyland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264">
@@ -5182,11 +5182,11 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 401, "geometry": {"type": "Point", "coordinates": [7.8700002866894865, 60.51139722112205]}, "properties": {"OBJECTID": 401, "Banekortnavn": "BRGB", "Navn": "Haugastøl", "Sporkilometer": 275.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{E9776A10-ED25-4AD3-B2B0-4F6CC5B12075}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.8700002866894865, 60.51139722112205]}, "properties": {"Navn": "Haugastøl", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>449</v>
+        <v>179</v>
       </c>
     </row>
     <row r="265">
@@ -5200,11 +5200,11 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 403, "geometry": {"type": "Point", "coordinates": [11.327694325073054, 60.02924926262717]}, "properties": {"OBJECTID": 403, "Banekortnavn": "KVGB", "Navn": "Rånåsfoss", "Sporkilometer": 45.11, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "06.09.1918", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{44E499AC-024E-4590-B3C1-2B55D677681D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.327694325073054, 60.02924926262717]}, "properties": {"Navn": "Rånåsfoss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>453</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266">
@@ -5218,11 +5218,11 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 404, "geometry": {"type": "Point", "coordinates": [10.404876327549394, 60.240186762414176]}, "properties": {"OBJECTID": 404, "Banekortnavn": "ROAB", "Navn": "Jevnaker", "Sporkilometer": 76.52, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Roa-Hønefossbanen", "GlobalID": "{7FE242DC-FEBC-4E83-8ADC-C7B15E0E4CBB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.404876327549394, 60.240186762414176]}, "properties": {"Navn": "Jevnaker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>454</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267">
@@ -5236,11 +5236,11 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 405, "geometry": {"type": "Point", "coordinates": [11.379280988256786, 62.80753109085332]}, "properties": {"OBJECTID": 405, "Banekortnavn": "ROSB", "Navn": "Reitan", "Sporkilometer": 432.31, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.01.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{C56D3EFD-39B8-42FB-A597-DD590B9B97F4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.379280988256786, 62.80753109085332]}, "properties": {"Navn": "Reitan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="268">
@@ -5254,11 +5254,11 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 409, "geometry": {"type": "Point", "coordinates": [11.079011395092516, 59.62082092396219]}, "properties": {"OBJECTID": 409, "Banekortnavn": "OBOL", "Navn": "Spydeberg", "Sporkilometer": 20.32, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{48F923CD-382D-4A6A-92B4-7766E5A184D6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.079011395092516, 59.62082092396219]}, "properties": {"Navn": "Spydeberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>461</v>
+        <v>179</v>
       </c>
     </row>
     <row r="269">
@@ -5272,11 +5272,11 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 410, "geometry": {"type": "Point", "coordinates": [10.225934627252771, 61.38494040720599]}, "properties": {"OBJECTID": 410, "Banekortnavn": "DOVB", "Navn": "Losna", "Sporkilometer": 224.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{4D8104A5-A4B6-487B-9A59-9F9C6269539B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.225934627252771, 61.38494040720599]}, "properties": {"Navn": "Losna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="270">
@@ -5290,11 +5290,11 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 411, "geometry": {"type": "Point", "coordinates": [10.83425612552154, 59.92485653155272]}, "properties": {"OBJECTID": 411, "Banekortnavn": "HVDB", "Navn": "Brobekk", "Sporkilometer": 6, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.1971", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{4FA5EF8C-92A8-4310-813A-49984ABA587F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.83425612552154, 59.92485653155272]}, "properties": {"Navn": "Brobekk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>440</v>
+        <v>176</v>
       </c>
     </row>
     <row r="271">
@@ -5308,11 +5308,11 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 414, "geometry": {"type": "Point", "coordinates": [12.531288155510108, 64.28307830940913]}, "properties": {"OBJECTID": 414, "Banekortnavn": "NORB", "Navn": "Agle", "Sporkilometer": 190.72, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "30.11.1929", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{241F268E-5782-4D65-8851-BCE08CF177AE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.531288155510108, 64.28307830940913]}, "properties": {"Navn": "Agle", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>447</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 415, "geometry": {"type": "Point", "coordinates": [7.980304441920974, 58.29510647102531]}, "properties": {"OBJECTID": 415, "Banekortnavn": "SORB", "Navn": "Grovane", "Sporkilometer": 345.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{1FD0CCF3-E412-499C-BBB4-86B4AFA53907}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.980304441920974, 58.29510647102531]}, "properties": {"Navn": "Grovane", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="273">
@@ -5344,11 +5344,11 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 417, "geometry": {"type": "Point", "coordinates": [10.794520749591353, 59.66326584077224]}, "properties": {"OBJECTID": 417, "Banekortnavn": "OBVL", "Navn": "Ås", "Sporkilometer": 31.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{78CC37DF-B66E-494F-8D2A-3B5236B93E81}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.794520749591353, 59.66326584077224]}, "properties": {"Navn": "Ås", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>455</v>
+        <v>172</v>
       </c>
     </row>
     <row r="274">
@@ -5362,11 +5362,11 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 418, "geometry": {"type": "Point", "coordinates": [10.813142929809203, 60.03774310614332]}, "properties": {"OBJECTID": 418, "Banekortnavn": "GJKB", "Navn": "Movatn", "Sporkilometer": 19.34, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{5EC487F8-A766-4370-8700-121A12AE9E37}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.813142929809203, 60.03774310614332]}, "properties": {"Navn": "Movatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275">
@@ -5380,11 +5380,11 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 419, "geometry": {"type": "Point", "coordinates": [6.941392628775016, 60.70332932604543]}, "properties": {"OBJECTID": 419, "Banekortnavn": "BRGB", "Navn": "Ørneberget", "Sporkilometer": 347.5, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.06.1958", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{399211FC-5F5C-4C38-AFE0-D3D76D8B9138}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.941392628775016, 60.70332932604543]}, "properties": {"Navn": "Ørneberget", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>449</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276">
@@ -5398,11 +5398,11 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 420, "geometry": {"type": "Point", "coordinates": [10.856854138857345, 59.912176976736276]}, "properties": {"OBJECTID": 420, "Banekortnavn": "GARB", "Navn": "Hellerud", "Sporkilometer": 6.2, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.08.1999", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{E3741553-734E-45E0-8A55-19576390DD5A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.856854138857345, 59.912176976736276]}, "properties": {"Navn": "Hellerud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277">
@@ -5416,11 +5416,11 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 421, "geometry": {"type": "Point", "coordinates": [5.701163632413094, 58.786249680684946]}, "properties": {"OBJECTID": 421, "Banekortnavn": "SORB", "Navn": "Øksnavadporten", "Sporkilometer": 576.1, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "04.06.1933", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B0EBA19F-D8B7-4094-945E-C2FAF818C173}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.701163632413094, 58.786249680684946]}, "properties": {"Navn": "Øksnavadporten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>455</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278">
@@ -5434,11 +5434,11 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 422, "geometry": {"type": "Point", "coordinates": [10.263632898649599, 59.526780343567296]}, "properties": {"OBJECTID": 422, "Banekortnavn": "VESB", "Navn": "Smørstein", "Sporkilometer": 80.34, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "28.11.2016", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{A464B968-96D7-44A0-B1D7-00CC65DA2666}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.263632898649599, 59.526780343567296]}, "properties": {"Navn": "Smørstein", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>451</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279">
@@ -5452,11 +5452,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 423, "geometry": {"type": "Point", "coordinates": [9.322840338489979, 59.418097407449395]}, "properties": {"OBJECTID": 423, "Banekortnavn": "SORB", "Navn": "Nordagutu", "Sporkilometer": 145.95, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "04.12.1916", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{1CE63303-E830-4715-B42D-B3C668AEC67E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.322840338489979, 59.418097407449395]}, "properties": {"Navn": "Nordagutu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="280">
@@ -5470,11 +5470,11 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 424, "geometry": {"type": "Point", "coordinates": [12.120616073436953, 59.98330535488301]}, "properties": {"OBJECTID": 424, "Banekortnavn": "KVGB", "Navn": "Skotterud", "Sporkilometer": 127.27, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.11.1865", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{AB9ADD75-34CB-43D6-B23B-1768E36D88B2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.120616073436953, 59.98330535488301]}, "properties": {"Navn": "Skotterud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>454</v>
+        <v>179</v>
       </c>
     </row>
     <row r="281">
@@ -5488,11 +5488,11 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 427, "geometry": {"type": "Point", "coordinates": [9.659095619744663, 59.139164804521386]}, "properties": {"OBJECTID": 427, "Banekortnavn": "BRAB", "Navn": "Porsgrunn", "Sporkilometer": 190.12, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Bratsbergbanen", "GlobalID": "{7FBA2645-5312-432E-B78B-1C3BC0706E06}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.659095619744663, 59.139164804521386]}, "properties": {"Navn": "Porsgrunn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>452</v>
+        <v>179</v>
       </c>
     </row>
     <row r="282">
@@ -5506,11 +5506,11 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 428, "geometry": {"type": "Point", "coordinates": [10.46719926134879, 59.84997456834169]}, "properties": {"OBJECTID": 428, "Banekortnavn": "DRMB", "Navn": "Vakås", "Sporkilometer": 21.23, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.07.1957", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{863D5BCF-6E95-4B9B-B99D-7B5F0DCC6879}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.46719926134879, 59.84997456834169]}, "properties": {"Navn": "Vakås", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283">
@@ -5524,11 +5524,11 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 429, "geometry": {"type": "Point", "coordinates": [10.01453730502038, 62.8230331022063]}, "properties": {"OBJECTID": 429, "Banekortnavn": "DOVB", "Navn": "Berkåk", "Sporkilometer": 466.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{61AA1C35-BE0F-4B1C-9F32-31A732F967E4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.01453730502038, 62.8230331022063]}, "properties": {"Navn": "Berkåk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="284">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 430, "geometry": {"type": "Point", "coordinates": [11.212624923343716, 60.29229586865178]}, "properties": {"OBJECTID": 430, "Banekortnavn": "HVDB", "Navn": "Bøn", "Sporkilometer": 62.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "05.07.1855", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{8C962EFA-6E7E-4CCA-A38B-4A5E9DCCD2AD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.212624923343716, 60.29229586865178]}, "properties": {"Navn": "Bøn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>441</v>
+        <v>173</v>
       </c>
     </row>
     <row r="285">
@@ -5560,11 +5560,11 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 432, "geometry": {"type": "Point", "coordinates": [10.63319873930201, 62.108801740131035]}, "properties": {"OBJECTID": 432, "Banekortnavn": "ROSB", "Navn": "Alvdal", "Sporkilometer": 324.23, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{4AECCEA0-ED6E-46CB-9374-B2754867F1BF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.63319873930201, 62.108801740131035]}, "properties": {"Navn": "Alvdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286">
@@ -5578,11 +5578,11 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 433, "geometry": {"type": "Point", "coordinates": [15.46282642913834, 66.7427406541405]}, "properties": {"OBJECTID": 433, "Banekortnavn": "NORB", "Navn": "Lønsdal", "Sporkilometer": 602.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.12.1947", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{77FE40F8-05BF-4C75-9CBB-8D4B484A7F20}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.46282642913834, 66.7427406541405]}, "properties": {"Navn": "Lønsdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>448</v>
+        <v>175</v>
       </c>
     </row>
     <row r="287">
@@ -5596,11 +5596,11 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 434, "geometry": {"type": "Point", "coordinates": [7.5123339011408135, 58.21282645269655]}, "properties": {"OBJECTID": 434, "Banekortnavn": "SORB", "Navn": "Marnardal", "Sporkilometer": 402.02, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0A4392B8-DB01-435C-BCA8-2AD9A52E90EA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.5123339011408135, 58.21282645269655]}, "properties": {"Navn": "Marnardal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="288">
@@ -5614,11 +5614,11 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 435, "geometry": {"type": "Point", "coordinates": [10.623490461808277, 63.438856493753214]}, "properties": {"OBJECTID": 435, "Banekortnavn": "NORB", "Navn": "Vikhammer", "Sporkilometer": 12.69, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "19.06.1893", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{8C7E8E98-B70A-4283-95B2-2672844DEA05}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.623490461808277, 63.438856493753214]}, "properties": {"Navn": "Vikhammer", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
     </row>
     <row r="289">
@@ -5632,11 +5632,11 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 436, "geometry": {"type": "Point", "coordinates": [8.623728483701361, 58.46839523973649]}, "properties": {"OBJECTID": 436, "Banekortnavn": "ADLB", "Navn": "Rise", "Sporkilometer": 307.44, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.09.1907", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{61665C11-8894-483D-A6B0-A60E3F9D927E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.623728483701361, 58.46839523973649]}, "properties": {"Navn": "Rise", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>445</v>
+        <v>173</v>
       </c>
     </row>
     <row r="290">
@@ -5650,11 +5650,11 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 437, "geometry": {"type": "Point", "coordinates": [11.65919122350586, 58.94129695393973]}, "properties": {"OBJECTID": 437, "Banekortnavn": "OBVL", "Navn": "Kornsjø", "Sporkilometer": 169.12, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "25.07.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{855551BD-9769-4F4A-9E2E-C5887AC35B84}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.65919122350586, 58.94129695393973]}, "properties": {"Navn": "Kornsjø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
     </row>
     <row r="291">
@@ -5668,11 +5668,11 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 438, "geometry": {"type": "Point", "coordinates": [10.642264257088899, 60.98217317304706]}, "properties": {"OBJECTID": 438, "Banekortnavn": "DOVB", "Navn": "Bergsvika", "Sporkilometer": 162.91, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "23.08.1993", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{13C1BFA9-7ECB-4756-A875-7221BE1C2DE8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.642264257088899, 60.98217317304706]}, "properties": {"Navn": "Bergsvika", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="292">
@@ -5686,11 +5686,11 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 439, "geometry": {"type": "Point", "coordinates": [10.613627603740715, 60.72213139771524]}, "properties": {"OBJECTID": 439, "Banekortnavn": "GJKB", "Navn": "Raufoss", "Sporkilometer": 111.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.12.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{DAE8AF98-62E9-4C2A-A90F-7078AD151431}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.613627603740715, 60.72213139771524]}, "properties": {"Navn": "Raufoss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="293">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 441, "geometry": {"type": "Point", "coordinates": [5.735476205678291, 60.478651004626386]}, "properties": {"OBJECTID": 441, "Banekortnavn": "BRGB", "Navn": "Vaksdal", "Sporkilometer": 440.53, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{332680DB-2FF2-4000-9A2D-8D6596D703A9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.735476205678291, 60.478651004626386]}, "properties": {"Navn": "Vaksdal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="294">
@@ -5722,11 +5722,11 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 444, "geometry": {"type": "Point", "coordinates": [11.176773077334289, 59.928880040712485]}, "properties": {"OBJECTID": 444, "Banekortnavn": "KVGB", "Navn": "Svingen", "Sporkilometer": 29.91, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.01.1932", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{AD076275-B955-4676-AF61-8492DF9D51D3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.176773077334289, 59.928880040712485]}, "properties": {"Navn": "Svingen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>452</v>
+        <v>178</v>
       </c>
     </row>
     <row r="295">
@@ -5740,11 +5740,11 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 446, "geometry": {"type": "Point", "coordinates": [11.227101611519354, 62.49740084164065]}, "properties": {"OBJECTID": 446, "Banekortnavn": "ROSB", "Navn": "Os", "Sporkilometer": 384.87, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{E385FAAD-0E6A-404D-A7C8-ADBAFF4B67BA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.227101611519354, 62.49740084164065]}, "properties": {"Navn": "Os", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>441</v>
+        <v>172</v>
       </c>
     </row>
     <row r="296">
@@ -5758,11 +5758,11 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 447, "geometry": {"type": "Point", "coordinates": [14.871269830370188, 67.29925080043256]}, "properties": {"OBJECTID": 447, "Banekortnavn": "NORB", "Navn": "Oteråga", "Sporkilometer": 704, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.02.1962", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{0D2F9024-90CA-4FDE-8A07-D04C10592FB7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.871269830370188, 67.29925080043256]}, "properties": {"Navn": "Oteråga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
     </row>
     <row r="297">
@@ -5776,11 +5776,11 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 448, "geometry": {"type": "Point", "coordinates": [9.926239502058836, 60.24118702036446]}, "properties": {"OBJECTID": 448, "Banekortnavn": "BRGB", "Navn": "Sokna", "Sporkilometer": 111.99, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{2F68B53A-2627-43AF-BC30-156E3096800B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.926239502058836, 60.24118702036446]}, "properties": {"Navn": "Sokna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="298">
@@ -5794,11 +5794,11 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 450, "geometry": {"type": "Point", "coordinates": [10.898830210923, 63.44618643365913]}, "properties": {"OBJECTID": 450, "Banekortnavn": "NORB", "Navn": "Hell", "Sporkilometer": 31.54, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{A22B9206-F438-4E0D-8AD4-2F1F3F703F91}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.898830210923, 63.44618643365913]}, "properties": {"Navn": "Hell", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>443</v>
+        <v>171</v>
       </c>
     </row>
     <row r="299">
@@ -5812,11 +5812,11 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 452, "geometry": {"type": "Point", "coordinates": [10.40541936551619, 61.17089811724779]}, "properties": {"OBJECTID": 452, "Banekortnavn": "DOVB", "Navn": "Fåberg", "Sporkilometer": 191.68, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7ED3F180-E4BD-4C95-B746-22F5782D632C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.40541936551619, 61.17089811724779]}, "properties": {"Navn": "Fåberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="300">
@@ -5830,11 +5830,11 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 456, "geometry": {"type": "Point", "coordinates": [9.266937409198933, 59.55936681835813]}, "properties": {"OBJECTID": 456, "Banekortnavn": "TINB", "Navn": "Notodden", "Sporkilometer": 145.72, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "15.12.1917", "GyldigTil": None, "Banenavn": "Tinnosbanen", "GlobalID": "{6E74D0C0-14BC-47F6-8871-1403B4AB7F42}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.266937409198933, 59.55936681835813]}, "properties": {"Navn": "Notodden", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
     </row>
     <row r="301">
@@ -5848,11 +5848,11 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 458, "geometry": {"type": "Point", "coordinates": [8.523549026895294, 58.628639424771286]}, "properties": {"OBJECTID": 458, "Banekortnavn": "SORB", "Navn": "Helldalsmo", "Sporkilometer": 289.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{79EE6585-6127-4A95-A136-CB511A5F790D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.523549026895294, 58.628639424771286]}, "properties": {"Navn": "Helldalsmo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
     </row>
     <row r="302">
@@ -5866,11 +5866,11 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 460, "geometry": {"type": "Point", "coordinates": [10.813046669355414, 59.7650985726772]}, "properties": {"OBJECTID": 460, "Banekortnavn": "OBVL", "Navn": "Oppegård", "Sporkilometer": 18.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{6F4C1EFB-2577-48DD-B456-DA85C7B45116}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.813046669355414, 59.7650985726772]}, "properties": {"Navn": "Oppegård", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="303">
@@ -5884,11 +5884,11 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 461, "geometry": {"type": "Point", "coordinates": [10.389689154582166, 59.74676524027648]}, "properties": {"OBJECTID": 461, "Banekortnavn": "SPIB", "Navn": "Røyken", "Sporkilometer": 34.45, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{2EA66C9E-599E-4B22-A7A8-D11DCC30CB67}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.389689154582166, 59.74676524027648]}, "properties": {"Navn": "Røyken", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="304">
@@ -5902,11 +5902,11 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 462, "geometry": {"type": "Point", "coordinates": [7.383776982261299, 60.632184231244636]}, "properties": {"OBJECTID": 462, "Banekortnavn": "BRGB", "Navn": "Fagernut", "Sporkilometer": 309.58, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "16.05.1993", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{DADBC69A-F92F-44FB-9F32-D8DD46BD942C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.383776982261299, 60.632184231244636]}, "properties": {"Navn": "Fagernut", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="305">
@@ -5920,11 +5920,11 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 463, "geometry": {"type": "Point", "coordinates": [7.095780220059805, 60.78820127411761]}, "properties": {"OBJECTID": 463, "Banekortnavn": "FLMB", "Navn": "Berekvam", "Sporkilometer": 346.31, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.08.1940", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{2ECE9D38-93EB-4ED6-96CC-A804BA7118A8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.095780220059805, 60.78820127411761]}, "properties": {"Navn": "Berekvam", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>445</v>
+        <v>177</v>
       </c>
     </row>
     <row r="306">
@@ -5938,11 +5938,11 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 465, "geometry": {"type": "Point", "coordinates": [10.243013974106852, 59.68835407887442]}, "properties": {"OBJECTID": 465, "Banekortnavn": "VESB", "Navn": "Kobbervik", "Sporkilometer": 60.98, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "05.10.2001", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{C6663ECE-BDC1-4F92-A6A2-38B588FAEF99}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.243013974106852, 59.68835407887442]}, "properties": {"Navn": "Kobbervik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>450</v>
+        <v>179</v>
       </c>
     </row>
     <row r="307">
@@ -5956,11 +5956,11 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 466, "geometry": {"type": "Point", "coordinates": [9.605087631440691, 59.63302351390559]}, "properties": {"OBJECTID": 466, "Banekortnavn": "SORB", "Navn": "Saggrenda", "Sporkilometer": 106.67, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.02.1920", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{F518905D-DFA1-4E50-B149-15E8F73DEAE2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.605087631440691, 59.63302351390559]}, "properties": {"Navn": "Saggrenda", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="308">
@@ -5974,11 +5974,11 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 468, "geometry": {"type": "Point", "coordinates": [11.809703797625799, 60.22632537474886]}, "properties": {"OBJECTID": 468, "Banekortnavn": "KVGB", "Navn": "Sander", "Sporkilometer": 87.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "03.10.1862", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{744BCB54-8A4D-4748-8C2C-83DD0AE72E35}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.809703797625799, 60.22632537474886]}, "properties": {"Navn": "Sander", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>450</v>
+        <v>176</v>
       </c>
     </row>
     <row r="309">
@@ -5992,11 +5992,11 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 471, "geometry": {"type": "Point", "coordinates": [10.580277621946474, 59.900603462996216]}, "properties": {"OBJECTID": 471, "Banekortnavn": "DRMB", "Navn": "Høvik", "Sporkilometer": 10.72, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1874", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{BCE5B93F-B875-4D63-96DF-84B26CCD1E57}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.580277621946474, 59.900603462996216]}, "properties": {"Navn": "Høvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>446</v>
+        <v>176</v>
       </c>
     </row>
     <row r="310">
@@ -6010,11 +6010,11 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 472, "geometry": {"type": "Point", "coordinates": [11.219399165973243, 59.300195724797376]}, "properties": {"OBJECTID": 472, "Banekortnavn": "OBOL", "Navn": "Ise", "Sporkilometer": 72.4, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{72241C9E-C93B-45BE-99C6-857AB562D24E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.219399165973243, 59.300195724797376]}, "properties": {"Navn": "Ise", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>455</v>
+        <v>174</v>
       </c>
     </row>
     <row r="311">
@@ -6028,11 +6028,11 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 473, "geometry": {"type": "Point", "coordinates": [9.60578119705685, 62.30712304486871]}, "properties": {"OBJECTID": 473, "Banekortnavn": "DOVB", "Navn": "Kongsvoll", "Sporkilometer": 393.23, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{8A7C1FEF-CF9E-47AF-AEDB-0196967FF4CB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.60578119705685, 62.30712304486871]}, "properties": {"Navn": "Kongsvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="312">
@@ -6046,11 +6046,11 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 474, "geometry": {"type": "Point", "coordinates": [11.18172240277987, 60.155351484653686]}, "properties": {"OBJECTID": 474, "Banekortnavn": "HVDB", "Navn": "Nordby", "Sporkilometer": 46.14, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.01.1932", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{87F7FB5D-2EDF-484D-921D-9543D09BD523}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.18172240277987, 60.155351484653686]}, "properties": {"Navn": "Nordby", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="313">
@@ -6064,11 +6064,11 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 475, "geometry": {"type": "Point", "coordinates": [8.538201987119363, 62.19234610618946]}, "properties": {"OBJECTID": 475, "Banekortnavn": "RAUB", "Navn": "Lesjaverk", "Sporkilometer": 379.89, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "19.11.1921", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{18741D3F-9450-4733-8E9B-771B1DF69DF5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.538201987119363, 62.19234610618946]}, "properties": {"Navn": "Lesjaverk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="314">
@@ -6082,11 +6082,11 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 476, "geometry": {"type": "Point", "coordinates": [11.044748648162926, 61.572623767710546]}, "properties": {"OBJECTID": 476, "Banekortnavn": "ROSB", "Navn": "Koppang", "Sporkilometer": 246.81, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "14.12.1875", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{0CEC0BD8-EEA4-4650-96FE-007A14A11C87}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.044748648162926, 61.572623767710546]}, "properties": {"Navn": "Koppang", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="315">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 477, "geometry": {"type": "Point", "coordinates": [14.344832769073308, 66.36194408137061]}, "properties": {"OBJECTID": 477, "Banekortnavn": "NORB", "Navn": "Skonseng", "Sporkilometer": 512.65, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.10.1955", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{54B5F85C-972A-4E32-8437-7EDC4B3DF47E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.344832769073308, 66.36194408137061]}, "properties": {"Navn": "Skonseng", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>451</v>
+        <v>178</v>
       </c>
     </row>
     <row r="316">
@@ -6118,11 +6118,11 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 479, "geometry": {"type": "Point", "coordinates": [10.092594656029824, 60.20657458716121]}, "properties": {"OBJECTID": 479, "Banekortnavn": "BRGB", "Navn": "Veme", "Sporkilometer": 100.45, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.1909", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{24470B59-14CE-4C74-9102-5E9C6904B77D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.092594656029824, 60.20657458716121]}, "properties": {"Navn": "Veme", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="317">
@@ -6136,11 +6136,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 480, "geometry": {"type": "Point", "coordinates": [10.432198909770328, 63.43992113826976]}, "properties": {"OBJECTID": 480, "Banekortnavn": "NORB", "Navn": "Lilleby", "Sporkilometer": 1.77, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "28.05.1967", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{FC98FC40-28E2-40BD-B864-4CBDC78BF8E6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.432198909770328, 63.43992113826976]}, "properties": {"Navn": "Lilleby", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="318">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 481, "geometry": {"type": "Point", "coordinates": [11.189577873215953, 59.2106746891253]}, "properties": {"OBJECTID": 481, "Banekortnavn": "OBVL", "Navn": "Skjeberg", "Sporkilometer": 119.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{E8F3641F-1396-4B9C-B928-064B16284974}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.189577873215953, 59.2106746891253]}, "properties": {"Navn": "Skjeberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="319">
@@ -6172,11 +6172,11 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 482, "geometry": {"type": "Point", "coordinates": [10.556017830807876, 60.39298337292126]}, "properties": {"OBJECTID": 482, "Banekortnavn": "GJKB", "Navn": "Jaren", "Sporkilometer": 71.92, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{7F84AEA9-160C-455B-B846-302ABD2AB0B7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.556017830807876, 60.39298337292126]}, "properties": {"Navn": "Jaren", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320">
@@ -6190,11 +6190,11 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 484, "geometry": {"type": "Point", "coordinates": [5.957892487938614, 60.63783992063947]}, "properties": {"OBJECTID": 484, "Banekortnavn": "BRGB", "Navn": "Bolstadøyri", "Sporkilometer": 414.13, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{415ABCCC-E87D-403A-BC5A-909F4413759C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.957892487938614, 60.63783992063947]}, "properties": {"Navn": "Bolstadøyri", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>451</v>
+        <v>180</v>
       </c>
     </row>
     <row r="321">
@@ -6208,11 +6208,11 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 487, "geometry": {"type": "Point", "coordinates": [10.785615632067985, 59.863188662594816]}, "properties": {"OBJECTID": 487, "Banekortnavn": "OBVL", "Navn": "Nordstrand", "Sporkilometer": 6.015, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "31.05.1880", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{07FEF0EB-A391-4444-8434-3DBA778FF9C0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.785615632067985, 59.863188662594816]}, "properties": {"Navn": "Nordstrand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>464</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322">
@@ -6226,11 +6226,11 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 490, "geometry": {"type": "Point", "coordinates": [12.020132498367941, 60.59879858897273]}, "properties": {"OBJECTID": 490, "Banekortnavn": "SOLB", "Navn": "Flisa", "Sporkilometer": 150.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "03.11.1893", "GyldigTil": None, "Banenavn": "Solørbanen", "GlobalID": "{740D7529-D4DC-4BBA-A58E-3CF8E7EC5A58}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.020132498367941, 60.59879858897273]}, "properties": {"Navn": "Flisa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="323">
@@ -6244,11 +6244,11 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 491, "geometry": {"type": "Point", "coordinates": [11.270922074971502, 60.58160620539007]}, "properties": {"OBJECTID": 491, "Banekortnavn": "DOVB", "Navn": "Espa", "Sporkilometer": 96.99, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "08.11.1880", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7FBDCD56-68E1-4299-A537-FA70821C4B83}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.270922074971502, 60.58160620539007]}, "properties": {"Navn": "Espa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>442</v>
+        <v>174</v>
       </c>
     </row>
     <row r="324">
@@ -6262,11 +6262,11 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 493, "geometry": {"type": "Point", "coordinates": [6.363665451362394, 58.47364057017019]}, "properties": {"OBJECTID": 493, "Banekortnavn": "SORB", "Navn": "Heskestad", "Sporkilometer": 491.09, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.11.1904", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B0E59E80-56F3-4BB0-8C20-BA3F7B8763EC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.363665451362394, 58.47364057017019]}, "properties": {"Navn": "Heskestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="325">
@@ -6280,11 +6280,11 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 494, "geometry": {"type": "Point", "coordinates": [10.079701579697321, 59.748108042485605]}, "properties": {"OBJECTID": 494, "Banekortnavn": "SORB", "Navn": "Daler", "Sporkilometer": 59.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.1966", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0EED5B9B-BAFE-43C3-BB68-56254BE4803F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.079701579697321, 59.748108042485605]}, "properties": {"Navn": "Daler", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="326">
@@ -6298,11 +6298,11 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 495, "geometry": {"type": "Point", "coordinates": [11.546041250872953, 60.882954175378]}, "properties": {"OBJECTID": 495, "Banekortnavn": "ROSB", "Navn": "Elverum", "Sporkilometer": 158.38, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1913", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{6037BB57-C9D9-429B-8846-57E16E224E93}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.546041250872953, 60.882954175378]}, "properties": {"Navn": "Elverum", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="327">
@@ -6316,11 +6316,11 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 496, "geometry": {"type": "Point", "coordinates": [10.796849660438703, 59.83441529658589]}, "properties": {"OBJECTID": 496, "Banekortnavn": "OBVL", "Navn": "Holmlia", "Sporkilometer": 10.2, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.06.1982", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{9B1F29E6-168A-4CD3-9246-B1C860937183}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.796849660438703, 59.83441529658589]}, "properties": {"Navn": "Holmlia", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>459</v>
+        <v>177</v>
       </c>
     </row>
     <row r="328">
@@ -6334,11 +6334,11 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 497, "geometry": {"type": "Point", "coordinates": [9.023068654805334, 58.870129793355424]}, "properties": {"OBJECTID": 497, "Banekortnavn": "SORB", "Navn": "Gjerstad", "Sporkilometer": 237.05, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.11.1935", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{379A7D65-31AA-439A-9AC2-5947A2DB7CE1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.023068654805334, 58.870129793355424]}, "properties": {"Navn": "Gjerstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="329">
@@ -6352,11 +6352,11 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 499, "geometry": {"type": "Point", "coordinates": [10.800601532614326, 59.81096447877293]}, "properties": {"OBJECTID": 499, "Banekortnavn": "OBVL", "Navn": "Kolbotn", "Sporkilometer": 12.86, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.06.1895", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{967CE3BE-270A-4ADA-BBCC-EFAE5FFEF645}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.800601532614326, 59.81096447877293]}, "properties": {"Navn": "Kolbotn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="330">
@@ -6370,11 +6370,11 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 501, "geometry": {"type": "Point", "coordinates": [11.14026828715673, 60.746681918452154]}, "properties": {"OBJECTID": 501, "Banekortnavn": "DOVB", "Navn": "Ottestad", "Sporkilometer": 119.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "08.11.1880", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{4DC7B8A1-EA69-43C3-8A11-3071D1562321}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.14026828715673, 60.746681918452154]}, "properties": {"Navn": "Ottestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="331">
@@ -6388,11 +6388,11 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 502, "geometry": {"type": "Point", "coordinates": [7.129778831143985, 60.743907718956756]}, "properties": {"OBJECTID": 502, "Banekortnavn": "FLMB", "Navn": "Vatnahalsen", "Sporkilometer": 336.93, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.02.1941", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{1E3161F2-10A8-400D-B591-C7E86FC2BF56}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.129778831143985, 60.743907718956756]}, "properties": {"Navn": "Vatnahalsen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>449</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332">
@@ -6406,11 +6406,11 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 503, "geometry": {"type": "Point", "coordinates": [5.8071028596996355, 58.50278847890127]}, "properties": {"OBJECTID": 503, "Banekortnavn": "SORB", "Navn": "Sirevåg", "Sporkilometer": 538.74, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "13.12.1879", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0428B97B-EE7D-47F1-A3DB-BFBF2E55526E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.8071028596996355, 58.50278847890127]}, "properties": {"Navn": "Sirevåg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="333">
@@ -6424,11 +6424,11 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 504, "geometry": {"type": "Point", "coordinates": [9.799952653347294, 59.70165272212277]}, "properties": {"OBJECTID": 504, "Banekortnavn": "SORB", "Navn": "Darbu", "Sporkilometer": 81.61, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.11.1871", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{E282A511-092C-402E-AEA4-F83A3A57472E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.799952653347294, 59.70165272212277]}, "properties": {"Navn": "Darbu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="334">
@@ -6442,11 +6442,11 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 507, "geometry": {"type": "Point", "coordinates": [10.38278138829616, 63.418698737445155]}, "properties": {"OBJECTID": 507, "Banekortnavn": "DOVB", "Navn": "Marienborg", "Sporkilometer": 549.95, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.08.1917", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{4F0B570B-B006-496E-8415-D675243774CD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.38278138829616, 63.418698737445155]}, "properties": {"Navn": "Marienborg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>449</v>
+        <v>180</v>
       </c>
     </row>
     <row r="335">
@@ -6460,11 +6460,11 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 508, "geometry": {"type": "Point", "coordinates": [11.339218976624101, 59.42721597410923]}, "properties": {"OBJECTID": 508, "Banekortnavn": "OBOL", "Navn": "Rakkestad", "Sporkilometer": 54.31, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{AFFB6236-CD07-46A4-A0E6-2908945292C9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.339218976624101, 59.42721597410923]}, "properties": {"Navn": "Rakkestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>461</v>
+        <v>179</v>
       </c>
     </row>
     <row r="336">
@@ -6478,11 +6478,11 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 509, "geometry": {"type": "Point", "coordinates": [9.25716709496245, 61.98440914023435]}, "properties": {"OBJECTID": 509, "Banekortnavn": "DOVB", "Navn": "Dovre", "Sporkilometer": 330.82, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "06.12.1913", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{687CFAB4-3B83-4AEC-BA6F-DE9CCC989887}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.25716709496245, 61.98440914023435]}, "properties": {"Navn": "Dovre", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="337">
@@ -6496,11 +6496,11 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 510, "geometry": {"type": "Point", "coordinates": [8.562356238137824, 60.626259456197104]}, "properties": {"OBJECTID": 510, "Banekortnavn": "BRGB", "Navn": "Ål", "Sporkilometer": 228.21, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{E760FA0A-D3CC-449B-A745-534B0ABA33CE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.562356238137824, 60.626259456197104]}, "properties": {"Navn": "Ål", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>443</v>
+        <v>172</v>
       </c>
     </row>
     <row r="338">
@@ -6514,11 +6514,11 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 511, "geometry": {"type": "Point", "coordinates": [11.0869168173842, 60.00000360015346]}, "properties": {"OBJECTID": 511, "Banekortnavn": "HVDB", "Navn": "Leirsund", "Sporkilometer": 26.85, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "06.04.1997", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{2FDCA315-2B35-4A5C-8767-49930CF063F5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.0869168173842, 60.00000360015346]}, "properties": {"Navn": "Leirsund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="339">
@@ -6532,11 +6532,11 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 512, "geometry": {"type": "Point", "coordinates": [9.998221302221737, 59.96928858431351]}, "properties": {"OBJECTID": 512, "Banekortnavn": "RANB", "Navn": "Vikersund", "Sporkilometer": 95.91, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{56CA2AAB-1EE3-4A36-A310-FEB1593A9B1D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.998221302221737, 59.96928858431351]}, "properties": {"Navn": "Vikersund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>451</v>
+        <v>178</v>
       </c>
     </row>
     <row r="340">
@@ -6550,11 +6550,11 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 515, "geometry": {"type": "Point", "coordinates": [10.762879115153554, 59.90205713003458]}, "properties": {"OBJECTID": 515, "Banekortnavn": "ALLB", "Navn": "Loenga", "Sporkilometer": 0.604, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Godssporet Alnabru-Loenga", "GlobalID": "{E9A87D1C-5D2C-43D0-BBCE-B1DD06B4C15B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.762879115153554, 59.90205713003458]}, "properties": {"Navn": "Loenga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>451</v>
+        <v>176</v>
       </c>
     </row>
     <row r="341">
@@ -6568,11 +6568,11 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 517, "geometry": {"type": "Point", "coordinates": [10.97859390372649, 59.23414111857939]}, "properties": {"OBJECTID": 517, "Banekortnavn": "OBVL", "Navn": "Lisleby", "Sporkilometer": 97.75, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.01.1888", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{DB5D57F3-71C8-4147-828E-9A62AB9C458F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.97859390372649, 59.23414111857939]}, "properties": {"Navn": "Lisleby", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>459</v>
+        <v>176</v>
       </c>
     </row>
     <row r="342">
@@ -6586,11 +6586,11 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 518, "geometry": {"type": "Point", "coordinates": [10.664752005243614, 60.25905338545318]}, "properties": {"OBJECTID": 518, "Banekortnavn": "GJKB", "Navn": "Grua", "Sporkilometer": 53.39, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{303223A7-B1B8-4453-A53B-17B0A85C7907}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.664752005243614, 60.25905338545318]}, "properties": {"Navn": "Grua", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="343">
@@ -6604,11 +6604,11 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 520, "geometry": {"type": "Point", "coordinates": [6.284402883789597, 60.63058404167394]}, "properties": {"OBJECTID": 520, "Banekortnavn": "BRGB", "Navn": "Bulken", "Sporkilometer": 392.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{04F725EA-BCD9-4EE4-8369-08A3860281DA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.284402883789597, 60.63058404167394]}, "properties": {"Navn": "Bulken", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="344">
@@ -6622,11 +6622,11 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 524, "geometry": {"type": "Point", "coordinates": [9.087860717672028, 59.18599902613925]}, "properties": {"OBJECTID": 524, "Banekortnavn": "SORB", "Navn": "Nakksjø", "Sporkilometer": 193.02, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.12.1927", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{28D9E265-C30B-486F-BCAC-0AEFA51A0D14}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.087860717672028, 59.18599902613925]}, "properties": {"Navn": "Nakksjø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="345">
@@ -6640,11 +6640,11 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 527, "geometry": {"type": "Point", "coordinates": [11.23932327519269, 60.42849732834626]}, "properties": {"OBJECTID": 527, "Banekortnavn": "DOVB", "Navn": "Langset", "Sporkilometer": 79.2, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.12.2015", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{45F5EADC-0318-4CED-9090-20620B42F89E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.23932327519269, 60.42849732834626]}, "properties": {"Navn": "Langset", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>443</v>
+        <v>176</v>
       </c>
     </row>
     <row r="346">
@@ -6658,11 +6658,11 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 529, "geometry": {"type": "Point", "coordinates": [6.660732496241548, 58.41756148212321]}, "properties": {"OBJECTID": 529, "Banekortnavn": "SORB", "Navn": "Sira", "Sporkilometer": 468.63, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{42EE20CC-C6E4-4C7F-95BD-006FD97BA08E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.660732496241548, 58.41756148212321]}, "properties": {"Navn": "Sira", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>445</v>
+        <v>173</v>
       </c>
     </row>
     <row r="347">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 531, "geometry": {"type": "Point", "coordinates": [11.419724511522112, 60.085049786589906]}, "properties": {"OBJECTID": 531, "Banekortnavn": "KVGB", "Navn": "Bodung", "Sporkilometer": 53.38, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "25.06.1913", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{73B9958E-8DC5-4D0B-B819-DB5D0BE59938}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.419724511522112, 60.085049786589906]}, "properties": {"Navn": "Bodung", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>451</v>
+        <v>177</v>
       </c>
     </row>
     <row r="348">
@@ -6694,11 +6694,11 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 532, "geometry": {"type": "Point", "coordinates": [10.249572373778415, 60.16952943788141]}, "properties": {"OBJECTID": 532, "Banekortnavn": "ROAB", "Navn": "Hønefoss", "Sporkilometer": 89.57, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "13.10.1868", "GyldigTil": None, "Banenavn": "Roa-Hønefossbanen", "GlobalID": "{A7CD0741-4133-4473-8526-D07BA30221AD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.249572373778415, 60.16952943788141]}, "properties": {"Navn": "Hønefoss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>453</v>
+        <v>178</v>
       </c>
     </row>
     <row r="349">
@@ -6712,11 +6712,11 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 534, "geometry": {"type": "Point", "coordinates": [8.654411745777903, 58.52949503335769]}, "properties": {"OBJECTID": 534, "Banekortnavn": "ADLB", "Navn": "Froland", "Sporkilometer": 299.51, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.11.1908", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{AE03AFCF-7C45-4412-87B1-C6BF325138CC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.654411745777903, 58.52949503335769]}, "properties": {"Navn": "Froland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="350">
@@ -6730,11 +6730,11 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 536, "geometry": {"type": "Point", "coordinates": [10.28001911949037, 63.2335119229174]}, "properties": {"OBJECTID": 536, "Banekortnavn": "DOVB", "Navn": "Kvål", "Sporkilometer": 525.32, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{E9CF0A5C-36CF-44FC-9E56-6AE64FE2A312}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.28001911949037, 63.2335119229174]}, "properties": {"Navn": "Kvål", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>441</v>
+        <v>172</v>
       </c>
     </row>
     <row r="351">
@@ -6748,11 +6748,11 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 538, "geometry": {"type": "Point", "coordinates": [10.139118764775091, 61.5291334492527]}, "properties": {"OBJECTID": 538, "Banekortnavn": "DOVB", "Navn": "Ringebu", "Sporkilometer": 242.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{C3293282-5936-444F-BBBA-2114CA06B909}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.139118764775091, 61.5291334492527]}, "properties": {"Navn": "Ringebu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="352">
@@ -6766,11 +6766,11 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 539, "geometry": {"type": "Point", "coordinates": [10.870491256662742, 59.94356357224623]}, "properties": {"OBJECTID": 539, "Banekortnavn": "HVDB", "Navn": "Nyland", "Sporkilometer": 9.285, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1942", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{A367A5C5-897F-4B9D-B245-711CF4220043}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.870491256662742, 59.94356357224623]}, "properties": {"Navn": "Nyland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="353">
@@ -6784,11 +6784,11 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 540, "geometry": {"type": "Point", "coordinates": [17.441027442006032, 68.44182947858894]}, "properties": {"OBJECTID": 540, "Banekortnavn": "OFTB", "Navn": "Narvik", "Sporkilometer": 3.698, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "15.11.1902", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{9C4D322A-7C9F-46FC-9D2A-E0259196449A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [17.441027442006032, 68.44182947858894]}, "properties": {"Navn": "Narvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>443</v>
+        <v>176</v>
       </c>
     </row>
     <row r="354">
@@ -6802,11 +6802,11 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 544, "geometry": {"type": "Point", "coordinates": [10.840934928372242, 59.93552234247073]}, "properties": {"OBJECTID": 544, "Banekortnavn": "ALNB", "Navn": "Alnabru", "Sporkilometer": 7.308, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Alnabanen", "GlobalID": "{1A7C271D-D380-4435-AC40-7D2E9E3D8A5E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.840934928372242, 59.93552234247073]}, "properties": {"Navn": "Alnabru", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>436</v>
+        <v>177</v>
       </c>
     </row>
     <row r="355">
@@ -6820,11 +6820,11 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 545, "geometry": {"type": "Point", "coordinates": [10.728947182323388, 62.95623832402949]}, "properties": {"OBJECTID": 545, "Banekortnavn": "ROSB", "Navn": "Singsås", "Sporkilometer": 479.92, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "04.01.1876", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{87AB63E8-8790-40D6-B6F0-A0705790B262}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.728947182323388, 62.95623832402949]}, "properties": {"Navn": "Singsås", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="356">
@@ -6838,11 +6838,11 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 548, "geometry": {"type": "Point", "coordinates": [10.27296914395112, 63.28949344367474]}, "properties": {"OBJECTID": 548, "Banekortnavn": "DOVB", "Navn": "Melhus", "Sporkilometer": 532.09, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{9442BAA7-F185-40A1-8E46-060E462D641C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.27296914395112, 63.28949344367474]}, "properties": {"Navn": "Melhus", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="357">
@@ -6856,11 +6856,11 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 550, "geometry": {"type": "Point", "coordinates": [9.701367673891308, 61.6647823153938]}, "properties": {"OBJECTID": 550, "Banekortnavn": "DOVB", "Navn": "Kvam", "Sporkilometer": 276.57, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{3DB2C4FE-56F8-45BF-84A1-D37AB0C701B7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.701367673891308, 61.6647823153938]}, "properties": {"Navn": "Kvam", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>441</v>
+        <v>172</v>
       </c>
     </row>
     <row r="358">
@@ -6874,11 +6874,11 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 551, "geometry": {"type": "Point", "coordinates": [10.966191570982222, 59.9388875562425]}, "properties": {"OBJECTID": 551, "Banekortnavn": "HVDB", "Navn": "Hanaborg", "Sporkilometer": 15.5, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1956", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{C369B1F4-7E8D-4C1E-ADC0-D309CFD3A8A1}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.966191570982222, 59.9388875562425]}, "properties": {"Navn": "Hanaborg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="359">
@@ -6892,11 +6892,11 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 552, "geometry": {"type": "Point", "coordinates": [18.070882474799323, 68.43206380301261]}, "properties": {"OBJECTID": 552, "Banekortnavn": "OFTB", "Navn": "Bjørnfjell", "Sporkilometer": 40.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1925", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{1F949021-E565-451A-ABE7-BCCF7F3A8435}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [18.070882474799323, 68.43206380301261]}, "properties": {"Navn": "Bjørnfjell", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>447</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360">
@@ -6910,11 +6910,11 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 554, "geometry": {"type": "Point", "coordinates": [13.36753485280825, 65.16435408427981]}, "properties": {"OBJECTID": 554, "Banekortnavn": "NORB", "Navn": "Majavatn", "Sporkilometer": 321.74, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{6C822E2E-4CB0-41E3-B4F0-6E9F790D643A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.36753485280825, 65.16435408427981]}, "properties": {"Navn": "Majavatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="361">
@@ -6928,11 +6928,11 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 555, "geometry": {"type": "Point", "coordinates": [7.951869645599841, 58.16259788259831]}, "properties": {"OBJECTID": 555, "Banekortnavn": "SORB", "Navn": "Dalane", "Sporkilometer": 362.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.1939", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{07BA3335-8A4A-458A-B5B3-5188A68D955D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.951869645599841, 58.16259788259831]}, "properties": {"Navn": "Dalane", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="362">
@@ -6946,11 +6946,11 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 556, "geometry": {"type": "Point", "coordinates": [10.435472143422542, 59.834307986291456]}, "properties": {"OBJECTID": 556, "Banekortnavn": "ASRB", "Navn": "Asker", "Sporkilometer": 23.83, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Askerbanen", "GlobalID": "{59E6A95B-8C0E-4274-99F7-FDE707CCB31F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.435472143422542, 59.834307986291456]}, "properties": {"Navn": "Asker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>444</v>
+        <v>176</v>
       </c>
     </row>
     <row r="363">
@@ -6964,11 +6964,11 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 558, "geometry": {"type": "Point", "coordinates": [10.748330706297022, 59.37764522062278]}, "properties": {"OBJECTID": 558, "Banekortnavn": "OBVL", "Navn": "Rygge", "Sporkilometer": 69.28, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{472A56CF-BE10-4275-A9BB-DB374B16DF7D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.748330706297022, 59.37764522062278]}, "properties": {"Navn": "Rygge", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>458</v>
+        <v>175</v>
       </c>
     </row>
     <row r="364">
@@ -6982,11 +6982,11 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 559, "geometry": {"type": "Point", "coordinates": [10.723467044990162, 60.19284617510016]}, "properties": {"OBJECTID": 559, "Banekortnavn": "GJKB", "Navn": "Monsrud", "Sporkilometer": 44.03, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.09.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{4DC0B6E3-DB00-46A7-A7EE-740795433BD5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.723467044990162, 60.19284617510016]}, "properties": {"Navn": "Monsrud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="365">
@@ -7000,11 +7000,11 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 560, "geometry": {"type": "Point", "coordinates": [6.593144621872265, 60.67946042250735]}, "properties": {"OBJECTID": 560, "Banekortnavn": "BRGB", "Navn": "Urdland", "Sporkilometer": 371.52, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{0517E29F-06C8-4381-8746-2ED1F1472087}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.593144621872265, 60.67946042250735]}, "properties": {"Navn": "Urdland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="366">
@@ -7018,11 +7018,11 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 561, "geometry": {"type": "Point", "coordinates": [10.780595246566639, 59.92096819651442]}, "properties": {"OBJECTID": 561, "Banekortnavn": "GJKB", "Navn": "Tøyen", "Sporkilometer": 4.45, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1904", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{5B4B5195-3213-46BC-9177-5A459250F2B0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.780595246566639, 59.92096819651442]}, "properties": {"Navn": "Tøyen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>443</v>
+        <v>175</v>
       </c>
     </row>
     <row r="367">
@@ -7036,11 +7036,11 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 562, "geometry": {"type": "Point", "coordinates": [5.732829549440804, 58.96617578716723]}, "properties": {"OBJECTID": 562, "Banekortnavn": "SORB", "Navn": "Stavanger", "Sporkilometer": 598.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{E2FF801A-7898-4CC2-8926-8F2CB452A0CC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.732829549440804, 58.96617578716723]}, "properties": {"Navn": "Stavanger", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="368">
@@ -7054,11 +7054,11 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 564, "geometry": {"type": "Point", "coordinates": [10.300289026622265, 59.22141927401292]}, "properties": {"OBJECTID": 564, "Banekortnavn": "VESB", "Navn": "Stokke", "Sporkilometer": 128.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{15D28841-FE19-4BD8-8B6D-A852C22A37F0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.300289026622265, 59.22141927401292]}, "properties": {"Navn": "Stokke", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="369">
@@ -7072,11 +7072,11 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 569, "geometry": {"type": "Point", "coordinates": [10.714018758184379, 59.91115752371243]}, "properties": {"OBJECTID": 569, "Banekortnavn": "FILB", "Navn": "Filipstad", "Sporkilometer": 1.58, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "26.01.1916", "GyldigTil": None, "Banenavn": "Filipstadbanen", "GlobalID": "{3CEBB762-7889-45FE-8934-54E09BAD3433}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.714018758184379, 59.91115752371243]}, "properties": {"Navn": "Filipstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>450</v>
+        <v>179</v>
       </c>
     </row>
     <row r="370">
@@ -7090,11 +7090,11 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 571, "geometry": {"type": "Point", "coordinates": [9.427458568531518, 59.862852910975406]}, "properties": {"OBJECTID": 571, "Banekortnavn": "NUMB", "Navn": "Flesberg", "Sporkilometer": 129.49, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "20.11.1927", "GyldigTil": None, "Banenavn": "Numedalsbanen", "GlobalID": "{5B01375A-C4E7-4C28-8CDD-A2E7BCCA5D9A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.427458568531518, 59.862852910975406]}, "properties": {"Navn": "Flesberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="371">
@@ -7108,11 +7108,11 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 572, "geometry": {"type": "Point", "coordinates": [11.240328715800906, 59.98573350824923]}, "properties": {"OBJECTID": 572, "Banekortnavn": "KVGB", "Navn": "Sørumsand", "Sporkilometer": 37.53, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "22.12.1892", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{08C5886B-48A7-4631-A458-83E413FC3F4F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.240328715800906, 59.98573350824923]}, "properties": {"Navn": "Sørumsand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>453</v>
+        <v>179</v>
       </c>
     </row>
     <row r="372">
@@ -7126,11 +7126,11 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 574, "geometry": {"type": "Point", "coordinates": [11.416398563275363, 62.67449667987432]}, "properties": {"OBJECTID": 574, "Banekortnavn": "ROSB", "Navn": "Glåmos", "Sporkilometer": 412.54, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.01.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{345ED193-4935-4D67-9DAD-E3A43BFDC382}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.416398563275363, 62.67449667987432]}, "properties": {"Navn": "Glåmos", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="373">
@@ -7144,11 +7144,11 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 575, "geometry": {"type": "Point", "coordinates": [14.391868637993875, 67.28642923016486]}, "properties": {"OBJECTID": 575, "Banekortnavn": "NORB", "Navn": "Bodø", "Sporkilometer": 728.75, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1961", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{81D64A74-9811-4564-90F0-EAB14D16CC97}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.391868637993875, 67.28642923016486]}, "properties": {"Navn": "Bodø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>447</v>
+        <v>174</v>
       </c>
     </row>
     <row r="374">
@@ -7162,11 +7162,11 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 579, "geometry": {"type": "Point", "coordinates": [10.406900214855286, 61.263638699382994]}, "properties": {"OBJECTID": 579, "Banekortnavn": "DOVB", "Navn": "Øyer", "Sporkilometer": 203.21, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{977250CB-D31D-48E9-A25E-32509A0354BC}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.406900214855286, 61.263638699382994]}, "properties": {"Navn": "Øyer", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="375">
@@ -7180,11 +7180,11 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 580, "geometry": {"type": "Point", "coordinates": [10.756204175830321, 59.9102987811676]}, "properties": {"OBJECTID": 580, "Banekortnavn": "HVDB", "Navn": "Oslo S", "Sporkilometer": 0.27, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{E883A8FB-DE87-40A2-8643-53EA4C45D922}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.756204175830321, 59.9102987811676]}, "properties": {"Navn": "Oslo S", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>442</v>
+        <v>175</v>
       </c>
     </row>
     <row r="376">
@@ -7198,11 +7198,11 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 583, "geometry": {"type": "Point", "coordinates": [12.242105952239863, 64.2067754557036]}, "properties": {"OBJECTID": 583, "Banekortnavn": "NORB", "Navn": "Jørstad", "Sporkilometer": 173.57, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "30.10.1926", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{25E4CAF5-0ECF-4B04-ADB7-B1F4D93002F5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.242105952239863, 64.2067754557036]}, "properties": {"Navn": "Jørstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="377">
@@ -7216,11 +7216,11 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 584, "geometry": {"type": "Point", "coordinates": [8.234189011117877, 58.52273664845836]}, "properties": {"OBJECTID": 584, "Banekortnavn": "SORB", "Navn": "Fidjetun", "Sporkilometer": 313.69, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "22.06.1938", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{424FA93A-DFAE-4195-8CDA-F84B53446B39}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.234189011117877, 58.52273664845836]}, "properties": {"Navn": "Fidjetun", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="378">
@@ -7234,11 +7234,11 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 586, "geometry": {"type": "Point", "coordinates": [10.836578541665114, 59.749683125418514]}, "properties": {"OBJECTID": 586, "Banekortnavn": "OBVL", "Navn": "Langhus", "Sporkilometer": 20.82, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "28.05.1989", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{F0CCAEE2-BBA4-4458-89EA-173C0693155D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.836578541665114, 59.749683125418514]}, "properties": {"Navn": "Langhus", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>461</v>
+        <v>178</v>
       </c>
     </row>
     <row r="379">
@@ -7252,11 +7252,11 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 587, "geometry": {"type": "Point", "coordinates": [10.408773879973438, 63.413787970395816]}, "properties": {"OBJECTID": 587, "Banekortnavn": "STLB", "Navn": "Lerkendal", "Sporkilometer": 550.37, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1988", "GyldigTil": None, "Banenavn": "Stavne-Leangenbanen", "GlobalID": "{489251E2-DD62-412D-9BF4-EB9B22C5C2C3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.408773879973438, 63.413787970395816]}, "properties": {"Navn": "Lerkendal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>458</v>
+        <v>180</v>
       </c>
     </row>
     <row r="380">
@@ -7270,11 +7270,11 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 588, "geometry": {"type": "Point", "coordinates": [10.804560394321994, 60.0090159655378]}, "properties": {"OBJECTID": 588, "Banekortnavn": "GJKB", "Navn": "Sandermosen", "Sporkilometer": 15.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.01.1909", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{87F4D826-1E44-4E1F-ACFB-9F6ED1DC9431}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.804560394321994, 60.0090159655378]}, "properties": {"Navn": "Sandermosen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>449</v>
+        <v>180</v>
       </c>
     </row>
     <row r="381">
@@ -7288,11 +7288,11 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 589, "geometry": {"type": "Point", "coordinates": [7.011658034036633, 60.72528643602854]}, "properties": {"OBJECTID": 589, "Banekortnavn": "BRGB", "Navn": "Upsete", "Sporkilometer": 342.15, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{5B6620AE-1F02-416E-9303-FEB37A67A4F3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.011658034036633, 60.72528643602854]}, "properties": {"Navn": "Upsete", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="382">
@@ -7306,11 +7306,11 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 590, "geometry": {"type": "Point", "coordinates": [7.113853876253927, 60.85087396278737]}, "properties": {"OBJECTID": 590, "Banekortnavn": "FLMB", "Navn": "Lunden", "Sporkilometer": 354.4, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1942", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{B1E230F3-5535-4608-8CFD-8A1A41020F3F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.113853876253927, 60.85087396278737]}, "properties": {"Navn": "Lunden", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>442</v>
+        <v>175</v>
       </c>
     </row>
     <row r="383">
@@ -7324,11 +7324,11 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 591, "geometry": {"type": "Point", "coordinates": [5.649435828063231, 58.73475147963072]}, "properties": {"OBJECTID": 591, "Banekortnavn": "SORB", "Navn": "Bryne", "Sporkilometer": 569.3, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0E948555-5955-459C-9E6D-150E3A2A0DFF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.649435828063231, 58.73475147963072]}, "properties": {"Navn": "Bryne", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="384">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 592, "geometry": {"type": "Point", "coordinates": [10.204196560843513, 59.586044018229195]}, "properties": {"OBJECTID": 592, "Banekortnavn": "VESB", "Navn": "Sande", "Sporkilometer": 72.86, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.10.2001", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{311EFD43-480B-4FD1-BB7E-45731B72CBBE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.204196560843513, 59.586044018229195]}, "properties": {"Navn": "Sande", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="385">
@@ -7360,11 +7360,11 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 593, "geometry": {"type": "Point", "coordinates": [9.334064919034928, 59.49237145431123]}, "properties": {"OBJECTID": 593, "Banekortnavn": "SORB", "Navn": "Hjuksebø", "Sporkilometer": 136.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "13.12.1917", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{4C2A8006-D8ED-405C-A91D-066F8DED1C31}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.334064919034928, 59.49237145431123]}, "properties": {"Navn": "Hjuksebø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="386">
@@ -7378,11 +7378,11 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 594, "geometry": {"type": "Point", "coordinates": [11.324170201356461, 61.25117024688229]}, "properties": {"OBJECTID": 594, "Banekortnavn": "ROSB", "Navn": "Steinvik", "Sporkilometer": 203.8, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "14.12.1875", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{0F32F7CB-D0F0-4352-8411-1B075CE2E195}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.324170201356461, 61.25117024688229]}, "properties": {"Navn": "Steinvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>446</v>
+        <v>178</v>
       </c>
     </row>
     <row r="387">
@@ -7396,11 +7396,11 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 595, "geometry": {"type": "Point", "coordinates": [12.11463300967888, 60.11095862211712]}, "properties": {"OBJECTID": 595, "Banekortnavn": "KVGB", "Navn": "Åbogen", "Sporkilometer": 112.46, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.11.1865", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{86299592-C5F4-4910-9CDA-88B72296A32B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.11463300967888, 60.11095862211712]}, "properties": {"Navn": "Åbogen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>450</v>
+        <v>175</v>
       </c>
     </row>
     <row r="388">
@@ -7414,11 +7414,11 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 598, "geometry": {"type": "Point", "coordinates": [10.725624079226716, 59.515542677455834]}, "properties": {"OBJECTID": 598, "Banekortnavn": "OBVL", "Navn": "Sonsveien", "Sporkilometer": 48.874, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.09.1996", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{87178DD6-D309-4065-A3A7-2CB436F9F161}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.725624079226716, 59.515542677455834]}, "properties": {"Navn": "Sonsveien", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="389">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 599, "geometry": {"type": "Point", "coordinates": [10.846731981512772, 60.1062251931681]}, "properties": {"OBJECTID": 599, "Banekortnavn": "GJKB", "Navn": "Varingskollen", "Sporkilometer": 30.35, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1932", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{735A8B52-13AB-4657-AF4B-4A8277232EF7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.846731981512772, 60.1062251931681]}, "properties": {"Navn": "Varingskollen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>451</v>
+        <v>182</v>
       </c>
     </row>
     <row r="390">
@@ -7450,11 +7450,11 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 601, "geometry": {"type": "Point", "coordinates": [11.15896571612355, 60.12304590111656]}, "properties": {"OBJECTID": 601, "Banekortnavn": "GARB", "Navn": "Langeland", "Sporkilometer": 42.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "31.03.1998", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{9EA26D2F-60B1-41EF-B2DE-CDEE5ABB3A8D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.15896571612355, 60.12304590111656]}, "properties": {"Navn": "Langeland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="391">
@@ -7468,11 +7468,11 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 602, "geometry": {"type": "Point", "coordinates": [5.7400466640022, 58.85470520284184]}, "properties": {"OBJECTID": 602, "Banekortnavn": "SORB", "Navn": "Sandnes", "Sporkilometer": 584.35, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1992", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{425139B1-E81D-4970-A214-93E9614E1A4F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.7400466640022, 58.85470520284184]}, "properties": {"Navn": "Sandnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
     <row r="392">
@@ -7486,11 +7486,11 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 603, "geometry": {"type": "Point", "coordinates": [10.349474200380778, 59.44415497708751]}, "properties": {"OBJECTID": 603, "Banekortnavn": "VESB", "Navn": "Nykirke", "Sporkilometer": 90.8175, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.06.2002", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{310DDC76-A0E1-4DDF-8E4E-46B691730EED}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.349474200380778, 59.44415497708751]}, "properties": {"Navn": "Nykirke", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="393">
@@ -7504,11 +7504,11 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 609, "geometry": {"type": "Point", "coordinates": [10.29040782246463, 59.76348953437591]}, "properties": {"OBJECTID": 609, "Banekortnavn": "DRMB", "Navn": "Lier", "Sporkilometer": 46.84, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.06.1973", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{361AE2B5-67F2-4CF6-B7A5-48D9EBD189BD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.29040782246463, 59.76348953437591]}, "properties": {"Navn": "Lier", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>443</v>
+        <v>173</v>
       </c>
     </row>
     <row r="394">
@@ -7522,11 +7522,11 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 610, "geometry": {"type": "Point", "coordinates": [11.14093083581689, 59.922908164039754]}, "properties": {"OBJECTID": 610, "Banekortnavn": "KVGB", "Navn": "Nerdrum", "Sporkilometer": 27.58, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.01.1932", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{1EFBCB4A-CD69-4C36-93EF-823F43D373AB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.14093083581689, 59.922908164039754]}, "properties": {"Navn": "Nerdrum", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>451</v>
+        <v>177</v>
       </c>
     </row>
     <row r="395">
@@ -7540,11 +7540,11 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 613, "geometry": {"type": "Point", "coordinates": [15.399342059871655, 67.26418884476493]}, "properties": {"OBJECTID": 613, "Banekortnavn": "NORB", "Navn": "Fauske", "Sporkilometer": 674.23, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1958", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{7FC38746-E443-4F94-A43E-DCF4AA035FB2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.399342059871655, 67.26418884476493]}, "properties": {"Navn": "Fauske", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="396">
@@ -7558,11 +7558,11 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 614, "geometry": {"type": "Point", "coordinates": [7.367143782750428, 58.31891699521606]}, "properties": {"OBJECTID": 614, "Banekortnavn": "SORB", "Navn": "Audnedal", "Sporkilometer": 419.34, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.12.1943", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{6336C49E-5B14-4E16-92ED-5466EFBD138E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.367143782750428, 58.31891699521606]}, "properties": {"Navn": "Audnedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="397">
@@ -7576,11 +7576,11 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 615, "geometry": {"type": "Point", "coordinates": [10.524610478993694, 59.89267688099866]}, "properties": {"OBJECTID": 615, "Banekortnavn": "ASRB", "Navn": "Sandvika", "Sporkilometer": 14.14, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Askerbanen", "GlobalID": "{88CE1DD8-0DB8-4349-9776-658AB2BE3814}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.524610478993694, 59.89267688099866]}, "properties": {"Navn": "Sandvika", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>446</v>
+        <v>178</v>
       </c>
     </row>
     <row r="398">
@@ -7594,11 +7594,11 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 617, "geometry": {"type": "Point", "coordinates": [10.793476110184542, 63.411690418341756]}, "properties": {"OBJECTID": 617, "Banekortnavn": "NORB", "Navn": "Hommelvik", "Sporkilometer": 23.14, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{342B21A7-4B03-465F-9A7B-20524A1FC173}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.793476110184542, 63.411690418341756]}, "properties": {"Navn": "Hommelvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
     </row>
     <row r="399">
@@ -7612,11 +7612,11 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 619, "geometry": {"type": "Point", "coordinates": [10.461269392891559, 61.1142506314236]}, "properties": {"OBJECTID": 619, "Banekortnavn": "DOVB", "Navn": "Lillehammer", "Sporkilometer": 184.18, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{20C2AFE9-6963-442E-BC3E-DB57817887A0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.461269392891559, 61.1142506314236]}, "properties": {"Navn": "Lillehammer", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>449</v>
+        <v>180</v>
       </c>
     </row>
     <row r="400">
@@ -7630,11 +7630,11 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 622, "geometry": {"type": "Point", "coordinates": [5.624570755767763, 60.42907582661784]}, "properties": {"OBJECTID": 622, "Banekortnavn": "BRGB", "Navn": "Trengereid", "Sporkilometer": 452.41, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{00EBC0A6-325F-4165-94BA-F69D51E54402}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.624570755767763, 60.42907582661784]}, "properties": {"Navn": "Trengereid", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>450</v>
+        <v>179</v>
       </c>
     </row>
     <row r="401">
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 625, "geometry": {"type": "Point", "coordinates": [8.72628914810239, 58.69115149894741]}, "properties": {"OBJECTID": 625, "Banekortnavn": "SORB", "Navn": "Selåsvatn", "Sporkilometer": 272.63, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "10.11.1935", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B874EE64-C4D9-4EB3-B3EB-30BC68174E40}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.72628914810239, 58.69115149894741]}, "properties": {"Navn": "Selåsvatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="402">
@@ -7666,11 +7666,11 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 626, "geometry": {"type": "Point", "coordinates": [11.848391993373928, 63.39216189987483]}, "properties": {"OBJECTID": 626, "Banekortnavn": "MERB", "Navn": "Kopperå", "Sporkilometer": 88.3, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.04.1899", "GyldigTil": None, "Banenavn": "Meråkerbanen", "GlobalID": "{15447683-4150-48FE-A69E-CAFCE8DF5034}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.848391993373928, 63.39216189987483]}, "properties": {"Navn": "Kopperå", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="403">
@@ -7684,11 +7684,11 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 627, "geometry": {"type": "Point", "coordinates": [10.800626465583072, 59.785971284369495]}, "properties": {"OBJECTID": 627, "Banekortnavn": "OBVL", "Navn": "Myrvoll", "Sporkilometer": 15.78, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "27.06.1988", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{3DB32DE3-0AA3-42F9-B709-058445A11F8F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.800626465583072, 59.785971284369495]}, "properties": {"Navn": "Myrvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>461</v>
+        <v>178</v>
       </c>
     </row>
     <row r="404">
@@ -7702,11 +7702,11 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 628, "geometry": {"type": "Point", "coordinates": [10.431197611764894, 59.78682415818912]}, "properties": {"OBJECTID": 628, "Banekortnavn": "SPIB", "Navn": "Heggedal", "Sporkilometer": 29.34, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.03.1874", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{27636B13-3A70-4FDE-94EF-383CD767DCA4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.431197611764894, 59.78682415818912]}, "properties": {"Navn": "Heggedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>451</v>
+        <v>178</v>
       </c>
     </row>
     <row r="405">
@@ -7720,11 +7720,11 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 629, "geometry": {"type": "Point", "coordinates": [10.937886964828703, 60.88022544935364]}, "properties": {"OBJECTID": 629, "Banekortnavn": "DOVB", "Navn": "Brumunddal", "Sporkilometer": 139.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{9F0DF628-7CC1-4899-9E4C-4EBB264A7D34}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.937886964828703, 60.88022544935364]}, "properties": {"Navn": "Brumunddal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>448</v>
+        <v>180</v>
       </c>
     </row>
     <row r="406">
@@ -7738,11 +7738,11 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 630, "geometry": {"type": "Point", "coordinates": [7.692007036502331, 60.55144614726443]}, "properties": {"OBJECTID": 630, "Banekortnavn": "BRGB", "Navn": "Tunga", "Sporkilometer": 288.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "19.09.1999", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{0D84FB33-14B6-44B4-816E-8278C041B2F4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.692007036502331, 60.55144614726443]}, "properties": {"Navn": "Tunga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="407">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 632, "geometry": {"type": "Point", "coordinates": [5.687311790554748, 58.57034989246787]}, "properties": {"OBJECTID": 632, "Banekortnavn": "SORB", "Navn": "Vigrestad", "Sporkilometer": 549.75, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{BD7D8E36-C0BC-44A4-9D35-9A69167D53A5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.687311790554748, 58.57034989246787]}, "properties": {"Navn": "Vigrestad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="408">
@@ -7774,11 +7774,11 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 634, "geometry": {"type": "Point", "coordinates": [9.651341807529995, 59.67211801346773]}, "properties": {"OBJECTID": 634, "Banekortnavn": "SORB", "Navn": "Kongsberg", "Sporkilometer": 99.37, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.09.1917", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{8B787C27-309C-40A2-ACF8-5ED2B206A7D2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.651341807529995, 59.67211801346773]}, "properties": {"Navn": "Kongsberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="409">
@@ -7792,11 +7792,11 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 636, "geometry": {"type": "Point", "coordinates": [11.642346295971043, 60.209046329230716]}, "properties": {"OBJECTID": 636, "Banekortnavn": "KVGB", "Navn": "Disenå", "Sporkilometer": 73.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.10.1865", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{9855E76D-5402-4F68-89BD-9CA09E0967BE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.642346295971043, 60.209046329230716]}, "properties": {"Navn": "Disenå", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>451</v>
+        <v>177</v>
       </c>
     </row>
     <row r="410">
@@ -7810,11 +7810,11 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 639, "geometry": {"type": "Point", "coordinates": [10.678501801489652, 59.92245282252259]}, "properties": {"OBJECTID": 639, "Banekortnavn": "DRMB", "Navn": "Skøyen", "Sporkilometer": 4.38, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{5D0F3739-FCF6-43BC-92A0-8727FBF46789}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.678501801489652, 59.92245282252259]}, "properties": {"Navn": "Skøyen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="411">
@@ -7828,11 +7828,11 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 641, "geometry": {"type": "Point", "coordinates": [9.426010066722565, 62.17616693525397]}, "properties": {"OBJECTID": 641, "Banekortnavn": "DOVB", "Navn": "Vålåsjø", "Sporkilometer": 372.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.2013", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{3CD3DA83-3CCA-4140-A0B5-4273E93547CA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.426010066722565, 62.17616693525397]}, "properties": {"Navn": "Vålåsjø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="412">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 642, "geometry": {"type": "Point", "coordinates": [8.716107100473192, 60.659672706182604]}, "properties": {"OBJECTID": 642, "Banekortnavn": "BRGB", "Navn": "Torpo", "Sporkilometer": 217.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{DB520F9E-AA0C-40CA-B0B9-C2FFEA4BB3F9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.716107100473192, 60.659672706182604]}, "properties": {"Navn": "Torpo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="413">
@@ -7864,11 +7864,11 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 643, "geometry": {"type": "Point", "coordinates": [11.139917718718808, 60.112063683704136]}, "properties": {"OBJECTID": 643, "Banekortnavn": "HVDB", "Navn": "Asper", "Sporkilometer": 40.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "09.11.1984", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{6B6B27BB-4E79-48C3-BA80-146677C8A20E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.139917718718808, 60.112063683704136]}, "properties": {"Navn": "Asper", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>443</v>
+        <v>176</v>
       </c>
     </row>
     <row r="414">
@@ -7882,11 +7882,11 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 644, "geometry": {"type": "Point", "coordinates": [10.245179784686798, 60.23149972272097]}, "properties": {"OBJECTID": 644, "Banekortnavn": "RANB", "Navn": "Hensmoen", "Sporkilometer": 133.77, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{DC83B55C-6FF5-43F9-A6C1-4B600CC2986D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.245179784686798, 60.23149972272097]}, "properties": {"Navn": "Hensmoen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
     </row>
     <row r="415">
@@ -7900,11 +7900,11 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 645, "geometry": {"type": "Point", "coordinates": [11.099715287258837, 61.423272081081585]}, "properties": {"OBJECTID": 645, "Banekortnavn": "ROSB", "Navn": "Evenstad", "Sporkilometer": 227.68, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.01.1934", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{4F8E15AC-BF53-4C86-880B-AD3679C7139E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.099715287258837, 61.423272081081585]}, "properties": {"Navn": "Evenstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>448</v>
+        <v>179</v>
       </c>
     </row>
     <row r="416">
@@ -7918,11 +7918,11 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 646, "geometry": {"type": "Point", "coordinates": [13.831954715932413, 66.14974887011715]}, "properties": {"OBJECTID": 646, "Banekortnavn": "NORB", "Navn": "Bjerka", "Sporkilometer": 468.68, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.02.1942", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{E1D7BEC3-9299-40E4-8371-7E7CEF0A7A33}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.831954715932413, 66.14974887011715]}, "properties": {"Navn": "Bjerka", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="417">
@@ -7936,11 +7936,11 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 648, "geometry": {"type": "Point", "coordinates": [8.76964167499653, 58.46503532775029]}, "properties": {"OBJECTID": 648, "Banekortnavn": "ADLB", "Navn": "Arendal", "Sporkilometer": 317.62, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.11.1908", "GyldigTil": None, "Banenavn": "Arendalsbanen", "GlobalID": "{2E8ABE98-6238-4C2D-A8D6-AA6E08F55489}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.76964167499653, 58.46503532775029]}, "properties": {"Navn": "Arendal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="418">
@@ -7954,11 +7954,11 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 650, "geometry": {"type": "Point", "coordinates": [9.60371230543634, 59.21900758531038]}, "properties": {"OBJECTID": 650, "Banekortnavn": "BRAB", "Navn": "Skien", "Sporkilometer": 180.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "13.12.1917", "GyldigTil": None, "Banenavn": "Bratsbergbanen", "GlobalID": "{E7FDF005-8B0B-455A-85CD-D0D88F152FD5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.60371230543634, 59.21900758531038]}, "properties": {"Navn": "Skien", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>445</v>
+        <v>173</v>
       </c>
     </row>
     <row r="419">
@@ -7972,11 +7972,11 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 651, "geometry": {"type": "Point", "coordinates": [10.483601528681143, 59.87498441040973]}, "properties": {"OBJECTID": 651, "Banekortnavn": "DRMB", "Navn": "Billingstad", "Sporkilometer": 17.62, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.03.1919", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{D34020B1-185D-4126-9C8D-71423D7BA013}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.483601528681143, 59.87498441040973]}, "properties": {"Navn": "Billingstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>451</v>
+        <v>181</v>
       </c>
     </row>
     <row r="420">
@@ -7990,11 +7990,11 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 653, "geometry": {"type": "Point", "coordinates": [9.882799225077791, 62.65294505488523]}, "properties": {"OBJECTID": 653, "Banekortnavn": "DOVB", "Navn": "Fagerhaug", "Sporkilometer": 441.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{4309EF72-E04C-4F16-961B-CA32B2AEB8B4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.882799225077791, 62.65294505488523]}, "properties": {"Navn": "Fagerhaug", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="421">
@@ -8008,11 +8008,11 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 654, "geometry": {"type": "Point", "coordinates": [11.202910819156903, 60.24913304779827]}, "properties": {"OBJECTID": 654, "Banekortnavn": "HVDB", "Navn": "Dal", "Sporkilometer": 57.2, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{2F4B5206-C4A5-4F3D-8BA9-EB7DAD9A3C51}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.202910819156903, 60.24913304779827]}, "properties": {"Navn": "Dal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>440</v>
+        <v>173</v>
       </c>
     </row>
     <row r="422">
@@ -8026,11 +8026,11 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 655, "geometry": {"type": "Point", "coordinates": [7.83353166336256, 62.44748620658602]}, "properties": {"OBJECTID": 655, "Banekortnavn": "RAUB", "Navn": "Marstein", "Sporkilometer": 439.16, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "30.11.1924", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{40B9067A-CE6F-42BC-A3DE-F4B2B2914D38}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.83353166336256, 62.44748620658602]}, "properties": {"Navn": "Marstein", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="423">
@@ -8044,11 +8044,11 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 657, "geometry": {"type": "Point", "coordinates": [15.23882130952016, 66.49368029325665]}, "properties": {"OBJECTID": 657, "Banekortnavn": "NORB", "Navn": "Bolna", "Sporkilometer": 571.09, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "10.12.1947", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{FD7945BD-57DA-4C38-BFBF-002424EDCC3E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.23882130952016, 66.49368029325665]}, "properties": {"Navn": "Bolna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>447</v>
+        <v>174</v>
       </c>
     </row>
     <row r="424">
@@ -8062,11 +8062,11 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 659, "geometry": {"type": "Point", "coordinates": [10.637839675211742, 59.91348019991002]}, "properties": {"OBJECTID": 659, "Banekortnavn": "ASRB", "Navn": "Lysaker", "Sporkilometer": 7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.1872", "GyldigTil": None, "Banenavn": "Askerbanen", "GlobalID": "{220D5B79-F18A-467E-8A4F-481B4BE57044}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.637839675211742, 59.91348019991002]}, "properties": {"Navn": "Lysaker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>441</v>
+        <v>177</v>
       </c>
     </row>
     <row r="425">
@@ -8080,11 +8080,11 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 660, "geometry": {"type": "Point", "coordinates": [10.48035357870331, 63.436618131343415]}, "properties": {"OBJECTID": 660, "Banekortnavn": "NORB", "Navn": "Rotvoll", "Sporkilometer": 4.31, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1909", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{9A921984-A8E8-4533-A689-98D1DE2B8665}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.48035357870331, 63.436618131343415]}, "properties": {"Navn": "Rotvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="426">
@@ -8098,11 +8098,11 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 661, "geometry": {"type": "Point", "coordinates": [11.383912783432532, 59.12027884918815]}, "properties": {"OBJECTID": 661, "Banekortnavn": "OBVL", "Navn": "Halden", "Sporkilometer": 136.64, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{86CA2603-06CE-4D60-9125-20BBAA72CE38}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.383912783432532, 59.12027884918815]}, "properties": {"Navn": "Halden", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
     </row>
     <row r="427">
@@ -8116,11 +8116,11 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 663, "geometry": {"type": "Point", "coordinates": [10.597403128931898, 60.63046411079262]}, "properties": {"OBJECTID": 663, "Banekortnavn": "GJKB", "Navn": "Eina", "Sporkilometer": 100.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.12.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{04B4906F-A926-4A1E-8D05-F20C749E71CD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.597403128931898, 60.63046411079262]}, "properties": {"Navn": "Eina", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="428">
@@ -8134,11 +8134,11 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 665, "geometry": {"type": "Point", "coordinates": [5.733126923728044, 60.5488930095206]}, "properties": {"OBJECTID": 665, "Banekortnavn": "BRGB", "Navn": "Stanghelle", "Sporkilometer": 432.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{15A1B66F-EA20-4236-B6EC-9DC737803BBA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.733126923728044, 60.5488930095206]}, "properties": {"Navn": "Stanghelle", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="429">
@@ -8152,11 +8152,11 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 668, "geometry": {"type": "Point", "coordinates": [10.802856276406466, 59.84600458761561]}, "properties": {"OBJECTID": 668, "Banekortnavn": "OBVL", "Navn": "Hauketo", "Sporkilometer": 8.811, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.02.1925", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{2B36FDA2-DBCA-4EED-8A63-048FFE73AE79}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.802856276406466, 59.84600458761561]}, "properties": {"Navn": "Hauketo", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="430">
@@ -8170,11 +8170,11 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 669, "geometry": {"type": "Point", "coordinates": [9.156060497636872, 58.971305386596526]}, "properties": {"OBJECTID": 669, "Banekortnavn": "SORB", "Navn": "Neslandsvatn", "Sporkilometer": 220.76, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.12.1927", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{89851A78-6909-46EB-AC32-54AF226EAC1A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.156060497636872, 58.971305386596526]}, "properties": {"Navn": "Neslandsvatn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>454</v>
+        <v>182</v>
       </c>
     </row>
     <row r="431">
@@ -8188,11 +8188,11 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 670, "geometry": {"type": "Point", "coordinates": [11.103420602826198, 63.46107387365613]}, "properties": {"OBJECTID": 670, "Banekortnavn": "MERB", "Navn": "Hegra", "Sporkilometer": 42.2, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Meråkerbanen", "GlobalID": "{F8B9CA67-208E-4D98-ACBC-CEB5897659BE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.103420602826198, 63.46107387365613]}, "properties": {"Navn": "Hegra", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="432">
@@ -8206,11 +8206,11 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 671, "geometry": {"type": "Point", "coordinates": [11.79325078745878, 60.72312567645012]}, "properties": {"OBJECTID": 671, "Banekortnavn": "SOLB", "Navn": "Braskereidfoss", "Sporkilometer": 170.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "04.12.1910", "GyldigTil": None, "Banenavn": "Solørbanen", "GlobalID": "{6CCFBADF-925E-4B87-8446-2B91CB138262}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.79325078745878, 60.72312567645012]}, "properties": {"Navn": "Braskereidfoss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>452</v>
+        <v>183</v>
       </c>
     </row>
     <row r="433">
@@ -8224,11 +8224,11 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 672, "geometry": {"type": "Point", "coordinates": [11.213142192126972, 60.686764556605176]}, "properties": {"OBJECTID": 672, "Banekortnavn": "DOVB", "Navn": "Sørli", "Sporkilometer": 110.79, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "05.01.1993", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{DA2B3204-6C8F-4FFB-8A6A-ABBF72C41127}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.213142192126972, 60.686764556605176]}, "properties": {"Navn": "Sørli", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="434">
@@ -8242,11 +8242,11 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 674, "geometry": {"type": "Point", "coordinates": [6.002380516771369, 58.46135098162259]}, "properties": {"OBJECTID": 674, "Banekortnavn": "SORB", "Navn": "Egersund", "Sporkilometer": 525.56, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1944", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{F1E0F180-6036-4535-809B-267FE99771C0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.002380516771369, 58.46135098162259]}, "properties": {"Navn": "Egersund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="435">
@@ -8260,11 +8260,11 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 675, "geometry": {"type": "Point", "coordinates": [9.910770437853067, 59.76708022634055]}, "properties": {"OBJECTID": 675, "Banekortnavn": "SORB", "Navn": "Hokksund", "Sporkilometer": 70.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{5AD4EF35-57DA-49E3-AD46-28B81086BB39}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.910770437853067, 59.76708022634055]}, "properties": {"Navn": "Hokksund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="436">
@@ -8278,11 +8278,11 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 677, "geometry": {"type": "Point", "coordinates": [10.56120760586527, 62.976361669744975]}, "properties": {"OBJECTID": 677, "Banekortnavn": "ROSB", "Navn": "Kotsøy", "Sporkilometer": 491.34, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.03.1890", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{5B748AA5-ADD1-4CC3-9975-0A0B42BF0411}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.56120760586527, 62.976361669744975]}, "properties": {"Navn": "Kotsøy", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="437">
@@ -8296,11 +8296,11 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 679, "geometry": {"type": "Point", "coordinates": [10.373087610432671, 63.38950702343238]}, "properties": {"OBJECTID": 679, "Banekortnavn": "DOVB", "Navn": "Selsbakk", "Sporkilometer": 546.44, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "03.09.1919", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{8597D75A-B23E-406B-AE47-78A9A387B74E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.373087610432671, 63.38950702343238]}, "properties": {"Navn": "Selsbakk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="438">
@@ -8314,11 +8314,11 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 680, "geometry": {"type": "Point", "coordinates": [11.329834335312713, 59.47294862038548]}, "properties": {"OBJECTID": 680, "Banekortnavn": "OBOL", "Navn": "Heia", "Sporkilometer": 49.14, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.07.1896", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{52B938B8-FC81-4962-9451-24AB3B4F7D59}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.329834335312713, 59.47294862038548]}, "properties": {"Navn": "Heia", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>456</v>
+        <v>174</v>
       </c>
     </row>
     <row r="439">
@@ -8332,11 +8332,11 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 681, "geometry": {"type": "Point", "coordinates": [9.43814608463507, 61.835362775285965]}, "properties": {"OBJECTID": 681, "Banekortnavn": "DOVB", "Navn": "Sel", "Sporkilometer": 307.73, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "18.04.1994", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{87CDD21A-F431-4B7C-A219-DA048135BB3A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.43814608463507, 61.835362775285965]}, "properties": {"Navn": "Sel", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>441</v>
+        <v>172</v>
       </c>
     </row>
     <row r="440">
@@ -8350,11 +8350,11 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 682, "geometry": {"type": "Point", "coordinates": [11.016077062419992, 59.95619179608359]}, "properties": {"OBJECTID": 682, "Banekortnavn": "HVDB", "Navn": "Sagdalen", "Sporkilometer": 19.122, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "12.07.1938", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{62D83052-F9EF-438D-82CC-AD6E5B3058A2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.016077062419992, 59.95619179608359]}, "properties": {"Navn": "Sagdalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="441">
@@ -8368,11 +8368,11 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 683, "geometry": {"type": "Point", "coordinates": [9.913438084032975, 59.8913385341858]}, "properties": {"OBJECTID": 683, "Banekortnavn": "RANB", "Navn": "Åmot", "Sporkilometer": 85.37, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Randsfjordbanen", "GlobalID": "{C0382E62-2E12-4BBD-AC30-D1436357D3F0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.913438084032975, 59.8913385341858]}, "properties": {"Navn": "Åmot", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>445</v>
+        <v>172</v>
       </c>
     </row>
     <row r="442">
@@ -8386,11 +8386,11 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 685, "geometry": {"type": "Point", "coordinates": [13.38264745587882, 65.53795622301601]}, "properties": {"OBJECTID": 685, "Banekortnavn": "NORB", "Navn": "Trofors", "Sporkilometer": 367.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1940", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{EFF0DF16-3E4E-436A-BD6F-C43F7B07D022}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [13.38264745587882, 65.53795622301601]}, "properties": {"Navn": "Trofors", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="443">
@@ -8404,11 +8404,11 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 686, "geometry": {"type": "Point", "coordinates": [7.948293728326047, 58.15496001848943]}, "properties": {"OBJECTID": 686, "Banekortnavn": "SORB", "Navn": "Suldal", "Sporkilometer": 367.99, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": None, "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{05FDFAD3-71E6-4AFA-84F4-AED271047BCD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.948293728326047, 58.15496001848943]}, "properties": {"Navn": "Suldal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>439</v>
+        <v>175</v>
       </c>
     </row>
     <row r="444">
@@ -8422,11 +8422,11 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 687, "geometry": {"type": "Point", "coordinates": [9.113222384811108, 60.576833190073735]}, "properties": {"OBJECTID": 687, "Banekortnavn": "BRGB", "Navn": "Nesbyen", "Sporkilometer": 185.42, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{46D0828D-A36D-46EF-8485-AD71E4FEA918}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.113222384811108, 60.576833190073735]}, "properties": {"Navn": "Nesbyen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="445">
@@ -8440,11 +8440,11 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 689, "geometry": {"type": "Point", "coordinates": [10.906633348944668, 59.26928769811868]}, "properties": {"OBJECTID": 689, "Banekortnavn": "OBVL", "Navn": "Onsøy", "Sporkilometer": 86.51, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.02.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{E5DD3E75-D8B6-4696-94D9-9281A522535F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.906633348944668, 59.26928769811868]}, "properties": {"Navn": "Onsøy", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>458</v>
+        <v>175</v>
       </c>
     </row>
     <row r="446">
@@ -8458,11 +8458,11 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 690, "geometry": {"type": "Point", "coordinates": [10.713439222412301, 60.23347330273312]}, "properties": {"OBJECTID": 690, "Banekortnavn": "GJKB", "Navn": "Bjørgeseter", "Sporkilometer": 49.11, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{F05C4B07-952B-42AB-AAB9-0D47F5CE2BDD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.713439222412301, 60.23347330273312]}, "properties": {"Navn": "Bjørgeseter", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>450</v>
+        <v>181</v>
       </c>
     </row>
     <row r="447">
@@ -8476,11 +8476,11 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 691, "geometry": {"type": "Point", "coordinates": [6.463764604245741, 60.63945877321322]}, "properties": {"OBJECTID": 691, "Banekortnavn": "BRGB", "Navn": "Gjerdåker", "Sporkilometer": 381.56, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "18.10.1941", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{CA360DF6-9E2A-419E-96AD-645260C79825}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.463764604245741, 60.63945877321322]}, "properties": {"Navn": "Gjerdåker", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="448">
@@ -8494,11 +8494,11 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 693, "geometry": {"type": "Point", "coordinates": [11.113010710044303, 63.66630866449379]}, "properties": {"OBJECTID": 693, "Banekortnavn": "NORB", "Navn": "Ronglan", "Sporkilometer": 69.65, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{AF3A94AB-2DFF-4114-9FE8-B28677F2B431}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.113010710044303, 63.66630866449379]}, "properties": {"Navn": "Ronglan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="449">
@@ -8512,11 +8512,11 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 694, "geometry": {"type": "Point", "coordinates": [10.150967640183891, 59.06142324301464]}, "properties": {"OBJECTID": 694, "Banekortnavn": "VESB", "Navn": "Lauve", "Sporkilometer": 149.8, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "07.12.1881", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{61CA2AF1-D342-4274-BADD-EB5EF9377B28}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.150967640183891, 59.06142324301464]}, "properties": {"Navn": "Lauve", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>446</v>
+        <v>175</v>
       </c>
     </row>
     <row r="450">
@@ -8530,11 +8530,11 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 695, "geometry": {"type": "Point", "coordinates": [9.10086984503016, 59.298882258653755]}, "properties": {"OBJECTID": 695, "Banekortnavn": "SORB", "Navn": "Lunde", "Sporkilometer": 177.48, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.12.1925", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B4AB9DF4-50E4-48F9-89B2-39C268896F13}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.10086984503016, 59.298882258653755]}, "properties": {"Navn": "Lunde", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
     <row r="451">
@@ -8548,11 +8548,11 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 699, "geometry": {"type": "Point", "coordinates": [11.090339388898999, 59.276417846780774]}, "properties": {"OBJECTID": 699, "Banekortnavn": "OBVL", "Navn": "Sandesund", "Sporkilometer": 106.64, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{D59F9CA1-1F26-42F0-9E6B-BCA3B14A48A5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.090339388898999, 59.276417846780774]}, "properties": {"Navn": "Sandesund", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="452">
@@ -8566,11 +8566,11 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 700, "geometry": {"type": "Point", "coordinates": [10.569588320848823, 60.35916728858055]}, "properties": {"OBJECTID": 700, "Banekortnavn": "GJKB", "Navn": "Gran", "Sporkilometer": 67.66, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{B85A3558-CAB5-4D01-BBFB-EB91DE7D01E8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.569588320848823, 60.35916728858055]}, "properties": {"Navn": "Gran", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="453">
@@ -8584,11 +8584,11 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 702, "geometry": {"type": "Point", "coordinates": [6.109483472710116, 60.64697590259366]}, "properties": {"OBJECTID": 702, "Banekortnavn": "BRGB", "Navn": "Evanger", "Sporkilometer": 403.66, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{3F9B1604-1EBE-441C-86E2-EE43313FD13C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.109483472710116, 60.64697590259366]}, "properties": {"Navn": "Evanger", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="454">
@@ -8602,11 +8602,11 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 704, "geometry": {"type": "Point", "coordinates": [11.318944277309672, 63.75287232546643]}, "properties": {"OBJECTID": 704, "Banekortnavn": "NORB", "Navn": "Røstad", "Sporkilometer": 85.18, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.10.2001", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{D6A0D371-FE2F-44FB-863D-94DC127579B2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.318944277309672, 63.75287232546643]}, "properties": {"Navn": "Røstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>448</v>
+        <v>176</v>
       </c>
     </row>
     <row r="455">
@@ -8620,11 +8620,11 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 706, "geometry": {"type": "Point", "coordinates": [9.064581679992413, 59.09620880104633]}, "properties": {"OBJECTID": 706, "Banekortnavn": "SORB", "Navn": "Drangedal", "Sporkilometer": 204.96, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.12.1927", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{7AE066C0-B421-43D8-9841-2AD529DEC9E3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.064581679992413, 59.09620880104633]}, "properties": {"Navn": "Drangedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="456">
@@ -8638,11 +8638,11 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 711, "geometry": {"type": "Point", "coordinates": [6.551398057932413, 58.45819064065831]}, "properties": {"OBJECTID": 711, "Banekortnavn": "SORB", "Navn": "Moi", "Sporkilometer": 477.24, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.11.1904", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0EECAB60-06B3-4BAD-BE1B-CB97EA0647EE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.551398057932413, 58.45819064065831]}, "properties": {"Navn": "Moi", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>444</v>
+        <v>172</v>
       </c>
     </row>
     <row r="457">
@@ -8656,11 +8656,11 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 712, "geometry": {"type": "Point", "coordinates": [11.342532021161336, 60.81883368420544]}, "properties": {"OBJECTID": 712, "Banekortnavn": "ROSB", "Navn": "Løten", "Sporkilometer": 143.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.06.1862", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{06F63E80-D132-4F21-8CFB-5214F6E6D4A2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.342532021161336, 60.81883368420544]}, "properties": {"Navn": "Løten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="458">
@@ -8674,11 +8674,11 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 713, "geometry": {"type": "Point", "coordinates": [10.97897650680086, 62.96064494129576]}, "properties": {"OBJECTID": 713, "Banekortnavn": "ROSB", "Navn": "Langlete", "Sporkilometer": 463.77, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.01.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{34A657C4-6DC2-4FAE-9C6C-B2B316232A53}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.97897650680086, 62.96064494129576]}, "properties": {"Navn": "Langlete", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="459">
@@ -8692,11 +8692,11 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 716, "geometry": {"type": "Point", "coordinates": [11.32383701859173, 59.55431457760193]}, "properties": {"OBJECTID": 716, "Banekortnavn": "OBOL", "Navn": "Mysen", "Sporkilometer": 39.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{32C4A5C6-52BE-49FD-B8DE-D049FCF3E0FE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.32383701859173, 59.55431457760193]}, "properties": {"Navn": "Mysen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>456</v>
+        <v>174</v>
       </c>
     </row>
     <row r="460">
@@ -8710,11 +8710,11 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 718, "geometry": {"type": "Point", "coordinates": [10.926847672602399, 59.94817258589064]}, "properties": {"OBJECTID": 718, "Banekortnavn": "HVDB", "Navn": "Høybråten", "Sporkilometer": 13.04, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.10.1921", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{36E3448B-63D9-4D59-9646-36E704A7A446}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.926847672602399, 59.94817258589064]}, "properties": {"Navn": "Høybråten", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>447</v>
+        <v>179</v>
       </c>
     </row>
     <row r="461">
@@ -8728,11 +8728,11 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 719, "geometry": {"type": "Point", "coordinates": [17.965132162866713, 68.39744464410028]}, "properties": {"OBJECTID": 719, "Banekortnavn": "OFTB_KAT", "Navn": "Katterat", "Sporkilometer": 29.73, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1902", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{039B46FD-3DFB-4740-8594-C8F374C88AA0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [17.965132162866713, 68.39744464410028]}, "properties": {"Navn": "Katterat", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="462">
@@ -8746,11 +8746,11 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 723, "geometry": {"type": "Point", "coordinates": [8.97140178533407, 60.69905648213863]}, "properties": {"OBJECTID": 723, "Banekortnavn": "BRGB", "Navn": "Gol", "Sporkilometer": 202.38, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{94A08DC2-86B2-446B-B353-DB1164512A47}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.97140178533407, 60.69905648213863]}, "properties": {"Navn": "Gol", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>442</v>
+        <v>171</v>
       </c>
     </row>
     <row r="463">
@@ -8764,11 +8764,11 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 725, "geometry": {"type": "Point", "coordinates": [10.657005224018182, 59.432033185423556]}, "properties": {"OBJECTID": 725, "Banekortnavn": "OBVL", "Navn": "Moss", "Sporkilometer": 60.16, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{7350F588-F6B6-44CA-9D57-874210071A95}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.657005224018182, 59.432033185423556]}, "properties": {"Navn": "Moss", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>458</v>
+        <v>175</v>
       </c>
     </row>
     <row r="464">
@@ -8782,11 +8782,11 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 726, "geometry": {"type": "Point", "coordinates": [10.771055104973927, 60.14647216896153]}, "properties": {"OBJECTID": 726, "Banekortnavn": "GJKB", "Navn": "Jensrud", "Sporkilometer": 36.85, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "30.06.2013", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{4AEC5BCD-4213-4091-A692-997CD6F3D7CD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.771055104973927, 60.14647216896153]}, "properties": {"Navn": "Jensrud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="465">
@@ -8800,11 +8800,11 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 727, "geometry": {"type": "Point", "coordinates": [6.679239110627932, 60.68151894172298]}, "properties": {"OBJECTID": 727, "Banekortnavn": "BRGB", "Navn": "Skiple", "Sporkilometer": 366.3, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1931", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{0CC8E4F7-1039-41DF-B5DC-86ECC8F03358}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.679239110627932, 60.68151894172298]}, "properties": {"Navn": "Skiple", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>445</v>
+        <v>175</v>
       </c>
     </row>
     <row r="466">
@@ -8818,11 +8818,11 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 728, "geometry": {"type": "Point", "coordinates": [11.169744820332166, 60.287980789134984]}, "properties": {"OBJECTID": 728, "Banekortnavn": "GARB", "Navn": "Eidsvoll Verk", "Sporkilometer": 63.3, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "22.08.1999", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{F8423BBB-419C-478C-AE53-FB4E5355C1C6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.169744820332166, 60.287980789134984]}, "properties": {"Navn": "Eidsvoll Verk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>454</v>
+        <v>184</v>
       </c>
     </row>
     <row r="467">
@@ -8836,11 +8836,11 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 729, "geometry": {"type": "Point", "coordinates": [5.753969347937219, 58.93320537942848]}, "properties": {"OBJECTID": 729, "Banekortnavn": "SORB", "Navn": "Mariero", "Sporkilometer": 594.546, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "16.11.2009", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B515D39A-2CB5-4C87-9263-649D0065C87E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.753969347937219, 58.93320537942848]}, "properties": {"Navn": "Mariero", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="468">
@@ -8854,11 +8854,11 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 730, "geometry": {"type": "Point", "coordinates": [10.409423012284469, 59.27209865239311]}, "properties": {"OBJECTID": 730, "Banekortnavn": "VESB", "Navn": "Tønsberg", "Sporkilometer": 113.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1915", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{67F5FF7C-752B-4C61-ADEA-7EEA99D23F66}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.409423012284469, 59.27209865239311]}, "properties": {"Navn": "Tønsberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="469">
@@ -8872,11 +8872,11 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 731, "geometry": {"type": "Point", "coordinates": [9.069471045264125, 59.40918303971559]}, "properties": {"OBJECTID": 731, "Banekortnavn": "SORB", "Navn": "Bø", "Sporkilometer": 163.44, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "01.12.1924", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{127F89C1-097E-4F52-881C-598BAD69D044}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.069471045264125, 59.40918303971559]}, "properties": {"Navn": "Bø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>443</v>
+        <v>171</v>
       </c>
     </row>
     <row r="470">
@@ -8890,11 +8890,11 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 735, "geometry": {"type": "Point", "coordinates": [10.20344749487833, 59.740683760392756]}, "properties": {"OBJECTID": 735, "Banekortnavn": "DRMB", "Navn": "Sundland", "Sporkilometer": 52.86, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "01.01.1925", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{BC5474FD-B672-497D-AD42-B7B7B520C43F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.20344749487833, 59.740683760392756]}, "properties": {"Navn": "Sundland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>448</v>
+        <v>178</v>
       </c>
     </row>
     <row r="471">
@@ -8908,11 +8908,11 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 737, "geometry": {"type": "Point", "coordinates": [11.19691970480981, 59.958629534127745]}, "properties": {"OBJECTID": 737, "Banekortnavn": "KVGB", "Navn": "Roven", "Sporkilometer": 33.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.06.2011", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{6A366E20-C0A5-4A67-9A6F-FF9B508A1C04}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.19691970480981, 59.958629534127745]}, "properties": {"Navn": "Roven", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D471" t="n">
-        <v>449</v>
+        <v>175</v>
       </c>
     </row>
     <row r="472">
@@ -8926,11 +8926,11 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 740, "geometry": {"type": "Point", "coordinates": [14.746598231280338, 67.30122219159092]}, "properties": {"OBJECTID": 740, "Banekortnavn": "NORB", "Navn": "Tverlandet", "Sporkilometer": 709.912, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.08.2015", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{1EF1A8F7-BB77-4F9F-9FF1-40939FA7743E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.746598231280338, 67.30122219159092]}, "properties": {"Navn": "Tverlandet", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>454</v>
+        <v>180</v>
       </c>
     </row>
     <row r="473">
@@ -8944,11 +8944,11 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 741, "geometry": {"type": "Point", "coordinates": [9.248289698970535, 60.47617624428955]}, "properties": {"OBJECTID": 741, "Banekortnavn": "BRGB", "Navn": "Bergheim", "Sporkilometer": 169.97, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.05.1913", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{78361B08-251B-4862-B4CE-AAEDAE1E6FEF}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.248289698970535, 60.47617624428955]}, "properties": {"Navn": "Bergheim", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="474">
@@ -8962,11 +8962,11 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 743, "geometry": {"type": "Point", "coordinates": [10.913773406981976, 63.454090446247776]}, "properties": {"OBJECTID": 743, "Banekortnavn": "NORB", "Navn": "Værnes", "Sporkilometer": 32.86, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1994", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{8D4ED979-6923-4B0F-A7D0-E8C17CC4B57B}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.913773406981976, 63.454090446247776]}, "properties": {"Navn": "Værnes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="475">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 744, "geometry": {"type": "Point", "coordinates": [11.002357649648136, 59.659976197981386]}, "properties": {"OBJECTID": 744, "Banekortnavn": "OBOL", "Navn": "Tomter", "Sporkilometer": 12.89, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{0F0BF1DE-FFC7-4608-B9E3-63F91826D8C0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.002357649648136, 59.659976197981386]}, "properties": {"Navn": "Tomter", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>459</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476">
@@ -8998,11 +8998,11 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 745, "geometry": {"type": "Point", "coordinates": [10.43873970491154, 61.22304108044566]}, "properties": {"OBJECTID": 745, "Banekortnavn": "DOVB", "Navn": "Hunderfossen", "Sporkilometer": 198.26, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "05.07.1986", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{ABD55F17-0923-45AB-A087-F11F6A283766}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.43873970491154, 61.22304108044566]}, "properties": {"Navn": "Hunderfossen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>450</v>
+        <v>181</v>
       </c>
     </row>
     <row r="477">
@@ -9016,11 +9016,11 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 749, "geometry": {"type": "Point", "coordinates": [11.352001225001398, 60.03925140577423]}, "properties": {"OBJECTID": 749, "Banekortnavn": "KVGB", "Navn": "Auli", "Sporkilometer": 46.87, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "29.09.1974", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{1FC76C04-DF85-47CA-9BFF-F279480FBAFB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.352001225001398, 60.03925140577423]}, "properties": {"Navn": "Auli", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>448</v>
+        <v>174</v>
       </c>
     </row>
     <row r="478">
@@ -9034,11 +9034,11 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 751, "geometry": {"type": "Point", "coordinates": [11.315000852037244, 62.846554315157256]}, "properties": {"OBJECTID": 751, "Banekortnavn": "ROSB", "Navn": "Ålen", "Sporkilometer": 438.03, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.03.1901", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{14A4E8CD-EBF3-41E3-AB5E-E62938CB6459}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.315000852037244, 62.846554315157256]}, "properties": {"Navn": "Ålen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="479">
@@ -9052,11 +9052,11 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 753, "geometry": {"type": "Point", "coordinates": [10.297822353277533, 63.19767358911763]}, "properties": {"OBJECTID": 753, "Banekortnavn": "DOVB", "Navn": "Ler", "Sporkilometer": 520.49, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{1C2F23C0-DB4B-4D35-8EEB-BB11DC9A1E04}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.297822353277533, 63.19767358911763]}, "properties": {"Navn": "Ler", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="480">
@@ -9070,11 +9070,11 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 754, "geometry": {"type": "Point", "coordinates": [10.901521407933165, 63.54747982712884]}, "properties": {"OBJECTID": 754, "Banekortnavn": "NORB", "Navn": "Langstein", "Sporkilometer": 50.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "29.10.1902", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{5BFD2045-64D8-4994-A9DE-69B85E01310E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.901521407933165, 63.54747982712884]}, "properties": {"Navn": "Langstein", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>451</v>
+        <v>179</v>
       </c>
     </row>
     <row r="481">
@@ -9088,11 +9088,11 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 756, "geometry": {"type": "Point", "coordinates": [10.185178316603233, 61.4490159407773]}, "properties": {"OBJECTID": 756, "Banekortnavn": "DOVB", "Navn": "Fåvang", "Sporkilometer": 232.19, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{BA877E17-0570-4B2A-B062-E0FC315EA6B2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.185178316603233, 61.4490159407773]}, "properties": {"Navn": "Fåvang", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="482">
@@ -9106,11 +9106,11 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 757, "geometry": {"type": "Point", "coordinates": [10.835490136626166, 59.93253501962322]}, "properties": {"OBJECTID": 757, "Banekortnavn": "HVDB", "Navn": "Alna", "Sporkilometer": 6.87, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.06.1971", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{186B4D2B-FCD8-47D5-80C1-08D09D77DFE0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.835490136626166, 59.93253501962322]}, "properties": {"Navn": "Alna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>441</v>
+        <v>174</v>
       </c>
     </row>
     <row r="483">
@@ -9124,11 +9124,11 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 762, "geometry": {"type": "Point", "coordinates": [9.473428664555712, 60.432148783921456]}, "properties": {"OBJECTID": 762, "Banekortnavn": "BRGB", "Navn": "Flå", "Sporkilometer": 152, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{EF44040C-E4F8-4418-8887-117CEA849C40}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.473428664555712, 60.432148783921456]}, "properties": {"Navn": "Flå", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>441</v>
+        <v>173</v>
       </c>
     </row>
     <row r="484">
@@ -9142,11 +9142,11 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 764, "geometry": {"type": "Point", "coordinates": [10.748357672250906, 59.60371249765791]}, "properties": {"OBJECTID": 764, "Banekortnavn": "OBVL", "Navn": "Vestby", "Sporkilometer": 38.65, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{6EFD9F78-34F9-4529-A9E8-3BD2A7900932}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.748357672250906, 59.60371249765791]}, "properties": {"Navn": "Vestby", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>459</v>
+        <v>176</v>
       </c>
     </row>
     <row r="485">
@@ -9160,11 +9160,11 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 765, "geometry": {"type": "Point", "coordinates": [10.864814037794835, 60.0581321116108]}, "properties": {"OBJECTID": 765, "Banekortnavn": "GJKB", "Navn": "Nittedal", "Sporkilometer": 24.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "20.12.1900", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{687A78E0-A235-49F9-8F6A-82680154FDB2}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.864814037794835, 60.0581321116108]}, "properties": {"Navn": "Nittedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486">
@@ -9178,11 +9178,11 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 766, "geometry": {"type": "Point", "coordinates": [6.9010598905915925, 60.70872880928884]}, "properties": {"OBJECTID": 766, "Banekortnavn": "BRGB", "Navn": "Ljosanbotn", "Sporkilometer": 349.87, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "09.05.1948", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{A07B9373-42BF-4F64-AB83-3E49BB52AA2D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.9010598905915925, 60.70872880928884]}, "properties": {"Navn": "Ljosanbotn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>451</v>
+        <v>180</v>
       </c>
     </row>
     <row r="487">
@@ -9196,11 +9196,11 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 767, "geometry": {"type": "Point", "coordinates": [11.045790921736641, 59.953594718964446]}, "properties": {"OBJECTID": 767, "Banekortnavn": "GARB", "Navn": "Lillestrøm", "Sporkilometer": 20.95, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.09.1854", "GyldigTil": None, "Banenavn": "Gardermobanen", "GlobalID": "{F16A331A-9430-46E0-B785-5AE6CF06599F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.045790921736641, 59.953594718964446]}, "properties": {"Navn": "Lillestrøm", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>452</v>
+        <v>181</v>
       </c>
     </row>
     <row r="488">
@@ -9214,11 +9214,11 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 768, "geometry": {"type": "Point", "coordinates": [5.716955048785387, 58.823236911380086]}, "properties": {"OBJECTID": 768, "Banekortnavn": "SORB", "Navn": "Ganddal", "Sporkilometer": 580.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{AF85F39C-AF3F-429A-A50F-76C1263C1CE8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.716955048785387, 58.823236911380086]}, "properties": {"Navn": "Ganddal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>449</v>
+        <v>177</v>
       </c>
     </row>
     <row r="489">
@@ -9232,11 +9232,11 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 769, "geometry": {"type": "Point", "coordinates": [10.312159713695678, 59.488596675010946]}, "properties": {"OBJECTID": 769, "Banekortnavn": "VESB", "Navn": "Holmestrand", "Sporkilometer": 85.418, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "28.11.2016", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{E31AE284-A365-4AA2-820E-7B88AFEA9CA5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.312159713695678, 59.488596675010946]}, "properties": {"Navn": "Holmestrand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>454</v>
+        <v>182</v>
       </c>
     </row>
     <row r="490">
@@ -9250,11 +9250,11 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 771, "geometry": {"type": "Point", "coordinates": [12.201844393115566, 59.95138844487149]}, "properties": {"OBJECTID": 771, "Banekortnavn": "KVGB", "Navn": "Magnor", "Sporkilometer": 133.08, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "04.11.1865", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{BC49EF99-F00E-4C7D-BD44-06FAA6F10E16}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [12.201844393115566, 59.95138844487149]}, "properties": {"Navn": "Magnor", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>451</v>
+        <v>176</v>
       </c>
     </row>
     <row r="491">
@@ -9268,11 +9268,11 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 775, "geometry": {"type": "Point", "coordinates": [10.456135904984084, 59.843791811916844]}, "properties": {"OBJECTID": 775, "Banekortnavn": "DRMB", "Navn": "Høn", "Sporkilometer": 22.17, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.12.1930", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{E0705D2F-AB0D-444E-9DF6-B03BF7CB1E5E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.456135904984084, 59.843791811916844]}, "properties": {"Navn": "Høn", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="492">
@@ -9286,11 +9286,11 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 776, "geometry": {"type": "Point", "coordinates": [10.105656661654248, 62.88917842908572]}, "properties": {"OBJECTID": 776, "Banekortnavn": "DOVB", "Navn": "Garli", "Sporkilometer": 477.31, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{7D531DDC-5F7C-4001-B91F-E61BB2CA94BB}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.105656661654248, 62.88917842908572]}, "properties": {"Navn": "Garli", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="493">
@@ -9304,11 +9304,11 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 777, "geometry": {"type": "Point", "coordinates": [11.248355665879238, 60.32989675880499]}, "properties": {"OBJECTID": 777, "Banekortnavn": "HVDB", "Navn": "Eidsvoll", "Sporkilometer": 67.86, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "27.09.1998", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{CDF9F7CF-838D-4D15-AE5A-8CB814A4A19E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.248355665879238, 60.32989675880499]}, "properties": {"Navn": "Eidsvoll", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>446</v>
+        <v>178</v>
       </c>
     </row>
     <row r="494">
@@ -9322,11 +9322,11 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 779, "geometry": {"type": "Point", "coordinates": [10.658817605081978, 62.22075789043511]}, "properties": {"OBJECTID": 779, "Banekortnavn": "ROSB", "Navn": "Auma", "Sporkilometer": 337.35, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "G", "GyldigFra": "01.07.1878", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{A9A90584-5FC9-445A-B046-28539803BAA4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.658817605081978, 62.22075789043511]}, "properties": {"Navn": "Auma", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="495">
@@ -9340,11 +9340,11 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 780, "geometry": {"type": "Point", "coordinates": [15.312959377761066, 66.98133336016473]}, "properties": {"OBJECTID": 780, "Banekortnavn": "NORB", "Navn": "Røkland", "Sporkilometer": 633.88, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.12.1955", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{F2699E42-4D2E-4835-917D-DC2213320A89}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [15.312959377761066, 66.98133336016473]}, "properties": {"Navn": "Røkland", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="496">
@@ -9358,11 +9358,11 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 782, "geometry": {"type": "Point", "coordinates": [9.605797032961181, 60.383135605070635]}, "properties": {"OBJECTID": 782, "Banekortnavn": "BRGB", "Navn": "Gulsvik", "Sporkilometer": 140.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "21.12.1907", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{E87B3A9B-B99D-473C-9B86-E947198F4B47}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.605797032961181, 60.383135605070635]}, "properties": {"Navn": "Gulsvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="497">
@@ -9376,11 +9376,11 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 783, "geometry": {"type": "Point", "coordinates": [10.730302128206677, 63.43175982546692]}, "properties": {"OBJECTID": 783, "Banekortnavn": "NORB", "Navn": "Midtsandan", "Sporkilometer": 18.55, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.06.1898", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{9F41E0A7-40FD-40BD-A81D-7CC65CD6E048}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.730302128206677, 63.43175982546692]}, "properties": {"Navn": "Midtsandan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
     </row>
     <row r="498">
@@ -9394,11 +9394,11 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 785, "geometry": {"type": "Point", "coordinates": [10.55992116090362, 61.007613836316686]}, "properties": {"OBJECTID": 785, "Banekortnavn": "DOVB", "Navn": "Brøttum", "Sporkilometer": 168.47, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "15.11.1894", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{FEC5E6A9-B55A-44D9-BABC-4C68C702B60F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.55992116090362, 61.007613836316686]}, "properties": {"Navn": "Brøttum", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499">
@@ -9412,11 +9412,11 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 790, "geometry": {"type": "Point", "coordinates": [11.428788857067046, 63.91888156300817]}, "properties": {"OBJECTID": 790, "Banekortnavn": "NORB", "Navn": "Sparbu", "Sporkilometer": 112.93, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1905", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{693A602B-A2EF-4DB0-8986-0518EE566714}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.428788857067046, 63.91888156300817]}, "properties": {"Navn": "Sparbu", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="500">
@@ -9430,11 +9430,11 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 791, "geometry": {"type": "Point", "coordinates": [9.020866906070637, 58.78837347734842]}, "properties": {"OBJECTID": 791, "Banekortnavn": "SORB", "Navn": "Skorstøl", "Sporkilometer": 248.9, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "10.11.1935", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{EF6185A0-1EC1-41D5-B241-192395266482}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.020866906070637, 58.78837347734842]}, "properties": {"Navn": "Skorstøl", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>448</v>
+        <v>177</v>
       </c>
     </row>
     <row r="501">
@@ -9448,11 +9448,11 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 792, "geometry": {"type": "Point", "coordinates": [11.617969245962271, 63.44375274781161]}, "properties": {"OBJECTID": 792, "Banekortnavn": "MERB", "Navn": "Gudå", "Sporkilometer": 72.02, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "17.10.1881", "GyldigTil": None, "Banenavn": "Meråkerbanen", "GlobalID": "{1EACD3D0-676A-441E-99D4-44CAD59F019A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.617969245962271, 63.44375274781161]}, "properties": {"Navn": "Gudå", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>444</v>
+        <v>174</v>
       </c>
     </row>
     <row r="502">
@@ -9466,11 +9466,11 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 793, "geometry": {"type": "Point", "coordinates": [10.804319584783196, 59.8016790922524]}, "properties": {"OBJECTID": 793, "Banekortnavn": "OBVL", "Navn": "Solbråtan", "Sporkilometer": 13.992, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1939", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{A822D18E-646E-4986-A0F9-F052B38292D3}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.804319584783196, 59.8016790922524]}, "properties": {"Navn": "Solbråtan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>462</v>
+        <v>178</v>
       </c>
     </row>
     <row r="503">
@@ -9484,11 +9484,11 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 794, "geometry": {"type": "Point", "coordinates": [10.4329129635055, 59.82062824961597]}, "properties": {"OBJECTID": 794, "Banekortnavn": "SPIB", "Navn": "Bondivann", "Sporkilometer": 25.43, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "07.07.1952", "GyldigTil": None, "Banenavn": "Spikkestadbanen", "GlobalID": "{33922FCE-8050-4C35-A4CD-0FA897DB5B74}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.4329129635055, 59.82062824961597]}, "properties": {"Navn": "Bondivann", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="504">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 795, "geometry": {"type": "Point", "coordinates": [11.07702095516146, 60.79139691461184]}, "properties": {"OBJECTID": 795, "Banekortnavn": "DOVB", "Navn": "Hamar", "Sporkilometer": 126.26, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.06.1882", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{04DB1DCD-1194-4AA2-A826-C60794C9E7C5}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.07702095516146, 60.79139691461184]}, "properties": {"Navn": "Hamar", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>443</v>
+        <v>174</v>
       </c>
     </row>
     <row r="505">
@@ -9520,11 +9520,11 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 796, "geometry": {"type": "Point", "coordinates": [7.138568132360481, 60.74407159531161]}, "properties": {"OBJECTID": 796, "Banekortnavn": "FLMB", "Navn": "Reinunga", "Sporkilometer": 338, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.01.1942", "GyldigTil": None, "Banenavn": "Flåmsbana", "GlobalID": "{34EF693F-61BC-4AEC-8981-90F9687E7736}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.138568132360481, 60.74407159531161]}, "properties": {"Navn": "Reinunga", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>442</v>
+        <v>177</v>
       </c>
     </row>
     <row r="506">
@@ -9538,11 +9538,11 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 797, "geometry": {"type": "Point", "coordinates": [5.803277542370785, 58.519698680005085]}, "properties": {"OBJECTID": 797, "Banekortnavn": "SORB", "Navn": "Ogna", "Sporkilometer": 540.84, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{B1B10FE1-90A3-4B47-8D66-D2A6A1E5945A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.803277542370785, 58.519698680005085]}, "properties": {"Navn": "Ogna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
     <row r="507">
@@ -9556,11 +9556,11 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 801, "geometry": {"type": "Point", "coordinates": [9.257170867052322, 59.55704708955216]}, "properties": {"OBJECTID": 801, "Banekortnavn": "TINB_NTD", "Navn": "Notodden kollektivterminal", "Sporkilometer": 146.25, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "30.08.2004", "GyldigTil": None, "Banenavn": "Tinnosbanen", "GlobalID": "{ECA7CE81-F662-42A2-929A-48C96E9750E9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.257170867052322, 59.55704708955216]}, "properties": {"Navn": "Notodden kollektivterminal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>469</v>
+        <v>195</v>
       </c>
     </row>
     <row r="508">
@@ -9574,11 +9574,11 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 802, "geometry": {"type": "Point", "coordinates": [11.733839754830653, 64.12011876533623]}, "properties": {"OBJECTID": 802, "Banekortnavn": "NORB", "Navn": "Stod", "Sporkilometer": 144.5, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "30.10.1926", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{089AD515-10FB-4D85-830B-1CCBB2EB2160}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.733839754830653, 64.12011876533623]}, "properties": {"Navn": "Stod", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
     <row r="509">
@@ -9592,11 +9592,11 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 805, "geometry": {"type": "Point", "coordinates": [10.837419506843142, 59.75626687843042]}, "properties": {"OBJECTID": 805, "Banekortnavn": "OBVL", "Navn": "Vevelstad", "Sporkilometer": 20.073, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "02.06.1985", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{07C26701-E932-4555-9A61-7E9E447A9196}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.837419506843142, 59.75626687843042]}, "properties": {"Navn": "Vevelstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>463</v>
+        <v>179</v>
       </c>
     </row>
     <row r="510">
@@ -9610,11 +9610,11 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 807, "geometry": {"type": "Point", "coordinates": [7.252311118838984, 60.66801173514526]}, "properties": {"OBJECTID": 807, "Banekortnavn": "BRGB", "Navn": "Hallingskeid", "Sporkilometer": 322.8, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "10.06.1908", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{880C2552-85F3-4030-8953-2AE0ED4815D7}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [7.252311118838984, 60.66801173514526]}, "properties": {"Navn": "Hallingskeid", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>451</v>
+        <v>181</v>
       </c>
     </row>
     <row r="511">
@@ -9628,11 +9628,11 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 809, "geometry": {"type": "Point", "coordinates": [5.640261662529382, 58.66548879864698]}, "properties": {"OBJECTID": 809, "Banekortnavn": "SORB", "Navn": "Nærbø", "Sporkilometer": 561.16, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.03.1878", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{8620019F-37B7-4C4B-ABAC-E90B1DB6A86E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.640261662529382, 58.66548879864698]}, "properties": {"Navn": "Nærbø", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
     <row r="512">
@@ -9646,11 +9646,11 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 811, "geometry": {"type": "Point", "coordinates": [9.500967453148784, 59.63013433952929]}, "properties": {"OBJECTID": 811, "Banekortnavn": "SORB", "Navn": "Meheia", "Sporkilometer": 113.22, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.02.1920", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{AB7844B6-4F01-4648-B8A9-834C53E7CDC4}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.500967453148784, 59.63013433952929]}, "properties": {"Navn": "Meheia", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="513">
@@ -9664,11 +9664,11 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 813, "geometry": {"type": "Point", "coordinates": [11.88106109873164, 60.19721943061114]}, "properties": {"OBJECTID": 813, "Banekortnavn": "KVGB", "Navn": "Galterud", "Sporkilometer": 92.37, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.05.1864", "GyldigTil": None, "Banenavn": "Kongsvingerbanen", "GlobalID": "{94E86C3C-1CBD-42BF-B0F0-F9DA55613B21}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.88106109873164, 60.19721943061114]}, "properties": {"Navn": "Galterud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>451</v>
+        <v>177</v>
       </c>
     </row>
     <row r="514">
@@ -9682,11 +9682,11 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 815, "geometry": {"type": "Point", "coordinates": [9.485111821605479, 59.30039047603001]}, "properties": {"OBJECTID": 815, "Banekortnavn": "BRAB", "Navn": "Nisterud", "Sporkilometer": 168.42, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.01.1919", "GyldigTil": None, "Banenavn": "Bratsbergbanen", "GlobalID": "{268FFE62-BF8A-4CBE-B06E-CC79CDC4E278}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.485111821605479, 59.30039047603001]}, "properties": {"Navn": "Nisterud", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="515">
@@ -9700,11 +9700,11 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 816, "geometry": {"type": "Point", "coordinates": [10.555019697856967, 59.897324665626705]}, "properties": {"OBJECTID": 816, "Banekortnavn": "DRMB", "Navn": "Blommenholm", "Sporkilometer": 12.23, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.05.1910", "GyldigTil": None, "Banenavn": "Drammenbanen", "GlobalID": "{581E3F94-DBE4-4A56-BD70-3FEBB3034D6A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.555019697856967, 59.897324665626705]}, "properties": {"Navn": "Blommenholm", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>452</v>
+        <v>182</v>
       </c>
     </row>
     <row r="516">
@@ -9718,11 +9718,11 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 818, "geometry": {"type": "Point", "coordinates": [9.625158106611305, 62.424409689109616]}, "properties": {"OBJECTID": 818, "Banekortnavn": "DOVB", "Navn": "Drivstua", "Sporkilometer": 407.12, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "20.09.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{A6B217F0-8694-4E43-8DBC-56AFD8B27EF8}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.625158106611305, 62.424409689109616]}, "properties": {"Navn": "Drivstua", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>447</v>
+        <v>178</v>
       </c>
     </row>
     <row r="517">
@@ -9736,11 +9736,11 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 819, "geometry": {"type": "Point", "coordinates": [11.195037446245353, 60.185331340700124]}, "properties": {"OBJECTID": 819, "Banekortnavn": "HVDB", "Navn": "Hauerseter", "Sporkilometer": 49.62, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "01.10.1894", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{8F1745D5-CCDB-4C2A-8B89-3FC037DC087E}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.195037446245353, 60.185331340700124]}, "properties": {"Navn": "Hauerseter", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>449</v>
+        <v>181</v>
       </c>
     </row>
     <row r="518">
@@ -9754,11 +9754,11 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 820, "geometry": {"type": "Point", "coordinates": [8.201509418533021, 62.25835394385295]}, "properties": {"OBJECTID": 820, "Banekortnavn": "RAUB", "Navn": "Bjorli", "Sporkilometer": 399.84, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "19.11.1921", "GyldigTil": None, "Banenavn": "Raumabanen", "GlobalID": "{2EAA8D86-5855-4853-B311-D6F20AEC0939}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.201509418533021, 62.25835394385295]}, "properties": {"Navn": "Bjorli", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="519">
@@ -9772,11 +9772,11 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 821, "geometry": {"type": "Point", "coordinates": [10.834817545787839, 61.732516414224804]}, "properties": {"OBJECTID": 821, "Banekortnavn": "ROSB", "Navn": "Atna", "Sporkilometer": 271.78, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "B", "GyldigFra": "17.10.1877", "GyldigTil": None, "Banenavn": "Rørosbanen", "GlobalID": "{BFEC7A2E-A9DE-47F0-A185-40B7A34EA6A9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.834817545787839, 61.732516414224804]}, "properties": {"Navn": "Atna", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="520">
@@ -9790,11 +9790,11 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 822, "geometry": {"type": "Point", "coordinates": [14.69862360253075, 66.39898425540288]}, "properties": {"OBJECTID": 822, "Banekortnavn": "NORB", "Navn": "Ørtfjell", "Sporkilometer": 534.63, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "29.05.1983", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{B302E0C1-F677-4DA5-8001-DF3B7CE376D0}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [14.69862360253075, 66.39898425540288]}, "properties": {"Navn": "Ørtfjell", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>450</v>
+        <v>177</v>
       </c>
     </row>
     <row r="521">
@@ -9808,11 +9808,11 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 824, "geometry": {"type": "Point", "coordinates": [9.683358389532081, 60.30299053592365]}, "properties": {"OBJECTID": 824, "Banekortnavn": "BRGB", "Navn": "Trolldalen", "Sporkilometer": 129.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "11.04.1986", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{AB4A9478-BF1D-4BC7-9A28-BF08AD19FFDA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.683358389532081, 60.30299053592365]}, "properties": {"Navn": "Trolldalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D521" t="n">
-        <v>449</v>
+        <v>179</v>
       </c>
     </row>
     <row r="522">
@@ -9826,11 +9826,11 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 826, "geometry": {"type": "Point", "coordinates": [11.239559686962922, 59.158666056763884]}, "properties": {"OBJECTID": 826, "Banekortnavn": "OBVL", "Navn": "Ingedal", "Sporkilometer": 126.1, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "09.12.1891", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{7B14CF91-64C1-4CB5-8566-32541EDDB070}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.239559686962922, 59.158666056763884]}, "properties": {"Navn": "Ingedal", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D522" t="n">
-        <v>461</v>
+        <v>178</v>
       </c>
     </row>
     <row r="523">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 827, "geometry": {"type": "Point", "coordinates": [10.500566837079583, 60.4687242570112]}, "properties": {"OBJECTID": 827, "Banekortnavn": "GJKB", "Navn": "Bleiken", "Sporkilometer": 81.23, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "23.12.1901", "GyldigTil": None, "Banenavn": "Gjøvikbanen", "GlobalID": "{F9585670-32A8-45B1-85D1-BCEB99208619}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.500566837079583, 60.4687242570112]}, "properties": {"Navn": "Bleiken", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D523" t="n">
-        <v>445</v>
+        <v>176</v>
       </c>
     </row>
     <row r="524">
@@ -9862,11 +9862,11 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 829, "geometry": {"type": "Point", "coordinates": [5.816092603216047, 60.586276954062555]}, "properties": {"OBJECTID": 829, "Banekortnavn": "BRGB", "Navn": "Dale", "Sporkilometer": 425.29, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "11.07.1883", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{5D5D246F-043C-49E1-8B9F-70D06ED522AA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.816092603216047, 60.586276954062555]}, "properties": {"Navn": "Dale", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D524" t="n">
-        <v>445</v>
+        <v>174</v>
       </c>
     </row>
     <row r="525">
@@ -9880,11 +9880,11 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 831, "geometry": {"type": "Point", "coordinates": [11.471325395642344, 63.771322986147304]}, "properties": {"OBJECTID": 831, "Banekortnavn": "NORB", "Navn": "Bergsgrav", "Sporkilometer": 93.7, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "06.12.1977", "GyldigTil": None, "Banenavn": "Nordlandsbanen", "GlobalID": "{2BB5161F-1353-47AB-B5C3-68F0785A8D7F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.471325395642344, 63.771322986147304]}, "properties": {"Navn": "Bergsgrav", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>451</v>
+        <v>180</v>
       </c>
     </row>
     <row r="526">
@@ -9898,11 +9898,11 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 832, "geometry": {"type": "Point", "coordinates": [10.78476771347253, 59.85329621560522]}, "properties": {"OBJECTID": 832, "Banekortnavn": "OBVL", "Navn": "Ljan", "Sporkilometer": 7.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.01.1879", "GyldigTil": None, "Banenavn": "Østfoldbanen vestre linje", "GlobalID": "{1FFE5215-B0E5-42C0-897A-B0F53A908A3F}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.78476771347253, 59.85329621560522]}, "properties": {"Navn": "Ljan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>455</v>
+        <v>173</v>
       </c>
     </row>
     <row r="527">
@@ -9916,11 +9916,11 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 836, "geometry": {"type": "Point", "coordinates": [11.269986926434944, 60.6159012605446]}, "properties": {"OBJECTID": 836, "Banekortnavn": "DOVB", "Navn": "Tangen", "Sporkilometer": 101.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "08.11.1880", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{CCB41645-21EA-4C23-ADB7-973B5FAE3275}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.269986926434944, 60.6159012605446]}, "properties": {"Navn": "Tangen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="528">
@@ -9934,11 +9934,11 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 838, "geometry": {"type": "Point", "coordinates": [6.3432723357129275, 58.5286870937457]}, "properties": {"OBJECTID": 838, "Banekortnavn": "SORB", "Navn": "Ualand", "Sporkilometer": 498.15, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.11.1904", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{39F4750C-5255-44CA-9499-2CC68B91BA73}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [6.3432723357129275, 58.5286870937457]}, "properties": {"Navn": "Ualand", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D528" t="n">
-        <v>447</v>
+        <v>175</v>
       </c>
     </row>
     <row r="529">
@@ -9952,11 +9952,11 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 839, "geometry": {"type": "Point", "coordinates": [8.045120280866234, 60.4964326595444]}, "properties": {"OBJECTID": 839, "Banekortnavn": "BRGB", "Navn": "Ustaoset", "Sporkilometer": 264.67, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.06.1909", "GyldigTil": None, "Banenavn": "Bergensbanen", "GlobalID": "{032AB622-2845-4106-B8D2-2506FB80D99D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [8.045120280866234, 60.4964326595444]}, "properties": {"Navn": "Ustaoset", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D529" t="n">
-        <v>447</v>
+        <v>176</v>
       </c>
     </row>
     <row r="530">
@@ -9970,11 +9970,11 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 840, "geometry": {"type": "Point", "coordinates": [10.011501929479081, 59.75101806652755]}, "properties": {"OBJECTID": 840, "Banekortnavn": "SORB", "Navn": "Mjøndalen", "Sporkilometer": 64.03, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "15.11.1866", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{E9942454-94D4-4700-B23E-C0A18DCE539C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.011501929479081, 59.75101806652755]}, "properties": {"Navn": "Mjøndalen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>450</v>
+        <v>179</v>
       </c>
     </row>
     <row r="531">
@@ -9988,11 +9988,11 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 844, "geometry": {"type": "Point", "coordinates": [10.336913269418693, 63.31658831454024]}, "properties": {"OBJECTID": 844, "Banekortnavn": "DOVB", "Navn": "Nypan", "Sporkilometer": 537.11, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "01.01.1921", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{B69A1D51-3C6D-4858-8C72-644F60C6EA6C}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.336913269418693, 63.31658831454024]}, "properties": {"Navn": "Nypan", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="532">
@@ -10006,11 +10006,11 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 845, "geometry": {"type": "Point", "coordinates": [11.303594894127583, 59.513427503355906]}, "properties": {"OBJECTID": 845, "Banekortnavn": "OBOL", "Navn": "Eidsberg", "Sporkilometer": 44.32, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "24.11.1882", "GyldigTil": None, "Banenavn": "Østfoldbanen østre linje", "GlobalID": "{759F7DCC-BE77-47B2-AEC4-39D3CF1BF3AE}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [11.303594894127583, 59.513427503355906]}, "properties": {"Navn": "Eidsberg", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D532" t="n">
-        <v>461</v>
+        <v>179</v>
       </c>
     </row>
     <row r="533">
@@ -10024,11 +10024,11 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 846, "geometry": {"type": "Point", "coordinates": [9.541729021958322, 61.68238466164242]}, "properties": {"OBJECTID": 846, "Banekortnavn": "DOVB", "Navn": "Sjoa", "Sporkilometer": 286.35, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "02.11.1896", "GyldigTil": None, "Banenavn": "Dovrebanen", "GlobalID": "{42872C30-E26D-4FF7-867F-03C2B3031FD6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.541729021958322, 61.68238466164242]}, "properties": {"Navn": "Sjoa", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D533" t="n">
-        <v>442</v>
+        <v>173</v>
       </c>
     </row>
     <row r="534">
@@ -10042,11 +10042,11 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 847, "geometry": {"type": "Point", "coordinates": [10.981828838928449, 59.94064332846252]}, "properties": {"OBJECTID": 847, "Banekortnavn": "HVDB", "Navn": "Fjellhamar", "Sporkilometer": 16.42, "Stasjonstype": "I", "Jernbanestatus": "I", "Jernbaneformål": "P", "GyldigFra": "22.06.1931", "GyldigTil": None, "Banenavn": "Hovedbanen", "GlobalID": "{D19D594A-25B6-4E3C-B637-628A9DEFF8E6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [10.981828838928449, 59.94064332846252]}, "properties": {"Navn": "Fjellhamar", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D534" t="n">
-        <v>448</v>
+        <v>180</v>
       </c>
     </row>
     <row r="535">
@@ -10060,11 +10060,11 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 850, "geometry": {"type": "Point", "coordinates": [17.543832058107903, 68.44887035373951]}, "properties": {"OBJECTID": 850, "Banekortnavn": "OFTB", "Navn": "Djupvik", "Sporkilometer": 8.58, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "13.09.2017", "GyldigTil": None, "Banenavn": "Ofotbanen", "GlobalID": "{4E1A7A9E-57B9-48D2-9405-C52BAA86B1C9}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [17.543832058107903, 68.44887035373951]}, "properties": {"Navn": "Djupvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D535" t="n">
-        <v>443</v>
+        <v>177</v>
       </c>
     </row>
     <row r="536">
@@ -10078,11 +10078,11 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 851, "geometry": {"type": "Point", "coordinates": [5.73631261996474, 58.90688910728376]}, "properties": {"OBJECTID": 851, "Banekortnavn": "SORB", "Navn": "Boganes", "Sporkilometer": 590.568, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "12.08.2017", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{03302E48-88C6-42D2-AA54-CC724B1E8D79}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.73631261996474, 58.90688910728376]}, "properties": {"Navn": "Boganes", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D536" t="n">
-        <v>448</v>
+        <v>175</v>
       </c>
     </row>
     <row r="537">
@@ -10096,11 +10096,11 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 1252, "geometry": {"type": "Point", "coordinates": [5.705291780204769, 58.7992729226776]}, "properties": {"OBJECTID": 1252, "Banekortnavn": "SORB", "Navn": "Orstad", "Sporkilometer": 577.654, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "12.07.2017", "GyldigTil": None, "Banenavn": "Sørlandsbanen", "GlobalID": "{0D6EA085-2690-41CC-B3E1-598BABD8F75D}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [5.705291780204769, 58.7992729226776]}, "properties": {"Navn": "Orstad", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D537" t="n">
-        <v>449</v>
+        <v>174</v>
       </c>
     </row>
     <row r="538">
@@ -10114,11 +10114,11 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 1651, "geometry": {"type": "Point", "coordinates": [9.971176459487252, 59.05985708452194]}, "properties": {"OBJECTID": 1651, "Banekortnavn": "VESB", "Navn": "Martineåsen", "Sporkilometer": 162.464, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.09.2018", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{85C89B5D-C6BD-4093-9280-DD99593EE3DA}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.971176459487252, 59.05985708452194]}, "properties": {"Navn": "Martineåsen", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D538" t="n">
-        <v>455</v>
+        <v>180</v>
       </c>
     </row>
     <row r="539">
@@ -10132,11 +10132,11 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 1652, "geometry": {"type": "Point", "coordinates": [9.900835621590202, 59.07039884292061]}, "properties": {"OBJECTID": 1652, "Banekortnavn": "VESB", "Navn": "Hobekk", "Sporkilometer": 166.68, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.09.2018", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{7D688353-0C32-4E47-8DBE-9AFA02C718AD}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.900835621590202, 59.07039884292061]}, "properties": {"Navn": "Hobekk", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D539" t="n">
-        <v>449</v>
+        <v>175</v>
       </c>
     </row>
     <row r="540">
@@ -10150,11 +10150,11 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 1653, "geometry": {"type": "Point", "coordinates": [9.676942873601533, 59.126980977819976]}, "properties": {"OBJECTID": 1653, "Banekortnavn": "VESB", "Navn": "Myrane", "Sporkilometer": 181.77, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.09.2018", "GyldigTil": None, "Banenavn": "Vestfoldbanen", "GlobalID": "{19D4C219-F7D0-407B-8D69-FB95435A58C6}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.676942873601533, 59.126980977819976]}, "properties": {"Navn": "Myrane", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D540" t="n">
-        <v>450</v>
+        <v>176</v>
       </c>
     </row>
     <row r="541">
@@ -10168,11 +10168,11 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>{"type": "Feature", "id": 1654, "geometry": {"type": "Point", "coordinates": [9.688286504556736, 59.07225719471918]}, "properties": {"OBJECTID": 1654, "Banekortnavn": "BREB", "Navn": "Ørvik", "Sporkilometer": 200.25, "Stasjonstype": "S", "Jernbanestatus": "I", "Jernbaneformål": "K", "GyldigFra": "24.09.2018", "GyldigTil": None, "Banenavn": "Brevikbanen", "GlobalID": "{E2E7D392-3E25-45D6-A167-FFFAF6DE369A}", "subType": "Circle", "radius": 75}}</t>
+          <t>{"type": "Feature", "geometry": {"type": "Point", "coordinates": [9.688286504556736, 59.07225719471918]}, "properties": {"Navn": "Ørvik", "subType": "Circle", "radius": 100}}</t>
         </is>
       </c>
       <c r="D541" t="n">
-        <v>446</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
